--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -433,7 +433,7 @@
         <v>推荐《牛奶可乐经济学》这本书，阐述其在经济学知识普及方面的独特价值，包括以通俗方式结合生活实例讲解经济学原理、培养经济学思维模式、体现经济学实用性等，适合多种人群阅读。</v>
       </c>
       <c r="D2" t="str">
-        <v>生活中的经济学, 经济学入门, 经济学原理, 经济学应用, 经济学思维</v>
+        <v>经济学入门, 经济学原理, 经济学应用, 经济学思维, 经济读物</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         <v>探索《世界怪史》中所记载的各地奇异历史事件，从古代文明遗迹到现代神秘现象，这本书带你领略人类社会的多彩与复杂，发现历史的独特魅力。</v>
       </c>
       <c r="D3" t="str">
-        <v>世界怪史, 人类历史, 历史书籍, 历史事件, 古代文明</v>
+        <v>人类历史, 历史书籍, 历史事件, 古代文明</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>本文为普通人推荐了一系列易于阅读且富有魅力的名著，涵盖贴近生活的现实主义名著、充满智慧的人生哲理名著以及扣人心弦的冒险名著，帮助读者找到适合自己的名著，享受阅读乐趣，收获知识与智慧。</v>
       </c>
       <c r="D4" t="str">
-        <v>名著推荐, 平民视角, 文学名著, 经典名著, 阅读指南</v>
+        <v>名著推荐, 平民视角, 文学名著, 阅读指南</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D5" t="str">
-        <v>人工智能, 台球文化, 算力服务费</v>
+        <v>台球政策, 台球文化, 算力服务费</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         <v>介绍2025年DeepSeek技术的最新进展，包括从Transformer架构到混合专家系统的革新、训练优化策略、多模态能力的发展以及在不同领域的应用。DeepSeek通过引入如混合专家系统（MoE）、多头隐式注意力（MLA）等技术显著提升了处理效率和性能，同时在金融、医疗、教育等多个垂直领域实现了高效的应用。此外，DeepSeek正探索具身智能和绿色AI技术，旨在降低算力依赖并提高模型与物理世界的交互能力，预示着AI将向更高效、精准的方向发展。</v>
       </c>
       <c r="D6" t="str">
-        <v>DeepSeek, 人工智能, 网站建设</v>
+        <v>DeepSeek, 人工智能, 多模态技术</v>
       </c>
     </row>
     <row r="7">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -433,7 +433,7 @@
         <v>推荐《牛奶可乐经济学》这本书，阐述其在经济学知识普及方面的独特价值，包括以通俗方式结合生活实例讲解经济学原理、培养经济学思维模式、体现经济学实用性等，适合多种人群阅读。</v>
       </c>
       <c r="D2" t="str">
-        <v>经济学入门, 经济学原理, 经济学应用, 经济学思维, 经济读物</v>
+        <v>经济学入门, 经济学原理, 经济学思维, 经济读物</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         <v>探索《世界怪史》中所记载的各地奇异历史事件，从古代文明遗迹到现代神秘现象，这本书带你领略人类社会的多彩与复杂，发现历史的独特魅力。</v>
       </c>
       <c r="D3" t="str">
-        <v>人类历史, 历史书籍, 历史事件, 古代文明</v>
+        <v>人类历史, 历史书籍, 历史事件, 文化探索</v>
       </c>
     </row>
     <row r="4">
@@ -461,1141 +461,1141 @@
         <v>本文为普通人推荐了一系列易于阅读且富有魅力的名著，涵盖贴近生活的现实主义名著、充满智慧的人生哲理名著以及扣人心弦的冒险名著，帮助读者找到适合自己的名著，享受阅读乐趣，收获知识与智慧。</v>
       </c>
       <c r="D4" t="str">
-        <v>名著推荐, 平民视角, 文学名著, 阅读指南</v>
+        <v>名著推荐, 文学名著, 阅读指南</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
+        <v>2025年DeepSeek技术解析：从自然语言处理到多模态模型的跨越</v>
       </c>
       <c r="B5" t="str">
         <v>人工智能</v>
       </c>
       <c r="C5" t="str">
-        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
+        <v>介绍2025年DeepSeek技术的最新进展，包括从Transformer架构到混合专家系统的革新、训练优化策略、多模态能力的发展以及在不同领域的应用。DeepSeek通过引入如混合专家系统（MoE）、多头隐式注意力（MLA）等技术显著提升了处理效率和性能，同时在金融、医疗、教育等多个垂直领域实现了高效的应用。此外，DeepSeek正探索具身智能和绿色AI技术，旨在降低算力依赖并提高模型与物理世界的交互能力，预示着AI将向更高效、精准的方向发展。</v>
       </c>
       <c r="D5" t="str">
-        <v>台球政策, 台球文化, 算力服务费</v>
+        <v>DeepSeek, 人工智能, 多模态技术</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025年DeepSeek技术解析：从自然语言处理到多模态模型的跨越</v>
+        <v>DeepSeek：重塑教育生态的智能引擎</v>
       </c>
       <c r="B6" t="str">
         <v>人工智能</v>
       </c>
       <c r="C6" t="str">
-        <v>介绍2025年DeepSeek技术的最新进展，包括从Transformer架构到混合专家系统的革新、训练优化策略、多模态能力的发展以及在不同领域的应用。DeepSeek通过引入如混合专家系统（MoE）、多头隐式注意力（MLA）等技术显著提升了处理效率和性能，同时在金融、医疗、教育等多个垂直领域实现了高效的应用。此外，DeepSeek正探索具身智能和绿色AI技术，旨在降低算力依赖并提高模型与物理世界的交互能力，预示着AI将向更高效、精准的方向发展。</v>
+        <v>介绍DeepSeek，一款正在重塑教育生态的国产大模型，通过其在个性化学习、课堂教学革新、教学管理优化等方面的强大能力，推动教育向更高效和普惠的方向发展。DeepSeek不仅降低了技术成本，使中小教育机构也能享受到智能教育的优势，还面临着如透明度和数据安全等挑战。它预示着教育从工业化模式向个性化发展的转型，旨在服务育人初心，开启更加包容和智慧的认知复兴时代。</v>
       </c>
       <c r="D6" t="str">
-        <v>DeepSeek, 人工智能, 多模态技术</v>
+        <v>DeepSeek, 个性化学习, 教学管理优化, 教育普惠, 教育科技</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DeepSeek：重塑教育生态的智能引擎</v>
+        <v>DeepSeek：重塑未来日常生活的AI革命</v>
       </c>
       <c r="B7" t="str">
         <v>人工智能</v>
       </c>
       <c r="C7" t="str">
-        <v>介绍DeepSeek，一款正在重塑教育生态的国产大模型，通过其在个性化学习、课堂教学革新、教学管理优化等方面的强大能力，推动教育向更高效和普惠的方向发展。DeepSeek不仅降低了技术成本，使中小教育机构也能享受到智能教育的优势，还面临着如透明度和数据安全等挑战。它预示着教育从工业化模式向个性化发展的转型，旨在服务育人初心，开启更加包容和智慧的认知复兴时代。</v>
+        <v>DeepSeek作为新一代生成式AI，通过其多模态交互、知识推理与场景化应用能力，正在引领效率革命，重塑教育、医疗、工作等行业，并带来社会挑战。文章探讨了DeepSeek对生产力的提升、行业变革的影响以及未来人机共生的可能性，强调需同步进化社会制度、教育体系及伦理框架以适应AI技术带来的深刻变化。</v>
       </c>
       <c r="D7" t="str">
-        <v>DeepSeek, 个性化学习, 教学管理优化, 教育普惠, 课堂教学革新</v>
+        <v>DeepSeek, 效率革命, 社会挑战, 行业重塑</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>DeepSeek：重塑未来日常生活的AI革命</v>
+        <v>DeepSeek与ChatGPT：国产AI模型的市场突围之路</v>
       </c>
       <c r="B8" t="str">
         <v>人工智能</v>
       </c>
       <c r="C8" t="str">
-        <v>DeepSeek作为新一代生成式AI，通过其多模态交互、知识推理与场景化应用能力，正在引领效率革命，重塑教育、医疗、工作等行业，并带来社会挑战。文章探讨了DeepSeek对生产力的提升、行业变革的影响以及未来人机共生的可能性，强调需同步进化社会制度、教育体系及伦理框架以适应AI技术带来的深刻变化。</v>
+        <v>探讨DeepSeek与ChatGPT在技术架构、性能差异、成本控制、应用场景及生态竞争方面的对比，展示了国产AI模型DeepSeek如何通过混合专家（MoE）架构创新、专注于垂直领域和实施成本革命策略实现市场突围。文章指出DeepSeek在中文处理能力和特定领域的高效表现，以及其开源模式对开发者的吸引力，同时也分析了ChatGPT在通用场景中的优势，预示着两者对决可能重塑AI行业的全球化与本地化竞争格局。</v>
       </c>
       <c r="D8" t="str">
-        <v>DeepSeek, 效率革命, 未来图景, 社会挑战, 行业重塑</v>
+        <v>ChatGPT, DeepSeek, 市场竞争, 成本革命</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>DeepSeek与ChatGPT：国产AI模型的市场突围之路</v>
+        <v>DeepSeek引爆AI伦理争议：2025年必须警惕的4类技术失控场景</v>
       </c>
       <c r="B9" t="str">
         <v>人工智能</v>
       </c>
       <c r="C9" t="str">
-        <v>探讨DeepSeek与ChatGPT在技术架构、性能差异、成本控制、应用场景及生态竞争方面的对比，展示了国产AI模型DeepSeek如何通过混合专家（MoE）架构创新、专注于垂直领域和实施成本革命策略实现市场突围。文章指出DeepSeek在中文处理能力和特定领域的高效表现，以及其开源模式对开发者的吸引力，同时也分析了ChatGPT在通用场景中的优势，预示着两者对决可能重塑AI行业的全球化与本地化竞争格局。</v>
+        <v>探讨DeepSeek引发的AI伦理争议，包括数据隐私、算法偏见及真实与虚构内容模糊等失控场景。文章指出技术快速发展与伦理滞后之间的矛盾，并提出通过技术透明化、提升全民数字素养和全球化治理协作来寻找创新与约束之间的平衡。面对AI推理成本低于人类思考耗电量的新时代，探讨如何准备好与机器共治，以及AI伦理在其中应扮演的角色。</v>
       </c>
       <c r="D9" t="str">
-        <v>ChatGPT, DeepSeek, 应用场景, 成本革命, 生态竞争</v>
+        <v>DeepSeek, 伦理讨论, 技术透明化, 科技伦理</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>DeepSeek引爆AI伦理争议：2025年必须警惕的4类技术失控场景</v>
+        <v>DeepSeek智能写作助手进阶指南：批量生产与违禁词规避</v>
       </c>
       <c r="B10" t="str">
         <v>人工智能</v>
       </c>
       <c r="C10" t="str">
-        <v>探讨DeepSeek引发的AI伦理争议，包括数据隐私、算法偏见及真实与虚构内容模糊等失控场景。文章指出技术快速发展与伦理滞后之间的矛盾，并提出通过技术透明化、提升全民数字素养和全球化治理协作来寻找创新与约束之间的平衡。面对AI推理成本低于人类思考耗电量的新时代，探讨如何准备好与机器共治，以及AI伦理在其中应扮演的角色。</v>
+        <v>介绍DeepSeek智能写作助手如何助力用户实现内容的批量生产与违禁词规避，提升创作效率与内容质量。文章详细讲解了模板化写作、自动化内容生成等核心技巧，以及内置和自定义违禁词库的使用方法。此外，还分享了关键词优化、语义分析等提升内容质量的策略，并通过电商、新闻媒体和教育行业的实际应用案例展示了DeepSeek的多功能性和适用性。无论是提高产品描述的质量还是确保新闻稿件的合规性，DeepSeek都是强有力的内容创作工具。</v>
       </c>
       <c r="D10" t="str">
-        <v>DeepSeek, 技术透明化, 科技伦理, 网络安全</v>
+        <v>DeepSeek, 批量生产, 智能写作助手, 违禁词规避</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>DeepSeek智能写作助手进阶指南：批量生产与违禁词规避</v>
+        <v>DeepSeek赋能中小企业：低成本实现广告文案与产品描述的智能升级</v>
       </c>
       <c r="B11" t="str">
         <v>人工智能</v>
       </c>
       <c r="C11" t="str">
-        <v>介绍DeepSeek智能写作助手如何助力用户实现内容的批量生产与违禁词规避，提升创作效率与内容质量。文章详细讲解了模板化写作、自动化内容生成等核心技巧，以及内置和自定义违禁词库的使用方法。此外，还分享了关键词优化、语义分析等提升内容质量的策略，并通过电商、新闻媒体和教育行业的实际应用案例展示了DeepSeek的多功能性和适用性。无论是提高产品描述的质量还是确保新闻稿件的合规性，DeepSeek都是强有力的内容创作工具。</v>
+        <v>探索DeepSeek如何助力中小企业以低成本实现广告文案与产品描述的智能升级。通过个性化定制、数据驱动优化及多场景适用等优势，DeepSeek为中小企业提供高效解决方案，增强品牌影响力并提升销售业绩。了解DeepSeek的实际应用案例，并学习如何快速开始使用这一强大的AI工具来促进您的业务增长。适合中小企业主寻找提高营销效果和竞争力的方法。</v>
       </c>
       <c r="D11" t="str">
-        <v>DeepSeek, 内容质量, 批量生产, 智能写作助手, 违禁词规避</v>
+        <v>DeepSeek, 中小企业, 产品描述, 智能升级</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DeepSeek赋能中小企业：低成本实现广告文案与产品描述的智能升级</v>
+        <v>SEO内容生成新范式：DeepSeek关键词策略与语义匹配实战</v>
       </c>
       <c r="B12" t="str">
         <v>人工智能</v>
       </c>
       <c r="C12" t="str">
-        <v>探索DeepSeek如何助力中小企业以低成本实现广告文案与产品描述的智能升级。通过个性化定制、数据驱动优化及多场景适用等优势，DeepSeek为中小企业提供高效解决方案，增强品牌影响力并提升销售业绩。了解DeepSeek的实际应用案例，并学习如何快速开始使用这一强大的AI工具来促进您的业务增长。适合中小企业主寻找提高营销效果和竞争力的方法。</v>
+        <v>探讨DeepSeek关键词策略与语义匹配在SEO内容生成中的应用，通过深度挖掘用户需求和长尾关键词利用来精准定位目标受众。文章介绍了语义搜索和自然语言处理技术如何提升内容的相关性和可读性，并分享了电商网站流量提升及内容平台用户粘性增强的实际案例。最后展望了数据驱动的持续优化和人工智能与SEO的深度融合，为SEO内容生成提供了新的范式。</v>
       </c>
       <c r="D12" t="str">
-        <v>DeepSeek, 中小企业, 产品描述, 广告文案, 智能升级</v>
+        <v>DeepSeek, 关键词策略, 搜索引擎优化, 语义匹配</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SEO内容生成新范式：DeepSeek关键词策略与语义匹配实战</v>
+        <v>人工智能是否会超越人类并掌控世界？</v>
       </c>
       <c r="B13" t="str">
         <v>人工智能</v>
       </c>
       <c r="C13" t="str">
-        <v>探讨DeepSeek关键词策略与语义匹配在SEO内容生成中的应用，通过深度挖掘用户需求和长尾关键词利用来精准定位目标受众。文章介绍了语义搜索和自然语言处理技术如何提升内容的相关性和可读性，并分享了电商网站流量提升及内容平台用户粘性增强的实际案例。最后展望了数据驱动的持续优化和人工智能与SEO的深度融合，为SEO内容生成提供了新的范式。</v>
+        <v>文章探讨了人工智能是否会超越人类并掌控世界的议题，分析了AI在数据处理和自我优化方面的优势，同时也强调了人类独有的情感、创造力及自我意识等特质。文章提倡未来应注重人与AI的协作，并确保技术发展符合人类的利益和价值观，以实现和谐共处的美好愿景。</v>
       </c>
       <c r="D13" t="str">
-        <v>DeepSeek, SEO, 关键词策略, 内容生成, 语义匹配</v>
+        <v>人工智能, 人机协作, 人类特质, 科技伦理</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>人工智能是否会超越人类并掌控世界？</v>
+        <v>从开发到落地：DeepSeek在2025全球开发者大会的技术前瞻</v>
       </c>
       <c r="B14" t="str">
         <v>人工智能</v>
       </c>
       <c r="C14" t="str">
-        <v>文章探讨了人工智能是否会超越人类并掌控世界的议题，分析了AI在数据处理和自我优化方面的优势，同时也强调了人类独有的情感、创造力及自我意识等特质。文章提倡未来应注重人与AI的协作，并确保技术发展符合人类的利益和价值观，以实现和谐共处的美好愿景。</v>
+        <v>本文介绍了2025全球开发者先锋大会（GDC）中DeepSeek的技术前瞻，强调了其在大模型、算力优化及开源生态方面的贡献。DeepSeek将在大会上展示如何通过开放工具链降低AI技术应用门槛，并加速其在金融、医疗、教育等行业的商业化落地。文章还探讨了DeepSeek在智能终端与具身智能、开源生态与商业闭环方面的核心议题，以及其如何通过黑客松竞赛和AI编程挑战赛等活动支持开发者社群的协同创新。DeepSeek的参与不仅促进了技术普惠，也为中国在全球AI领域的话语权提供了新的路径。适合关注AI技术发展及其产业应用的人士阅读。</v>
       </c>
       <c r="D14" t="str">
-        <v>人工智能, 人机协作, 人类特质, 科技伦理</v>
+        <v>DeepSeek, 人工智能, 大模型, 开源生态, 技术开发, 算力优化</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>从开发到落地：DeepSeek在2025全球开发者大会的技术前瞻</v>
+        <v>元宇宙会改变人类的生活方式吗</v>
       </c>
       <c r="B15" t="str">
         <v>人工智能</v>
       </c>
       <c r="C15" t="str">
-        <v>本文介绍了2025全球开发者先锋大会（GDC）中DeepSeek的技术前瞻，强调了其在大模型、算力优化及开源生态方面的贡献。DeepSeek将在大会上展示如何通过开放工具链降低AI技术应用门槛，并加速其在金融、医疗、教育等行业的商业化落地。文章还探讨了DeepSeek在智能终端与具身智能、开源生态与商业闭环方面的核心议题，以及其如何通过黑客松竞赛和AI编程挑战赛等活动支持开发者社群的协同创新。DeepSeek的参与不仅促进了技术普惠，也为中国在全球AI领域的话语权提供了新的路径。适合关注AI技术发展及其产业应用的人士阅读。</v>
+        <v>文章探讨元宇宙如何在虚拟与现实融合、社交模式创新、工作形态转变、教育体系重构及消费经济转型五个关键领域重塑人类生活方式，同时指出伴随这一变革而来的机遇与挑战。</v>
       </c>
       <c r="D15" t="str">
-        <v>DeepSeek, 人工智能, 全球开发者大会, 大模型, 开源生态, 算力优化</v>
+        <v>元宇宙, 工作转型, 教育重构, 社交创新</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>元宇宙会改变人类的生活方式吗</v>
+        <v>怎么利用DeepSeek来赚钱？</v>
       </c>
       <c r="B16" t="str">
         <v>人工智能</v>
       </c>
       <c r="C16" t="str">
-        <v>文章探讨元宇宙如何在虚拟与现实融合、社交模式创新、工作形态转变、教育体系重构及消费经济转型五个关键领域重塑人类生活方式，同时指出伴随这一变革而来的机遇与挑战。</v>
+        <v>本文详细介绍了如何利用DeepSeek挖掘赚钱潜力，涵盖提升效率创造收益、开展知识付费业务、进行自动化营销以及参与AI相关创业项目等多方面实用策略。</v>
       </c>
       <c r="D16" t="str">
-        <v>元宇宙, 工作转型, 教育重构, 消费经济, 社交创新</v>
+        <v>DeepSeek, 人工智能应用, 知识付费, 自动化营销, 赚钱策略</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>怎么利用DeepSeek来赚钱？</v>
+        <v>未来AI工具的突破方向：下一代智能将如何重塑世界</v>
       </c>
       <c r="B17" t="str">
         <v>人工智能</v>
       </c>
       <c r="C17" t="str">
-        <v>DeepSeek是一种基于人工智能的工具，能够通过提升工作效率、知识付费与内容创作、自动化处理任务、市场分析与投资决策等方式帮助用户实现盈利。文章介绍了如何选择适合的DeepSeek功能，学习操作方法，结合实际应用场景以及持续优化流程来利用DeepSeek赚钱，为个人和企业提供了实用的赚钱思路。</v>
+        <v>本文探讨了未来AI工具的五大突破方向：认知革命、感官进化、实体智能、效能跃迁及价值共生，以及群体智能如何重塑世界。下一代AI将融合直觉与逻辑思维，实现全感官交互，从虚拟走向现实场景，并通过新型计算架构和分布式学习网络大幅提升效率，同时成为具备伦理判断的人类协作伙伴。最终，这些进步将推动各领域创新，开启人类与AI共同探索的新纪元。</v>
       </c>
       <c r="D17" t="str">
-        <v>DeepSeek, 市场分析, 提升效率, 知识付费, 自动化处理</v>
+        <v>人工智能, 感官进化, 科技趋势, 群体智能</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>未来AI工具的突破方向：下一代智能将如何重塑世界</v>
+        <v>用DeepSeek AI插件实现WordPress网站内容自动化生成的完整指南</v>
       </c>
       <c r="B18" t="str">
         <v>人工智能</v>
       </c>
       <c r="C18" t="str">
-        <v>本文探讨了未来AI工具的五大突破方向：认知革命、感官进化、实体智能、效能跃迁及价值共生，以及群体智能如何重塑世界。下一代AI将融合直觉与逻辑思维，实现全感官交互，从虚拟走向现实场景，并通过新型计算架构和分布式学习网络大幅提升效率，同时成为具备伦理判断的人类协作伙伴。最终，这些进步将推动各领域创新，开启人类与AI共同探索的新纪元。</v>
+        <v>探讨科技飞速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的影响、人际关系由真实转向虚拟的挑战，以及自我认知过程中“量化自我”趋势和人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温度的重要性，提倡通过真实的面对面交流来维护和滋养内心的情感纽带，确保科技成为促进而非阻碍人类幸福的力量。</v>
       </c>
       <c r="D18" t="str">
-        <v>人工智能, 价值共生, 实体智能, 感官进化, 效能跃迁, 群体智能, 认知科学</v>
+        <v>DeepSeek, 人工智能, 内容自动化, 搜索引擎优化</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>用DeepSeek AI插件实现WordPress网站内容自动化生成的完整指南</v>
+        <v>职场效率革命：DeepSeek如何重塑数据分析、会议纪要与简历优化</v>
       </c>
       <c r="B19" t="str">
         <v>人工智能</v>
       </c>
       <c r="C19" t="str">
-        <v>探讨科技飞速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的影响、人际关系由真实转向虚拟的挑战，以及自我认知过程中“量化自我”趋势和人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温度的重要性，提倡通过真实的面对面交流来维护和滋养内心的情感纽带，确保科技成为促进而非阻碍人类幸福的力量。</v>
+        <v>介绍DeepSeek如何在现代职场中通过提升数据分析、会议纪要整理和简历优化的效率，成为职场人的得力助手。DeepSeek能够快速提取核心洞察、自动化报告生成、动态预测支持，实现从耗时挖掘到秒级洞察的转变；在会议纪要方面，提供实时语音转文字、结构化输出与智能回溯功能；对于简历优化，它能智能匹配岗位需求、进行结构化表达与语言润色，并生成多版本简历以适应不同企业的需求。DeepSeek的应用重新定义了人机协作的边界，使得职场人士能够更加专注于创造性工作和决策制定。</v>
       </c>
       <c r="D19" t="str">
-        <v>DeepSeek, 人工智能, 内容自动化, 智能SEO</v>
+        <v>DeepSeek, 数据分析, 简历优化, 职场智能</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>职场效率革命：DeepSeek如何重塑数据分析、会议纪要与简历优化</v>
+        <v>跨境内容营销利器：DeepSeek多语言SEO优化与本地化实践</v>
       </c>
       <c r="B20" t="str">
         <v>人工智能</v>
       </c>
       <c r="C20" t="str">
-        <v>介绍DeepSeek如何在现代职场中通过提升数据分析、会议纪要整理和简历优化的效率，成为职场人的得力助手。DeepSeek能够快速提取核心洞察、自动化报告生成、动态预测支持，实现从耗时挖掘到秒级洞察的转变；在会议纪要方面，提供实时语音转文字、结构化输出与智能回溯功能；对于简历优化，它能智能匹配岗位需求、进行结构化表达与语言润色，并生成多版本简历以适应不同企业的需求。DeepSeek的应用重新定义了人机协作的边界，使得职场人士能够更加专注于创造性工作和决策制定。</v>
+        <v>DeepSeek作为一款强大的跨境内容营销工具，为企业提供了全方位的解决方案。本文将深入探讨DeepSeek在多语言SEO优化与本地化实践中的应用，帮助企业更好地实现全球化战略。</v>
       </c>
       <c r="D20" t="str">
-        <v>DeepSeek, 会议纪要, 数据分析, 简历优化</v>
+        <v>DeepSeek, 搜索引擎优化, 数据驱动, 本地化实践, 跨境内容营销</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>跨境内容营销利器：DeepSeek多语言SEO优化与本地化实践</v>
+        <v>随着人工智能的发展，如何确保其符合人类的伦理和价值观？</v>
       </c>
       <c r="B21" t="str">
         <v>人工智能</v>
       </c>
       <c r="C21" t="str">
-        <v>DeepSeek作为一款强大的跨境内容营销工具，为企业提供了全方位的解决方案。本文将深入探讨DeepSeek在多语言SEO优化与本地化实践中的应用，帮助企业更好地实现全球化战略。</v>
+        <v>随着人工智能技术的快速发展，确保其符合人类伦理和价值观成为一个重要议题。本文探讨了AI发展中的主要伦理挑战，如数据隐私、算法偏见和责任归属问题，并提出了构建全面伦理框架的解决方案，包括制定明确的伦理准则、推动跨领域合作及提高公众意识。未来的人工智能发展应以伦理为核心，确保技术进步服务于人类社会的福祉。</v>
       </c>
       <c r="D21" t="str">
-        <v>DeepSeek, 多语言SEO优化, 数据驱动, 本地化实践, 跨境内容营销</v>
+        <v>伦理框架, 数据隐私, 科技伦理, 责任归属</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>随着人工智能的发展，如何确保其符合人类的伦理和价值观？</v>
+        <v>探寻人生意义：在好好活中做有意义的事</v>
       </c>
       <c r="B22" t="str">
-        <v>人工智能</v>
+        <v>人生智慧</v>
       </c>
       <c r="C22" t="str">
-        <v>随着人工智能技术的快速发展，确保其符合人类伦理和价值观成为一个重要议题。本文探讨了AI发展中的主要伦理挑战，如数据隐私、算法偏见和责任归属问题，并提出了构建全面伦理框架的解决方案，包括制定明确的伦理准则、推动跨领域合作及提高公众意识。未来的人工智能发展应以伦理为核心，确保技术进步服务于人类社会的福祉。</v>
+        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
       </c>
       <c r="D22" t="str">
-        <v>伦理框架, 数据隐私, 科技伦理, 责任归属</v>
+        <v>人生意义, 有意义的事, 生命价值, 自我探寻</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>探寻人生意义：在好好活中做有意义的事</v>
+        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
       </c>
       <c r="B23" t="str">
         <v>人生智慧</v>
       </c>
       <c r="C23" t="str">
-        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
+        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
       </c>
       <c r="D23" t="str">
-        <v>人生意义, 平凡生活, 有意义的事, 生命价值, 自我探寻</v>
+        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
+        <v>为什么人际关系总是这么复杂？</v>
       </c>
       <c r="B24" t="str">
-        <v>人生智慧</v>
+        <v>人际相处</v>
       </c>
       <c r="C24" t="str">
-        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
+        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
       </c>
       <c r="D24" t="str">
-        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
+        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>为什么人际关系总是这么复杂？</v>
+        <v>为什么小龙女不杀强奸她的那个人？</v>
       </c>
       <c r="B25" t="str">
         <v>人际相处</v>
       </c>
       <c r="C25" t="str">
-        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D25" t="str">
-        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
+        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>为什么小龙女不杀强奸她的那个人？</v>
+        <v>为什么越想忘记越难忘？</v>
       </c>
       <c r="B26" t="str">
         <v>人际相处</v>
       </c>
       <c r="C26" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
       </c>
       <c r="D26" t="str">
-        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
+        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>为什么越想忘记越难忘？</v>
+        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
       </c>
       <c r="B27" t="str">
         <v>人际相处</v>
       </c>
       <c r="C27" t="str">
-        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
+        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
       </c>
       <c r="D27" t="str">
-        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
+        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
+        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
       </c>
       <c r="B28" t="str">
         <v>人际相处</v>
       </c>
       <c r="C28" t="str">
-        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
+        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
       </c>
       <c r="D28" t="str">
-        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
+        <v>人工智能, 人机交互, 人类特质, 情感处理</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
+        <v>初恋记忆为何自带“美颜滤镜”</v>
       </c>
       <c r="B29" t="str">
         <v>人际相处</v>
       </c>
       <c r="C29" t="str">
-        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
+        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
       </c>
       <c r="D29" t="str">
-        <v>人工智能, 人类特质, 情感处理, 生活哲理</v>
+        <v>初恋记忆, 情感因素, 认知因素, 记忆美化</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>初恋记忆为何自带“美颜滤镜”</v>
+        <v>友情中的距离之道：把握分寸，情谊长久</v>
       </c>
       <c r="B30" t="str">
         <v>人际相处</v>
       </c>
       <c r="C30" t="str">
-        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
+        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
       </c>
       <c r="D30" t="str">
-        <v>初恋记忆, 情感因素, 社会文化因素, 认知因素, 记忆美化</v>
+        <v>友情管理, 友情维护</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>友情中的距离之道：把握分寸，情谊长久</v>
+        <v>如何与喜欢咒骂表达情绪的人相处</v>
       </c>
       <c r="B31" t="str">
         <v>人际相处</v>
       </c>
       <c r="C31" t="str">
-        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
+        <v>介绍与喜欢通过咒骂来表达情绪的人相处的实用方法，包括挖掘咒骂根源、保持理智、主动沟通、划清界限和给予鼓励等方面，帮助读者更好地应对这类人并维护良好人际关系。</v>
       </c>
       <c r="D31" t="str">
-        <v>不同阶段友情, 个人边界, 友情, 友情维护, 距离把控</v>
+        <v>咒骂行为, 情绪表达, 相处技巧, 自我保护</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>如何与喜欢咒骂表达情绪的人相处</v>
+        <v>如何走出失恋的痛苦？</v>
       </c>
       <c r="B32" t="str">
         <v>人际相处</v>
       </c>
       <c r="C32" t="str">
-        <v>介绍与喜欢通过咒骂来表达情绪的人相处的实用方法，包括挖掘咒骂根源、保持理智、主动沟通、划清界限和给予鼓励等方面，帮助读者更好地应对这类人并维护良好人际关系。</v>
+        <v>学习如何有效走出失恋的痛苦，重建情感与生活的平衡。本文提供了一系列实用的方法，包括接受自己的情绪、避免急于开始新恋情、寻找支持系统、专注于自我成长、学会放手、寻找新的生活平衡以及给自己时间去治愈。通过这些策略，你能够逐渐恢复自信，找到内心的平静与幸福，迎接更加光明的未来。</v>
       </c>
       <c r="D32" t="str">
-        <v>人际沟通, 咒骂行为, 情绪表达, 相处技巧, 自我保护</v>
+        <v>情感修复, 情感恢复, 支持系统, 自我成长</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>如何走出失恋的痛苦？</v>
+        <v>如果两个人最终一定会分离，那相遇的意义是什么 ？</v>
       </c>
       <c r="B33" t="str">
         <v>人际相处</v>
       </c>
       <c r="C33" t="str">
-        <v>学习如何有效走出失恋的痛苦，重建情感与生活的平衡。本文提供了一系列实用的方法，包括接受自己的情绪、避免急于开始新恋情、寻找支持系统、专注于自我成长、学会放手、寻找新的生活平衡以及给自己时间去治愈。通过这些策略，你能够逐渐恢复自信，找到内心的平静与幸福，迎接更加光明的未来。</v>
+        <v>探索相遇的真谛，即使面临分离，也能找到爱与成长的意义。本文深入分析了为何每一段关系都是生命中的宝贵财富，强调珍惜过程、勇敢面对当下的重要性，帮助你在人际关系中找到内心的平静与情感智慧。</v>
       </c>
       <c r="D33" t="str">
-        <v>情感修复, 情感恢复, 支持系统, 自我成长</v>
+        <v>心灵成长, 情感思考, 爱与离别, 相遇意义</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>如果两个人最终一定会分离，那相遇的意义是什么 ？</v>
+        <v>家庭关系中的代际沟通技巧：搭建和谐亲情的坚固桥梁</v>
       </c>
       <c r="B34" t="str">
         <v>人际相处</v>
       </c>
       <c r="C34" t="str">
-        <v>探索相遇的真谛，即使面临分离，也能找到爱与成长的意义。本文深入分析了为何每一段关系都是生命中的宝贵财富，强调珍惜过程、勇敢面对当下的重要性，帮助你在人际关系中找到内心的平静与情感智慧。</v>
+        <v>阐述家庭关系里代际沟通的重要性，剖析代际差异的表现，介绍巧妙的沟通技巧并说明营造良好沟通氛围的方式，助力搭建和谐亲情的坚固桥梁。</v>
       </c>
       <c r="D34" t="str">
-        <v>人际关系, 心灵成长, 情感智慧, 爱与离别, 相遇意义</v>
+        <v>代际差异, 代际沟通, 家庭沟通, 沟通技巧</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>家庭关系中的代际沟通技巧：搭建和谐亲情的坚固桥梁</v>
+        <v>家庭关系对恋爱关系的隐形塑造</v>
       </c>
       <c r="B35" t="str">
         <v>人际相处</v>
       </c>
       <c r="C35" t="str">
-        <v>阐述家庭关系里代际沟通的重要性，剖析代际差异的表现，介绍巧妙的沟通技巧并说明营造良好沟通氛围的方式，助力搭建和谐亲情的坚固桥梁。</v>
+        <v>深入剖析家庭关系如何在多个方面隐形塑造恋爱关系，包括家庭氛围、相处模式、情感缺失以及价值观等方面，同时探讨如何驾驭家庭影响构建美好恋爱关系。</v>
       </c>
       <c r="D35" t="str">
-        <v>亲情感情, 代际差异, 代际沟通, 家庭沟通, 沟通技巧</v>
+        <v>家庭影响, 恋爱关系, 情感缺失, 相处模式</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>家庭关系对恋爱关系的隐形塑造</v>
+        <v>幸福是一种主观感受还是客观存在？</v>
       </c>
       <c r="B36" t="str">
         <v>人际相处</v>
       </c>
       <c r="C36" t="str">
-        <v>深入剖析家庭关系如何在多个方面隐形塑造恋爱关系，包括家庭氛围、相处模式、情感缺失以及价值观等方面，同时探讨如何驾驭家庭影响构建美好恋爱关系。</v>
+        <v>幸福既是主观感受也是客观存在的体现，它由个人的内心体验和外部环境共同决定。本文探讨了幸福的双重维度，包括个体的性格、价值观等主观因素，以及经济状况、社会关系、自然环境等客观条件对幸福感的影响，强调了理解幸福复杂性对于提升个人幸福感的重要性。</v>
       </c>
       <c r="D36" t="str">
-        <v>家庭关系, 家庭影响, 恋爱关系, 情感缺失, 相处模式</v>
+        <v>幸福本质, 幸福研究</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>幸福是一种主观感受还是客观存在？</v>
+        <v>应对老妈超强控制欲的有效策略</v>
       </c>
       <c r="B37" t="str">
         <v>人际相处</v>
       </c>
       <c r="C37" t="str">
-        <v>幸福既是主观感受也是客观存在的体现，它由个人的内心体验和外部环境共同决定。本文探讨了幸福的双重维度，包括个体的性格、价值观等主观因素，以及经济状况、社会关系、自然环境等客观条件对幸福感的影响，强调了理解幸福复杂性对于提升个人幸福感的重要性。</v>
+        <v>阐述老妈控制欲强的表现、背后原因，并提供如坦诚沟通、明确边界、给予陪伴、寻求外援等实用的应对方法，帮助读者在维护自身自由权利的同时改善家庭关系。</v>
       </c>
       <c r="D37" t="str">
-        <v>主观感受, 客观条件, 幸福本质</v>
+        <v>亲子沟通, 家庭关系, 应对策略, 老妈控制欲</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>应对老妈超强控制欲的有效策略</v>
+        <v>异地三百公里的选择题：我用了十年才看懂的爱情真相</v>
       </c>
       <c r="B38" t="str">
         <v>人际相处</v>
       </c>
       <c r="C38" t="str">
-        <v>阐述老妈控制欲强的表现、背后原因，并提供如坦诚沟通、明确边界、给予陪伴、寻求外援等实用的应对方法，帮助读者在维护自身自由权利的同时改善家庭关系。</v>
+        <v>本文深入探讨了异地恋关系中的复杂情感与实际考量，通过分析“前任异地”的阴影、当代异地恋的新公式、长期友谊的潜在问题以及使用麦肯锡MECE法则进行决策模型构建等方面，揭示了异地恋背后的真相。文章提供了实用的建议和策略，如建立“战备值班”制度、“云生活”场景开发等，并强调了在做出是否继续异地恋决定时的重要性。适合那些处于异地恋或考虑进入异地恋关系的人士，帮助他们更好地理解并处理这种特殊关系中的挑战。爱情不是选择题而是证明题，关键在于是否值得让对方放弃一切来选择你。</v>
       </c>
       <c r="D38" t="str">
-        <v>个人成长, 亲子沟通, 家庭关系, 应对策略, 老妈控制欲</v>
+        <v>异地恋, 心理学, 情感分析, 生活成本</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>异地三百公里的选择题：我用了十年才看懂的爱情真相</v>
+        <v>异地恋中的信任问题处理方法</v>
       </c>
       <c r="B39" t="str">
         <v>人际相处</v>
       </c>
       <c r="C39" t="str">
-        <v>本文深入探讨了异地恋关系中的复杂情感与实际考量，通过分析“前任异地”的阴影、当代异地恋的新公式、长期友谊的潜在问题以及使用麦肯锡MECE法则进行决策模型构建等方面，揭示了异地恋背后的真相。文章提供了实用的建议和策略，如建立“战备值班”制度、“云生活”场景开发等，并强调了在做出是否继续异地恋决定时的重要性。适合那些处于异地恋或考虑进入异地恋关系的人士，帮助他们更好地理解并处理这种特殊关系中的挑战。爱情不是选择题而是证明题，关键在于是否值得让对方放弃一切来选择你。</v>
+        <v>本文探讨了异地恋中的信任问题及其解决方法，包括建立有效沟通机制、增强彼此安全感、建立共同目标以及自我提升与独立等方面，帮助异地情侣更好地维护感情。</v>
       </c>
       <c r="D39" t="str">
-        <v>决策模型, 异地恋, 心理学, 情感分析, 生活成本</v>
+        <v>共同目标, 安全感, 异地恋, 情感沟通, 情感维护</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>异地恋中的信任问题处理方法</v>
+        <v>得饶人处且饶人：生活中的智慧与美德</v>
       </c>
       <c r="B40" t="str">
         <v>人际相处</v>
       </c>
       <c r="C40" t="str">
-        <v>本文探讨了异地恋中的信任问题及其解决方法，包括建立有效沟通机制、增强彼此安全感、建立共同目标以及自我提升与独立等方面，帮助异地情侣更好地维护感情。</v>
+        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
       </c>
       <c r="D40" t="str">
-        <v>信任问题, 共同目标, 安全感, 异地恋, 情感沟通</v>
+        <v>人际关系, 生活智慧</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>得饶人处且饶人：生活中的智慧与美德</v>
+        <v>恋爱中独立人格的保鲜之道</v>
       </c>
       <c r="B41" t="str">
         <v>人际相处</v>
       </c>
       <c r="C41" t="str">
-        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
+        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
       </c>
       <c r="D41" t="str">
-        <v>个人修养, 人际关系, 宽容, 情商, 饶恕</v>
+        <v>恋爱关系, 恋爱心理, 独立人格, 社交圈子, 经济独立</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>恋爱中独立人格的保鲜之道</v>
+        <v>情侣之间婚前性行为的全面剖析</v>
       </c>
       <c r="B42" t="str">
         <v>人际相处</v>
       </c>
       <c r="C42" t="str">
-        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
+        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
       </c>
       <c r="D42" t="str">
-        <v>个人兴趣, 恋爱关系, 独立人格, 社交圈子, 经济独立</v>
+        <v>性观念, 恋爱时长, 情侣关系, 情感关系, 情感表达</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>情侣之间婚前性行为的全面剖析</v>
+        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
       </c>
       <c r="B43" t="str">
         <v>人际相处</v>
       </c>
       <c r="C43" t="str">
-        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
+        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
       </c>
       <c r="D43" t="str">
-        <v>婚前性行为, 性观念, 恋爱时长, 情侣关系, 情感表达</v>
+        <v>情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
+        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
       </c>
       <c r="B44" t="str">
         <v>人际相处</v>
       </c>
       <c r="C44" t="str">
-        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
+        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
       </c>
       <c r="D44" t="str">
-        <v>关系维护, 情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
+        <v>价值观冲突, 情感依赖, 情感关系, 边界感</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
+        <v>现代社会如何看待“有仇不报非君子”</v>
       </c>
       <c r="B45" t="str">
         <v>人际相处</v>
       </c>
       <c r="C45" t="str">
-        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
+        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
       </c>
       <c r="D45" t="str">
-        <v>个人空间, 价值观冲突, 情感依赖, 情感关系, 边界感</v>
+        <v>复仇与宽容, 有仇不报非君子, 权益维护, 现代社会, 社会价值观</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>现代社会如何看待“有仇不报非君子”</v>
+        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
       </c>
       <c r="B46" t="str">
         <v>人际相处</v>
       </c>
       <c r="C46" t="str">
-        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
+        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
       </c>
       <c r="D46" t="str">
-        <v>传统观念, 复仇与宽容, 有仇不报非君子, 权益维护, 现代社会</v>
+        <v>处女情结, 恋爱关系, 情感冲突, 感情纠葛, 沟通理解</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
+        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
       </c>
       <c r="B47" t="str">
         <v>人际相处</v>
       </c>
       <c r="C47" t="str">
-        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
+        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
       </c>
       <c r="D47" t="str">
-        <v>传统观念, 处女情结, 恋爱关系, 感情纠葛, 沟通理解</v>
+        <v>嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
+        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
       </c>
       <c r="B48" t="str">
         <v>人际相处</v>
       </c>
       <c r="C48" t="str">
-        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
+        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
       </c>
       <c r="D48" t="str">
-        <v>人际关系, 嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
+        <v>恋爱相处, 文化冲突, 文化差异, 文化融合, 跨国恋情</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
+        <v>东施效颦：一场被曲解的“觉醒实验”</v>
       </c>
       <c r="B49" t="str">
-        <v>人际相处</v>
+        <v>传统文化</v>
       </c>
       <c r="C49" t="str">
-        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
+        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
       </c>
       <c r="D49" t="str">
-        <v>全球化, 恋爱相处, 文化冲突, 文化融合, 跨国恋情</v>
+        <v>审美哲学, 文化解读, 模仿与创新, 社会反思, 身份突破</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>东施效颦：一场被曲解的“觉醒实验”</v>
+        <v>传统文化该如何传承创新？</v>
       </c>
       <c r="B50" t="str">
         <v>传统文化</v>
       </c>
       <c r="C50" t="str">
-        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
+        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
       </c>
       <c r="D50" t="str">
-        <v>多元美学, 审美哲学, 模仿与创新, 社会反思, 身份突破</v>
+        <v>守艺, 文化传承, 生活文化, 非遗保护</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>传统文化该如何传承创新？</v>
+        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
       </c>
       <c r="B51" t="str">
         <v>传统文化</v>
       </c>
       <c r="C51" t="str">
-        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
+        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
       </c>
       <c r="D51" t="str">
-        <v>传统文化传承, 守艺, 年轻力量, 日常生活文化, 非遗保护</v>
+        <v>动态思维, 哲学思考, 认知科学</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
+        <v>削足适履：被误解千年的生存智慧</v>
       </c>
       <c r="B52" t="str">
         <v>传统文化</v>
       </c>
       <c r="C52" t="str">
-        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
+        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
       </c>
       <c r="D52" t="str">
-        <v>信息时代, 动态思维, 哲学思考, 认知科学</v>
+        <v>哲学思考, 文化重构, 生存策略, 规则适应</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>削足适履：被误解千年的生存智慧</v>
+        <v>南辕北辙：一场跨越千年的认知突围</v>
       </c>
       <c r="B53" t="str">
         <v>传统文化</v>
       </c>
       <c r="C53" t="str">
-        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
+        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
       </c>
       <c r="D53" t="str">
-        <v>医学隐喻, 哲学思考, 文化重构, 生存策略, 规则适应</v>
+        <v>多维思维, 方向审计, 认知科学, 隐性成本</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>南辕北辙：一场跨越千年的认知突围</v>
+        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
       </c>
       <c r="B54" t="str">
         <v>传统文化</v>
       </c>
       <c r="C54" t="str">
-        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
+        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
       </c>
       <c r="D54" t="str">
-        <v>反共识训练, 多维思维, 方向审计, 认知科学, 隐性成本</v>
+        <v>实践智慧, 心理困境, 现实认知, 理想主义, 精神困境</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
+        <v>守株待兔：被误读千年的逆向生存智慧</v>
       </c>
       <c r="B55" t="str">
         <v>传统文化</v>
       </c>
       <c r="C55" t="str">
-        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
+        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
       </c>
       <c r="D55" t="str">
-        <v>实践智慧, 消费心理学, 现实认知, 理想主义, 精神困境</v>
+        <v>机会构建, 概率思维, 现代寓言, 生存策略, 认知偏误</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>守株待兔：被误读千年的逆向生存智慧</v>
+        <v>狐假虎威新解说：传统寓言的现代启示</v>
       </c>
       <c r="B56" t="str">
         <v>传统文化</v>
       </c>
       <c r="C56" t="str">
-        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
+        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
       </c>
       <c r="D56" t="str">
-        <v>战略思维, 机会构建, 概率思维, 现代寓言, 认知偏误</v>
+        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>狐假虎威新解说：传统寓言的现代启示</v>
+        <v>狡兔三窟新解说：深度剖析与现代应用</v>
       </c>
       <c r="B57" t="str">
         <v>传统文化</v>
       </c>
       <c r="C57" t="str">
-        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
+        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
       </c>
       <c r="D57" t="str">
-        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
+        <v>投资策略, 狡兔三窟, 职业规划, 风险管理, 风险管理</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>狡兔三窟新解说：深度剖析与现代应用</v>
+        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
       </c>
       <c r="B58" t="str">
         <v>传统文化</v>
       </c>
       <c r="C58" t="str">
-        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
+        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
       </c>
       <c r="D58" t="str">
-        <v>多元布局, 投资策略, 狡兔三窟, 职业规划, 风险管理</v>
+        <v>情绪GPS导航, 数字断舍离, 科技伦理, 自我成长, 认知科学</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
+        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
       </c>
       <c r="B59" t="str">
         <v>传统文化</v>
       </c>
       <c r="C59" t="str">
-        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
+        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
       </c>
       <c r="D59" t="str">
-        <v>决策省察, 情绪GPS导航, 数字断舍离, 科技伦理, 认知健康指数</v>
+        <v>反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
+        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
       </c>
       <c r="B60" t="str">
         <v>传统文化</v>
       </c>
       <c r="C60" t="str">
-        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
+        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
       </c>
       <c r="D60" t="str">
-        <v>动态认知框架, 反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
+        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
+        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
       </c>
       <c r="B61" t="str">
         <v>传统文化</v>
       </c>
       <c r="C61" t="str">
-        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
+        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
       </c>
       <c r="D61" t="str">
-        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
+        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
+        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
       </c>
       <c r="B62" t="str">
         <v>传统文化</v>
       </c>
       <c r="C62" t="str">
-        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
+        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
       </c>
       <c r="D62" t="str">
-        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
+        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
+        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
       </c>
       <c r="B63" t="str">
         <v>传统文化</v>
       </c>
       <c r="C63" t="str">
-        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
+        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
       </c>
       <c r="D63" t="str">
-        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
+        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
+        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
       </c>
       <c r="B64" t="str">
         <v>传统文化</v>
       </c>
       <c r="C64" t="str">
-        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
+        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
       </c>
       <c r="D64" t="str">
-        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
+        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
+        <v>顺手牵羊新解：多视角下的行为探秘</v>
       </c>
       <c r="B65" t="str">
         <v>传统文化</v>
       </c>
       <c r="C65" t="str">
-        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
+        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
       </c>
       <c r="D65" t="str">
-        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
+        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>顺手牵羊新解：多视角下的行为探秘</v>
+        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
       </c>
       <c r="B66" t="str">
-        <v>传统文化</v>
+        <v>体育运动</v>
       </c>
       <c r="C66" t="str">
-        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
+        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
       </c>
       <c r="D66" t="str">
-        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
+        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
+        <v>历史事件对当今社会和个人有哪些启示？</v>
       </c>
       <c r="B67" t="str">
-        <v>体育运动</v>
+        <v>历史探究</v>
       </c>
       <c r="C67" t="str">
-        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
+        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
       </c>
       <c r="D67" t="str">
-        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
+        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>历史事件对当今社会和个人有哪些启示？</v>
+        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
       </c>
       <c r="B68" t="str">
         <v>历史探究</v>
       </c>
       <c r="C68" t="str">
-        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
+        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
       </c>
       <c r="D68" t="str">
-        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
+        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
+        <v>谋士为何难成一把手？</v>
       </c>
       <c r="B69" t="str">
         <v>历史探究</v>
       </c>
       <c r="C69" t="str">
-        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
+        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
       </c>
       <c r="D69" t="str">
-        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
+        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>谋士为何难成一把手？</v>
+        <v>中式八球台球礼仪须知</v>
       </c>
       <c r="B70" t="str">
-        <v>历史探究</v>
+        <v>台球天地</v>
       </c>
       <c r="C70" t="str">
-        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
+        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
       </c>
       <c r="D70" t="str">
-        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
+        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>中式八球台球礼仪须知</v>
+        <v>中式八球台球规则详解</v>
       </c>
       <c r="B71" t="str">
         <v>台球天地</v>
       </c>
       <c r="C71" t="str">
-        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
+        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
       </c>
       <c r="D71" t="str">
-        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
+        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>中式八球台球规则详解</v>
+        <v>中式八球台球运动简介</v>
       </c>
       <c r="B72" t="str">
         <v>台球天地</v>
       </c>
       <c r="C72" t="str">
-        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
+        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
       </c>
       <c r="D72" t="str">
-        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
+        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>中式八球台球运动简介</v>
+        <v>中式八球的发展史</v>
       </c>
       <c r="B73" t="str">
         <v>台球天地</v>
       </c>
       <c r="C73" t="str">
-        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
+        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
       </c>
       <c r="D73" t="str">
-        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
+        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>中式八球的发展史</v>
+        <v>令人绝望的“文盲”</v>
       </c>
       <c r="B74" t="str">
         <v>台球天地</v>
       </c>
       <c r="C74" t="str">
-        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
+        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
       </c>
       <c r="D74" t="str">
-        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
+        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>令人绝望的“文盲”</v>
+        <v>关于我们</v>
       </c>
       <c r="B75" t="str">
         <v>台球天地</v>
       </c>
       <c r="C75" t="str">
-        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
+        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
       </c>
       <c r="D75" t="str">
-        <v>商业伦理, 消费心理, 评价系统, 顾客管理</v>
+        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>关于我们</v>
+        <v>台球初学者指南</v>
       </c>
       <c r="B76" t="str">
         <v>台球天地</v>
       </c>
       <c r="C76" t="str">
-        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
+        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
       </c>
       <c r="D76" t="str">
-        <v>互动交流, 台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
+        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>台球初学者指南</v>
+        <v>台球店基本信息</v>
       </c>
       <c r="B77" t="str">
         <v>台球天地</v>
       </c>
       <c r="C77" t="str">
-        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
+        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
       </c>
       <c r="D77" t="str">
-        <v>初学者指南, 台球技巧, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
+        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>台球店基本信息</v>
+        <v>台球种类专业介绍</v>
       </c>
       <c r="B78" t="str">
         <v>台球天地</v>
       </c>
       <c r="C78" t="str">
-        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
+        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
       </c>
       <c r="D78" t="str">
-        <v>会员制度, 台球馆信息, 支付方式, 收费标准, 教练服务, 温馨提醒, 营业时间, 设备提供, 预订方式</v>
+        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>台球种类专业介绍</v>
+        <v>台球设备介绍</v>
       </c>
       <c r="B79" t="str">
         <v>台球天地</v>
       </c>
       <c r="C79" t="str">
-        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
+        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
       </c>
       <c r="D79" t="str">
-        <v>九球, 八球, 十球, 台球种类, 开伦, 斯诺克, 英式台球</v>
+        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>台球设备介绍</v>
+        <v>台球设备评测报告</v>
       </c>
       <c r="B80" t="str">
         <v>台球天地</v>
       </c>
       <c r="C80" t="str">
-        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
+        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
       </c>
       <c r="D80" t="str">
-        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
+        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>台球设备评测报告</v>
+        <v>台球运动：助力青少年全面发展的独特运动</v>
       </c>
       <c r="B81" t="str">
         <v>台球天地</v>
       </c>
       <c r="C81" t="str">
-        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
+        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
       </c>
       <c r="D81" t="str">
-        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
+        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>台球运动：助力青少年全面发展的独特运动</v>
+        <v>台球运动的物理学原理</v>
       </c>
       <c r="B82" t="str">
         <v>台球天地</v>
       </c>
       <c r="C82" t="str">
-        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
+        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
       </c>
       <c r="D82" t="str">
-        <v>品德修养, 社交能力, 身心健康, 青少年发展</v>
+        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>台球运动的物理学原理</v>
+        <v>台球高级技巧分享</v>
       </c>
       <c r="B83" t="str">
         <v>台球天地</v>
       </c>
       <c r="C83" t="str">
-        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
+        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
       </c>
       <c r="D83" t="str">
-        <v>击球力学, 台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动科学</v>
+        <v>台球高级技巧, 战术应用, 技巧实践</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>台球高级技巧分享</v>
+        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
       </c>
       <c r="B84" t="str">
         <v>台球天地</v>
       </c>
       <c r="C84" t="str">
-        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
+        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
       </c>
       <c r="D84" t="str">
-        <v>台球高级技巧, 战术应用, 技巧实践</v>
+        <v>商业模拟, 自助台球店</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
+        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
       </c>
       <c r="B85" t="str">
-        <v>台球天地</v>
+        <v>台球经营</v>
       </c>
       <c r="C85" t="str">
-        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
+        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D85" t="str">
-        <v>商业计划, 自助台球店</v>
+        <v>台球政策, 商业策略, 算力服务费</v>
       </c>
     </row>
     <row r="86">
@@ -1609,7 +1609,7 @@
         <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D86" t="str">
-        <v>健康经营, 台球文化, 安全保障, 成本控制, 用户体验</v>
+        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
       </c>
     </row>
     <row r="87">
@@ -1623,7 +1623,7 @@
         <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
       </c>
       <c r="D87" t="str">
-        <v>单价信息, 台球店经营, 回本周期, 客源分析, 满台率, 选址策略</v>
+        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
       </c>
     </row>
     <row r="88">
@@ -1637,7 +1637,7 @@
         <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
       </c>
       <c r="D88" t="str">
-        <v>商业道德, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
+        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
       </c>
     </row>
     <row r="89">
@@ -1651,7 +1651,7 @@
         <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
       </c>
       <c r="D89" t="str">
-        <v>亚洲文化, 文化交流, 欧美文化, 非洲文化</v>
+        <v>文化交流, 文化差异</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
       </c>
       <c r="D92" t="str">
-        <v>VR/AR, 台球, 数据分析, 智能设备, 科技应用</v>
+        <v>台球, 智能设备, 科技应用, 运动科技</v>
       </c>
     </row>
     <row r="93">
@@ -1707,7 +1707,7 @@
         <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
       </c>
       <c r="D93" t="str">
-        <v>合作交流, 市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
+        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
       </c>
     </row>
     <row r="94">
@@ -1721,7 +1721,7 @@
         <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
       </c>
       <c r="D94" t="str">
-        <v>台球文化, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
+        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
       </c>
     </row>
     <row r="95">
@@ -1735,7 +1735,7 @@
         <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D95" t="str">
-        <v>妻子角色, 家庭关系, 家庭和谐, 理财, 财富积累</v>
+        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
       </c>
     </row>
     <row r="96">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2370,2723 +2370,2751 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B141" t="str">
         <v>性别健康</v>
       </c>
       <c r="C141" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D141" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B142" t="str">
         <v>性别健康</v>
       </c>
       <c r="C142" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D142" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B143" t="str">
         <v>性别健康</v>
       </c>
       <c r="C143" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D143" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B144" t="str">
         <v>性别健康</v>
       </c>
       <c r="C144" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D144" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B145" t="str">
         <v>性别健康</v>
       </c>
       <c r="C145" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D145" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B146" t="str">
         <v>性别健康</v>
       </c>
       <c r="C146" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D146" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B147" t="str">
         <v>性别健康</v>
       </c>
       <c r="C147" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D147" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B148" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D148" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B149" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D149" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B150" t="str">
         <v>情感关系</v>
       </c>
       <c r="C150" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D150" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B151" t="str">
         <v>情感关系</v>
       </c>
       <c r="C151" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D151" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B152" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C152" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D152" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B153" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C153" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D153" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B154" t="str">
         <v>教育学习</v>
       </c>
       <c r="C154" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D154" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B155" t="str">
         <v>教育学习</v>
       </c>
       <c r="C155" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D155" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B156" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C156" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D156" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B157" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C157" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D157" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B158" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C158" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D158" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B159" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C159" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D159" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B160" t="str">
         <v>时尚生活</v>
       </c>
       <c r="C160" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D160" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B161" t="str">
-        <v>法律</v>
+        <v>时尚生活</v>
       </c>
       <c r="C161" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D161" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B162" t="str">
-        <v>游戏竞技</v>
+        <v>时尚生活</v>
       </c>
       <c r="C162" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D162" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B163" t="str">
-        <v>生活感悟</v>
+        <v>法律</v>
       </c>
       <c r="C163" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D163" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B164" t="str">
-        <v>生活感悟</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C164" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D164" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B165" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C165" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D165" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B166" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C166" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D166" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B167" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C167" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D167" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B168" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C168" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D168" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B169" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C169" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D169" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B170" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C170" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D170" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B171" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C171" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D171" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B172" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C172" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D172" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B173" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C173" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D173" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B174" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C174" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D174" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B175" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C175" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D175" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B176" t="str">
         <v>生活日常</v>
       </c>
       <c r="C176" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D176" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>回首2024</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B177" t="str">
         <v>生活日常</v>
       </c>
       <c r="C177" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D177" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B178" t="str">
         <v>生活日常</v>
       </c>
       <c r="C178" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D178" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>回首2024</v>
       </c>
       <c r="B179" t="str">
         <v>生活日常</v>
       </c>
       <c r="C179" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D179" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B180" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C180" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D180" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B181" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C181" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D181" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B182" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C182" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D182" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B183" t="str">
         <v>社会探究</v>
       </c>
       <c r="C183" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D183" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B184" t="str">
         <v>社会探究</v>
       </c>
       <c r="C184" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D184" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B185" t="str">
         <v>社会探究</v>
       </c>
       <c r="C185" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D185" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B186" t="str">
         <v>社会探究</v>
       </c>
       <c r="C186" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D186" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B187" t="str">
         <v>社会探究</v>
       </c>
       <c r="C187" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D187" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B188" t="str">
         <v>社会探究</v>
       </c>
       <c r="C188" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D188" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B189" t="str">
         <v>社会探究</v>
       </c>
       <c r="C189" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D189" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B190" t="str">
         <v>社会探究</v>
       </c>
       <c r="C190" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D190" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B191" t="str">
         <v>社会探究</v>
       </c>
       <c r="C191" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D191" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B192" t="str">
         <v>社会探究</v>
       </c>
       <c r="C192" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D192" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B193" t="str">
         <v>社会探究</v>
       </c>
       <c r="C193" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D193" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B194" t="str">
         <v>社会探究</v>
       </c>
       <c r="C194" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D194" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B195" t="str">
         <v>社会探究</v>
       </c>
       <c r="C195" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D195" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B196" t="str">
         <v>社会探究</v>
       </c>
       <c r="C196" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D196" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B197" t="str">
         <v>社会探究</v>
       </c>
       <c r="C197" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D197" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B198" t="str">
         <v>社会探究</v>
       </c>
       <c r="C198" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D198" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B199" t="str">
         <v>社会探究</v>
       </c>
       <c r="C199" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D199" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B200" t="str">
         <v>社会探究</v>
       </c>
       <c r="C200" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D200" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B201" t="str">
         <v>社会探究</v>
       </c>
       <c r="C201" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D201" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B202" t="str">
         <v>社会探究</v>
       </c>
       <c r="C202" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D202" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B203" t="str">
         <v>社会探究</v>
       </c>
       <c r="C203" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D203" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B204" t="str">
         <v>社会探究</v>
       </c>
       <c r="C204" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D204" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B205" t="str">
         <v>社会探究</v>
       </c>
       <c r="C205" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D205" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B206" t="str">
         <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D206" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D207" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B208" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D208" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B209" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D209" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B210" t="str">
         <v>社会现象</v>
       </c>
       <c r="C210" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D210" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B211" t="str">
         <v>社会现象</v>
       </c>
       <c r="C211" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D211" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>再聊姜萍</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B212" t="str">
         <v>社会现象</v>
       </c>
       <c r="C212" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D212" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B213" t="str">
         <v>社会现象</v>
       </c>
       <c r="C213" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D213" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B214" t="str">
         <v>社会现象</v>
       </c>
       <c r="C214" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D214" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B215" t="str">
         <v>社会现象</v>
       </c>
       <c r="C215" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D215" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B216" t="str">
         <v>社会现象</v>
       </c>
       <c r="C216" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D216" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B217" t="str">
         <v>社会现象</v>
       </c>
       <c r="C217" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D217" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B218" t="str">
         <v>社会现象</v>
       </c>
       <c r="C218" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D218" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B219" t="str">
         <v>社会现象</v>
       </c>
       <c r="C219" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D219" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B220" t="str">
         <v>社会现象</v>
       </c>
       <c r="C220" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D220" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B221" t="str">
         <v>社会现象</v>
       </c>
       <c r="C221" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D221" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B222" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C222" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D222" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B223" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C223" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D223" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B224" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C224" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D224" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B225" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C225" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D225" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B226" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C226" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D226" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B227" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C227" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D227" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B228" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C228" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D228" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B229" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C229" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D229" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B230" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C230" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D230" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>什么是成功的定义？</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B231" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C231" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D231" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B232" t="str">
         <v>职业发展</v>
       </c>
       <c r="C232" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D232" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B233" t="str">
         <v>职业发展</v>
       </c>
       <c r="C233" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D233" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B234" t="str">
         <v>职业发展</v>
       </c>
       <c r="C234" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D234" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B235" t="str">
         <v>职业发展</v>
       </c>
       <c r="C235" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D235" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B236" t="str">
         <v>职业发展</v>
       </c>
       <c r="C236" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D236" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B237" t="str">
         <v>职业发展</v>
       </c>
       <c r="C237" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D237" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B238" t="str">
         <v>职业发展</v>
       </c>
       <c r="C238" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D238" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B239" t="str">
         <v>职业发展</v>
       </c>
       <c r="C239" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D239" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B240" t="str">
         <v>职业发展</v>
       </c>
       <c r="C240" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D240" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B241" t="str">
         <v>职业发展</v>
       </c>
       <c r="C241" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D241" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B242" t="str">
         <v>职业发展</v>
       </c>
       <c r="C242" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D242" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B243" t="str">
         <v>职业发展</v>
       </c>
       <c r="C243" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D243" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B244" t="str">
         <v>职业发展</v>
       </c>
       <c r="C244" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D244" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B245" t="str">
         <v>职业发展</v>
       </c>
       <c r="C245" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D245" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B246" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C246" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D246" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B247" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C247" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D247" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B248" t="str">
         <v>自我提升</v>
       </c>
       <c r="C248" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D248" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B249" t="str">
         <v>自我提升</v>
       </c>
       <c r="C249" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D249" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B250" t="str">
         <v>自我提升</v>
       </c>
       <c r="C250" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D250" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B251" t="str">
         <v>自我提升</v>
       </c>
       <c r="C251" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D251" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B252" t="str">
         <v>自我提升</v>
       </c>
       <c r="C252" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D252" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B253" t="str">
         <v>自我提升</v>
       </c>
       <c r="C253" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
       </c>
       <c r="D253" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B254" t="str">
         <v>自我提升</v>
       </c>
       <c r="C254" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D254" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B255" t="str">
         <v>自我提升</v>
       </c>
       <c r="C255" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D255" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B256" t="str">
         <v>自我提升</v>
       </c>
       <c r="C256" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D256" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B257" t="str">
         <v>自我提升</v>
       </c>
       <c r="C257" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
       </c>
       <c r="D257" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>个人发展, 心态管理, 成功学, 目标设定</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B258" t="str">
         <v>自我提升</v>
       </c>
       <c r="C258" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D258" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B259" t="str">
         <v>自我提升</v>
       </c>
       <c r="C259" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D259" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B260" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C260" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D260" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B261" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C261" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D261" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B262" t="str">
         <v>自然科学</v>
       </c>
       <c r="C262" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D262" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B263" t="str">
         <v>自然科学</v>
       </c>
       <c r="C263" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D263" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B264" t="str">
         <v>自然科学</v>
       </c>
       <c r="C264" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D264" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>字典数排序</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B265" t="str">
         <v>自然科学</v>
       </c>
       <c r="C265" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D265" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B266" t="str">
         <v>自然科学</v>
       </c>
       <c r="C266" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D266" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>字典数排序</v>
       </c>
       <c r="B267" t="str">
         <v>自然科学</v>
       </c>
       <c r="C267" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D267" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B268" t="str">
         <v>自然科学</v>
       </c>
       <c r="C268" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D268" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B269" t="str">
         <v>自然科学</v>
       </c>
       <c r="C269" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D269" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B270" t="str">
         <v>自然科学</v>
       </c>
       <c r="C270" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D270" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B271" t="str">
         <v>自然科学</v>
       </c>
       <c r="C271" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D271" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B272" t="str">
         <v>自然科学</v>
       </c>
       <c r="C272" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D272" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B273" t="str">
         <v>自然科学</v>
       </c>
       <c r="C273" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D273" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B274" t="str">
         <v>自然科学</v>
       </c>
       <c r="C274" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D274" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B275" t="str">
         <v>自然科学</v>
       </c>
       <c r="C275" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D275" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B276" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C276" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D276" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B277" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C277" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D277" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B278" t="str">
         <v>财富管理</v>
       </c>
       <c r="C278" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D278" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B279" t="str">
         <v>财富管理</v>
       </c>
       <c r="C279" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D279" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B280" t="str">
         <v>财富管理</v>
       </c>
       <c r="C280" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D280" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B281" t="str">
         <v>财富管理</v>
       </c>
       <c r="C281" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D281" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B282" t="str">
         <v>财富管理</v>
       </c>
       <c r="C282" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D282" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B283" t="str">
         <v>财富管理</v>
       </c>
       <c r="C283" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D283" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B284" t="str">
         <v>财富管理</v>
       </c>
       <c r="C284" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D284" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B285" t="str">
         <v>财富管理</v>
       </c>
       <c r="C285" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D285" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B286" t="str">
         <v>财富管理</v>
       </c>
       <c r="C286" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D286" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B287" t="str">
         <v>财富管理</v>
       </c>
       <c r="C287" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D287" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B288" t="str">
         <v>财富管理</v>
       </c>
       <c r="C288" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D288" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B289" t="str">
         <v>财富管理</v>
       </c>
       <c r="C289" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D289" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B290" t="str">
         <v>财富管理</v>
       </c>
       <c r="C290" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D290" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B291" t="str">
         <v>财富管理</v>
       </c>
       <c r="C291" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D291" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B292" t="str">
         <v>财富管理</v>
       </c>
       <c r="C292" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D292" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B293" t="str">
         <v>财富管理</v>
       </c>
       <c r="C293" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D293" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B294" t="str">
         <v>财富管理</v>
       </c>
       <c r="C294" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D294" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B295" t="str">
         <v>财富管理</v>
       </c>
       <c r="C295" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D295" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B296" t="str">
         <v>财富管理</v>
       </c>
       <c r="C296" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D296" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B297" t="str">
         <v>财富管理</v>
       </c>
       <c r="C297" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D297" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B298" t="str">
         <v>财富管理</v>
       </c>
       <c r="C298" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D298" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B299" t="str">
         <v>财富管理</v>
       </c>
       <c r="C299" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D299" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B300" t="str">
         <v>财富管理</v>
       </c>
       <c r="C300" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D300" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>有效增加收入指南</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B301" t="str">
         <v>财富管理</v>
       </c>
       <c r="C301" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D301" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B302" t="str">
         <v>财富管理</v>
       </c>
       <c r="C302" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D302" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B303" t="str">
         <v>财富管理</v>
       </c>
       <c r="C303" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D303" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B304" t="str">
         <v>财富管理</v>
       </c>
       <c r="C304" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D304" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>穷人怎么翻身</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B305" t="str">
         <v>财富管理</v>
       </c>
       <c r="C305" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D305" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B306" t="str">
         <v>财富管理</v>
       </c>
       <c r="C306" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D306" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B307" t="str">
         <v>财富管理</v>
       </c>
       <c r="C307" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D307" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B308" t="str">
         <v>财富管理</v>
       </c>
       <c r="C308" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D308" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B309" t="str">
         <v>财富管理</v>
       </c>
       <c r="C309" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D309" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B310" t="str">
         <v>财富管理</v>
       </c>
       <c r="C310" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D310" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B311" t="str">
         <v>财富管理</v>
       </c>
       <c r="C311" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D311" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B312" t="str">
         <v>财富管理</v>
       </c>
       <c r="C312" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D312" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B313" t="str">
         <v>财富管理</v>
       </c>
       <c r="C313" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D313" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B314" t="str">
         <v>财富管理</v>
       </c>
       <c r="C314" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D314" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B315" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C315" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D315" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B316" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C316" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D316" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B317" t="str">
         <v>身体健康</v>
       </c>
       <c r="C317" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D317" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B318" t="str">
         <v>身体健康</v>
       </c>
       <c r="C318" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D318" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B319" t="str">
         <v>身体健康</v>
       </c>
       <c r="C319" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D319" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B320" t="str">
         <v>身体健康</v>
       </c>
       <c r="C320" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D320" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B321" t="str">
         <v>身体健康</v>
       </c>
       <c r="C321" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D321" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B322" t="str">
         <v>身体健康</v>
       </c>
       <c r="C322" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D322" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B323" t="str">
         <v>身体健康</v>
       </c>
       <c r="C323" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D323" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B324" t="str">
         <v>身体健康</v>
       </c>
       <c r="C324" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D324" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B325" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C325" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D325" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B326" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C326" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D326" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B327" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C327" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D327" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B328" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C328" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D328" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B329" t="str">
         <v>运营指南</v>
       </c>
       <c r="C329" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D329" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B330" t="str">
         <v>运营指南</v>
       </c>
       <c r="C330" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D330" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B331" t="str">
         <v>运营指南</v>
       </c>
       <c r="C331" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D331" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>打造百家号爆款内容的实用秘籍</v>
       </c>
       <c r="B332" t="str">
         <v>运营指南</v>
       </c>
       <c r="C332" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
       </c>
       <c r="D332" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>打造知乎爆款内容的实用秘籍</v>
       </c>
       <c r="B333" t="str">
         <v>运营指南</v>
       </c>
       <c r="C333" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
       </c>
       <c r="D333" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>抖音爆款内容打造全攻略</v>
       </c>
       <c r="B334" t="str">
         <v>运营指南</v>
       </c>
       <c r="C334" t="str">
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+      </c>
+      <c r="D334" t="str">
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>畅销长篇小说创作秘籍全解析</v>
+      </c>
+      <c r="B335" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C335" t="str">
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+      </c>
+      <c r="D335" t="str">
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B336" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C336" t="str">
         <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
       </c>
-      <c r="D334" t="str">
+      <c r="D336" t="str">
         <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D334"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D336"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1852,3269 +1852,3591 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B104" t="str">
-        <v>差旅办公</v>
+        <v>宇宙探索</v>
       </c>
       <c r="C104" t="str">
-        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D104" t="str">
-        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>这个男人来自地球观后感</v>
+        <v>冰箱与冰柜名称背后的有趣谜题</v>
       </c>
       <c r="B105" t="str">
-        <v>影视评论</v>
+        <v>家电知识</v>
       </c>
       <c r="C105" t="str">
-        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
+        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
       </c>
       <c r="D105" t="str">
-        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
+        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
       </c>
       <c r="B106" t="str">
-        <v>心理调适</v>
+        <v>差旅办公</v>
       </c>
       <c r="C106" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
       </c>
       <c r="D106" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>这个男人来自地球观后感</v>
       </c>
       <c r="B107" t="str">
-        <v>心理调适</v>
+        <v>影视评论</v>
       </c>
       <c r="C107" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
       </c>
       <c r="D107" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B108" t="str">
         <v>心理调适</v>
       </c>
       <c r="C108" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D108" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B109" t="str">
         <v>心理调适</v>
       </c>
       <c r="C109" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D109" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B110" t="str">
         <v>心理调适</v>
       </c>
       <c r="C110" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D110" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B111" t="str">
         <v>心理调适</v>
       </c>
       <c r="C111" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D111" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B112" t="str">
         <v>心理调适</v>
       </c>
       <c r="C112" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D112" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B113" t="str">
         <v>心理调适</v>
       </c>
       <c r="C113" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D113" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B114" t="str">
         <v>心理调适</v>
       </c>
       <c r="C114" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D114" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B115" t="str">
         <v>心理调适</v>
       </c>
       <c r="C115" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D115" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B116" t="str">
         <v>心理调适</v>
       </c>
       <c r="C116" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D116" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B117" t="str">
         <v>心理调适</v>
       </c>
       <c r="C117" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D117" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B118" t="str">
         <v>心理调适</v>
       </c>
       <c r="C118" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D118" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B119" t="str">
         <v>心理调适</v>
       </c>
       <c r="C119" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D119" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D120" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D121" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D122" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D123" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D124" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D125" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D126" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D127" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D128" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D129" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D130" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D131" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D132" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D133" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D134" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D135" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B136" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D136" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B137" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D137" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B138" t="str">
         <v>性别健康</v>
       </c>
       <c r="C138" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D138" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B139" t="str">
         <v>性别健康</v>
       </c>
       <c r="C139" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D139" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B140" t="str">
         <v>性别健康</v>
       </c>
       <c r="C140" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D140" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B141" t="str">
         <v>性别健康</v>
       </c>
       <c r="C141" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D141" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B142" t="str">
         <v>性别健康</v>
       </c>
       <c r="C142" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D142" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B143" t="str">
         <v>性别健康</v>
       </c>
       <c r="C143" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D143" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B144" t="str">
         <v>性别健康</v>
       </c>
       <c r="C144" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D144" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B145" t="str">
         <v>性别健康</v>
       </c>
       <c r="C145" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D145" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B146" t="str">
         <v>性别健康</v>
       </c>
       <c r="C146" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D146" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B147" t="str">
         <v>性别健康</v>
       </c>
       <c r="C147" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D147" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B148" t="str">
         <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D148" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B149" t="str">
         <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D149" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B150" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D150" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B151" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D151" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B152" t="str">
         <v>情感关系</v>
       </c>
       <c r="C152" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D152" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B153" t="str">
         <v>情感关系</v>
       </c>
       <c r="C153" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D153" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B154" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C154" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D154" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B155" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C155" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D155" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B156" t="str">
         <v>教育学习</v>
       </c>
       <c r="C156" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D156" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B157" t="str">
         <v>教育学习</v>
       </c>
       <c r="C157" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D157" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B158" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C158" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D158" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B159" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C159" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D159" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B160" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C160" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D160" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B161" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C161" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D161" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B162" t="str">
         <v>时尚生活</v>
       </c>
       <c r="C162" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D162" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B163" t="str">
-        <v>法律</v>
+        <v>时尚生活</v>
       </c>
       <c r="C163" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D163" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B164" t="str">
-        <v>游戏竞技</v>
+        <v>时尚生活</v>
       </c>
       <c r="C164" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D164" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B165" t="str">
-        <v>生活感悟</v>
+        <v>汽车安全与气象影响</v>
       </c>
       <c r="C165" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D165" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B166" t="str">
-        <v>生活感悟</v>
+        <v>法律</v>
       </c>
       <c r="C166" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D166" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B167" t="str">
-        <v>生活感悟</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C167" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D167" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
       </c>
       <c r="B168" t="str">
-        <v>生活感悟</v>
+        <v>玩具科普</v>
       </c>
       <c r="C168" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
       </c>
       <c r="D168" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B169" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C169" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D169" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B170" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C170" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D170" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B171" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C171" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D171" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B172" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C172" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D172" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B173" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C173" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D173" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B174" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C174" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D174" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B175" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C175" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D175" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B176" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C176" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D176" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B177" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C177" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D177" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B178" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C178" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D178" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>回首2024</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B179" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C179" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D179" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B180" t="str">
         <v>生活日常</v>
       </c>
       <c r="C180" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D180" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B181" t="str">
         <v>生活日常</v>
       </c>
       <c r="C181" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D181" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B182" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C182" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D182" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>回首2024</v>
       </c>
       <c r="B183" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C183" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D183" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B184" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C184" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D184" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B185" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C185" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D185" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B186" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C186" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D186" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B187" t="str">
         <v>社会探究</v>
       </c>
       <c r="C187" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D187" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B188" t="str">
         <v>社会探究</v>
       </c>
       <c r="C188" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D188" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B189" t="str">
         <v>社会探究</v>
       </c>
       <c r="C189" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D189" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B190" t="str">
         <v>社会探究</v>
       </c>
       <c r="C190" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D190" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B191" t="str">
         <v>社会探究</v>
       </c>
       <c r="C191" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D191" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B192" t="str">
         <v>社会探究</v>
       </c>
       <c r="C192" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D192" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B193" t="str">
         <v>社会探究</v>
       </c>
       <c r="C193" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D193" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B194" t="str">
         <v>社会探究</v>
       </c>
       <c r="C194" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D194" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B195" t="str">
         <v>社会探究</v>
       </c>
       <c r="C195" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D195" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B196" t="str">
         <v>社会探究</v>
       </c>
       <c r="C196" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D196" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B197" t="str">
         <v>社会探究</v>
       </c>
       <c r="C197" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D197" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B198" t="str">
         <v>社会探究</v>
       </c>
       <c r="C198" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D198" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B199" t="str">
         <v>社会探究</v>
       </c>
       <c r="C199" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D199" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B200" t="str">
         <v>社会探究</v>
       </c>
       <c r="C200" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D200" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B201" t="str">
         <v>社会探究</v>
       </c>
       <c r="C201" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D201" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B202" t="str">
         <v>社会探究</v>
       </c>
       <c r="C202" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D202" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B203" t="str">
         <v>社会探究</v>
       </c>
       <c r="C203" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D203" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B204" t="str">
         <v>社会探究</v>
       </c>
       <c r="C204" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D204" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B205" t="str">
         <v>社会探究</v>
       </c>
       <c r="C205" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D205" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B206" t="str">
         <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D206" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D207" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D208" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D209" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B210" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D210" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B211" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D211" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B212" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D212" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B213" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D213" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>再聊姜萍</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B214" t="str">
         <v>社会现象</v>
       </c>
       <c r="C214" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D214" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B215" t="str">
         <v>社会现象</v>
       </c>
       <c r="C215" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D215" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B216" t="str">
         <v>社会现象</v>
       </c>
       <c r="C216" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D216" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B217" t="str">
         <v>社会现象</v>
       </c>
       <c r="C217" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D217" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B218" t="str">
         <v>社会现象</v>
       </c>
       <c r="C218" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D218" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B219" t="str">
         <v>社会现象</v>
       </c>
       <c r="C219" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D219" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B220" t="str">
         <v>社会现象</v>
       </c>
       <c r="C220" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D220" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B221" t="str">
         <v>社会现象</v>
       </c>
       <c r="C221" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D221" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B222" t="str">
         <v>社会现象</v>
       </c>
       <c r="C222" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D222" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B223" t="str">
         <v>社会现象</v>
       </c>
       <c r="C223" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D223" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B224" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C224" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D224" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B225" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C225" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D225" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B226" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C226" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D226" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B227" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C227" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D227" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B228" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C228" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D228" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B229" t="str">
-        <v>科技前沿</v>
+        <v>科学幻想与探索</v>
       </c>
       <c r="C229" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D229" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B230" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C230" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D230" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B231" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C231" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D231" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B232" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C232" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D232" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>什么是成功的定义？</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B233" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C233" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D233" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B234" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C234" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D234" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B235" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C235" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D235" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B236" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C236" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D236" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B237" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C237" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D237" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B238" t="str">
         <v>职业发展</v>
       </c>
       <c r="C238" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D238" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B239" t="str">
         <v>职业发展</v>
       </c>
       <c r="C239" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D239" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B240" t="str">
         <v>职业发展</v>
       </c>
       <c r="C240" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D240" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B241" t="str">
         <v>职业发展</v>
       </c>
       <c r="C241" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D241" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B242" t="str">
         <v>职业发展</v>
       </c>
       <c r="C242" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D242" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B243" t="str">
         <v>职业发展</v>
       </c>
       <c r="C243" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D243" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B244" t="str">
         <v>职业发展</v>
       </c>
       <c r="C244" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D244" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B245" t="str">
         <v>职业发展</v>
       </c>
       <c r="C245" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D245" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B246" t="str">
         <v>职业发展</v>
       </c>
       <c r="C246" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D246" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B247" t="str">
         <v>职业发展</v>
       </c>
       <c r="C247" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D247" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B248" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C248" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D248" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B249" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C249" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D249" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B250" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C250" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D250" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B251" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C251" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D251" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B252" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C252" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D252" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B253" t="str">
-        <v>自我提升</v>
+        <v>职业发展</v>
       </c>
       <c r="C253" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D253" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B254" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C254" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D254" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B255" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C255" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D255" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B256" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C256" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D256" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B257" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C257" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D257" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B258" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C258" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D258" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B259" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C259" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D259" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B260" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C260" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D260" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B261" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C261" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D261" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B262" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C262" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D262" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B263" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C263" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D263" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B264" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C264" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D264" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B265" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C265" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D265" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B266" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C266" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D266" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>字典数排序</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B267" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C267" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D267" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B268" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C268" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D268" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B269" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C269" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D269" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B270" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C270" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D270" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B271" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C271" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D271" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B272" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C272" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D272" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B273" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C273" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D273" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B274" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C274" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
       </c>
       <c r="D274" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B275" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C275" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D275" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B276" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C276" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D276" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B277" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C277" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D277" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B278" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C278" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
       </c>
       <c r="D278" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>个人发展, 心态管理, 成功学, 目标设定</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B279" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C279" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D279" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B280" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C280" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D280" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B281" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C281" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D281" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B282" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C282" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D282" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B283" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C283" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D283" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B284" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C284" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D284" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B285" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C285" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D285" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B286" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C286" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D286" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B287" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C287" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D287" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>字典数排序</v>
       </c>
       <c r="B288" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C288" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D288" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B289" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C289" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D289" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B290" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C290" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D290" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B291" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C291" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D291" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B292" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C292" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D292" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B293" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C293" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D293" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B294" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C294" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D294" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B295" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C295" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D295" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B296" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C296" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D296" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B297" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C297" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D297" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B298" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C298" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D298" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B299" t="str">
         <v>财富管理</v>
       </c>
       <c r="C299" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D299" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B300" t="str">
         <v>财富管理</v>
       </c>
       <c r="C300" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D300" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B301" t="str">
         <v>财富管理</v>
       </c>
       <c r="C301" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D301" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B302" t="str">
         <v>财富管理</v>
       </c>
       <c r="C302" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D302" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>有效增加收入指南</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B303" t="str">
         <v>财富管理</v>
       </c>
       <c r="C303" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D303" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B304" t="str">
         <v>财富管理</v>
       </c>
       <c r="C304" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D304" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B305" t="str">
         <v>财富管理</v>
       </c>
       <c r="C305" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D305" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B306" t="str">
         <v>财富管理</v>
       </c>
       <c r="C306" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D306" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>穷人怎么翻身</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B307" t="str">
         <v>财富管理</v>
       </c>
       <c r="C307" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D307" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B308" t="str">
         <v>财富管理</v>
       </c>
       <c r="C308" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D308" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B309" t="str">
         <v>财富管理</v>
       </c>
       <c r="C309" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D309" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B310" t="str">
         <v>财富管理</v>
       </c>
       <c r="C310" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D310" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B311" t="str">
         <v>财富管理</v>
       </c>
       <c r="C311" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D311" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B312" t="str">
         <v>财富管理</v>
       </c>
       <c r="C312" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D312" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B313" t="str">
         <v>财富管理</v>
       </c>
       <c r="C313" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D313" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B314" t="str">
         <v>财富管理</v>
       </c>
       <c r="C314" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D314" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B315" t="str">
         <v>财富管理</v>
       </c>
       <c r="C315" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D315" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B316" t="str">
         <v>财富管理</v>
       </c>
       <c r="C316" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D316" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B317" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C317" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D317" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B318" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C318" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D318" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B319" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C319" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D319" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B320" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C320" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D320" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B321" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C321" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D321" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B322" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C322" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D322" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B323" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C323" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D323" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B324" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C324" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D324" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B325" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C325" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D325" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B326" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C326" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D326" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B327" t="str">
-        <v>软件开发</v>
+        <v>财富管理</v>
       </c>
       <c r="C327" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D327" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B328" t="str">
-        <v>软件开发</v>
+        <v>财富管理</v>
       </c>
       <c r="C328" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D328" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B329" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C329" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D329" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B330" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C330" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D330" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B331" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C331" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D331" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B332" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C332" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D332" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B333" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C333" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D333" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B334" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C334" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D334" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B335" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C335" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D335" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
+        <v>重新审视“有钱能使鬼推磨”</v>
+      </c>
+      <c r="B336" t="str">
+        <v>财富管理</v>
+      </c>
+      <c r="C336" t="str">
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+      </c>
+      <c r="D336" t="str">
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>钱真的能买到快乐吗？</v>
+      </c>
+      <c r="B337" t="str">
+        <v>财富管理</v>
+      </c>
+      <c r="C337" t="str">
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+      </c>
+      <c r="D337" t="str">
+        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
+      </c>
+      <c r="B338" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C338" t="str">
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+      </c>
+      <c r="D338" t="str">
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>产后吃什么对身体恢复好</v>
+      </c>
+      <c r="B339" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C339" t="str">
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+      </c>
+      <c r="D339" t="str">
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+      </c>
+      <c r="B340" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C340" t="str">
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+      </c>
+      <c r="D340" t="str">
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>失眠了该怎么办？</v>
+      </c>
+      <c r="B341" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C341" t="str">
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+      </c>
+      <c r="D341" t="str">
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>如何保持长寿与健康？</v>
+      </c>
+      <c r="B342" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C342" t="str">
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+      </c>
+      <c r="D342" t="str">
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
+      </c>
+      <c r="B343" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C343" t="str">
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+      </c>
+      <c r="D343" t="str">
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>怎么锻炼下半身的力量</v>
+      </c>
+      <c r="B344" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C344" t="str">
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+      </c>
+      <c r="D344" t="str">
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+      </c>
+      <c r="B345" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C345" t="str">
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+      </c>
+      <c r="D345" t="str">
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>甲流发烧为什么不建议洗澡</v>
+      </c>
+      <c r="B346" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C346" t="str">
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+      </c>
+      <c r="D346" t="str">
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>癌症未来能被彻底治愈吗？</v>
+      </c>
+      <c r="B347" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C347" t="str">
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+      </c>
+      <c r="D347" t="str">
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>自慰会导致早泄吗</v>
+      </c>
+      <c r="B348" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C348" t="str">
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+      </c>
+      <c r="D348" t="str">
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>程序员技术好的评判标准</v>
+      </c>
+      <c r="B349" t="str">
+        <v>软件开发</v>
+      </c>
+      <c r="C349" t="str">
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+      </c>
+      <c r="D349" t="str">
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>解决Markdown文件中标题解析异常的问题</v>
+      </c>
+      <c r="B350" t="str">
+        <v>软件开发</v>
+      </c>
+      <c r="C350" t="str">
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+      </c>
+      <c r="D350" t="str">
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>小红书爆款内容打造全攻略</v>
+      </c>
+      <c r="B351" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C351" t="str">
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+      </c>
+      <c r="D351" t="str">
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>微信公众号爆款文章打造全攻略</v>
+      </c>
+      <c r="B352" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C352" t="str">
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+      </c>
+      <c r="D352" t="str">
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>打造今日头条爆款内容的实用秘籍</v>
+      </c>
+      <c r="B353" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C353" t="str">
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+      </c>
+      <c r="D353" t="str">
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>打造百家号爆款内容的实用秘籍</v>
+      </c>
+      <c r="B354" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C354" t="str">
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+      </c>
+      <c r="D354" t="str">
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>打造知乎爆款内容的实用秘籍</v>
+      </c>
+      <c r="B355" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C355" t="str">
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+      </c>
+      <c r="D355" t="str">
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>抖音爆款内容打造全攻略</v>
+      </c>
+      <c r="B356" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C356" t="str">
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+      </c>
+      <c r="D356" t="str">
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>畅销长篇小说创作秘籍全解析</v>
+      </c>
+      <c r="B357" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C357" t="str">
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+      </c>
+      <c r="D357" t="str">
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
         <v>短篇小说畅销秘籍：全方位创作指南</v>
       </c>
-      <c r="B336" t="str">
+      <c r="B358" t="str">
         <v>运营指南</v>
       </c>
-      <c r="C336" t="str">
+      <c r="C358" t="str">
         <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
       </c>
-      <c r="D336" t="str">
+      <c r="D358" t="str">
         <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+      </c>
+      <c r="B359" t="str">
+        <v>食品安全</v>
+      </c>
+      <c r="C359" t="str">
+        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+      </c>
+      <c r="D359" t="str">
+        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D336"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D359"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D364"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,1990 +732,1990 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>为什么人际关系总是这么复杂？</v>
+        <v>见一面是“少一面”还是“多一面”</v>
       </c>
       <c r="B24" t="str">
-        <v>人际相处</v>
+        <v>人际关系</v>
       </c>
       <c r="C24" t="str">
-        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
+        <v>深入探讨人与人相遇时“见一面是‘少一面’还是‘多一面’”这一深刻话题，从哲学、情感、社会等多层面剖析相遇对人际关系及个人生命体验的影响。</v>
       </c>
       <c r="D24" t="str">
-        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
+        <v>人际关系, 心灵交融, 相遇意义, 社会价值, 视野拓展</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>为什么小龙女不杀强奸她的那个人？</v>
+        <v>为什么人际关系总是这么复杂？</v>
       </c>
       <c r="B25" t="str">
         <v>人际相处</v>
       </c>
       <c r="C25" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
       </c>
       <c r="D25" t="str">
-        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
+        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>为什么越想忘记越难忘？</v>
+        <v>为什么小龙女不杀强奸她的那个人？</v>
       </c>
       <c r="B26" t="str">
         <v>人际相处</v>
       </c>
       <c r="C26" t="str">
-        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D26" t="str">
-        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
+        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
+        <v>为什么越想忘记越难忘？</v>
       </c>
       <c r="B27" t="str">
         <v>人际相处</v>
       </c>
       <c r="C27" t="str">
-        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
+        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
       </c>
       <c r="D27" t="str">
-        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
+        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
+        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
       </c>
       <c r="B28" t="str">
         <v>人际相处</v>
       </c>
       <c r="C28" t="str">
-        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
+        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
       </c>
       <c r="D28" t="str">
-        <v>人工智能, 人机交互, 人类特质, 情感处理</v>
+        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>初恋记忆为何自带“美颜滤镜”</v>
+        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
       </c>
       <c r="B29" t="str">
         <v>人际相处</v>
       </c>
       <c r="C29" t="str">
-        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
+        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
       </c>
       <c r="D29" t="str">
-        <v>初恋记忆, 情感因素, 认知因素, 记忆美化</v>
+        <v>人工智能, 人机交互, 人类特质, 情感处理</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>友情中的距离之道：把握分寸，情谊长久</v>
+        <v>初恋记忆为何自带“美颜滤镜”</v>
       </c>
       <c r="B30" t="str">
         <v>人际相处</v>
       </c>
       <c r="C30" t="str">
-        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
+        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
       </c>
       <c r="D30" t="str">
-        <v>友情管理, 友情维护</v>
+        <v>初恋记忆, 情感因素, 认知因素, 记忆美化</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>如何与喜欢咒骂表达情绪的人相处</v>
+        <v>友情中的距离之道：把握分寸，情谊长久</v>
       </c>
       <c r="B31" t="str">
         <v>人际相处</v>
       </c>
       <c r="C31" t="str">
-        <v>介绍与喜欢通过咒骂来表达情绪的人相处的实用方法，包括挖掘咒骂根源、保持理智、主动沟通、划清界限和给予鼓励等方面，帮助读者更好地应对这类人并维护良好人际关系。</v>
+        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
       </c>
       <c r="D31" t="str">
-        <v>咒骂行为, 情绪表达, 相处技巧, 自我保护</v>
+        <v>友情管理, 友情维护</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>如何走出失恋的痛苦？</v>
+        <v>如何与喜欢咒骂表达情绪的人相处</v>
       </c>
       <c r="B32" t="str">
         <v>人际相处</v>
       </c>
       <c r="C32" t="str">
-        <v>学习如何有效走出失恋的痛苦，重建情感与生活的平衡。本文提供了一系列实用的方法，包括接受自己的情绪、避免急于开始新恋情、寻找支持系统、专注于自我成长、学会放手、寻找新的生活平衡以及给自己时间去治愈。通过这些策略，你能够逐渐恢复自信，找到内心的平静与幸福，迎接更加光明的未来。</v>
+        <v>介绍与喜欢通过咒骂来表达情绪的人相处的实用方法，包括挖掘咒骂根源、保持理智、主动沟通、划清界限和给予鼓励等方面，帮助读者更好地应对这类人并维护良好人际关系。</v>
       </c>
       <c r="D32" t="str">
-        <v>情感修复, 情感恢复, 支持系统, 自我成长</v>
+        <v>咒骂行为, 情绪表达, 相处技巧, 自我保护</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>如果两个人最终一定会分离，那相遇的意义是什么 ？</v>
+        <v>如何走出失恋的痛苦？</v>
       </c>
       <c r="B33" t="str">
         <v>人际相处</v>
       </c>
       <c r="C33" t="str">
-        <v>探索相遇的真谛，即使面临分离，也能找到爱与成长的意义。本文深入分析了为何每一段关系都是生命中的宝贵财富，强调珍惜过程、勇敢面对当下的重要性，帮助你在人际关系中找到内心的平静与情感智慧。</v>
+        <v>学习如何有效走出失恋的痛苦，重建情感与生活的平衡。本文提供了一系列实用的方法，包括接受自己的情绪、避免急于开始新恋情、寻找支持系统、专注于自我成长、学会放手、寻找新的生活平衡以及给自己时间去治愈。通过这些策略，你能够逐渐恢复自信，找到内心的平静与幸福，迎接更加光明的未来。</v>
       </c>
       <c r="D33" t="str">
-        <v>心灵成长, 情感思考, 爱与离别, 相遇意义</v>
+        <v>情感修复, 情感恢复, 支持系统, 自我成长</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>家庭关系中的代际沟通技巧：搭建和谐亲情的坚固桥梁</v>
+        <v>如果两个人最终一定会分离，那相遇的意义是什么 ？</v>
       </c>
       <c r="B34" t="str">
         <v>人际相处</v>
       </c>
       <c r="C34" t="str">
-        <v>阐述家庭关系里代际沟通的重要性，剖析代际差异的表现，介绍巧妙的沟通技巧并说明营造良好沟通氛围的方式，助力搭建和谐亲情的坚固桥梁。</v>
+        <v>探索相遇的真谛，即使面临分离，也能找到爱与成长的意义。本文深入分析了为何每一段关系都是生命中的宝贵财富，强调珍惜过程、勇敢面对当下的重要性，帮助你在人际关系中找到内心的平静与情感智慧。</v>
       </c>
       <c r="D34" t="str">
-        <v>代际差异, 代际沟通, 家庭沟通, 沟通技巧</v>
+        <v>心灵成长, 情感思考, 爱与离别, 相遇意义</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>家庭关系对恋爱关系的隐形塑造</v>
+        <v>家庭关系中的代际沟通技巧：搭建和谐亲情的坚固桥梁</v>
       </c>
       <c r="B35" t="str">
         <v>人际相处</v>
       </c>
       <c r="C35" t="str">
-        <v>深入剖析家庭关系如何在多个方面隐形塑造恋爱关系，包括家庭氛围、相处模式、情感缺失以及价值观等方面，同时探讨如何驾驭家庭影响构建美好恋爱关系。</v>
+        <v>阐述家庭关系里代际沟通的重要性，剖析代际差异的表现，介绍巧妙的沟通技巧并说明营造良好沟通氛围的方式，助力搭建和谐亲情的坚固桥梁。</v>
       </c>
       <c r="D35" t="str">
-        <v>家庭影响, 恋爱关系, 情感缺失, 相处模式</v>
+        <v>代际差异, 代际沟通, 家庭沟通, 沟通技巧</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>幸福是一种主观感受还是客观存在？</v>
+        <v>家庭关系对恋爱关系的隐形塑造</v>
       </c>
       <c r="B36" t="str">
         <v>人际相处</v>
       </c>
       <c r="C36" t="str">
-        <v>幸福既是主观感受也是客观存在的体现，它由个人的内心体验和外部环境共同决定。本文探讨了幸福的双重维度，包括个体的性格、价值观等主观因素，以及经济状况、社会关系、自然环境等客观条件对幸福感的影响，强调了理解幸福复杂性对于提升个人幸福感的重要性。</v>
+        <v>深入剖析家庭关系如何在多个方面隐形塑造恋爱关系，包括家庭氛围、相处模式、情感缺失以及价值观等方面，同时探讨如何驾驭家庭影响构建美好恋爱关系。</v>
       </c>
       <c r="D36" t="str">
-        <v>幸福本质, 幸福研究</v>
+        <v>家庭影响, 恋爱关系, 情感缺失, 相处模式</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>应对老妈超强控制欲的有效策略</v>
+        <v>幸福是一种主观感受还是客观存在？</v>
       </c>
       <c r="B37" t="str">
         <v>人际相处</v>
       </c>
       <c r="C37" t="str">
-        <v>阐述老妈控制欲强的表现、背后原因，并提供如坦诚沟通、明确边界、给予陪伴、寻求外援等实用的应对方法，帮助读者在维护自身自由权利的同时改善家庭关系。</v>
+        <v>幸福既是主观感受也是客观存在的体现，它由个人的内心体验和外部环境共同决定。本文探讨了幸福的双重维度，包括个体的性格、价值观等主观因素，以及经济状况、社会关系、自然环境等客观条件对幸福感的影响，强调了理解幸福复杂性对于提升个人幸福感的重要性。</v>
       </c>
       <c r="D37" t="str">
-        <v>亲子沟通, 家庭关系, 应对策略, 老妈控制欲</v>
+        <v>幸福本质, 幸福研究</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>异地三百公里的选择题：我用了十年才看懂的爱情真相</v>
+        <v>应对老妈超强控制欲的有效策略</v>
       </c>
       <c r="B38" t="str">
         <v>人际相处</v>
       </c>
       <c r="C38" t="str">
-        <v>本文深入探讨了异地恋关系中的复杂情感与实际考量，通过分析“前任异地”的阴影、当代异地恋的新公式、长期友谊的潜在问题以及使用麦肯锡MECE法则进行决策模型构建等方面，揭示了异地恋背后的真相。文章提供了实用的建议和策略，如建立“战备值班”制度、“云生活”场景开发等，并强调了在做出是否继续异地恋决定时的重要性。适合那些处于异地恋或考虑进入异地恋关系的人士，帮助他们更好地理解并处理这种特殊关系中的挑战。爱情不是选择题而是证明题，关键在于是否值得让对方放弃一切来选择你。</v>
+        <v>阐述老妈控制欲强的表现、背后原因，并提供如坦诚沟通、明确边界、给予陪伴、寻求外援等实用的应对方法，帮助读者在维护自身自由权利的同时改善家庭关系。</v>
       </c>
       <c r="D38" t="str">
-        <v>异地恋, 心理学, 情感分析, 生活成本</v>
+        <v>亲子沟通, 家庭关系, 应对策略, 老妈控制欲</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>异地恋中的信任问题处理方法</v>
+        <v>异地三百公里的选择题：我用了十年才看懂的爱情真相</v>
       </c>
       <c r="B39" t="str">
         <v>人际相处</v>
       </c>
       <c r="C39" t="str">
-        <v>本文探讨了异地恋中的信任问题及其解决方法，包括建立有效沟通机制、增强彼此安全感、建立共同目标以及自我提升与独立等方面，帮助异地情侣更好地维护感情。</v>
+        <v>本文深入探讨了异地恋关系中的复杂情感与实际考量，通过分析“前任异地”的阴影、当代异地恋的新公式、长期友谊的潜在问题以及使用麦肯锡MECE法则进行决策模型构建等方面，揭示了异地恋背后的真相。文章提供了实用的建议和策略，如建立“战备值班”制度、“云生活”场景开发等，并强调了在做出是否继续异地恋决定时的重要性。适合那些处于异地恋或考虑进入异地恋关系的人士，帮助他们更好地理解并处理这种特殊关系中的挑战。爱情不是选择题而是证明题，关键在于是否值得让对方放弃一切来选择你。</v>
       </c>
       <c r="D39" t="str">
-        <v>共同目标, 安全感, 异地恋, 情感沟通, 情感维护</v>
+        <v>异地恋, 心理学, 情感分析, 生活成本</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>得饶人处且饶人：生活中的智慧与美德</v>
+        <v>异地恋中的信任问题处理方法</v>
       </c>
       <c r="B40" t="str">
         <v>人际相处</v>
       </c>
       <c r="C40" t="str">
-        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
+        <v>本文探讨了异地恋中的信任问题及其解决方法，包括建立有效沟通机制、增强彼此安全感、建立共同目标以及自我提升与独立等方面，帮助异地情侣更好地维护感情。</v>
       </c>
       <c r="D40" t="str">
-        <v>人际关系, 生活智慧</v>
+        <v>共同目标, 安全感, 异地恋, 情感沟通, 情感维护</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>恋爱中独立人格的保鲜之道</v>
+        <v>得饶人处且饶人：生活中的智慧与美德</v>
       </c>
       <c r="B41" t="str">
         <v>人际相处</v>
       </c>
       <c r="C41" t="str">
-        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
+        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
       </c>
       <c r="D41" t="str">
-        <v>恋爱关系, 恋爱心理, 独立人格, 社交圈子, 经济独立</v>
+        <v>人际关系, 生活智慧</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>情侣之间婚前性行为的全面剖析</v>
+        <v>恋爱中独立人格的保鲜之道</v>
       </c>
       <c r="B42" t="str">
         <v>人际相处</v>
       </c>
       <c r="C42" t="str">
-        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
+        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
       </c>
       <c r="D42" t="str">
-        <v>性观念, 恋爱时长, 情侣关系, 情感关系, 情感表达</v>
+        <v>恋爱关系, 恋爱心理, 独立人格, 社交圈子, 经济独立</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
+        <v>情侣之间婚前性行为的全面剖析</v>
       </c>
       <c r="B43" t="str">
         <v>人际相处</v>
       </c>
       <c r="C43" t="str">
-        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
+        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
       </c>
       <c r="D43" t="str">
-        <v>情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
+        <v>性观念, 恋爱时长, 情侣关系, 情感关系, 情感表达</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
+        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
       </c>
       <c r="B44" t="str">
         <v>人际相处</v>
       </c>
       <c r="C44" t="str">
-        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
+        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
       </c>
       <c r="D44" t="str">
-        <v>价值观冲突, 情感依赖, 情感关系, 边界感</v>
+        <v>情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>现代社会如何看待“有仇不报非君子”</v>
+        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
       </c>
       <c r="B45" t="str">
         <v>人际相处</v>
       </c>
       <c r="C45" t="str">
-        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
+        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
       </c>
       <c r="D45" t="str">
-        <v>复仇与宽容, 有仇不报非君子, 权益维护, 现代社会, 社会价值观</v>
+        <v>价值观冲突, 情感依赖, 情感关系, 边界感</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
+        <v>现代社会如何看待“有仇不报非君子”</v>
       </c>
       <c r="B46" t="str">
         <v>人际相处</v>
       </c>
       <c r="C46" t="str">
-        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
+        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
       </c>
       <c r="D46" t="str">
-        <v>处女情结, 恋爱关系, 情感冲突, 感情纠葛, 沟通理解</v>
+        <v>复仇与宽容, 有仇不报非君子, 权益维护, 现代社会, 社会价值观</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
+        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
       </c>
       <c r="B47" t="str">
         <v>人际相处</v>
       </c>
       <c r="C47" t="str">
-        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
+        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
       </c>
       <c r="D47" t="str">
-        <v>嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
+        <v>处女情结, 恋爱关系, 情感冲突, 感情纠葛, 沟通理解</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
+        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
       </c>
       <c r="B48" t="str">
         <v>人际相处</v>
       </c>
       <c r="C48" t="str">
-        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
+        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
       </c>
       <c r="D48" t="str">
-        <v>恋爱相处, 文化冲突, 文化差异, 文化融合, 跨国恋情</v>
+        <v>嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>东施效颦：一场被曲解的“觉醒实验”</v>
+        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
       </c>
       <c r="B49" t="str">
-        <v>传统文化</v>
+        <v>人际相处</v>
       </c>
       <c r="C49" t="str">
-        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
+        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
       </c>
       <c r="D49" t="str">
-        <v>审美哲学, 文化解读, 模仿与创新, 社会反思, 身份突破</v>
+        <v>恋爱相处, 文化冲突, 文化差异, 文化融合, 跨国恋情</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>传统文化该如何传承创新？</v>
+        <v>东施效颦：一场被曲解的“觉醒实验”</v>
       </c>
       <c r="B50" t="str">
         <v>传统文化</v>
       </c>
       <c r="C50" t="str">
-        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
+        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
       </c>
       <c r="D50" t="str">
-        <v>守艺, 文化传承, 生活文化, 非遗保护</v>
+        <v>审美哲学, 文化解读, 模仿与创新, 社会反思, 身份突破</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
+        <v>传统文化该如何传承创新？</v>
       </c>
       <c r="B51" t="str">
         <v>传统文化</v>
       </c>
       <c r="C51" t="str">
-        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
+        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
       </c>
       <c r="D51" t="str">
-        <v>动态思维, 哲学思考, 认知科学</v>
+        <v>守艺, 文化传承, 生活文化, 非遗保护</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>削足适履：被误解千年的生存智慧</v>
+        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
       </c>
       <c r="B52" t="str">
         <v>传统文化</v>
       </c>
       <c r="C52" t="str">
-        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
+        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
       </c>
       <c r="D52" t="str">
-        <v>哲学思考, 文化重构, 生存策略, 规则适应</v>
+        <v>动态思维, 哲学思考, 认知科学</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>南辕北辙：一场跨越千年的认知突围</v>
+        <v>削足适履：被误解千年的生存智慧</v>
       </c>
       <c r="B53" t="str">
         <v>传统文化</v>
       </c>
       <c r="C53" t="str">
-        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
+        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
       </c>
       <c r="D53" t="str">
-        <v>多维思维, 方向审计, 认知科学, 隐性成本</v>
+        <v>哲学思考, 文化重构, 生存策略, 规则适应</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
+        <v>南辕北辙：一场跨越千年的认知突围</v>
       </c>
       <c r="B54" t="str">
         <v>传统文化</v>
       </c>
       <c r="C54" t="str">
-        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
+        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
       </c>
       <c r="D54" t="str">
-        <v>实践智慧, 心理困境, 现实认知, 理想主义, 精神困境</v>
+        <v>多维思维, 方向审计, 认知科学, 隐性成本</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>守株待兔：被误读千年的逆向生存智慧</v>
+        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
       </c>
       <c r="B55" t="str">
         <v>传统文化</v>
       </c>
       <c r="C55" t="str">
-        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
+        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
       </c>
       <c r="D55" t="str">
-        <v>机会构建, 概率思维, 现代寓言, 生存策略, 认知偏误</v>
+        <v>实践智慧, 心理困境, 现实认知, 理想主义, 精神困境</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>狐假虎威新解说：传统寓言的现代启示</v>
+        <v>守株待兔：被误读千年的逆向生存智慧</v>
       </c>
       <c r="B56" t="str">
         <v>传统文化</v>
       </c>
       <c r="C56" t="str">
-        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
+        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
       </c>
       <c r="D56" t="str">
-        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
+        <v>机会构建, 概率思维, 现代寓言, 生存策略, 认知偏误</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>狡兔三窟新解说：深度剖析与现代应用</v>
+        <v>狐假虎威新解说：传统寓言的现代启示</v>
       </c>
       <c r="B57" t="str">
         <v>传统文化</v>
       </c>
       <c r="C57" t="str">
-        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
+        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
       </c>
       <c r="D57" t="str">
-        <v>投资策略, 狡兔三窟, 职业规划, 风险管理, 风险管理</v>
+        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
+        <v>狡兔三窟新解说：深度剖析与现代应用</v>
       </c>
       <c r="B58" t="str">
         <v>传统文化</v>
       </c>
       <c r="C58" t="str">
-        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
+        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
       </c>
       <c r="D58" t="str">
-        <v>情绪GPS导航, 数字断舍离, 科技伦理, 自我成长, 认知科学</v>
+        <v>投资策略, 狡兔三窟, 职业规划, 风险管理, 风险管理</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
+        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
       </c>
       <c r="B59" t="str">
         <v>传统文化</v>
       </c>
       <c r="C59" t="str">
-        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
+        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
       </c>
       <c r="D59" t="str">
-        <v>反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
+        <v>情绪GPS导航, 数字断舍离, 科技伦理, 自我成长, 认知科学</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
+        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
       </c>
       <c r="B60" t="str">
         <v>传统文化</v>
       </c>
       <c r="C60" t="str">
-        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
+        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
       </c>
       <c r="D60" t="str">
-        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
+        <v>反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
+        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
       </c>
       <c r="B61" t="str">
         <v>传统文化</v>
       </c>
       <c r="C61" t="str">
-        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
+        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
       </c>
       <c r="D61" t="str">
-        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
+        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
+        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
       </c>
       <c r="B62" t="str">
         <v>传统文化</v>
       </c>
       <c r="C62" t="str">
-        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
+        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
       </c>
       <c r="D62" t="str">
-        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
+        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
+        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
       </c>
       <c r="B63" t="str">
         <v>传统文化</v>
       </c>
       <c r="C63" t="str">
-        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
+        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
       </c>
       <c r="D63" t="str">
-        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
+        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
+        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
       </c>
       <c r="B64" t="str">
         <v>传统文化</v>
       </c>
       <c r="C64" t="str">
-        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
+        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
       </c>
       <c r="D64" t="str">
-        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
+        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>顺手牵羊新解：多视角下的行为探秘</v>
+        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
       </c>
       <c r="B65" t="str">
         <v>传统文化</v>
       </c>
       <c r="C65" t="str">
-        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
+        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
       </c>
       <c r="D65" t="str">
-        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
+        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
+        <v>顺手牵羊新解：多视角下的行为探秘</v>
       </c>
       <c r="B66" t="str">
-        <v>体育运动</v>
+        <v>传统文化</v>
       </c>
       <c r="C66" t="str">
-        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
+        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
       </c>
       <c r="D66" t="str">
-        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
+        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>历史事件对当今社会和个人有哪些启示？</v>
+        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
       </c>
       <c r="B67" t="str">
-        <v>历史探究</v>
+        <v>体育运动</v>
       </c>
       <c r="C67" t="str">
-        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
+        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
       </c>
       <c r="D67" t="str">
-        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
+        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
+        <v>历史事件对当今社会和个人有哪些启示？</v>
       </c>
       <c r="B68" t="str">
         <v>历史探究</v>
       </c>
       <c r="C68" t="str">
-        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
+        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
       </c>
       <c r="D68" t="str">
-        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
+        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>谋士为何难成一把手？</v>
+        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
       </c>
       <c r="B69" t="str">
         <v>历史探究</v>
       </c>
       <c r="C69" t="str">
-        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
+        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
       </c>
       <c r="D69" t="str">
-        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
+        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>中式八球台球礼仪须知</v>
+        <v>谋士为何难成一把手？</v>
       </c>
       <c r="B70" t="str">
-        <v>台球天地</v>
+        <v>历史探究</v>
       </c>
       <c r="C70" t="str">
-        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
+        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
       </c>
       <c r="D70" t="str">
-        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
+        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>中式八球台球规则详解</v>
+        <v>中式八球台球礼仪须知</v>
       </c>
       <c r="B71" t="str">
         <v>台球天地</v>
       </c>
       <c r="C71" t="str">
-        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
+        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
       </c>
       <c r="D71" t="str">
-        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
+        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>中式八球台球运动简介</v>
+        <v>中式八球台球规则详解</v>
       </c>
       <c r="B72" t="str">
         <v>台球天地</v>
       </c>
       <c r="C72" t="str">
-        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
+        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
       </c>
       <c r="D72" t="str">
-        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
+        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>中式八球的发展史</v>
+        <v>中式八球台球运动简介</v>
       </c>
       <c r="B73" t="str">
         <v>台球天地</v>
       </c>
       <c r="C73" t="str">
-        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
+        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
       </c>
       <c r="D73" t="str">
-        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
+        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>令人绝望的“文盲”</v>
+        <v>中式八球的发展史</v>
       </c>
       <c r="B74" t="str">
         <v>台球天地</v>
       </c>
       <c r="C74" t="str">
-        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
+        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
       </c>
       <c r="D74" t="str">
-        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
+        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>关于我们</v>
+        <v>令人绝望的“文盲”</v>
       </c>
       <c r="B75" t="str">
         <v>台球天地</v>
       </c>
       <c r="C75" t="str">
-        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
+        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
       </c>
       <c r="D75" t="str">
-        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
+        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>台球初学者指南</v>
+        <v>关于我们</v>
       </c>
       <c r="B76" t="str">
         <v>台球天地</v>
       </c>
       <c r="C76" t="str">
-        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
+        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
       </c>
       <c r="D76" t="str">
-        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
+        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>台球店基本信息</v>
+        <v>台球初学者指南</v>
       </c>
       <c r="B77" t="str">
         <v>台球天地</v>
       </c>
       <c r="C77" t="str">
-        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
+        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
       </c>
       <c r="D77" t="str">
-        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
+        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>台球种类专业介绍</v>
+        <v>台球店基本信息</v>
       </c>
       <c r="B78" t="str">
         <v>台球天地</v>
       </c>
       <c r="C78" t="str">
-        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
+        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
       </c>
       <c r="D78" t="str">
-        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
+        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>台球设备介绍</v>
+        <v>台球种类专业介绍</v>
       </c>
       <c r="B79" t="str">
         <v>台球天地</v>
       </c>
       <c r="C79" t="str">
-        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
+        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
       </c>
       <c r="D79" t="str">
-        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
+        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>台球设备评测报告</v>
+        <v>台球设备介绍</v>
       </c>
       <c r="B80" t="str">
         <v>台球天地</v>
       </c>
       <c r="C80" t="str">
-        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
+        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
       </c>
       <c r="D80" t="str">
-        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
+        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>台球运动：助力青少年全面发展的独特运动</v>
+        <v>台球设备评测报告</v>
       </c>
       <c r="B81" t="str">
         <v>台球天地</v>
       </c>
       <c r="C81" t="str">
-        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
+        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
       </c>
       <c r="D81" t="str">
-        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
+        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>台球运动的物理学原理</v>
+        <v>台球运动：助力青少年全面发展的独特运动</v>
       </c>
       <c r="B82" t="str">
         <v>台球天地</v>
       </c>
       <c r="C82" t="str">
-        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
+        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
       </c>
       <c r="D82" t="str">
-        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
+        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>台球高级技巧分享</v>
+        <v>台球运动的物理学原理</v>
       </c>
       <c r="B83" t="str">
         <v>台球天地</v>
       </c>
       <c r="C83" t="str">
-        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
+        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
       </c>
       <c r="D83" t="str">
-        <v>台球高级技巧, 战术应用, 技巧实践</v>
+        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
+        <v>台球高级技巧分享</v>
       </c>
       <c r="B84" t="str">
         <v>台球天地</v>
       </c>
       <c r="C84" t="str">
-        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
+        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
       </c>
       <c r="D84" t="str">
-        <v>商业模拟, 自助台球店</v>
+        <v>台球高级技巧, 战术应用, 技巧实践</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
+        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
       </c>
       <c r="B85" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C85" t="str">
-        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
+        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
       </c>
       <c r="D85" t="str">
-        <v>台球政策, 商业策略, 算力服务费</v>
+        <v>商业模拟, 自助台球店</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>为什么台球店没有请陪打女主教</v>
+        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
       </c>
       <c r="B86" t="str">
         <v>台球经营</v>
       </c>
       <c r="C86" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D86" t="str">
-        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
+        <v>台球政策, 商业策略, 算力服务费</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>开台球店的一些注意事项</v>
+        <v>为什么台球店没有请陪打女主教</v>
       </c>
       <c r="B87" t="str">
         <v>台球经营</v>
       </c>
       <c r="C87" t="str">
-        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D87" t="str">
-        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
+        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
+        <v>开台球店的一些注意事项</v>
       </c>
       <c r="B88" t="str">
         <v>台球经营</v>
       </c>
       <c r="C88" t="str">
-        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
+        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
       </c>
       <c r="D88" t="str">
-        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
+        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>台球运动在不同文化背景下的特色玩法</v>
+        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
       </c>
       <c r="B89" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C89" t="str">
-        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
+        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
       </c>
       <c r="D89" t="str">
-        <v>文化交流, 文化差异</v>
+        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>国内外重要台球赛事</v>
+        <v>台球运动在不同文化背景下的特色玩法</v>
       </c>
       <c r="B90" t="str">
         <v>台球运动</v>
       </c>
       <c r="C90" t="str">
-        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
+        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
       </c>
       <c r="D90" t="str">
-        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
+        <v>文化交流, 文化差异</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>提升台球技能小贴士</v>
+        <v>国内外重要台球赛事</v>
       </c>
       <c r="B91" t="str">
         <v>台球运动</v>
       </c>
       <c r="C91" t="str">
-        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
+        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
       </c>
       <c r="D91" t="str">
-        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
+        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>科技如何重塑台球运动体验</v>
+        <v>提升台球技能小贴士</v>
       </c>
       <c r="B92" t="str">
         <v>台球运动</v>
       </c>
       <c r="C92" t="str">
-        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
+        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
       </c>
       <c r="D92" t="str">
-        <v>台球, 智能设备, 科技应用, 运动科技</v>
+        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>独立开发者探寻机会的多元路径解析</v>
+        <v>科技如何重塑台球运动体验</v>
       </c>
       <c r="B93" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C93" t="str">
-        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
+        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
       </c>
       <c r="D93" t="str">
-        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
+        <v>台球, 智能设备, 科技应用, 运动科技</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>自助台球门店客流量差异分析</v>
+        <v>独立开发者探寻机会的多元路径解析</v>
       </c>
       <c r="B94" t="str">
         <v>商业洞察</v>
       </c>
       <c r="C94" t="str">
-        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
+        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
       </c>
       <c r="D94" t="str">
-        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
+        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
+        <v>自助台球门店客流量差异分析</v>
       </c>
       <c r="B95" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C95" t="str">
-        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
+        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
       </c>
       <c r="D95" t="str">
-        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
+        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>夫妻之间，无性婚姻能坚持多久？</v>
+        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
       </c>
       <c r="B96" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C96" t="str">
-        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
+        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D96" t="str">
-        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
+        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
+        <v>夫妻之间，无性婚姻能坚持多久？</v>
       </c>
       <c r="B97" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C97" t="str">
-        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
+        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
       </c>
       <c r="D97" t="str">
-        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
+        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>女人应该在什么时候把自己嫁出去？</v>
+        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
       </c>
       <c r="B98" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C98" t="str">
-        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
+        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
       </c>
       <c r="D98" t="str">
-        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
+        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>如何成为一个好丈夫：关键要素与实践指南</v>
+        <v>女人应该在什么时候把自己嫁出去？</v>
       </c>
       <c r="B99" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C99" t="str">
-        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
+        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
       </c>
       <c r="D99" t="str">
-        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
+        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>如何成为令人称羡的好妻子</v>
+        <v>如何成为一个好丈夫：关键要素与实践指南</v>
       </c>
       <c r="B100" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C100" t="str">
-        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
+        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
       </c>
       <c r="D100" t="str">
-        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
+        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
+        <v>如何成为令人称羡的好妻子</v>
       </c>
       <c r="B101" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C101" t="str">
-        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
+        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
       </c>
       <c r="D101" t="str">
-        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
+        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>婚外情能维持到老死吗？</v>
+        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
       </c>
       <c r="B102" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C102" t="str">
-        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
+        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
       </c>
       <c r="D102" t="str">
-        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
+        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>老公对我不错但性生活缺失是否该离婚</v>
+        <v>婚外情能维持到老死吗？</v>
       </c>
       <c r="B103" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C103" t="str">
-        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
+        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
       </c>
       <c r="D103" t="str">
-        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
+        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>老公对我不错但性生活缺失是否该离婚</v>
       </c>
       <c r="B104" t="str">
-        <v>宇宙探索</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C104" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
       </c>
       <c r="D104" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>冰箱与冰柜名称背后的有趣谜题</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B105" t="str">
-        <v>家电知识</v>
+        <v>宇宙探索</v>
       </c>
       <c r="C105" t="str">
-        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D105" t="str">
-        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
+        <v>冰箱与冰柜名称背后的有趣谜题</v>
       </c>
       <c r="B106" t="str">
-        <v>差旅办公</v>
+        <v>家电知识</v>
       </c>
       <c r="C106" t="str">
-        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
+        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
       </c>
       <c r="D106" t="str">
-        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
+        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>这个男人来自地球观后感</v>
+        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
       </c>
       <c r="B107" t="str">
-        <v>影视评论</v>
+        <v>差旅办公</v>
       </c>
       <c r="C107" t="str">
-        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
+        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
       </c>
       <c r="D107" t="str">
-        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
+        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>这个男人来自地球观后感</v>
       </c>
       <c r="B108" t="str">
-        <v>心理调适</v>
+        <v>影视评论</v>
       </c>
       <c r="C108" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
       </c>
       <c r="D108" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B109" t="str">
         <v>心理调适</v>
       </c>
       <c r="C109" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D109" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B110" t="str">
         <v>心理调适</v>
       </c>
       <c r="C110" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D110" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B111" t="str">
         <v>心理调适</v>
       </c>
       <c r="C111" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D111" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B112" t="str">
         <v>心理调适</v>
       </c>
       <c r="C112" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D112" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B113" t="str">
         <v>心理调适</v>
       </c>
       <c r="C113" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D113" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B114" t="str">
         <v>心理调适</v>
       </c>
       <c r="C114" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D114" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B115" t="str">
         <v>心理调适</v>
       </c>
       <c r="C115" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D115" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B116" t="str">
         <v>心理调适</v>
       </c>
       <c r="C116" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D116" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B117" t="str">
         <v>心理调适</v>
       </c>
       <c r="C117" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D117" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B118" t="str">
         <v>心理调适</v>
       </c>
       <c r="C118" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D118" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B119" t="str">
         <v>心理调适</v>
       </c>
       <c r="C119" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D119" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D120" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D121" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D122" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D123" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D124" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D125" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D126" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D127" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D128" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D129" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D130" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D131" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D132" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D133" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D134" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D135" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B136" t="str">
         <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D136" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B137" t="str">
         <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D137" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B138" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C138" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D138" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B139" t="str">
         <v>性别健康</v>
       </c>
       <c r="C139" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D139" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B140" t="str">
         <v>性别健康</v>
       </c>
       <c r="C140" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D140" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B141" t="str">
         <v>性别健康</v>
       </c>
       <c r="C141" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D141" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B142" t="str">
         <v>性别健康</v>
       </c>
       <c r="C142" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D142" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B143" t="str">
         <v>性别健康</v>
       </c>
       <c r="C143" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D143" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B144" t="str">
         <v>性别健康</v>
       </c>
       <c r="C144" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D144" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B145" t="str">
         <v>性别健康</v>
       </c>
       <c r="C145" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D145" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B146" t="str">
         <v>性别健康</v>
       </c>
       <c r="C146" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D146" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B147" t="str">
         <v>性别健康</v>
       </c>
       <c r="C147" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D147" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B148" t="str">
         <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D148" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B149" t="str">
         <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D149" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B150" t="str">
         <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D150" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D151" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B152" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D152" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B153" t="str">
         <v>情感关系</v>
       </c>
       <c r="C153" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D153" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B154" t="str">
         <v>情感关系</v>
       </c>
       <c r="C154" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D154" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B155" t="str">
         <v>情感关系</v>
       </c>
       <c r="C155" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D155" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B156" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C156" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D156" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B157" t="str">
         <v>教育学习</v>
       </c>
       <c r="C157" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D157" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B158" t="str">
         <v>教育学习</v>
       </c>
       <c r="C158" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D158" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B159" t="str">
         <v>教育学习</v>
       </c>
       <c r="C159" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D159" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B160" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C160" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D160" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B161" t="str">
         <v>数字科技</v>
       </c>
       <c r="C161" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D161" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B162" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C162" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D162" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B163" t="str">
         <v>时尚生活</v>
       </c>
       <c r="C163" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D163" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B164" t="str">
         <v>时尚生活</v>
       </c>
       <c r="C164" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D164" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B165" t="str">
-        <v>汽车安全与气象影响</v>
+        <v>时尚生活</v>
       </c>
       <c r="C165" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D165" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="166">
@@ -2762,856 +2762,856 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>如果不孕不育是遗传的，如何传递基因？</v>
       </c>
       <c r="B169" t="str">
-        <v>生活感悟</v>
+        <v>生殖健康</v>
       </c>
       <c r="C169" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
       </c>
       <c r="D169" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B170" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C170" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D170" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B171" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C171" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D171" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B172" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C172" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D172" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B173" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C173" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D173" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B174" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C174" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D174" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B175" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C175" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D175" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B176" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C176" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D176" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B177" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C177" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D177" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B178" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C178" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D178" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B179" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C179" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D179" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B180" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C180" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D180" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B181" t="str">
         <v>生活日常</v>
       </c>
       <c r="C181" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D181" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B182" t="str">
         <v>生活日常</v>
       </c>
       <c r="C182" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D182" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>回首2024</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B183" t="str">
         <v>生活日常</v>
       </c>
       <c r="C183" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D183" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>回首2024</v>
       </c>
       <c r="B184" t="str">
         <v>生活日常</v>
       </c>
       <c r="C184" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D184" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B185" t="str">
         <v>生活日常</v>
       </c>
       <c r="C185" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D185" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B186" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C186" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D186" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B187" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C187" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D187" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B188" t="str">
         <v>社会探究</v>
       </c>
       <c r="C188" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D188" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B189" t="str">
         <v>社会探究</v>
       </c>
       <c r="C189" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D189" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B190" t="str">
         <v>社会探究</v>
       </c>
       <c r="C190" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D190" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B191" t="str">
         <v>社会探究</v>
       </c>
       <c r="C191" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D191" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B192" t="str">
         <v>社会探究</v>
       </c>
       <c r="C192" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D192" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B193" t="str">
         <v>社会探究</v>
       </c>
       <c r="C193" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D193" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B194" t="str">
         <v>社会探究</v>
       </c>
       <c r="C194" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D194" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B195" t="str">
         <v>社会探究</v>
       </c>
       <c r="C195" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D195" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B196" t="str">
         <v>社会探究</v>
       </c>
       <c r="C196" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D196" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B197" t="str">
         <v>社会探究</v>
       </c>
       <c r="C197" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D197" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B198" t="str">
         <v>社会探究</v>
       </c>
       <c r="C198" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D198" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B199" t="str">
         <v>社会探究</v>
       </c>
       <c r="C199" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D199" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B200" t="str">
         <v>社会探究</v>
       </c>
       <c r="C200" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D200" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B201" t="str">
         <v>社会探究</v>
       </c>
       <c r="C201" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D201" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B202" t="str">
         <v>社会探究</v>
       </c>
       <c r="C202" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D202" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B203" t="str">
         <v>社会探究</v>
       </c>
       <c r="C203" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D203" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B204" t="str">
         <v>社会探究</v>
       </c>
       <c r="C204" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D204" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B205" t="str">
         <v>社会探究</v>
       </c>
       <c r="C205" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D205" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B206" t="str">
         <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D206" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D207" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D208" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D209" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B210" t="str">
         <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D210" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B211" t="str">
         <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D211" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B212" t="str">
         <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D212" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B213" t="str">
         <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D213" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B214" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C214" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D214" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B215" t="str">
         <v>社会现象</v>
       </c>
       <c r="C215" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D215" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B216" t="str">
         <v>社会现象</v>
       </c>
       <c r="C216" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D216" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B217" t="str">
         <v>社会现象</v>
       </c>
       <c r="C217" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D217" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>再聊姜萍</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B218" t="str">
         <v>社会现象</v>
       </c>
       <c r="C218" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D218" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B219" t="str">
         <v>社会现象</v>
       </c>
       <c r="C219" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D219" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B220" t="str">
         <v>社会现象</v>
       </c>
       <c r="C220" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D220" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B221" t="str">
         <v>社会现象</v>
       </c>
       <c r="C221" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D221" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B222" t="str">
         <v>社会现象</v>
       </c>
       <c r="C222" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D222" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B223" t="str">
         <v>社会现象</v>
       </c>
       <c r="C223" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D223" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B224" t="str">
         <v>社会现象</v>
       </c>
       <c r="C224" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D224" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B225" t="str">
         <v>社会现象</v>
       </c>
       <c r="C225" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D225" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B226" t="str">
         <v>社会现象</v>
       </c>
       <c r="C226" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D226" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B227" t="str">
         <v>社会现象</v>
       </c>
       <c r="C227" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D227" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B228" t="str">
         <v>社会现象</v>
       </c>
       <c r="C228" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D228" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B229" t="str">
-        <v>科学幻想与探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C229" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D229" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="230">
@@ -3966,1477 +3966,1547 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B255" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C255" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D255" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B256" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C256" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D256" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B257" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C257" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D257" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B258" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C258" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D258" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B259" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C259" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D259" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B260" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C260" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D260" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B261" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C261" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D261" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B262" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C262" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D262" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B263" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C263" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D263" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B264" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C264" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D264" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B265" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C265" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D265" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B266" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C266" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D266" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B267" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C267" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D267" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B268" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C268" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D268" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B269" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C269" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D269" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B270" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C270" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D270" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B271" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C271" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D271" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B272" t="str">
-        <v>自我提升</v>
+        <v>自我成长</v>
       </c>
       <c r="C272" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D272" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B273" t="str">
         <v>自我提升</v>
       </c>
       <c r="C273" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D273" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B274" t="str">
         <v>自我提升</v>
       </c>
       <c r="C274" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D274" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B275" t="str">
         <v>自我提升</v>
       </c>
       <c r="C275" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D275" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B276" t="str">
         <v>自我提升</v>
       </c>
       <c r="C276" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D276" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B277" t="str">
         <v>自我提升</v>
       </c>
       <c r="C277" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D277" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B278" t="str">
         <v>自我提升</v>
       </c>
       <c r="C278" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
       </c>
       <c r="D278" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B279" t="str">
         <v>自我提升</v>
       </c>
       <c r="C279" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D279" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B280" t="str">
         <v>自我提升</v>
       </c>
       <c r="C280" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D280" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B281" t="str">
         <v>自我提升</v>
       </c>
       <c r="C281" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D281" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B282" t="str">
         <v>自我提升</v>
       </c>
       <c r="C282" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
       </c>
       <c r="D282" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>个人发展, 心态管理, 成功学, 目标设定</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B283" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C283" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D283" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B284" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C284" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D284" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B285" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C285" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D285" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B286" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C286" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D286" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B287" t="str">
         <v>自然科学</v>
       </c>
       <c r="C287" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D287" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>字典数排序</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B288" t="str">
         <v>自然科学</v>
       </c>
       <c r="C288" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D288" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B289" t="str">
         <v>自然科学</v>
       </c>
       <c r="C289" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D289" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B290" t="str">
         <v>自然科学</v>
       </c>
       <c r="C290" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D290" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B291" t="str">
         <v>自然科学</v>
       </c>
       <c r="C291" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D291" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>字典数排序</v>
       </c>
       <c r="B292" t="str">
         <v>自然科学</v>
       </c>
       <c r="C292" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D292" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B293" t="str">
         <v>自然科学</v>
       </c>
       <c r="C293" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D293" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B294" t="str">
         <v>自然科学</v>
       </c>
       <c r="C294" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D294" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B295" t="str">
         <v>自然科学</v>
       </c>
       <c r="C295" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D295" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B296" t="str">
         <v>自然科学</v>
       </c>
       <c r="C296" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D296" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B297" t="str">
         <v>自然科学</v>
       </c>
       <c r="C297" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D297" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B298" t="str">
         <v>自然科学</v>
       </c>
       <c r="C298" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D298" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B299" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C299" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D299" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B300" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C300" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D300" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B301" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C301" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D301" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B302" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C302" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D302" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B303" t="str">
-        <v>财富管理</v>
+        <v>药物使用与健康</v>
       </c>
       <c r="C303" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D303" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B304" t="str">
         <v>财富管理</v>
       </c>
       <c r="C304" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D304" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B305" t="str">
         <v>财富管理</v>
       </c>
       <c r="C305" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D305" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B306" t="str">
         <v>财富管理</v>
       </c>
       <c r="C306" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D306" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B307" t="str">
         <v>财富管理</v>
       </c>
       <c r="C307" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D307" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B308" t="str">
         <v>财富管理</v>
       </c>
       <c r="C308" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D308" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B309" t="str">
         <v>财富管理</v>
       </c>
       <c r="C309" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D309" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B310" t="str">
         <v>财富管理</v>
       </c>
       <c r="C310" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D310" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B311" t="str">
         <v>财富管理</v>
       </c>
       <c r="C311" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D311" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B312" t="str">
         <v>财富管理</v>
       </c>
       <c r="C312" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D312" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B313" t="str">
         <v>财富管理</v>
       </c>
       <c r="C313" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D313" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B314" t="str">
         <v>财富管理</v>
       </c>
       <c r="C314" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D314" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B315" t="str">
         <v>财富管理</v>
       </c>
       <c r="C315" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D315" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B316" t="str">
         <v>财富管理</v>
       </c>
       <c r="C316" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D316" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B317" t="str">
         <v>财富管理</v>
       </c>
       <c r="C317" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D317" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B318" t="str">
         <v>财富管理</v>
       </c>
       <c r="C318" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D318" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B319" t="str">
         <v>财富管理</v>
       </c>
       <c r="C319" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D319" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B320" t="str">
         <v>财富管理</v>
       </c>
       <c r="C320" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D320" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B321" t="str">
         <v>财富管理</v>
       </c>
       <c r="C321" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D321" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B322" t="str">
         <v>财富管理</v>
       </c>
       <c r="C322" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D322" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B323" t="str">
         <v>财富管理</v>
       </c>
       <c r="C323" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D323" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>有效增加收入指南</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B324" t="str">
         <v>财富管理</v>
       </c>
       <c r="C324" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D324" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B325" t="str">
         <v>财富管理</v>
       </c>
       <c r="C325" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D325" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B326" t="str">
         <v>财富管理</v>
       </c>
       <c r="C326" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D326" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B327" t="str">
         <v>财富管理</v>
       </c>
       <c r="C327" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D327" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>穷人怎么翻身</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B328" t="str">
         <v>财富管理</v>
       </c>
       <c r="C328" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D328" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B329" t="str">
         <v>财富管理</v>
       </c>
       <c r="C329" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D329" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B330" t="str">
         <v>财富管理</v>
       </c>
       <c r="C330" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D330" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B331" t="str">
         <v>财富管理</v>
       </c>
       <c r="C331" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D331" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B332" t="str">
         <v>财富管理</v>
       </c>
       <c r="C332" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D332" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B333" t="str">
         <v>财富管理</v>
       </c>
       <c r="C333" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D333" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B334" t="str">
         <v>财富管理</v>
       </c>
       <c r="C334" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D334" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B335" t="str">
         <v>财富管理</v>
       </c>
       <c r="C335" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D335" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B336" t="str">
         <v>财富管理</v>
       </c>
       <c r="C336" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D336" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B337" t="str">
         <v>财富管理</v>
       </c>
       <c r="C337" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D337" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B338" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C338" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D338" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B339" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C339" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D339" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B340" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C340" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D340" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B341" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C341" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D341" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B342" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C342" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D342" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B343" t="str">
         <v>身体健康</v>
       </c>
       <c r="C343" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D343" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B344" t="str">
         <v>身体健康</v>
       </c>
       <c r="C344" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D344" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B345" t="str">
         <v>身体健康</v>
       </c>
       <c r="C345" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D345" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B346" t="str">
         <v>身体健康</v>
       </c>
       <c r="C346" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D346" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B347" t="str">
         <v>身体健康</v>
       </c>
       <c r="C347" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D347" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B348" t="str">
         <v>身体健康</v>
       </c>
       <c r="C348" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D348" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B349" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C349" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D349" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B350" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C350" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D350" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B351" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C351" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D351" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B352" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C352" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D352" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B353" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C353" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D353" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B354" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C354" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D354" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B355" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C355" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D355" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B356" t="str">
         <v>运营指南</v>
       </c>
       <c r="C356" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D356" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B357" t="str">
         <v>运营指南</v>
       </c>
       <c r="C357" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D357" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B358" t="str">
         <v>运营指南</v>
       </c>
       <c r="C358" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D358" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
+        <v>打造百家号爆款内容的实用秘籍</v>
+      </c>
+      <c r="B359" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C359" t="str">
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+      </c>
+      <c r="D359" t="str">
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>打造知乎爆款内容的实用秘籍</v>
+      </c>
+      <c r="B360" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C360" t="str">
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+      </c>
+      <c r="D360" t="str">
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>抖音爆款内容打造全攻略</v>
+      </c>
+      <c r="B361" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C361" t="str">
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+      </c>
+      <c r="D361" t="str">
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>畅销长篇小说创作秘籍全解析</v>
+      </c>
+      <c r="B362" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C362" t="str">
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+      </c>
+      <c r="D362" t="str">
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B363" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C363" t="str">
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+      </c>
+      <c r="D363" t="str">
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
         <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
       </c>
-      <c r="B359" t="str">
+      <c r="B364" t="str">
         <v>食品安全</v>
       </c>
-      <c r="C359" t="str">
+      <c r="C364" t="str">
         <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
       </c>
-      <c r="D359" t="str">
+      <c r="D364" t="str">
         <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D359"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D364"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D364"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,3373 +1348,3373 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>历史事件对当今社会和个人有哪些启示？</v>
+        <v>眼镜发明前，眼镜蛇叫什么？</v>
       </c>
       <c r="B68" t="str">
-        <v>历史探究</v>
+        <v>动物文化</v>
       </c>
       <c r="C68" t="str">
-        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
+        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
       </c>
       <c r="D68" t="str">
-        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
+        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
+        <v>历史事件对当今社会和个人有哪些启示？</v>
       </c>
       <c r="B69" t="str">
         <v>历史探究</v>
       </c>
       <c r="C69" t="str">
-        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
+        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
       </c>
       <c r="D69" t="str">
-        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
+        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>谋士为何难成一把手？</v>
+        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
       </c>
       <c r="B70" t="str">
         <v>历史探究</v>
       </c>
       <c r="C70" t="str">
-        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
+        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
       </c>
       <c r="D70" t="str">
-        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
+        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>中式八球台球礼仪须知</v>
+        <v>谋士为何难成一把手？</v>
       </c>
       <c r="B71" t="str">
-        <v>台球天地</v>
+        <v>历史探究</v>
       </c>
       <c r="C71" t="str">
-        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
+        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
       </c>
       <c r="D71" t="str">
-        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
+        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>中式八球台球规则详解</v>
+        <v>中式八球台球礼仪须知</v>
       </c>
       <c r="B72" t="str">
         <v>台球天地</v>
       </c>
       <c r="C72" t="str">
-        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
+        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
       </c>
       <c r="D72" t="str">
-        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
+        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>中式八球台球运动简介</v>
+        <v>中式八球台球规则详解</v>
       </c>
       <c r="B73" t="str">
         <v>台球天地</v>
       </c>
       <c r="C73" t="str">
-        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
+        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
       </c>
       <c r="D73" t="str">
-        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
+        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>中式八球的发展史</v>
+        <v>中式八球台球运动简介</v>
       </c>
       <c r="B74" t="str">
         <v>台球天地</v>
       </c>
       <c r="C74" t="str">
-        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
+        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
       </c>
       <c r="D74" t="str">
-        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
+        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>令人绝望的“文盲”</v>
+        <v>中式八球的发展史</v>
       </c>
       <c r="B75" t="str">
         <v>台球天地</v>
       </c>
       <c r="C75" t="str">
-        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
+        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
       </c>
       <c r="D75" t="str">
-        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
+        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>关于我们</v>
+        <v>令人绝望的“文盲”</v>
       </c>
       <c r="B76" t="str">
         <v>台球天地</v>
       </c>
       <c r="C76" t="str">
-        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
+        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
       </c>
       <c r="D76" t="str">
-        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
+        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>台球初学者指南</v>
+        <v>关于我们</v>
       </c>
       <c r="B77" t="str">
         <v>台球天地</v>
       </c>
       <c r="C77" t="str">
-        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
+        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
       </c>
       <c r="D77" t="str">
-        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
+        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>台球店基本信息</v>
+        <v>台球初学者指南</v>
       </c>
       <c r="B78" t="str">
         <v>台球天地</v>
       </c>
       <c r="C78" t="str">
-        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
+        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
       </c>
       <c r="D78" t="str">
-        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
+        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>台球种类专业介绍</v>
+        <v>台球店基本信息</v>
       </c>
       <c r="B79" t="str">
         <v>台球天地</v>
       </c>
       <c r="C79" t="str">
-        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
+        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
       </c>
       <c r="D79" t="str">
-        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
+        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>台球设备介绍</v>
+        <v>台球种类专业介绍</v>
       </c>
       <c r="B80" t="str">
         <v>台球天地</v>
       </c>
       <c r="C80" t="str">
-        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
+        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
       </c>
       <c r="D80" t="str">
-        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
+        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>台球设备评测报告</v>
+        <v>台球设备介绍</v>
       </c>
       <c r="B81" t="str">
         <v>台球天地</v>
       </c>
       <c r="C81" t="str">
-        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
+        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
       </c>
       <c r="D81" t="str">
-        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
+        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>台球运动：助力青少年全面发展的独特运动</v>
+        <v>台球设备评测报告</v>
       </c>
       <c r="B82" t="str">
         <v>台球天地</v>
       </c>
       <c r="C82" t="str">
-        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
+        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
       </c>
       <c r="D82" t="str">
-        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
+        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>台球运动的物理学原理</v>
+        <v>台球运动：助力青少年全面发展的独特运动</v>
       </c>
       <c r="B83" t="str">
         <v>台球天地</v>
       </c>
       <c r="C83" t="str">
-        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
+        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
       </c>
       <c r="D83" t="str">
-        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
+        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>台球高级技巧分享</v>
+        <v>台球运动的物理学原理</v>
       </c>
       <c r="B84" t="str">
         <v>台球天地</v>
       </c>
       <c r="C84" t="str">
-        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
+        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
       </c>
       <c r="D84" t="str">
-        <v>台球高级技巧, 战术应用, 技巧实践</v>
+        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
+        <v>台球高级技巧分享</v>
       </c>
       <c r="B85" t="str">
         <v>台球天地</v>
       </c>
       <c r="C85" t="str">
-        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
+        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
       </c>
       <c r="D85" t="str">
-        <v>商业模拟, 自助台球店</v>
+        <v>台球高级技巧, 战术应用, 技巧实践</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
+        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
       </c>
       <c r="B86" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C86" t="str">
-        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
+        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
       </c>
       <c r="D86" t="str">
-        <v>台球政策, 商业策略, 算力服务费</v>
+        <v>商业模拟, 自助台球店</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>为什么台球店没有请陪打女主教</v>
+        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
       </c>
       <c r="B87" t="str">
         <v>台球经营</v>
       </c>
       <c r="C87" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D87" t="str">
-        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
+        <v>台球政策, 商业策略, 算力服务费</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>开台球店的一些注意事项</v>
+        <v>为什么台球店没有请陪打女主教</v>
       </c>
       <c r="B88" t="str">
         <v>台球经营</v>
       </c>
       <c r="C88" t="str">
-        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D88" t="str">
-        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
+        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
+        <v>开台球店的一些注意事项</v>
       </c>
       <c r="B89" t="str">
         <v>台球经营</v>
       </c>
       <c r="C89" t="str">
-        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
+        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
       </c>
       <c r="D89" t="str">
-        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
+        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>台球运动在不同文化背景下的特色玩法</v>
+        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
       </c>
       <c r="B90" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C90" t="str">
-        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
+        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
       </c>
       <c r="D90" t="str">
-        <v>文化交流, 文化差异</v>
+        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>国内外重要台球赛事</v>
+        <v>台球运动在不同文化背景下的特色玩法</v>
       </c>
       <c r="B91" t="str">
         <v>台球运动</v>
       </c>
       <c r="C91" t="str">
-        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
+        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
       </c>
       <c r="D91" t="str">
-        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
+        <v>文化交流, 文化差异</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>提升台球技能小贴士</v>
+        <v>国内外重要台球赛事</v>
       </c>
       <c r="B92" t="str">
         <v>台球运动</v>
       </c>
       <c r="C92" t="str">
-        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
+        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
       </c>
       <c r="D92" t="str">
-        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
+        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>科技如何重塑台球运动体验</v>
+        <v>提升台球技能小贴士</v>
       </c>
       <c r="B93" t="str">
         <v>台球运动</v>
       </c>
       <c r="C93" t="str">
-        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
+        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
       </c>
       <c r="D93" t="str">
-        <v>台球, 智能设备, 科技应用, 运动科技</v>
+        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>独立开发者探寻机会的多元路径解析</v>
+        <v>科技如何重塑台球运动体验</v>
       </c>
       <c r="B94" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C94" t="str">
-        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
+        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
       </c>
       <c r="D94" t="str">
-        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
+        <v>台球, 智能设备, 科技应用, 运动科技</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>自助台球门店客流量差异分析</v>
+        <v>独立开发者探寻机会的多元路径解析</v>
       </c>
       <c r="B95" t="str">
         <v>商业洞察</v>
       </c>
       <c r="C95" t="str">
-        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
+        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
       </c>
       <c r="D95" t="str">
-        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
+        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
+        <v>自助台球门店客流量差异分析</v>
       </c>
       <c r="B96" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C96" t="str">
-        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
+        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
       </c>
       <c r="D96" t="str">
-        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
+        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>夫妻之间，无性婚姻能坚持多久？</v>
+        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
       </c>
       <c r="B97" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C97" t="str">
-        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
+        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D97" t="str">
-        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
+        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
+        <v>夫妻之间，无性婚姻能坚持多久？</v>
       </c>
       <c r="B98" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C98" t="str">
-        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
+        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
       </c>
       <c r="D98" t="str">
-        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
+        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>女人应该在什么时候把自己嫁出去？</v>
+        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
       </c>
       <c r="B99" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C99" t="str">
-        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
+        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
       </c>
       <c r="D99" t="str">
-        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
+        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>如何成为一个好丈夫：关键要素与实践指南</v>
+        <v>女人应该在什么时候把自己嫁出去？</v>
       </c>
       <c r="B100" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C100" t="str">
-        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
+        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
       </c>
       <c r="D100" t="str">
-        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
+        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>如何成为令人称羡的好妻子</v>
+        <v>如何成为一个好丈夫：关键要素与实践指南</v>
       </c>
       <c r="B101" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C101" t="str">
-        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
+        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
       </c>
       <c r="D101" t="str">
-        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
+        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
+        <v>如何成为令人称羡的好妻子</v>
       </c>
       <c r="B102" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C102" t="str">
-        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
+        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
       </c>
       <c r="D102" t="str">
-        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
+        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>婚外情能维持到老死吗？</v>
+        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
       </c>
       <c r="B103" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C103" t="str">
-        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
+        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
       </c>
       <c r="D103" t="str">
-        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
+        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>老公对我不错但性生活缺失是否该离婚</v>
+        <v>婚外情能维持到老死吗？</v>
       </c>
       <c r="B104" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C104" t="str">
-        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
+        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
       </c>
       <c r="D104" t="str">
-        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
+        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>老公对我不错但性生活缺失是否该离婚</v>
       </c>
       <c r="B105" t="str">
-        <v>宇宙探索</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C105" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
       </c>
       <c r="D105" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>冰箱与冰柜名称背后的有趣谜题</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B106" t="str">
-        <v>家电知识</v>
+        <v>宇宙探索</v>
       </c>
       <c r="C106" t="str">
-        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D106" t="str">
-        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
+        <v>冰箱与冰柜名称背后的有趣谜题</v>
       </c>
       <c r="B107" t="str">
-        <v>差旅办公</v>
+        <v>家电知识</v>
       </c>
       <c r="C107" t="str">
-        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
+        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
       </c>
       <c r="D107" t="str">
-        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
+        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>这个男人来自地球观后感</v>
+        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
       </c>
       <c r="B108" t="str">
-        <v>影视评论</v>
+        <v>差旅办公</v>
       </c>
       <c r="C108" t="str">
-        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
+        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
       </c>
       <c r="D108" t="str">
-        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
+        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>这个男人来自地球观后感</v>
       </c>
       <c r="B109" t="str">
-        <v>心理调适</v>
+        <v>影视评论</v>
       </c>
       <c r="C109" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
       </c>
       <c r="D109" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B110" t="str">
         <v>心理调适</v>
       </c>
       <c r="C110" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D110" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B111" t="str">
         <v>心理调适</v>
       </c>
       <c r="C111" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D111" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B112" t="str">
         <v>心理调适</v>
       </c>
       <c r="C112" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D112" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B113" t="str">
         <v>心理调适</v>
       </c>
       <c r="C113" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D113" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B114" t="str">
         <v>心理调适</v>
       </c>
       <c r="C114" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D114" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B115" t="str">
         <v>心理调适</v>
       </c>
       <c r="C115" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D115" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B116" t="str">
         <v>心理调适</v>
       </c>
       <c r="C116" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D116" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B117" t="str">
         <v>心理调适</v>
       </c>
       <c r="C117" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D117" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B118" t="str">
         <v>心理调适</v>
       </c>
       <c r="C118" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D118" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B119" t="str">
         <v>心理调适</v>
       </c>
       <c r="C119" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D119" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D120" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D121" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D122" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D123" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D124" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D125" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D126" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D127" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D128" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D129" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D130" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D131" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D132" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D133" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D134" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D135" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B136" t="str">
         <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D136" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B137" t="str">
         <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D137" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B138" t="str">
         <v>心理调适</v>
       </c>
       <c r="C138" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D138" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B139" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C139" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D139" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B140" t="str">
         <v>性别健康</v>
       </c>
       <c r="C140" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D140" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B141" t="str">
         <v>性别健康</v>
       </c>
       <c r="C141" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D141" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B142" t="str">
         <v>性别健康</v>
       </c>
       <c r="C142" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D142" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B143" t="str">
         <v>性别健康</v>
       </c>
       <c r="C143" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D143" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B144" t="str">
         <v>性别健康</v>
       </c>
       <c r="C144" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D144" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B145" t="str">
         <v>性别健康</v>
       </c>
       <c r="C145" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D145" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B146" t="str">
         <v>性别健康</v>
       </c>
       <c r="C146" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D146" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B147" t="str">
         <v>性别健康</v>
       </c>
       <c r="C147" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D147" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B148" t="str">
         <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D148" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B149" t="str">
         <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D149" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B150" t="str">
         <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D150" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D151" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B152" t="str">
         <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D152" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B153" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C153" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D153" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B154" t="str">
         <v>情感关系</v>
       </c>
       <c r="C154" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D154" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B155" t="str">
         <v>情感关系</v>
       </c>
       <c r="C155" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D155" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B156" t="str">
         <v>情感关系</v>
       </c>
       <c r="C156" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D156" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B157" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C157" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D157" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B158" t="str">
         <v>教育学习</v>
       </c>
       <c r="C158" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D158" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B159" t="str">
         <v>教育学习</v>
       </c>
       <c r="C159" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D159" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B160" t="str">
         <v>教育学习</v>
       </c>
       <c r="C160" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D160" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B161" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C161" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D161" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B162" t="str">
         <v>数字科技</v>
       </c>
       <c r="C162" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D162" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B163" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C163" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D163" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B164" t="str">
         <v>时尚生活</v>
       </c>
       <c r="C164" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D164" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B165" t="str">
         <v>时尚生活</v>
       </c>
       <c r="C165" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D165" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B166" t="str">
-        <v>法律</v>
+        <v>时尚生活</v>
       </c>
       <c r="C166" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D166" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B167" t="str">
-        <v>游戏竞技</v>
+        <v>法律</v>
       </c>
       <c r="C167" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D167" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B168" t="str">
-        <v>玩具科普</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C168" t="str">
-        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D168" t="str">
-        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>如果不孕不育是遗传的，如何传递基因？</v>
+        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
       </c>
       <c r="B169" t="str">
-        <v>生殖健康</v>
+        <v>玩具科普</v>
       </c>
       <c r="C169" t="str">
-        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
+        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
       </c>
       <c r="D169" t="str">
-        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
+        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>如果不孕不育是遗传的，如何传递基因？</v>
       </c>
       <c r="B170" t="str">
-        <v>生活感悟</v>
+        <v>生殖健康</v>
       </c>
       <c r="C170" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
       </c>
       <c r="D170" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B171" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C171" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D171" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B172" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C172" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D172" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B173" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C173" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D173" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B174" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C174" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D174" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B175" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C175" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D175" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B176" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C176" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D176" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B177" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C177" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D177" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B178" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C178" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D178" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B179" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C179" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D179" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B180" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C180" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D180" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B181" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C181" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D181" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B182" t="str">
         <v>生活日常</v>
       </c>
       <c r="C182" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D182" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B183" t="str">
         <v>生活日常</v>
       </c>
       <c r="C183" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D183" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>回首2024</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B184" t="str">
         <v>生活日常</v>
       </c>
       <c r="C184" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D184" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>回首2024</v>
       </c>
       <c r="B185" t="str">
         <v>生活日常</v>
       </c>
       <c r="C185" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D185" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B186" t="str">
         <v>生活日常</v>
       </c>
       <c r="C186" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D186" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B187" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C187" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D187" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B188" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C188" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D188" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B189" t="str">
         <v>社会探究</v>
       </c>
       <c r="C189" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D189" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B190" t="str">
         <v>社会探究</v>
       </c>
       <c r="C190" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D190" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B191" t="str">
         <v>社会探究</v>
       </c>
       <c r="C191" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D191" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B192" t="str">
         <v>社会探究</v>
       </c>
       <c r="C192" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D192" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B193" t="str">
         <v>社会探究</v>
       </c>
       <c r="C193" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D193" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B194" t="str">
         <v>社会探究</v>
       </c>
       <c r="C194" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D194" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B195" t="str">
         <v>社会探究</v>
       </c>
       <c r="C195" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D195" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B196" t="str">
         <v>社会探究</v>
       </c>
       <c r="C196" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D196" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B197" t="str">
         <v>社会探究</v>
       </c>
       <c r="C197" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D197" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B198" t="str">
         <v>社会探究</v>
       </c>
       <c r="C198" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D198" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B199" t="str">
         <v>社会探究</v>
       </c>
       <c r="C199" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D199" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B200" t="str">
         <v>社会探究</v>
       </c>
       <c r="C200" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D200" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B201" t="str">
         <v>社会探究</v>
       </c>
       <c r="C201" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D201" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B202" t="str">
         <v>社会探究</v>
       </c>
       <c r="C202" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D202" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B203" t="str">
         <v>社会探究</v>
       </c>
       <c r="C203" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D203" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B204" t="str">
         <v>社会探究</v>
       </c>
       <c r="C204" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D204" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B205" t="str">
         <v>社会探究</v>
       </c>
       <c r="C205" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D205" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B206" t="str">
         <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D206" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D207" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D208" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D209" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B210" t="str">
         <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D210" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B211" t="str">
         <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D211" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B212" t="str">
         <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D212" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B213" t="str">
         <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D213" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B214" t="str">
         <v>社会探究</v>
       </c>
       <c r="C214" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D214" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B215" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C215" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D215" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B216" t="str">
         <v>社会现象</v>
       </c>
       <c r="C216" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D216" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B217" t="str">
         <v>社会现象</v>
       </c>
       <c r="C217" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D217" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B218" t="str">
         <v>社会现象</v>
       </c>
       <c r="C218" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D218" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>再聊姜萍</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B219" t="str">
         <v>社会现象</v>
       </c>
       <c r="C219" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D219" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B220" t="str">
         <v>社会现象</v>
       </c>
       <c r="C220" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D220" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B221" t="str">
         <v>社会现象</v>
       </c>
       <c r="C221" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D221" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B222" t="str">
         <v>社会现象</v>
       </c>
       <c r="C222" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D222" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B223" t="str">
         <v>社会现象</v>
       </c>
       <c r="C223" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D223" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B224" t="str">
         <v>社会现象</v>
       </c>
       <c r="C224" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D224" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B225" t="str">
         <v>社会现象</v>
       </c>
       <c r="C225" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D225" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B226" t="str">
         <v>社会现象</v>
       </c>
       <c r="C226" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D226" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B227" t="str">
         <v>社会现象</v>
       </c>
       <c r="C227" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D227" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B228" t="str">
         <v>社会现象</v>
       </c>
       <c r="C228" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D228" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B229" t="str">
         <v>社会现象</v>
       </c>
       <c r="C229" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D229" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B230" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C230" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D230" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B231" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C231" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D231" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B232" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C232" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D232" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B233" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C233" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D233" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B234" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C234" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D234" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B235" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C235" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D235" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B236" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C236" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D236" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B237" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C237" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D237" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B238" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C238" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D238" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>什么是成功的定义？</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B239" t="str">
         <v>职业发展</v>
       </c>
       <c r="C239" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D239" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B240" t="str">
         <v>职业发展</v>
       </c>
       <c r="C240" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D240" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B241" t="str">
         <v>职业发展</v>
       </c>
       <c r="C241" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D241" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B242" t="str">
         <v>职业发展</v>
       </c>
       <c r="C242" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D242" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B243" t="str">
         <v>职业发展</v>
       </c>
       <c r="C243" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D243" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B244" t="str">
         <v>职业发展</v>
       </c>
       <c r="C244" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D244" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B245" t="str">
         <v>职业发展</v>
       </c>
       <c r="C245" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D245" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B246" t="str">
         <v>职业发展</v>
       </c>
       <c r="C246" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D246" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B247" t="str">
         <v>职业发展</v>
       </c>
       <c r="C247" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D247" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B248" t="str">
         <v>职业发展</v>
       </c>
       <c r="C248" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D248" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B249" t="str">
         <v>职业发展</v>
       </c>
       <c r="C249" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D249" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B250" t="str">
         <v>职业发展</v>
       </c>
       <c r="C250" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D250" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B251" t="str">
         <v>职业发展</v>
       </c>
       <c r="C251" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D251" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B252" t="str">
         <v>职业发展</v>
       </c>
       <c r="C252" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D252" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B253" t="str">
         <v>职业发展</v>
       </c>
       <c r="C253" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D253" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B254" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C254" t="str">
-        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D254" t="str">
-        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>上帝能否创造一块自己搬不动的石头？</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B255" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C255" t="str">
-        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D255" t="str">
-        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B256" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C256" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D256" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B257" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C257" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D257" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B258" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C258" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D258" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B259" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C259" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D259" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B260" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C260" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D260" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B261" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C261" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D261" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B262" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C262" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D262" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B263" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C263" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D263" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B264" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C264" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D264" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B265" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C265" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D265" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B266" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C266" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D266" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B267" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C267" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D267" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B268" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C268" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D268" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B269" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C269" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D269" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B270" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C270" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D270" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B271" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C271" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D271" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B272" t="str">
-        <v>自我成长</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C272" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D272" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B273" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C273" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D273" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B274" t="str">
-        <v>自我提升</v>
+        <v>自我成长</v>
       </c>
       <c r="C274" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D274" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B275" t="str">
         <v>自我提升</v>
       </c>
       <c r="C275" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D275" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B276" t="str">
         <v>自我提升</v>
       </c>
       <c r="C276" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D276" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B277" t="str">
         <v>自我提升</v>
       </c>
       <c r="C277" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D277" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B278" t="str">
         <v>自我提升</v>
       </c>
       <c r="C278" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D278" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B279" t="str">
         <v>自我提升</v>
       </c>
       <c r="C279" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D279" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B280" t="str">
         <v>自我提升</v>
       </c>
       <c r="C280" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
       </c>
       <c r="D280" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B281" t="str">
         <v>自我提升</v>
       </c>
       <c r="C281" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D281" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B282" t="str">
         <v>自我提升</v>
       </c>
       <c r="C282" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D282" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B283" t="str">
         <v>自我提升</v>
       </c>
       <c r="C283" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D283" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B284" t="str">
         <v>自我提升</v>
       </c>
       <c r="C284" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
       </c>
       <c r="D284" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>个人发展, 心态管理, 成功学, 目标设定</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B285" t="str">
         <v>自我提升</v>
       </c>
       <c r="C285" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D285" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B286" t="str">
         <v>自我提升</v>
       </c>
       <c r="C286" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D286" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B287" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C287" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D287" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B288" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C288" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D288" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B289" t="str">
         <v>自然科学</v>
       </c>
       <c r="C289" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D289" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B290" t="str">
         <v>自然科学</v>
       </c>
       <c r="C290" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D290" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B291" t="str">
         <v>自然科学</v>
       </c>
       <c r="C291" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D291" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>字典数排序</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B292" t="str">
         <v>自然科学</v>
       </c>
       <c r="C292" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D292" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B293" t="str">
         <v>自然科学</v>
       </c>
       <c r="C293" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D293" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>字典数排序</v>
       </c>
       <c r="B294" t="str">
         <v>自然科学</v>
       </c>
       <c r="C294" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D294" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B295" t="str">
         <v>自然科学</v>
       </c>
       <c r="C295" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D295" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B296" t="str">
         <v>自然科学</v>
       </c>
       <c r="C296" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D296" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B297" t="str">
         <v>自然科学</v>
       </c>
       <c r="C297" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D297" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B298" t="str">
         <v>自然科学</v>
       </c>
       <c r="C298" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D298" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B299" t="str">
         <v>自然科学</v>
       </c>
       <c r="C299" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D299" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B300" t="str">
         <v>自然科学</v>
       </c>
       <c r="C300" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D300" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B301" t="str">
         <v>自然科学</v>
       </c>
       <c r="C301" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D301" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B302" t="str">
         <v>自然科学</v>
       </c>
       <c r="C302" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D302" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B303" t="str">
-        <v>药物使用与健康</v>
+        <v>自然科学</v>
       </c>
       <c r="C303" t="str">
-        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D303" t="str">
-        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B304" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C304" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D304" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B305" t="str">
         <v>财富管理</v>
       </c>
       <c r="C305" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D305" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B306" t="str">
         <v>财富管理</v>
       </c>
       <c r="C306" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D306" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B307" t="str">
         <v>财富管理</v>
       </c>
       <c r="C307" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D307" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B308" t="str">
         <v>财富管理</v>
       </c>
       <c r="C308" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D308" t="str">
         <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
@@ -4722,55 +4722,55 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B309" t="str">
         <v>财富管理</v>
       </c>
       <c r="C309" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D309" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B310" t="str">
         <v>财富管理</v>
       </c>
       <c r="C310" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D310" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B311" t="str">
         <v>财富管理</v>
       </c>
       <c r="C311" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D311" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B312" t="str">
         <v>财富管理</v>
       </c>
       <c r="C312" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D312" t="str">
         <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
@@ -4778,30 +4778,30 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B313" t="str">
         <v>财富管理</v>
       </c>
       <c r="C313" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D313" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B314" t="str">
         <v>财富管理</v>
       </c>
       <c r="C314" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D314" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="315">
@@ -4812,701 +4812,715 @@
         <v>财富管理</v>
       </c>
       <c r="C315" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D315" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B316" t="str">
         <v>财富管理</v>
       </c>
       <c r="C316" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D316" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B317" t="str">
         <v>财富管理</v>
       </c>
       <c r="C317" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D317" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B318" t="str">
         <v>财富管理</v>
       </c>
       <c r="C318" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D318" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B319" t="str">
         <v>财富管理</v>
       </c>
       <c r="C319" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D319" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B320" t="str">
         <v>财富管理</v>
       </c>
       <c r="C320" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D320" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B321" t="str">
         <v>财富管理</v>
       </c>
       <c r="C321" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D321" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B322" t="str">
         <v>财富管理</v>
       </c>
       <c r="C322" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D322" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B323" t="str">
         <v>财富管理</v>
       </c>
       <c r="C323" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D323" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B324" t="str">
         <v>财富管理</v>
       </c>
       <c r="C324" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D324" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B325" t="str">
         <v>财富管理</v>
       </c>
       <c r="C325" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D325" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B326" t="str">
         <v>财富管理</v>
       </c>
       <c r="C326" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D326" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B327" t="str">
         <v>财富管理</v>
       </c>
       <c r="C327" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D327" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B328" t="str">
         <v>财富管理</v>
       </c>
       <c r="C328" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D328" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>有效增加收入指南</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B329" t="str">
         <v>财富管理</v>
       </c>
       <c r="C329" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D329" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B330" t="str">
         <v>财富管理</v>
       </c>
       <c r="C330" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D330" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B331" t="str">
         <v>财富管理</v>
       </c>
       <c r="C331" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D331" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B332" t="str">
         <v>财富管理</v>
       </c>
       <c r="C332" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D332" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>穷人怎么翻身</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B333" t="str">
         <v>财富管理</v>
       </c>
       <c r="C333" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D333" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B334" t="str">
         <v>财富管理</v>
       </c>
       <c r="C334" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D334" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B335" t="str">
         <v>财富管理</v>
       </c>
       <c r="C335" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D335" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B336" t="str">
         <v>财富管理</v>
       </c>
       <c r="C336" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D336" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B337" t="str">
         <v>财富管理</v>
       </c>
       <c r="C337" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D337" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B338" t="str">
         <v>财富管理</v>
       </c>
       <c r="C338" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D338" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B339" t="str">
         <v>财富管理</v>
       </c>
       <c r="C339" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D339" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B340" t="str">
         <v>财富管理</v>
       </c>
       <c r="C340" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D340" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B341" t="str">
         <v>财富管理</v>
       </c>
       <c r="C341" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D341" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B342" t="str">
         <v>财富管理</v>
       </c>
       <c r="C342" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D342" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B343" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C343" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D343" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B344" t="str">
         <v>身体健康</v>
       </c>
       <c r="C344" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D344" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B345" t="str">
         <v>身体健康</v>
       </c>
       <c r="C345" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D345" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B346" t="str">
         <v>身体健康</v>
       </c>
       <c r="C346" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D346" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B347" t="str">
         <v>身体健康</v>
       </c>
       <c r="C347" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D347" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B348" t="str">
         <v>身体健康</v>
       </c>
       <c r="C348" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D348" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B349" t="str">
         <v>身体健康</v>
       </c>
       <c r="C349" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D349" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B350" t="str">
         <v>身体健康</v>
       </c>
       <c r="C350" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D350" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B351" t="str">
         <v>身体健康</v>
       </c>
       <c r="C351" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D351" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B352" t="str">
         <v>身体健康</v>
       </c>
       <c r="C352" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D352" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B353" t="str">
         <v>身体健康</v>
       </c>
       <c r="C353" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D353" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B354" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C354" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D354" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B355" t="str">
         <v>软件开发</v>
       </c>
       <c r="C355" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D355" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B356" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C356" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D356" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B357" t="str">
         <v>运营指南</v>
       </c>
       <c r="C357" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D357" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B358" t="str">
         <v>运营指南</v>
       </c>
       <c r="C358" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D358" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B359" t="str">
         <v>运营指南</v>
       </c>
       <c r="C359" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D359" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>打造百家号爆款内容的实用秘籍</v>
       </c>
       <c r="B360" t="str">
         <v>运营指南</v>
       </c>
       <c r="C360" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
       </c>
       <c r="D360" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>打造知乎爆款内容的实用秘籍</v>
       </c>
       <c r="B361" t="str">
         <v>运营指南</v>
       </c>
       <c r="C361" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
       </c>
       <c r="D361" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>抖音爆款内容打造全攻略</v>
       </c>
       <c r="B362" t="str">
         <v>运营指南</v>
       </c>
       <c r="C362" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
       </c>
       <c r="D362" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>畅销长篇小说创作秘籍全解析</v>
       </c>
       <c r="B363" t="str">
         <v>运营指南</v>
       </c>
       <c r="C363" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
       </c>
       <c r="D363" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B364" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C364" t="str">
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+      </c>
+      <c r="D364" t="str">
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
         <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
       </c>
-      <c r="B364" t="str">
+      <c r="B365" t="str">
         <v>食品安全</v>
       </c>
-      <c r="C364" t="str">
+      <c r="C365" t="str">
         <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
       </c>
-      <c r="D364" t="str">
+      <c r="D365" t="str">
         <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D364"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D365"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,4179 +1348,4249 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>眼镜发明前，眼镜蛇叫什么？</v>
+        <v>马镫未发明时，骑兵如何作战？</v>
       </c>
       <c r="B68" t="str">
-        <v>动物文化</v>
+        <v>军事历史</v>
       </c>
       <c r="C68" t="str">
-        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
+        <v>深入探究在马镫未被发明的时代，骑兵如何在战场上凭借骑射战术、冲锋战术、近身搏斗及战术配合等方式奋勇杀敌，揭开古代骑兵作战的神秘面纱。</v>
       </c>
       <c r="D68" t="str">
-        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
+        <v>冲锋战术, 近身搏斗, 马镫, 骑兵, 骑射战术</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>历史事件对当今社会和个人有哪些启示？</v>
+        <v>眼镜发明前，眼镜蛇叫什么？</v>
       </c>
       <c r="B69" t="str">
-        <v>历史探究</v>
+        <v>动物文化</v>
       </c>
       <c r="C69" t="str">
-        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
+        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
       </c>
       <c r="D69" t="str">
-        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
+        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
+        <v>历史事件对当今社会和个人有哪些启示？</v>
       </c>
       <c r="B70" t="str">
         <v>历史探究</v>
       </c>
       <c r="C70" t="str">
-        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
+        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
       </c>
       <c r="D70" t="str">
-        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
+        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>谋士为何难成一把手？</v>
+        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
       </c>
       <c r="B71" t="str">
         <v>历史探究</v>
       </c>
       <c r="C71" t="str">
-        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
+        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
       </c>
       <c r="D71" t="str">
-        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
+        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>中式八球台球礼仪须知</v>
+        <v>谋士为何难成一把手？</v>
       </c>
       <c r="B72" t="str">
-        <v>台球天地</v>
+        <v>历史探究</v>
       </c>
       <c r="C72" t="str">
-        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
+        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
       </c>
       <c r="D72" t="str">
-        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
+        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>中式八球台球规则详解</v>
+        <v>探秘：第一个喝牛奶的人对牛做了什么？</v>
       </c>
       <c r="B73" t="str">
-        <v>台球天地</v>
+        <v>历史文化</v>
       </c>
       <c r="C73" t="str">
-        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
+        <v>深入探究人类历史上第一个喝牛奶的人对牛做了什么，全面解析牛奶的起源、早期利用、与牛的关系、社会文化意义以及现代产业发展，带你领略牛奶背后的深厚历史与文化内涵。</v>
       </c>
       <c r="D73" t="str">
-        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
+        <v>牛奶产业, 牛奶利用, 牛奶文化, 牛奶起源, 牛的驯化</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>中式八球台球运动简介</v>
+        <v>中式八球台球礼仪须知</v>
       </c>
       <c r="B74" t="str">
         <v>台球天地</v>
       </c>
       <c r="C74" t="str">
-        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
+        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
       </c>
       <c r="D74" t="str">
-        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
+        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>中式八球的发展史</v>
+        <v>中式八球台球规则详解</v>
       </c>
       <c r="B75" t="str">
         <v>台球天地</v>
       </c>
       <c r="C75" t="str">
-        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
+        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
       </c>
       <c r="D75" t="str">
-        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
+        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>令人绝望的“文盲”</v>
+        <v>中式八球台球运动简介</v>
       </c>
       <c r="B76" t="str">
         <v>台球天地</v>
       </c>
       <c r="C76" t="str">
-        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
+        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
       </c>
       <c r="D76" t="str">
-        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
+        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>关于我们</v>
+        <v>中式八球的发展史</v>
       </c>
       <c r="B77" t="str">
         <v>台球天地</v>
       </c>
       <c r="C77" t="str">
-        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
+        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
       </c>
       <c r="D77" t="str">
-        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
+        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>台球初学者指南</v>
+        <v>令人绝望的“文盲”</v>
       </c>
       <c r="B78" t="str">
         <v>台球天地</v>
       </c>
       <c r="C78" t="str">
-        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
+        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
       </c>
       <c r="D78" t="str">
-        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
+        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>台球店基本信息</v>
+        <v>关于我们</v>
       </c>
       <c r="B79" t="str">
         <v>台球天地</v>
       </c>
       <c r="C79" t="str">
-        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
+        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
       </c>
       <c r="D79" t="str">
-        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
+        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>台球种类专业介绍</v>
+        <v>台球初学者指南</v>
       </c>
       <c r="B80" t="str">
         <v>台球天地</v>
       </c>
       <c r="C80" t="str">
-        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
+        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
       </c>
       <c r="D80" t="str">
-        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
+        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>台球设备介绍</v>
+        <v>台球店基本信息</v>
       </c>
       <c r="B81" t="str">
         <v>台球天地</v>
       </c>
       <c r="C81" t="str">
-        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
+        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
       </c>
       <c r="D81" t="str">
-        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
+        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>台球设备评测报告</v>
+        <v>台球种类专业介绍</v>
       </c>
       <c r="B82" t="str">
         <v>台球天地</v>
       </c>
       <c r="C82" t="str">
-        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
+        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
       </c>
       <c r="D82" t="str">
-        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
+        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>台球运动：助力青少年全面发展的独特运动</v>
+        <v>台球设备介绍</v>
       </c>
       <c r="B83" t="str">
         <v>台球天地</v>
       </c>
       <c r="C83" t="str">
-        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
+        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
       </c>
       <c r="D83" t="str">
-        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
+        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>台球运动的物理学原理</v>
+        <v>台球设备评测报告</v>
       </c>
       <c r="B84" t="str">
         <v>台球天地</v>
       </c>
       <c r="C84" t="str">
-        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
+        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
       </c>
       <c r="D84" t="str">
-        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
+        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>台球高级技巧分享</v>
+        <v>台球运动：助力青少年全面发展的独特运动</v>
       </c>
       <c r="B85" t="str">
         <v>台球天地</v>
       </c>
       <c r="C85" t="str">
-        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
+        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
       </c>
       <c r="D85" t="str">
-        <v>台球高级技巧, 战术应用, 技巧实践</v>
+        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
+        <v>台球运动的物理学原理</v>
       </c>
       <c r="B86" t="str">
         <v>台球天地</v>
       </c>
       <c r="C86" t="str">
-        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
+        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
       </c>
       <c r="D86" t="str">
-        <v>商业模拟, 自助台球店</v>
+        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
+        <v>台球高级技巧分享</v>
       </c>
       <c r="B87" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C87" t="str">
-        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
+        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
       </c>
       <c r="D87" t="str">
-        <v>台球政策, 商业策略, 算力服务费</v>
+        <v>台球高级技巧, 战术应用, 技巧实践</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>为什么台球店没有请陪打女主教</v>
+        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
       </c>
       <c r="B88" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C88" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
       </c>
       <c r="D88" t="str">
-        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
+        <v>商业模拟, 自助台球店</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>开台球店的一些注意事项</v>
+        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
       </c>
       <c r="B89" t="str">
         <v>台球经营</v>
       </c>
       <c r="C89" t="str">
-        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
+        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D89" t="str">
-        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
+        <v>台球政策, 商业策略, 算力服务费</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
+        <v>为什么台球店没有请陪打女主教</v>
       </c>
       <c r="B90" t="str">
         <v>台球经营</v>
       </c>
       <c r="C90" t="str">
-        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D90" t="str">
-        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
+        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>台球运动在不同文化背景下的特色玩法</v>
+        <v>开台球店的一些注意事项</v>
       </c>
       <c r="B91" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C91" t="str">
-        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
+        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
       </c>
       <c r="D91" t="str">
-        <v>文化交流, 文化差异</v>
+        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>国内外重要台球赛事</v>
+        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
       </c>
       <c r="B92" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C92" t="str">
-        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
+        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
       </c>
       <c r="D92" t="str">
-        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
+        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>提升台球技能小贴士</v>
+        <v>台球运动在不同文化背景下的特色玩法</v>
       </c>
       <c r="B93" t="str">
         <v>台球运动</v>
       </c>
       <c r="C93" t="str">
-        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
+        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
       </c>
       <c r="D93" t="str">
-        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
+        <v>文化交流, 文化差异</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>科技如何重塑台球运动体验</v>
+        <v>国内外重要台球赛事</v>
       </c>
       <c r="B94" t="str">
         <v>台球运动</v>
       </c>
       <c r="C94" t="str">
-        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
+        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
       </c>
       <c r="D94" t="str">
-        <v>台球, 智能设备, 科技应用, 运动科技</v>
+        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>独立开发者探寻机会的多元路径解析</v>
+        <v>提升台球技能小贴士</v>
       </c>
       <c r="B95" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C95" t="str">
-        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
+        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
       </c>
       <c r="D95" t="str">
-        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
+        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>自助台球门店客流量差异分析</v>
+        <v>科技如何重塑台球运动体验</v>
       </c>
       <c r="B96" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C96" t="str">
-        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
+        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
       </c>
       <c r="D96" t="str">
-        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
+        <v>台球, 智能设备, 科技应用, 运动科技</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
+        <v>独立开发者探寻机会的多元路径解析</v>
       </c>
       <c r="B97" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C97" t="str">
-        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
+        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
       </c>
       <c r="D97" t="str">
-        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
+        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>夫妻之间，无性婚姻能坚持多久？</v>
+        <v>自助台球门店客流量差异分析</v>
       </c>
       <c r="B98" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C98" t="str">
-        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
+        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
       </c>
       <c r="D98" t="str">
-        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
+        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
+        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
       </c>
       <c r="B99" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C99" t="str">
-        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
+        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D99" t="str">
-        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
+        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>女人应该在什么时候把自己嫁出去？</v>
+        <v>夫妻之间，无性婚姻能坚持多久？</v>
       </c>
       <c r="B100" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C100" t="str">
-        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
+        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
       </c>
       <c r="D100" t="str">
-        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
+        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>如何成为一个好丈夫：关键要素与实践指南</v>
+        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
       </c>
       <c r="B101" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C101" t="str">
-        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
+        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
       </c>
       <c r="D101" t="str">
-        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
+        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>如何成为令人称羡的好妻子</v>
+        <v>女人应该在什么时候把自己嫁出去？</v>
       </c>
       <c r="B102" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C102" t="str">
-        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
+        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
       </c>
       <c r="D102" t="str">
-        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
+        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
+        <v>如何成为一个好丈夫：关键要素与实践指南</v>
       </c>
       <c r="B103" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C103" t="str">
-        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
+        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
       </c>
       <c r="D103" t="str">
-        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
+        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>婚外情能维持到老死吗？</v>
+        <v>如何成为令人称羡的好妻子</v>
       </c>
       <c r="B104" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C104" t="str">
-        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
+        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
       </c>
       <c r="D104" t="str">
-        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
+        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>老公对我不错但性生活缺失是否该离婚</v>
+        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
       </c>
       <c r="B105" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C105" t="str">
-        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
+        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
       </c>
       <c r="D105" t="str">
-        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
+        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>婚外情能维持到老死吗？</v>
       </c>
       <c r="B106" t="str">
-        <v>宇宙探索</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C106" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
       </c>
       <c r="D106" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>冰箱与冰柜名称背后的有趣谜题</v>
+        <v>老公对我不错但性生活缺失是否该离婚</v>
       </c>
       <c r="B107" t="str">
-        <v>家电知识</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C107" t="str">
-        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
+        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
       </c>
       <c r="D107" t="str">
-        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
+        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B108" t="str">
-        <v>差旅办公</v>
+        <v>宇宙探索</v>
       </c>
       <c r="C108" t="str">
-        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D108" t="str">
-        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>这个男人来自地球观后感</v>
+        <v>冰箱与冰柜名称背后的有趣谜题</v>
       </c>
       <c r="B109" t="str">
-        <v>影视评论</v>
+        <v>家电知识</v>
       </c>
       <c r="C109" t="str">
-        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
+        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
       </c>
       <c r="D109" t="str">
-        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
+        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
       </c>
       <c r="B110" t="str">
-        <v>心理调适</v>
+        <v>差旅办公</v>
       </c>
       <c r="C110" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
       </c>
       <c r="D110" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>这个男人来自地球观后感</v>
       </c>
       <c r="B111" t="str">
-        <v>心理调适</v>
+        <v>影视评论</v>
       </c>
       <c r="C111" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
       </c>
       <c r="D111" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B112" t="str">
         <v>心理调适</v>
       </c>
       <c r="C112" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D112" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B113" t="str">
         <v>心理调适</v>
       </c>
       <c r="C113" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D113" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B114" t="str">
         <v>心理调适</v>
       </c>
       <c r="C114" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D114" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B115" t="str">
         <v>心理调适</v>
       </c>
       <c r="C115" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D115" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B116" t="str">
         <v>心理调适</v>
       </c>
       <c r="C116" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D116" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B117" t="str">
         <v>心理调适</v>
       </c>
       <c r="C117" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D117" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B118" t="str">
         <v>心理调适</v>
       </c>
       <c r="C118" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D118" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B119" t="str">
         <v>心理调适</v>
       </c>
       <c r="C119" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D119" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D120" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D121" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D122" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D123" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D124" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D125" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D126" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D127" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D128" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D129" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D130" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D131" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D132" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D133" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D134" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D135" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B136" t="str">
         <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D136" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B137" t="str">
         <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D137" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B138" t="str">
         <v>心理调适</v>
       </c>
       <c r="C138" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D138" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B139" t="str">
         <v>心理调适</v>
       </c>
       <c r="C139" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D139" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B140" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C140" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D140" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B141" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C141" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D141" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B142" t="str">
         <v>性别健康</v>
       </c>
       <c r="C142" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D142" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B143" t="str">
         <v>性别健康</v>
       </c>
       <c r="C143" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D143" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B144" t="str">
         <v>性别健康</v>
       </c>
       <c r="C144" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D144" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B145" t="str">
         <v>性别健康</v>
       </c>
       <c r="C145" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D145" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B146" t="str">
         <v>性别健康</v>
       </c>
       <c r="C146" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D146" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B147" t="str">
         <v>性别健康</v>
       </c>
       <c r="C147" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D147" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B148" t="str">
         <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D148" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B149" t="str">
         <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D149" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B150" t="str">
         <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D150" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D151" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B152" t="str">
         <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D152" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B153" t="str">
         <v>性别健康</v>
       </c>
       <c r="C153" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D153" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B154" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C154" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D154" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B155" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C155" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D155" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B156" t="str">
         <v>情感关系</v>
       </c>
       <c r="C156" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D156" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B157" t="str">
         <v>情感关系</v>
       </c>
       <c r="C157" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D157" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B158" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C158" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D158" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B159" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C159" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D159" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
       </c>
       <c r="B160" t="str">
-        <v>教育学习</v>
+        <v>情感故事</v>
       </c>
       <c r="C160" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
       </c>
       <c r="D160" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B161" t="str">
         <v>教育学习</v>
       </c>
       <c r="C161" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D161" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B162" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C162" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D162" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B163" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C163" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D163" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B164" t="str">
-        <v>时尚生活</v>
+        <v>教育学习</v>
       </c>
       <c r="C164" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D164" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B165" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C165" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D165" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B166" t="str">
-        <v>时尚生活</v>
+        <v>数字科技</v>
       </c>
       <c r="C166" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D166" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B167" t="str">
-        <v>法律</v>
+        <v>时尚生活</v>
       </c>
       <c r="C167" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D167" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B168" t="str">
-        <v>游戏竞技</v>
+        <v>时尚生活</v>
       </c>
       <c r="C168" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D168" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B169" t="str">
-        <v>玩具科普</v>
+        <v>时尚生活</v>
       </c>
       <c r="C169" t="str">
-        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D169" t="str">
-        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>如果不孕不育是遗传的，如何传递基因？</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B170" t="str">
-        <v>生殖健康</v>
+        <v>法律</v>
       </c>
       <c r="C170" t="str">
-        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D170" t="str">
-        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B171" t="str">
-        <v>生活感悟</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C171" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D171" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
       </c>
       <c r="B172" t="str">
-        <v>生活感悟</v>
+        <v>玩具科普</v>
       </c>
       <c r="C172" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
       </c>
       <c r="D172" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>如果不孕不育是遗传的，如何传递基因？</v>
       </c>
       <c r="B173" t="str">
-        <v>生活感悟</v>
+        <v>生殖健康</v>
       </c>
       <c r="C173" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
       </c>
       <c r="D173" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B174" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C174" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D174" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B175" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C175" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D175" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B176" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C176" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D176" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B177" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C177" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D177" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B178" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C178" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D178" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B179" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C179" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D179" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B180" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C180" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D180" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B181" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C181" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D181" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B182" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C182" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D182" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B183" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C183" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D183" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B184" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C184" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D184" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>回首2024</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B185" t="str">
         <v>生活日常</v>
       </c>
       <c r="C185" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D185" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B186" t="str">
         <v>生活日常</v>
       </c>
       <c r="C186" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D186" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B187" t="str">
         <v>生活日常</v>
       </c>
       <c r="C187" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D187" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>回首2024</v>
       </c>
       <c r="B188" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C188" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D188" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B189" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C189" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D189" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B190" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C190" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D190" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B191" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C191" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D191" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B192" t="str">
         <v>社会探究</v>
       </c>
       <c r="C192" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D192" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B193" t="str">
         <v>社会探究</v>
       </c>
       <c r="C193" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D193" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B194" t="str">
         <v>社会探究</v>
       </c>
       <c r="C194" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D194" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B195" t="str">
         <v>社会探究</v>
       </c>
       <c r="C195" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D195" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B196" t="str">
         <v>社会探究</v>
       </c>
       <c r="C196" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D196" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B197" t="str">
         <v>社会探究</v>
       </c>
       <c r="C197" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D197" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B198" t="str">
         <v>社会探究</v>
       </c>
       <c r="C198" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D198" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B199" t="str">
         <v>社会探究</v>
       </c>
       <c r="C199" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D199" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B200" t="str">
         <v>社会探究</v>
       </c>
       <c r="C200" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D200" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B201" t="str">
         <v>社会探究</v>
       </c>
       <c r="C201" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D201" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B202" t="str">
         <v>社会探究</v>
       </c>
       <c r="C202" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D202" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B203" t="str">
         <v>社会探究</v>
       </c>
       <c r="C203" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D203" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B204" t="str">
         <v>社会探究</v>
       </c>
       <c r="C204" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D204" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B205" t="str">
         <v>社会探究</v>
       </c>
       <c r="C205" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D205" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B206" t="str">
         <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D206" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D207" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D208" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D209" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B210" t="str">
         <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D210" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B211" t="str">
         <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D211" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B212" t="str">
         <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D212" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B213" t="str">
         <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D213" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B214" t="str">
         <v>社会探究</v>
       </c>
       <c r="C214" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D214" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B215" t="str">
         <v>社会探究</v>
       </c>
       <c r="C215" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D215" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B216" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C216" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D216" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B217" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C217" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D217" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B218" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C218" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D218" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B219" t="str">
         <v>社会现象</v>
       </c>
       <c r="C219" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D219" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>再聊姜萍</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B220" t="str">
         <v>社会现象</v>
       </c>
       <c r="C220" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D220" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B221" t="str">
         <v>社会现象</v>
       </c>
       <c r="C221" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D221" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B222" t="str">
         <v>社会现象</v>
       </c>
       <c r="C222" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D222" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B223" t="str">
         <v>社会现象</v>
       </c>
       <c r="C223" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D223" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B224" t="str">
         <v>社会现象</v>
       </c>
       <c r="C224" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D224" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B225" t="str">
         <v>社会现象</v>
       </c>
       <c r="C225" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D225" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B226" t="str">
         <v>社会现象</v>
       </c>
       <c r="C226" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D226" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B227" t="str">
         <v>社会现象</v>
       </c>
       <c r="C227" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D227" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B228" t="str">
         <v>社会现象</v>
       </c>
       <c r="C228" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D228" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B229" t="str">
         <v>社会现象</v>
       </c>
       <c r="C229" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D229" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B230" t="str">
         <v>社会现象</v>
       </c>
       <c r="C230" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D230" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B231" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C231" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D231" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B232" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C232" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D232" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B233" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C233" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D233" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B234" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C234" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D234" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B235" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C235" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D235" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B236" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C236" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D236" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B237" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C237" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D237" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B238" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C238" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D238" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B239" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C239" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D239" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>什么是成功的定义？</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B240" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C240" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D240" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B241" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C241" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D241" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B242" t="str">
         <v>职业发展</v>
       </c>
       <c r="C242" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D242" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B243" t="str">
         <v>职业发展</v>
       </c>
       <c r="C243" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D243" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B244" t="str">
         <v>职业发展</v>
       </c>
       <c r="C244" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D244" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B245" t="str">
         <v>职业发展</v>
       </c>
       <c r="C245" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D245" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B246" t="str">
         <v>职业发展</v>
       </c>
       <c r="C246" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D246" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B247" t="str">
         <v>职业发展</v>
       </c>
       <c r="C247" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D247" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B248" t="str">
         <v>职业发展</v>
       </c>
       <c r="C248" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D248" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B249" t="str">
         <v>职业发展</v>
       </c>
       <c r="C249" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D249" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B250" t="str">
         <v>职业发展</v>
       </c>
       <c r="C250" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D250" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B251" t="str">
         <v>职业发展</v>
       </c>
       <c r="C251" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D251" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B252" t="str">
         <v>职业发展</v>
       </c>
       <c r="C252" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D252" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B253" t="str">
         <v>职业发展</v>
       </c>
       <c r="C253" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D253" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B254" t="str">
         <v>职业发展</v>
       </c>
       <c r="C254" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D254" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B255" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C255" t="str">
-        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D255" t="str">
-        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>上帝能否创造一块自己搬不动的石头？</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B256" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C256" t="str">
-        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D256" t="str">
-        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B257" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C257" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D257" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B258" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C258" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D258" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>19世纪人类是否全部灭绝过？</v>
       </c>
       <c r="B259" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C259" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
       </c>
       <c r="D259" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B260" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C260" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D260" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B261" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C261" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D261" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B262" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C262" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D262" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B263" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C263" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D263" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B264" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C264" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D264" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B265" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C265" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D265" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B266" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C266" t="str">
-        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D266" t="str">
-        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B267" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C267" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D267" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B268" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C268" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D268" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B269" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C269" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D269" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B270" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C270" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D270" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B271" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C271" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D271" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B272" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C272" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D272" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B273" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C273" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D273" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
       </c>
       <c r="B274" t="str">
-        <v>自我成长</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C274" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
       </c>
       <c r="D274" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B275" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C275" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D275" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B276" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C276" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D276" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B277" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C277" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D277" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B278" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C278" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D278" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B279" t="str">
-        <v>自我提升</v>
+        <v>自我成长</v>
       </c>
       <c r="C279" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D279" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B280" t="str">
         <v>自我提升</v>
       </c>
       <c r="C280" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D280" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B281" t="str">
         <v>自我提升</v>
       </c>
       <c r="C281" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D281" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B282" t="str">
         <v>自我提升</v>
       </c>
       <c r="C282" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D282" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B283" t="str">
         <v>自我提升</v>
       </c>
       <c r="C283" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D283" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B284" t="str">
         <v>自我提升</v>
       </c>
       <c r="C284" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D284" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B285" t="str">
         <v>自我提升</v>
       </c>
       <c r="C285" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
       </c>
       <c r="D285" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B286" t="str">
         <v>自我提升</v>
       </c>
       <c r="C286" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D286" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B287" t="str">
         <v>自我提升</v>
       </c>
       <c r="C287" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D287" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B288" t="str">
         <v>自我提升</v>
       </c>
       <c r="C288" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D288" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B289" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C289" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
       </c>
       <c r="D289" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>个人发展, 心态管理, 成功学, 目标设定</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B290" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C290" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D290" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B291" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C291" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D291" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B292" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C292" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D292" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B293" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C293" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D293" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>字典数排序</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B294" t="str">
         <v>自然科学</v>
       </c>
       <c r="C294" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D294" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B295" t="str">
         <v>自然科学</v>
       </c>
       <c r="C295" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D295" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B296" t="str">
         <v>自然科学</v>
       </c>
       <c r="C296" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D296" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B297" t="str">
         <v>自然科学</v>
       </c>
       <c r="C297" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D297" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B298" t="str">
         <v>自然科学</v>
       </c>
       <c r="C298" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D298" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>字典数排序</v>
       </c>
       <c r="B299" t="str">
         <v>自然科学</v>
       </c>
       <c r="C299" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D299" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B300" t="str">
         <v>自然科学</v>
       </c>
       <c r="C300" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D300" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B301" t="str">
         <v>自然科学</v>
       </c>
       <c r="C301" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D301" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B302" t="str">
         <v>自然科学</v>
       </c>
       <c r="C302" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D302" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B303" t="str">
         <v>自然科学</v>
       </c>
       <c r="C303" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D303" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B304" t="str">
         <v>自然科学</v>
       </c>
       <c r="C304" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D304" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B305" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C305" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D305" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B306" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C306" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D306" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B307" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C307" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D307" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B308" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C308" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D308" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B309" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C309" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D309" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B310" t="str">
         <v>财富管理</v>
       </c>
       <c r="C310" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D310" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B311" t="str">
         <v>财富管理</v>
       </c>
       <c r="C311" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D311" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B312" t="str">
         <v>财富管理</v>
       </c>
       <c r="C312" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D312" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B313" t="str">
         <v>财富管理</v>
       </c>
       <c r="C313" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D313" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B314" t="str">
         <v>财富管理</v>
       </c>
       <c r="C314" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D314" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B315" t="str">
         <v>财富管理</v>
       </c>
       <c r="C315" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D315" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B316" t="str">
         <v>财富管理</v>
       </c>
       <c r="C316" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D316" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B317" t="str">
         <v>财富管理</v>
       </c>
       <c r="C317" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D317" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B318" t="str">
         <v>财富管理</v>
       </c>
       <c r="C318" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D318" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B319" t="str">
         <v>财富管理</v>
       </c>
       <c r="C319" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D319" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B320" t="str">
         <v>财富管理</v>
       </c>
       <c r="C320" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D320" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B321" t="str">
         <v>财富管理</v>
       </c>
       <c r="C321" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D321" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B322" t="str">
         <v>财富管理</v>
       </c>
       <c r="C322" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D322" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B323" t="str">
         <v>财富管理</v>
       </c>
       <c r="C323" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D323" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B324" t="str">
         <v>财富管理</v>
       </c>
       <c r="C324" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D324" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B325" t="str">
         <v>财富管理</v>
       </c>
       <c r="C325" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D325" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B326" t="str">
         <v>财富管理</v>
       </c>
       <c r="C326" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D326" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B327" t="str">
         <v>财富管理</v>
       </c>
       <c r="C327" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D327" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B328" t="str">
         <v>财富管理</v>
       </c>
       <c r="C328" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D328" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B329" t="str">
         <v>财富管理</v>
       </c>
       <c r="C329" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D329" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>有效增加收入指南</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B330" t="str">
         <v>财富管理</v>
       </c>
       <c r="C330" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D330" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B331" t="str">
         <v>财富管理</v>
       </c>
       <c r="C331" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D331" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B332" t="str">
         <v>财富管理</v>
       </c>
       <c r="C332" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D332" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B333" t="str">
         <v>财富管理</v>
       </c>
       <c r="C333" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D333" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>穷人怎么翻身</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B334" t="str">
         <v>财富管理</v>
       </c>
       <c r="C334" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D334" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B335" t="str">
         <v>财富管理</v>
       </c>
       <c r="C335" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D335" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B336" t="str">
         <v>财富管理</v>
       </c>
       <c r="C336" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D336" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B337" t="str">
         <v>财富管理</v>
       </c>
       <c r="C337" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D337" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B338" t="str">
         <v>财富管理</v>
       </c>
       <c r="C338" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D338" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B339" t="str">
         <v>财富管理</v>
       </c>
       <c r="C339" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D339" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B340" t="str">
         <v>财富管理</v>
       </c>
       <c r="C340" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D340" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B341" t="str">
         <v>财富管理</v>
       </c>
       <c r="C341" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D341" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B342" t="str">
         <v>财富管理</v>
       </c>
       <c r="C342" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D342" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B343" t="str">
         <v>财富管理</v>
       </c>
       <c r="C343" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D343" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B344" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C344" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D344" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B345" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C345" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D345" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B346" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C346" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D346" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B347" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C347" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D347" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B348" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C348" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D348" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B349" t="str">
         <v>身体健康</v>
       </c>
       <c r="C349" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D349" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B350" t="str">
         <v>身体健康</v>
       </c>
       <c r="C350" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D350" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B351" t="str">
         <v>身体健康</v>
       </c>
       <c r="C351" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D351" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B352" t="str">
         <v>身体健康</v>
       </c>
       <c r="C352" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D352" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B353" t="str">
         <v>身体健康</v>
       </c>
       <c r="C353" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D353" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B354" t="str">
         <v>身体健康</v>
       </c>
       <c r="C354" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D354" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B355" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C355" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D355" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B356" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C356" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D356" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B357" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C357" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D357" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B358" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C358" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D358" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B359" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C359" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D359" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B360" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C360" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D360" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B361" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C361" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D361" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B362" t="str">
         <v>运营指南</v>
       </c>
       <c r="C362" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D362" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B363" t="str">
         <v>运营指南</v>
       </c>
       <c r="C363" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D363" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B364" t="str">
         <v>运营指南</v>
       </c>
       <c r="C364" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D364" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
+        <v>打造百家号爆款内容的实用秘籍</v>
+      </c>
+      <c r="B365" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C365" t="str">
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+      </c>
+      <c r="D365" t="str">
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>打造知乎爆款内容的实用秘籍</v>
+      </c>
+      <c r="B366" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C366" t="str">
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+      </c>
+      <c r="D366" t="str">
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>抖音爆款内容打造全攻略</v>
+      </c>
+      <c r="B367" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C367" t="str">
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+      </c>
+      <c r="D367" t="str">
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>畅销长篇小说创作秘籍全解析</v>
+      </c>
+      <c r="B368" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C368" t="str">
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+      </c>
+      <c r="D368" t="str">
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B369" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C369" t="str">
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+      </c>
+      <c r="D369" t="str">
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
         <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
       </c>
-      <c r="B365" t="str">
+      <c r="B370" t="str">
         <v>食品安全</v>
       </c>
-      <c r="C365" t="str">
+      <c r="C370" t="str">
         <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
       </c>
-      <c r="D365" t="str">
+      <c r="D370" t="str">
         <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D365"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D370"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,4235 +1362,4417 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>眼镜发明前，眼镜蛇叫什么？</v>
+        <v>探秘毒蛇相残：毒蛇用毒蛇毒毒毒蛇，会被毒死吗？</v>
       </c>
       <c r="B69" t="str">
-        <v>动物文化</v>
+        <v>动物探秘</v>
       </c>
       <c r="C69" t="str">
-        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
+        <v>深入探究毒蛇之间用毒液攻击的场景，剖析毒液类型、毒性差异，解读同种与异种毒蛇互咬时不同的生死结局，以及影响毒液作用效果的多重因素，揭示毒蛇在自然选择下的生存策略。</v>
       </c>
       <c r="D69" t="str">
-        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
+        <v>同类相残, 毒液, 毒液免疫, 毒蛇, 生存策略</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>历史事件对当今社会和个人有哪些启示？</v>
+        <v>眼镜发明前，眼镜蛇叫什么？</v>
       </c>
       <c r="B70" t="str">
-        <v>历史探究</v>
+        <v>动物文化</v>
       </c>
       <c r="C70" t="str">
-        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
+        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
       </c>
       <c r="D70" t="str">
-        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
+        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
+        <v>斑马是黑底白纹还是白底黑纹？揭开斑马条纹的神秘面纱</v>
       </c>
       <c r="B71" t="str">
-        <v>历史探究</v>
+        <v>动物科普</v>
       </c>
       <c r="C71" t="str">
-        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
+        <v>深入探究斑马身上黑白条纹的颜色之谜，分析其究竟是黑底白纹还是白底黑纹，并详细介绍斑马条纹在伪装保护、驱虫防病、社交交流等方面的功能，同时讲述其在艺术文化领域的意义。</v>
       </c>
       <c r="D71" t="str">
-        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
+        <v>动物习性, 动物文化, 斑马, 条纹功能, 条纹颜色</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>谋士为何难成一把手？</v>
+        <v>吃健胃消食片会撑死还是饿死？</v>
       </c>
       <c r="B72" t="str">
-        <v>历史探究</v>
+        <v>医药健康</v>
       </c>
       <c r="C72" t="str">
-        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
+        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
       </c>
       <c r="D72" t="str">
-        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
+        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>探秘：第一个喝牛奶的人对牛做了什么？</v>
+        <v>历史事件对当今社会和个人有哪些启示？</v>
       </c>
       <c r="B73" t="str">
-        <v>历史文化</v>
+        <v>历史探究</v>
       </c>
       <c r="C73" t="str">
-        <v>深入探究人类历史上第一个喝牛奶的人对牛做了什么，全面解析牛奶的起源、早期利用、与牛的关系、社会文化意义以及现代产业发展，带你领略牛奶背后的深厚历史与文化内涵。</v>
+        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
       </c>
       <c r="D73" t="str">
-        <v>牛奶产业, 牛奶利用, 牛奶文化, 牛奶起源, 牛的驯化</v>
+        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>中式八球台球礼仪须知</v>
+        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
       </c>
       <c r="B74" t="str">
-        <v>台球天地</v>
+        <v>历史探究</v>
       </c>
       <c r="C74" t="str">
-        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
+        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
       </c>
       <c r="D74" t="str">
-        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
+        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>中式八球台球规则详解</v>
+        <v>谋士为何难成一把手？</v>
       </c>
       <c r="B75" t="str">
-        <v>台球天地</v>
+        <v>历史探究</v>
       </c>
       <c r="C75" t="str">
-        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
+        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
       </c>
       <c r="D75" t="str">
-        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
+        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>中式八球台球运动简介</v>
+        <v>探秘：第一个喝牛奶的人对牛做了什么？</v>
       </c>
       <c r="B76" t="str">
-        <v>台球天地</v>
+        <v>历史文化</v>
       </c>
       <c r="C76" t="str">
-        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
+        <v>深入探究人类历史上第一个喝牛奶的人对牛做了什么，全面解析牛奶的起源、早期利用、与牛的关系、社会文化意义以及现代产业发展，带你领略牛奶背后的深厚历史与文化内涵。</v>
       </c>
       <c r="D76" t="str">
-        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
+        <v>牛奶产业, 牛奶利用, 牛奶文化, 牛奶起源, 牛的驯化</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>中式八球的发展史</v>
+        <v>中式八球台球礼仪须知</v>
       </c>
       <c r="B77" t="str">
         <v>台球天地</v>
       </c>
       <c r="C77" t="str">
-        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
+        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
       </c>
       <c r="D77" t="str">
-        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
+        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>令人绝望的“文盲”</v>
+        <v>中式八球台球规则详解</v>
       </c>
       <c r="B78" t="str">
         <v>台球天地</v>
       </c>
       <c r="C78" t="str">
-        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
+        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
       </c>
       <c r="D78" t="str">
-        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
+        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>关于我们</v>
+        <v>中式八球台球运动简介</v>
       </c>
       <c r="B79" t="str">
         <v>台球天地</v>
       </c>
       <c r="C79" t="str">
-        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
+        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
       </c>
       <c r="D79" t="str">
-        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
+        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>台球初学者指南</v>
+        <v>中式八球的发展史</v>
       </c>
       <c r="B80" t="str">
         <v>台球天地</v>
       </c>
       <c r="C80" t="str">
-        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
+        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
       </c>
       <c r="D80" t="str">
-        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
+        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>台球店基本信息</v>
+        <v>令人绝望的“文盲”</v>
       </c>
       <c r="B81" t="str">
         <v>台球天地</v>
       </c>
       <c r="C81" t="str">
-        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
+        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
       </c>
       <c r="D81" t="str">
-        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
+        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>台球种类专业介绍</v>
+        <v>关于我们</v>
       </c>
       <c r="B82" t="str">
         <v>台球天地</v>
       </c>
       <c r="C82" t="str">
-        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
+        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
       </c>
       <c r="D82" t="str">
-        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
+        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>台球设备介绍</v>
+        <v>台球初学者指南</v>
       </c>
       <c r="B83" t="str">
         <v>台球天地</v>
       </c>
       <c r="C83" t="str">
-        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
+        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
       </c>
       <c r="D83" t="str">
-        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
+        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>台球设备评测报告</v>
+        <v>台球店基本信息</v>
       </c>
       <c r="B84" t="str">
         <v>台球天地</v>
       </c>
       <c r="C84" t="str">
-        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
+        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
       </c>
       <c r="D84" t="str">
-        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
+        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>台球运动：助力青少年全面发展的独特运动</v>
+        <v>台球种类专业介绍</v>
       </c>
       <c r="B85" t="str">
         <v>台球天地</v>
       </c>
       <c r="C85" t="str">
-        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
+        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
       </c>
       <c r="D85" t="str">
-        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
+        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>台球运动的物理学原理</v>
+        <v>台球设备介绍</v>
       </c>
       <c r="B86" t="str">
         <v>台球天地</v>
       </c>
       <c r="C86" t="str">
-        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
+        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
       </c>
       <c r="D86" t="str">
-        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
+        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>台球高级技巧分享</v>
+        <v>台球设备评测报告</v>
       </c>
       <c r="B87" t="str">
         <v>台球天地</v>
       </c>
       <c r="C87" t="str">
-        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
+        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
       </c>
       <c r="D87" t="str">
-        <v>台球高级技巧, 战术应用, 技巧实践</v>
+        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
+        <v>台球运动：助力青少年全面发展的独特运动</v>
       </c>
       <c r="B88" t="str">
         <v>台球天地</v>
       </c>
       <c r="C88" t="str">
-        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
+        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
       </c>
       <c r="D88" t="str">
-        <v>商业模拟, 自助台球店</v>
+        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
+        <v>台球运动的物理学原理</v>
       </c>
       <c r="B89" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C89" t="str">
-        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
+        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
       </c>
       <c r="D89" t="str">
-        <v>台球政策, 商业策略, 算力服务费</v>
+        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>为什么台球店没有请陪打女主教</v>
+        <v>台球高级技巧分享</v>
       </c>
       <c r="B90" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C90" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
       </c>
       <c r="D90" t="str">
-        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
+        <v>台球高级技巧, 战术应用, 技巧实践</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>开台球店的一些注意事项</v>
+        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
       </c>
       <c r="B91" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C91" t="str">
-        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
+        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
       </c>
       <c r="D91" t="str">
-        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
+        <v>商业模拟, 自助台球店</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
+        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
       </c>
       <c r="B92" t="str">
         <v>台球经营</v>
       </c>
       <c r="C92" t="str">
-        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
+        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D92" t="str">
-        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
+        <v>台球政策, 商业策略, 算力服务费</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>台球运动在不同文化背景下的特色玩法</v>
+        <v>为什么台球店没有请陪打女主教</v>
       </c>
       <c r="B93" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C93" t="str">
-        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D93" t="str">
-        <v>文化交流, 文化差异</v>
+        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>国内外重要台球赛事</v>
+        <v>开台球店的一些注意事项</v>
       </c>
       <c r="B94" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C94" t="str">
-        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
+        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
       </c>
       <c r="D94" t="str">
-        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
+        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>提升台球技能小贴士</v>
+        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
       </c>
       <c r="B95" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C95" t="str">
-        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
+        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
       </c>
       <c r="D95" t="str">
-        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
+        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>科技如何重塑台球运动体验</v>
+        <v>台球运动在不同文化背景下的特色玩法</v>
       </c>
       <c r="B96" t="str">
         <v>台球运动</v>
       </c>
       <c r="C96" t="str">
-        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
+        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
       </c>
       <c r="D96" t="str">
-        <v>台球, 智能设备, 科技应用, 运动科技</v>
+        <v>文化交流, 文化差异</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>独立开发者探寻机会的多元路径解析</v>
+        <v>国内外重要台球赛事</v>
       </c>
       <c r="B97" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C97" t="str">
-        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
+        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
       </c>
       <c r="D97" t="str">
-        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
+        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>自助台球门店客流量差异分析</v>
+        <v>提升台球技能小贴士</v>
       </c>
       <c r="B98" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C98" t="str">
-        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
+        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
       </c>
       <c r="D98" t="str">
-        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
+        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
+        <v>科技如何重塑台球运动体验</v>
       </c>
       <c r="B99" t="str">
-        <v>婚姻情感</v>
+        <v>台球运动</v>
       </c>
       <c r="C99" t="str">
-        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
+        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
       </c>
       <c r="D99" t="str">
-        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
+        <v>台球, 智能设备, 科技应用, 运动科技</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>夫妻之间，无性婚姻能坚持多久？</v>
+        <v>独立开发者探寻机会的多元路径解析</v>
       </c>
       <c r="B100" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C100" t="str">
-        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
+        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
       </c>
       <c r="D100" t="str">
-        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
+        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
+        <v>自助台球门店客流量差异分析</v>
       </c>
       <c r="B101" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C101" t="str">
-        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
+        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
       </c>
       <c r="D101" t="str">
-        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
+        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>女人应该在什么时候把自己嫁出去？</v>
+        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
       </c>
       <c r="B102" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C102" t="str">
-        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
+        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D102" t="str">
-        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
+        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>如何成为一个好丈夫：关键要素与实践指南</v>
+        <v>夫妻之间，无性婚姻能坚持多久？</v>
       </c>
       <c r="B103" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C103" t="str">
-        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
+        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
       </c>
       <c r="D103" t="str">
-        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
+        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>如何成为令人称羡的好妻子</v>
+        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
       </c>
       <c r="B104" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C104" t="str">
-        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
+        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
       </c>
       <c r="D104" t="str">
-        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
+        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
+        <v>女人应该在什么时候把自己嫁出去？</v>
       </c>
       <c r="B105" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C105" t="str">
-        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
+        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
       </c>
       <c r="D105" t="str">
-        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
+        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>婚外情能维持到老死吗？</v>
+        <v>如何成为一个好丈夫：关键要素与实践指南</v>
       </c>
       <c r="B106" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C106" t="str">
-        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
+        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
       </c>
       <c r="D106" t="str">
-        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
+        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>老公对我不错但性生活缺失是否该离婚</v>
+        <v>如何成为令人称羡的好妻子</v>
       </c>
       <c r="B107" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C107" t="str">
-        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
+        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
       </c>
       <c r="D107" t="str">
-        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
+        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
       </c>
       <c r="B108" t="str">
-        <v>宇宙探索</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C108" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
       </c>
       <c r="D108" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>冰箱与冰柜名称背后的有趣谜题</v>
+        <v>婚外情能维持到老死吗？</v>
       </c>
       <c r="B109" t="str">
-        <v>家电知识</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C109" t="str">
-        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
+        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
       </c>
       <c r="D109" t="str">
-        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
+        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
+        <v>老公对我不错但性生活缺失是否该离婚</v>
       </c>
       <c r="B110" t="str">
-        <v>差旅办公</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C110" t="str">
-        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
+        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
       </c>
       <c r="D110" t="str">
-        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
+        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>这个男人来自地球观后感</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B111" t="str">
-        <v>影视评论</v>
+        <v>宇宙探索</v>
       </c>
       <c r="C111" t="str">
-        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D111" t="str">
-        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>为啥我爸妈结婚时没喊我参加婚礼？</v>
       </c>
       <c r="B112" t="str">
-        <v>心理调适</v>
+        <v>家庭情感</v>
       </c>
       <c r="C112" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>探讨为何很多人会遗憾错过父母婚礼这一话题，从父母婚礼的时代背景、个人选择出发，分析人们对此的情感反应，并给出弥补遗憾的方法，带你感受家庭情感中的理解与温暖。</v>
       </c>
       <c r="D112" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>个人选择, 弥补遗憾, 情感反应, 时代背景, 父母婚礼</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>冰箱与冰柜名称背后的有趣谜题</v>
       </c>
       <c r="B113" t="str">
-        <v>心理调适</v>
+        <v>家电知识</v>
       </c>
       <c r="C113" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
       </c>
       <c r="D113" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
       </c>
       <c r="B114" t="str">
-        <v>心理调适</v>
+        <v>差旅办公</v>
       </c>
       <c r="C114" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
       </c>
       <c r="D114" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>建一栋10亿层高的大楼可能吗？</v>
       </c>
       <c r="B115" t="str">
-        <v>心理调适</v>
+        <v>建筑探索</v>
       </c>
       <c r="C115" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>探讨建造一栋10亿层高的大楼的可能性，从建筑高度现状、技术挑战、经济与社会因素、环境影响等多方面进行分析，并展望未来实现这一设想的可能性。</v>
       </c>
       <c r="D115" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>建筑高度, 技术挑战, 未来展望, 环境影响, 经济社会因素</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>这个男人来自地球观后感</v>
       </c>
       <c r="B116" t="str">
-        <v>心理调适</v>
+        <v>影视评论</v>
       </c>
       <c r="C116" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
       </c>
       <c r="D116" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B117" t="str">
         <v>心理调适</v>
       </c>
       <c r="C117" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D117" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B118" t="str">
         <v>心理调适</v>
       </c>
       <c r="C118" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D118" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B119" t="str">
         <v>心理调适</v>
       </c>
       <c r="C119" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D119" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D120" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D121" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D122" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D123" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D124" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D125" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D126" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D127" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D128" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D129" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D130" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D131" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D132" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D133" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D134" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D135" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B136" t="str">
         <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D136" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B137" t="str">
         <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D137" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B138" t="str">
         <v>心理调适</v>
       </c>
       <c r="C138" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D138" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B139" t="str">
         <v>心理调适</v>
       </c>
       <c r="C139" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D139" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B140" t="str">
         <v>心理调适</v>
       </c>
       <c r="C140" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D140" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B141" t="str">
         <v>心理调适</v>
       </c>
       <c r="C141" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D141" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B142" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C142" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D142" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B143" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C143" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D143" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B144" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C144" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D144" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B145" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C145" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D145" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B146" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C146" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D146" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B147" t="str">
         <v>性别健康</v>
       </c>
       <c r="C147" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D147" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B148" t="str">
         <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D148" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B149" t="str">
         <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D149" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B150" t="str">
         <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D150" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D151" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B152" t="str">
         <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D152" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B153" t="str">
         <v>性别健康</v>
       </c>
       <c r="C153" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D153" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B154" t="str">
         <v>性别健康</v>
       </c>
       <c r="C154" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D154" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B155" t="str">
         <v>性别健康</v>
       </c>
       <c r="C155" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D155" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B156" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C156" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D156" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B157" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C157" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D157" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B158" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C158" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D158" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B159" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C159" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D159" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B160" t="str">
-        <v>情感故事</v>
+        <v>性别健康</v>
       </c>
       <c r="C160" t="str">
-        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D160" t="str">
-        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B161" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C161" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D161" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B162" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C162" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D162" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B163" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C163" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D163" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B164" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C164" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D164" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
       </c>
       <c r="B165" t="str">
-        <v>数字科技</v>
+        <v>情感故事</v>
       </c>
       <c r="C165" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
       </c>
       <c r="D165" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B166" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C166" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D166" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B167" t="str">
-        <v>时尚生活</v>
+        <v>教育学习</v>
       </c>
       <c r="C167" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D167" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B168" t="str">
-        <v>时尚生活</v>
+        <v>教育学习</v>
       </c>
       <c r="C168" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D168" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B169" t="str">
-        <v>时尚生活</v>
+        <v>教育学习</v>
       </c>
       <c r="C169" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D169" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B170" t="str">
-        <v>法律</v>
+        <v>数字科技</v>
       </c>
       <c r="C170" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D170" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B171" t="str">
-        <v>游戏竞技</v>
+        <v>数字科技</v>
       </c>
       <c r="C171" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D171" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
+        <v>探寻色彩认知：黑人会称黑色为“肉色”吗？</v>
       </c>
       <c r="B172" t="str">
-        <v>玩具科普</v>
+        <v>文化研究</v>
       </c>
       <c r="C172" t="str">
-        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
+        <v>深入探讨在全球化背景下，不同文化中色彩认知的差异，聚焦黑人是否会将黑色称为“肉色”这一有趣话题，剖析背后文化、社交等因素的影响，促进跨文化理解。</v>
       </c>
       <c r="D172" t="str">
-        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
+        <v>文化差异, 肤色称呼, 色彩认知, 跨文化理解, 黑人社区</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>如果不孕不育是遗传的，如何传递基因？</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B173" t="str">
-        <v>生殖健康</v>
+        <v>时尚生活</v>
       </c>
       <c r="C173" t="str">
-        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D173" t="str">
-        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B174" t="str">
-        <v>生活感悟</v>
+        <v>时尚生活</v>
       </c>
       <c r="C174" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D174" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B175" t="str">
-        <v>生活感悟</v>
+        <v>时尚生活</v>
       </c>
       <c r="C175" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D175" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B176" t="str">
-        <v>生活感悟</v>
+        <v>法律</v>
       </c>
       <c r="C176" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D176" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B177" t="str">
-        <v>生活感悟</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C177" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D177" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
       </c>
       <c r="B178" t="str">
-        <v>生活感悟</v>
+        <v>玩具科普</v>
       </c>
       <c r="C178" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
       </c>
       <c r="D178" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>如果不孕不育是遗传的，如何传递基因？</v>
       </c>
       <c r="B179" t="str">
-        <v>生活感悟</v>
+        <v>生殖健康</v>
       </c>
       <c r="C179" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
       </c>
       <c r="D179" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B180" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C180" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D180" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B181" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C181" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D181" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B182" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C182" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D182" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B183" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C183" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D183" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B184" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C184" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D184" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B185" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C185" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D185" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B186" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C186" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D186" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B187" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C187" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D187" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>回首2024</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B188" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C188" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D188" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B189" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C189" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D189" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B190" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C190" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D190" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B191" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C191" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D191" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B192" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C192" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D192" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B193" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C193" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D193" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>回首2024</v>
       </c>
       <c r="B194" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C194" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D194" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B195" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C195" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D195" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B196" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C196" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D196" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B197" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C197" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D197" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B198" t="str">
         <v>社会探究</v>
       </c>
       <c r="C198" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D198" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B199" t="str">
         <v>社会探究</v>
       </c>
       <c r="C199" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D199" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B200" t="str">
         <v>社会探究</v>
       </c>
       <c r="C200" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D200" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B201" t="str">
         <v>社会探究</v>
       </c>
       <c r="C201" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D201" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B202" t="str">
         <v>社会探究</v>
       </c>
       <c r="C202" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D202" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B203" t="str">
         <v>社会探究</v>
       </c>
       <c r="C203" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D203" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B204" t="str">
         <v>社会探究</v>
       </c>
       <c r="C204" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D204" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B205" t="str">
         <v>社会探究</v>
       </c>
       <c r="C205" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D205" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B206" t="str">
         <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D206" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D207" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D208" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D209" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B210" t="str">
         <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D210" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B211" t="str">
         <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D211" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B212" t="str">
         <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D212" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B213" t="str">
         <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D213" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B214" t="str">
         <v>社会探究</v>
       </c>
       <c r="C214" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D214" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B215" t="str">
         <v>社会探究</v>
       </c>
       <c r="C215" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D215" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B216" t="str">
         <v>社会探究</v>
       </c>
       <c r="C216" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D216" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B217" t="str">
         <v>社会探究</v>
       </c>
       <c r="C217" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D217" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B218" t="str">
         <v>社会探究</v>
       </c>
       <c r="C218" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D218" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B219" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C219" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D219" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B220" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C220" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D220" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B221" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C221" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D221" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B222" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C222" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D222" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>再聊姜萍</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B223" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C223" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D223" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B224" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C224" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D224" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B225" t="str">
         <v>社会现象</v>
       </c>
       <c r="C225" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D225" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B226" t="str">
         <v>社会现象</v>
       </c>
       <c r="C226" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D226" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B227" t="str">
         <v>社会现象</v>
       </c>
       <c r="C227" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D227" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B228" t="str">
         <v>社会现象</v>
       </c>
       <c r="C228" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D228" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B229" t="str">
         <v>社会现象</v>
       </c>
       <c r="C229" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D229" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B230" t="str">
         <v>社会现象</v>
       </c>
       <c r="C230" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D230" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B231" t="str">
         <v>社会现象</v>
       </c>
       <c r="C231" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D231" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B232" t="str">
         <v>社会现象</v>
       </c>
       <c r="C232" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D232" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B233" t="str">
         <v>社会现象</v>
       </c>
       <c r="C233" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D233" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B234" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C234" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D234" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B235" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C235" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D235" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B236" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C236" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D236" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B237" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C237" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D237" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B238" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C238" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D238" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B239" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C239" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D239" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>如何反驳“现实点，社会就是这样”？</v>
       </c>
       <c r="B240" t="str">
-        <v>科技前沿</v>
+        <v>社会观点</v>
       </c>
       <c r="C240" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
       </c>
       <c r="D240" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B241" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C241" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D241" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B242" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C242" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D242" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>什么是成功的定义？</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B243" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C243" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D243" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B244" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C244" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D244" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B245" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C245" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D245" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B246" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C246" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D246" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B247" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C247" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D247" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B248" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C248" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D248" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
       </c>
       <c r="B249" t="str">
-        <v>职业发展</v>
+        <v>科技探索</v>
       </c>
       <c r="C249" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
       </c>
       <c r="D249" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B250" t="str">
         <v>职业发展</v>
       </c>
       <c r="C250" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D250" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B251" t="str">
         <v>职业发展</v>
       </c>
       <c r="C251" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D251" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B252" t="str">
         <v>职业发展</v>
       </c>
       <c r="C252" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D252" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B253" t="str">
         <v>职业发展</v>
       </c>
       <c r="C253" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D253" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B254" t="str">
         <v>职业发展</v>
       </c>
       <c r="C254" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D254" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B255" t="str">
         <v>职业发展</v>
       </c>
       <c r="C255" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D255" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B256" t="str">
         <v>职业发展</v>
       </c>
       <c r="C256" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D256" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B257" t="str">
         <v>职业发展</v>
       </c>
       <c r="C257" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D257" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B258" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C258" t="str">
-        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D258" t="str">
-        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>19世纪人类是否全部灭绝过？</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B259" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C259" t="str">
-        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D259" t="str">
-        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>上帝能否创造一块自己搬不动的石头？</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B260" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C260" t="str">
-        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D260" t="str">
-        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B261" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C261" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D261" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B262" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C262" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D262" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B263" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C263" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D263" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B264" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C264" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D264" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B265" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C265" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D265" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B266" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C266" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D266" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>19世纪人类是否全部灭绝过？</v>
       </c>
       <c r="B267" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C267" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
       </c>
       <c r="D267" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B268" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C268" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D268" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B269" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C269" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D269" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
+        <v>台风眼里引爆核弹能平息台风吗？</v>
       </c>
       <c r="B270" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C270" t="str">
-        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
+        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
       </c>
       <c r="D270" t="str">
-        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
+        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B271" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C271" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D271" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B272" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C272" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D272" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>如何用向下射击的机枪制作飞行背包？</v>
       </c>
       <c r="B273" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C273" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
       </c>
       <c r="D273" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B274" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C274" t="str">
-        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D274" t="str">
-        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B275" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C275" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D275" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B276" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C276" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D276" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B277" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C277" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D277" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B278" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C278" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D278" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B279" t="str">
-        <v>自我成长</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C279" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D279" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B280" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C280" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D280" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
       </c>
       <c r="B281" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C281" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
       </c>
       <c r="D281" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>斑马纹路是否影响捕食者视觉？</v>
       </c>
       <c r="B282" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C282" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
       </c>
       <c r="D282" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B283" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C283" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D283" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B284" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C284" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D284" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B285" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C285" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D285" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
       </c>
       <c r="B286" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C286" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
       </c>
       <c r="D286" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B287" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C287" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D287" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B288" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C288" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D288" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B289" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C289" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D289" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B290" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C290" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D290" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B291" t="str">
-        <v>自我提升</v>
+        <v>自我成长</v>
       </c>
       <c r="C291" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D291" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B292" t="str">
         <v>自我提升</v>
       </c>
       <c r="C292" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D292" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B293" t="str">
         <v>自我提升</v>
       </c>
       <c r="C293" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D293" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B294" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C294" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D294" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B295" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C295" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D295" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B296" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C296" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D296" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B297" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C297" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
       </c>
       <c r="D297" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B298" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C298" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D298" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>字典数排序</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B299" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C299" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D299" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B300" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C300" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D300" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B301" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C301" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
       </c>
       <c r="D301" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>个人发展, 心态管理, 成功学, 目标设定</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B302" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C302" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D302" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B303" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C303" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D303" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B304" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C304" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D304" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B305" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C305" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D305" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B306" t="str">
         <v>自然科学</v>
       </c>
       <c r="C306" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D306" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B307" t="str">
         <v>自然科学</v>
       </c>
       <c r="C307" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D307" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B308" t="str">
         <v>自然科学</v>
       </c>
       <c r="C308" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D308" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B309" t="str">
         <v>自然科学</v>
       </c>
       <c r="C309" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D309" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B310" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C310" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D310" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>字典数排序</v>
       </c>
       <c r="B311" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C311" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D311" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B312" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C312" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D312" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B313" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C313" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D313" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B314" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C314" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D314" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B315" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C315" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D315" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B316" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C316" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D316" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B317" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C317" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D317" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B318" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C318" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D318" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B319" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C319" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D319" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B320" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C320" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D320" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B321" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C321" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D321" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B322" t="str">
         <v>财富管理</v>
       </c>
       <c r="C322" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D322" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B323" t="str">
         <v>财富管理</v>
       </c>
       <c r="C323" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D323" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B324" t="str">
         <v>财富管理</v>
       </c>
       <c r="C324" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D324" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B325" t="str">
         <v>财富管理</v>
       </c>
       <c r="C325" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D325" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B326" t="str">
         <v>财富管理</v>
       </c>
       <c r="C326" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D326" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B327" t="str">
         <v>财富管理</v>
       </c>
       <c r="C327" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D327" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B328" t="str">
         <v>财富管理</v>
       </c>
       <c r="C328" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D328" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B329" t="str">
         <v>财富管理</v>
       </c>
       <c r="C329" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D329" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B330" t="str">
         <v>财富管理</v>
       </c>
       <c r="C330" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D330" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B331" t="str">
         <v>财富管理</v>
       </c>
       <c r="C331" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D331" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>为什么有钱人喜欢安静？</v>
       </c>
       <c r="B332" t="str">
         <v>财富管理</v>
       </c>
       <c r="C332" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
       </c>
       <c r="D332" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>健康生活, 决策, 安静偏好, 有钱人, 财富积累</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B333" t="str">
         <v>财富管理</v>
       </c>
       <c r="C333" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D333" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B334" t="str">
         <v>财富管理</v>
       </c>
       <c r="C334" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D334" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>有效增加收入指南</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B335" t="str">
         <v>财富管理</v>
       </c>
       <c r="C335" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D335" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B336" t="str">
         <v>财富管理</v>
       </c>
       <c r="C336" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D336" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B337" t="str">
         <v>财富管理</v>
       </c>
       <c r="C337" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D337" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B338" t="str">
         <v>财富管理</v>
       </c>
       <c r="C338" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D338" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>穷人怎么翻身</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B339" t="str">
         <v>财富管理</v>
       </c>
       <c r="C339" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D339" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B340" t="str">
         <v>财富管理</v>
       </c>
       <c r="C340" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D340" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B341" t="str">
         <v>财富管理</v>
       </c>
       <c r="C341" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D341" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B342" t="str">
         <v>财富管理</v>
       </c>
       <c r="C342" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D342" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B343" t="str">
         <v>财富管理</v>
       </c>
       <c r="C343" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D343" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B344" t="str">
         <v>财富管理</v>
       </c>
       <c r="C344" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D344" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B345" t="str">
         <v>财富管理</v>
       </c>
       <c r="C345" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D345" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B346" t="str">
         <v>财富管理</v>
       </c>
       <c r="C346" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D346" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B347" t="str">
         <v>财富管理</v>
       </c>
       <c r="C347" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D347" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B348" t="str">
         <v>财富管理</v>
       </c>
       <c r="C348" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D348" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B349" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C349" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D349" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B350" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C350" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D350" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B351" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C351" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D351" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B352" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C352" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D352" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B353" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C353" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D353" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B354" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C354" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D354" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B355" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C355" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D355" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B356" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C356" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D356" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B357" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C357" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D357" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B358" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C358" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D358" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B359" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C359" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D359" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B360" t="str">
-        <v>软件开发</v>
+        <v>财富管理</v>
       </c>
       <c r="C360" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D360" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B361" t="str">
-        <v>软件开发</v>
+        <v>财富管理</v>
       </c>
       <c r="C361" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D361" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B362" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C362" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D362" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B363" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C363" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D363" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B364" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C364" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D364" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B365" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C365" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D365" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B366" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C366" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D366" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B367" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C367" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D367" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B368" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C368" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D368" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B369" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C369" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D369" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
+        <v>甲流发烧为什么不建议洗澡</v>
+      </c>
+      <c r="B370" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C370" t="str">
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+      </c>
+      <c r="D370" t="str">
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>癌症未来能被彻底治愈吗？</v>
+      </c>
+      <c r="B371" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C371" t="str">
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+      </c>
+      <c r="D371" t="str">
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>自慰会导致早泄吗</v>
+      </c>
+      <c r="B372" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C372" t="str">
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+      </c>
+      <c r="D372" t="str">
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>程序员技术好的评判标准</v>
+      </c>
+      <c r="B373" t="str">
+        <v>软件开发</v>
+      </c>
+      <c r="C373" t="str">
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+      </c>
+      <c r="D373" t="str">
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>解决Markdown文件中标题解析异常的问题</v>
+      </c>
+      <c r="B374" t="str">
+        <v>软件开发</v>
+      </c>
+      <c r="C374" t="str">
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+      </c>
+      <c r="D374" t="str">
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>小红书爆款内容打造全攻略</v>
+      </c>
+      <c r="B375" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C375" t="str">
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+      </c>
+      <c r="D375" t="str">
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>微信公众号爆款文章打造全攻略</v>
+      </c>
+      <c r="B376" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C376" t="str">
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+      </c>
+      <c r="D376" t="str">
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>打造今日头条爆款内容的实用秘籍</v>
+      </c>
+      <c r="B377" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C377" t="str">
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+      </c>
+      <c r="D377" t="str">
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>打造百家号爆款内容的实用秘籍</v>
+      </c>
+      <c r="B378" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C378" t="str">
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+      </c>
+      <c r="D378" t="str">
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>打造知乎爆款内容的实用秘籍</v>
+      </c>
+      <c r="B379" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C379" t="str">
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+      </c>
+      <c r="D379" t="str">
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>抖音爆款内容打造全攻略</v>
+      </c>
+      <c r="B380" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C380" t="str">
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+      </c>
+      <c r="D380" t="str">
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>畅销长篇小说创作秘籍全解析</v>
+      </c>
+      <c r="B381" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C381" t="str">
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+      </c>
+      <c r="D381" t="str">
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B382" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C382" t="str">
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+      </c>
+      <c r="D382" t="str">
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
         <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
       </c>
-      <c r="B370" t="str">
+      <c r="B383" t="str">
         <v>食品安全</v>
       </c>
-      <c r="C370" t="str">
+      <c r="C383" t="str">
         <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
       </c>
-      <c r="D370" t="str">
+      <c r="D383" t="str">
         <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D370"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D383"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,114 +732,114 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>见一面是“少一面”还是“多一面”</v>
+        <v>为什么人际关系总是这么复杂？</v>
       </c>
       <c r="B24" t="str">
-        <v>人际关系</v>
+        <v>人际相处</v>
       </c>
       <c r="C24" t="str">
-        <v>深入探讨人与人相遇时“见一面是‘少一面’还是‘多一面’”这一深刻话题，从哲学、情感、社会等多层面剖析相遇对人际关系及个人生命体验的影响。</v>
+        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
       </c>
       <c r="D24" t="str">
-        <v>人际关系, 心灵交融, 相遇意义, 社会价值, 视野拓展</v>
+        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>为什么人际关系总是这么复杂？</v>
+        <v>为什么小龙女不杀强奸她的那个人？</v>
       </c>
       <c r="B25" t="str">
         <v>人际相处</v>
       </c>
       <c r="C25" t="str">
-        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D25" t="str">
-        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
+        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>为什么小龙女不杀强奸她的那个人？</v>
+        <v>为什么越想忘记越难忘？</v>
       </c>
       <c r="B26" t="str">
         <v>人际相处</v>
       </c>
       <c r="C26" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
       </c>
       <c r="D26" t="str">
-        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
+        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>为什么越想忘记越难忘？</v>
+        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
       </c>
       <c r="B27" t="str">
         <v>人际相处</v>
       </c>
       <c r="C27" t="str">
-        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
+        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
       </c>
       <c r="D27" t="str">
-        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
+        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
+        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
       </c>
       <c r="B28" t="str">
         <v>人际相处</v>
       </c>
       <c r="C28" t="str">
-        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
+        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
       </c>
       <c r="D28" t="str">
-        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
+        <v>人工智能, 人机交互, 人类特质, 情感处理</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
+        <v>初恋记忆为何自带“美颜滤镜”</v>
       </c>
       <c r="B29" t="str">
         <v>人际相处</v>
       </c>
       <c r="C29" t="str">
-        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
+        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
       </c>
       <c r="D29" t="str">
-        <v>人工智能, 人机交互, 人类特质, 情感处理</v>
+        <v>初恋记忆, 情感因素, 认知因素, 记忆美化</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>初恋记忆为何自带“美颜滤镜”</v>
+        <v>友情中的距离之道：把握分寸，情谊长久</v>
       </c>
       <c r="B30" t="str">
         <v>人际相处</v>
       </c>
       <c r="C30" t="str">
-        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
+        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
       </c>
       <c r="D30" t="str">
-        <v>初恋记忆, 情感因素, 认知因素, 记忆美化</v>
+        <v>友情管理, 友情维护</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>友情中的距离之道：把握分寸，情谊长久</v>
+        <v>大家都说我嘴甜，他们是什么时候尝的？</v>
       </c>
       <c r="B31" t="str">
         <v>人际相处</v>
       </c>
       <c r="C31" t="str">
-        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
+        <v>探讨“嘴甜”在社交中的重要性及其应用场景，从初次见面、日常相处到关键时刻，揭示嘴甜背后的情商奥秘，教你如何用真诚的语言温暖他人，提升人际关系。</v>
       </c>
       <c r="D31" t="str">
-        <v>友情管理, 友情维护</v>
+        <v>人际关系, 嘴甜, 情商, 沟通技巧, 社交</v>
       </c>
     </row>
     <row r="32">
@@ -970,4809 +970,5159 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>得饶人处且饶人：生活中的智慧与美德</v>
+        <v>当发现我没有道德后，对方放弃了道德绑架</v>
       </c>
       <c r="B41" t="str">
         <v>人际相处</v>
       </c>
       <c r="C41" t="str">
-        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
+        <v>探讨人际交往中道德绑架现象，分析对方发现“我”没有道德后放弃道德绑架的原因，以及这一变化带来的修复关系、助力成长和推动社会进步等多方面影响。</v>
       </c>
       <c r="D41" t="str">
-        <v>人际关系, 生活智慧</v>
+        <v>个人成长, 人际交往, 关系修复, 道德标准, 道德绑架</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>恋爱中独立人格的保鲜之道</v>
+        <v>得饶人处且饶人：生活中的智慧与美德</v>
       </c>
       <c r="B42" t="str">
         <v>人际相处</v>
       </c>
       <c r="C42" t="str">
-        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
+        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
       </c>
       <c r="D42" t="str">
-        <v>恋爱关系, 恋爱心理, 独立人格, 社交圈子, 经济独立</v>
+        <v>人际关系, 生活智慧</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>情侣之间婚前性行为的全面剖析</v>
+        <v>恋爱中独立人格的保鲜之道</v>
       </c>
       <c r="B43" t="str">
         <v>人际相处</v>
       </c>
       <c r="C43" t="str">
-        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
+        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
       </c>
       <c r="D43" t="str">
-        <v>性观念, 恋爱时长, 情侣关系, 情感关系, 情感表达</v>
+        <v>恋爱关系, 恋爱心理, 独立人格, 社交圈子, 经济独立</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
+        <v>情侣之间婚前性行为的全面剖析</v>
       </c>
       <c r="B44" t="str">
         <v>人际相处</v>
       </c>
       <c r="C44" t="str">
-        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
+        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
       </c>
       <c r="D44" t="str">
-        <v>情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
+        <v>性观念, 恋爱时长, 情侣关系, 情感关系, 情感表达</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
+        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
       </c>
       <c r="B45" t="str">
         <v>人际相处</v>
       </c>
       <c r="C45" t="str">
-        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
+        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
       </c>
       <c r="D45" t="str">
-        <v>价值观冲突, 情感依赖, 情感关系, 边界感</v>
+        <v>情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>现代社会如何看待“有仇不报非君子”</v>
+        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
       </c>
       <c r="B46" t="str">
         <v>人际相处</v>
       </c>
       <c r="C46" t="str">
-        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
+        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
       </c>
       <c r="D46" t="str">
-        <v>复仇与宽容, 有仇不报非君子, 权益维护, 现代社会, 社会价值观</v>
+        <v>价值观冲突, 情感依赖, 情感关系, 边界感</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
+        <v>现代社会如何看待“有仇不报非君子”</v>
       </c>
       <c r="B47" t="str">
         <v>人际相处</v>
       </c>
       <c r="C47" t="str">
-        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
+        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
       </c>
       <c r="D47" t="str">
-        <v>处女情结, 恋爱关系, 情感冲突, 感情纠葛, 沟通理解</v>
+        <v>复仇与宽容, 有仇不报非君子, 权益维护, 现代社会, 社会价值观</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
+        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
       </c>
       <c r="B48" t="str">
         <v>人际相处</v>
       </c>
       <c r="C48" t="str">
-        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
+        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
       </c>
       <c r="D48" t="str">
-        <v>嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
+        <v>处女情结, 恋爱关系, 情感冲突, 感情纠葛, 沟通理解</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
+        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
       </c>
       <c r="B49" t="str">
         <v>人际相处</v>
       </c>
       <c r="C49" t="str">
-        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
+        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
       </c>
       <c r="D49" t="str">
-        <v>恋爱相处, 文化冲突, 文化差异, 文化融合, 跨国恋情</v>
+        <v>嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>东施效颦：一场被曲解的“觉醒实验”</v>
+        <v>见一面是“少一面”还是“多一面”</v>
       </c>
       <c r="B50" t="str">
-        <v>传统文化</v>
+        <v>人际相处</v>
       </c>
       <c r="C50" t="str">
-        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
+        <v>深入探讨人与人相遇时“见一面是‘少一面’还是‘多一面’”这一深刻话题，从哲学、情感、社会等多层面剖析相遇对人际关系及个人生命体验的影响。</v>
       </c>
       <c r="D50" t="str">
-        <v>审美哲学, 文化解读, 模仿与创新, 社会反思, 身份突破</v>
+        <v>人际关系, 心灵交融, 相遇意义, 社会价值, 视野拓展</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>传统文化该如何传承创新？</v>
+        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
       </c>
       <c r="B51" t="str">
-        <v>传统文化</v>
+        <v>人际相处</v>
       </c>
       <c r="C51" t="str">
-        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
+        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
       </c>
       <c r="D51" t="str">
-        <v>守艺, 文化传承, 生活文化, 非遗保护</v>
+        <v>恋爱相处, 文化冲突, 文化差异, 文化融合, 跨国恋情</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
+        <v>东施效颦：一场被曲解的“觉醒实验”</v>
       </c>
       <c r="B52" t="str">
         <v>传统文化</v>
       </c>
       <c r="C52" t="str">
-        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
+        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
       </c>
       <c r="D52" t="str">
-        <v>动态思维, 哲学思考, 认知科学</v>
+        <v>审美哲学, 文化解读, 模仿与创新, 社会反思, 身份突破</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>削足适履：被误解千年的生存智慧</v>
+        <v>传统文化该如何传承创新？</v>
       </c>
       <c r="B53" t="str">
         <v>传统文化</v>
       </c>
       <c r="C53" t="str">
-        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
+        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
       </c>
       <c r="D53" t="str">
-        <v>哲学思考, 文化重构, 生存策略, 规则适应</v>
+        <v>守艺, 文化传承, 生活文化, 非遗保护</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>南辕北辙：一场跨越千年的认知突围</v>
+        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
       </c>
       <c r="B54" t="str">
         <v>传统文化</v>
       </c>
       <c r="C54" t="str">
-        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
+        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
       </c>
       <c r="D54" t="str">
-        <v>多维思维, 方向审计, 认知科学, 隐性成本</v>
+        <v>动态思维, 哲学思考, 认知科学</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
+        <v>削足适履：被误解千年的生存智慧</v>
       </c>
       <c r="B55" t="str">
         <v>传统文化</v>
       </c>
       <c r="C55" t="str">
-        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
+        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
       </c>
       <c r="D55" t="str">
-        <v>实践智慧, 心理困境, 现实认知, 理想主义, 精神困境</v>
+        <v>哲学思考, 文化重构, 生存策略, 规则适应</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>守株待兔：被误读千年的逆向生存智慧</v>
+        <v>南辕北辙：一场跨越千年的认知突围</v>
       </c>
       <c r="B56" t="str">
         <v>传统文化</v>
       </c>
       <c r="C56" t="str">
-        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
+        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
       </c>
       <c r="D56" t="str">
-        <v>机会构建, 概率思维, 现代寓言, 生存策略, 认知偏误</v>
+        <v>多维思维, 方向审计, 认知科学, 隐性成本</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>狐假虎威新解说：传统寓言的现代启示</v>
+        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
       </c>
       <c r="B57" t="str">
         <v>传统文化</v>
       </c>
       <c r="C57" t="str">
-        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
+        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
       </c>
       <c r="D57" t="str">
-        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
+        <v>实践智慧, 心理困境, 现实认知, 理想主义, 精神困境</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>狡兔三窟新解说：深度剖析与现代应用</v>
+        <v>守株待兔：被误读千年的逆向生存智慧</v>
       </c>
       <c r="B58" t="str">
         <v>传统文化</v>
       </c>
       <c r="C58" t="str">
-        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
+        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
       </c>
       <c r="D58" t="str">
-        <v>投资策略, 狡兔三窟, 职业规划, 风险管理, 风险管理</v>
+        <v>机会构建, 概率思维, 现代寓言, 生存策略, 认知偏误</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
+        <v>狐假虎威新解说：传统寓言的现代启示</v>
       </c>
       <c r="B59" t="str">
         <v>传统文化</v>
       </c>
       <c r="C59" t="str">
-        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
+        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
       </c>
       <c r="D59" t="str">
-        <v>情绪GPS导航, 数字断舍离, 科技伦理, 自我成长, 认知科学</v>
+        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
+        <v>狡兔三窟新解说：深度剖析与现代应用</v>
       </c>
       <c r="B60" t="str">
         <v>传统文化</v>
       </c>
       <c r="C60" t="str">
-        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
+        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
       </c>
       <c r="D60" t="str">
-        <v>反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
+        <v>投资策略, 狡兔三窟, 职业规划, 风险管理, 风险管理</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
+        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
       </c>
       <c r="B61" t="str">
         <v>传统文化</v>
       </c>
       <c r="C61" t="str">
-        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
+        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
       </c>
       <c r="D61" t="str">
-        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
+        <v>情绪GPS导航, 数字断舍离, 科技伦理, 自我成长, 认知科学</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
+        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
       </c>
       <c r="B62" t="str">
         <v>传统文化</v>
       </c>
       <c r="C62" t="str">
-        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
+        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
       </c>
       <c r="D62" t="str">
-        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
+        <v>反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
+        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
       </c>
       <c r="B63" t="str">
         <v>传统文化</v>
       </c>
       <c r="C63" t="str">
-        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
+        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
       </c>
       <c r="D63" t="str">
-        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
+        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
+        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
       </c>
       <c r="B64" t="str">
         <v>传统文化</v>
       </c>
       <c r="C64" t="str">
-        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
+        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
       </c>
       <c r="D64" t="str">
-        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
+        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
+        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
       </c>
       <c r="B65" t="str">
         <v>传统文化</v>
       </c>
       <c r="C65" t="str">
-        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
+        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
       </c>
       <c r="D65" t="str">
-        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
+        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>顺手牵羊新解：多视角下的行为探秘</v>
+        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
       </c>
       <c r="B66" t="str">
         <v>传统文化</v>
       </c>
       <c r="C66" t="str">
-        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
+        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
       </c>
       <c r="D66" t="str">
-        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
+        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
+        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
       </c>
       <c r="B67" t="str">
-        <v>体育运动</v>
+        <v>传统文化</v>
       </c>
       <c r="C67" t="str">
-        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
+        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
       </c>
       <c r="D67" t="str">
-        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
+        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>马镫未发明时，骑兵如何作战？</v>
+        <v>顺手牵羊新解：多视角下的行为探秘</v>
       </c>
       <c r="B68" t="str">
-        <v>军事历史</v>
+        <v>传统文化</v>
       </c>
       <c r="C68" t="str">
-        <v>深入探究在马镫未被发明的时代，骑兵如何在战场上凭借骑射战术、冲锋战术、近身搏斗及战术配合等方式奋勇杀敌，揭开古代骑兵作战的神秘面纱。</v>
+        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
       </c>
       <c r="D68" t="str">
-        <v>冲锋战术, 近身搏斗, 马镫, 骑兵, 骑射战术</v>
+        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>探秘毒蛇相残：毒蛇用毒蛇毒毒毒蛇，会被毒死吗？</v>
+        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
       </c>
       <c r="B69" t="str">
-        <v>动物探秘</v>
+        <v>体育运动</v>
       </c>
       <c r="C69" t="str">
-        <v>深入探究毒蛇之间用毒液攻击的场景，剖析毒液类型、毒性差异，解读同种与异种毒蛇互咬时不同的生死结局，以及影响毒液作用效果的多重因素，揭示毒蛇在自然选择下的生存策略。</v>
+        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
       </c>
       <c r="D69" t="str">
-        <v>同类相残, 毒液, 毒液免疫, 毒蛇, 生存策略</v>
+        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>眼镜发明前，眼镜蛇叫什么？</v>
+        <v>马镫未发明时，骑兵如何作战？</v>
       </c>
       <c r="B70" t="str">
-        <v>动物文化</v>
+        <v>军事历史</v>
       </c>
       <c r="C70" t="str">
-        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
+        <v>深入探究在马镫未被发明的时代，骑兵如何在战场上凭借骑射战术、冲锋战术、近身搏斗及战术配合等方式奋勇杀敌，揭开古代骑兵作战的神秘面纱。</v>
       </c>
       <c r="D70" t="str">
-        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
+        <v>冲锋战术, 近身搏斗, 马镫, 骑兵, 骑射战术</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>斑马是黑底白纹还是白底黑纹？揭开斑马条纹的神秘面纱</v>
+        <v>探秘毒蛇相残：毒蛇用毒蛇毒毒毒蛇，会被毒死吗？</v>
       </c>
       <c r="B71" t="str">
-        <v>动物科普</v>
+        <v>动物探秘</v>
       </c>
       <c r="C71" t="str">
-        <v>深入探究斑马身上黑白条纹的颜色之谜，分析其究竟是黑底白纹还是白底黑纹，并详细介绍斑马条纹在伪装保护、驱虫防病、社交交流等方面的功能，同时讲述其在艺术文化领域的意义。</v>
+        <v>深入探究毒蛇之间用毒液攻击的场景，剖析毒液类型、毒性差异，解读同种与异种毒蛇互咬时不同的生死结局，以及影响毒液作用效果的多重因素，揭示毒蛇在自然选择下的生存策略。</v>
       </c>
       <c r="D71" t="str">
-        <v>动物习性, 动物文化, 斑马, 条纹功能, 条纹颜色</v>
+        <v>同类相残, 毒液, 毒液免疫, 毒蛇, 生存策略</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>吃健胃消食片会撑死还是饿死？</v>
+        <v>眼镜发明前，眼镜蛇叫什么？</v>
       </c>
       <c r="B72" t="str">
-        <v>医药健康</v>
+        <v>动物文化</v>
       </c>
       <c r="C72" t="str">
-        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
+        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
       </c>
       <c r="D72" t="str">
-        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
+        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>历史事件对当今社会和个人有哪些启示？</v>
+        <v>斑马是黑底白纹还是白底黑纹？揭开斑马条纹的神秘面纱</v>
       </c>
       <c r="B73" t="str">
-        <v>历史探究</v>
+        <v>动物科普</v>
       </c>
       <c r="C73" t="str">
-        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
+        <v>深入探究斑马身上黑白条纹的颜色之谜，分析其究竟是黑底白纹还是白底黑纹，并详细介绍斑马条纹在伪装保护、驱虫防病、社交交流等方面的功能，同时讲述其在艺术文化领域的意义。</v>
       </c>
       <c r="D73" t="str">
-        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
+        <v>动物习性, 动物文化, 斑马, 条纹功能, 条纹颜色</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
+        <v>吃健胃消食片会撑死还是饿死？</v>
       </c>
       <c r="B74" t="str">
-        <v>历史探究</v>
+        <v>医药健康</v>
       </c>
       <c r="C74" t="str">
-        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
+        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
       </c>
       <c r="D74" t="str">
-        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
+        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>谋士为何难成一把手？</v>
+        <v>历史事件对当今社会和个人有哪些启示？</v>
       </c>
       <c r="B75" t="str">
         <v>历史探究</v>
       </c>
       <c r="C75" t="str">
-        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
+        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
       </c>
       <c r="D75" t="str">
-        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
+        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>探秘：第一个喝牛奶的人对牛做了什么？</v>
+        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
       </c>
       <c r="B76" t="str">
-        <v>历史文化</v>
+        <v>历史探究</v>
       </c>
       <c r="C76" t="str">
-        <v>深入探究人类历史上第一个喝牛奶的人对牛做了什么，全面解析牛奶的起源、早期利用、与牛的关系、社会文化意义以及现代产业发展，带你领略牛奶背后的深厚历史与文化内涵。</v>
+        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
       </c>
       <c r="D76" t="str">
-        <v>牛奶产业, 牛奶利用, 牛奶文化, 牛奶起源, 牛的驯化</v>
+        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>中式八球台球礼仪须知</v>
+        <v>谋士为何难成一把手？</v>
       </c>
       <c r="B77" t="str">
-        <v>台球天地</v>
+        <v>历史探究</v>
       </c>
       <c r="C77" t="str">
-        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
+        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
       </c>
       <c r="D77" t="str">
-        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
+        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>中式八球台球规则详解</v>
+        <v>探秘：第一个喝牛奶的人对牛做了什么？</v>
       </c>
       <c r="B78" t="str">
-        <v>台球天地</v>
+        <v>历史文化</v>
       </c>
       <c r="C78" t="str">
-        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
+        <v>深入探究人类历史上第一个喝牛奶的人对牛做了什么，全面解析牛奶的起源、早期利用、与牛的关系、社会文化意义以及现代产业发展，带你领略牛奶背后的深厚历史与文化内涵。</v>
       </c>
       <c r="D78" t="str">
-        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
+        <v>牛奶产业, 牛奶利用, 牛奶文化, 牛奶起源, 牛的驯化</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>中式八球台球运动简介</v>
+        <v>中式八球台球礼仪须知</v>
       </c>
       <c r="B79" t="str">
         <v>台球天地</v>
       </c>
       <c r="C79" t="str">
-        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
+        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
       </c>
       <c r="D79" t="str">
-        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
+        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>中式八球的发展史</v>
+        <v>中式八球台球规则详解</v>
       </c>
       <c r="B80" t="str">
         <v>台球天地</v>
       </c>
       <c r="C80" t="str">
-        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
+        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
       </c>
       <c r="D80" t="str">
-        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
+        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>令人绝望的“文盲”</v>
+        <v>中式八球台球运动简介</v>
       </c>
       <c r="B81" t="str">
         <v>台球天地</v>
       </c>
       <c r="C81" t="str">
-        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
+        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
       </c>
       <c r="D81" t="str">
-        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
+        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>关于我们</v>
+        <v>中式八球的发展史</v>
       </c>
       <c r="B82" t="str">
         <v>台球天地</v>
       </c>
       <c r="C82" t="str">
-        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
+        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
       </c>
       <c r="D82" t="str">
-        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
+        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>台球初学者指南</v>
+        <v>令人绝望的“文盲”</v>
       </c>
       <c r="B83" t="str">
         <v>台球天地</v>
       </c>
       <c r="C83" t="str">
-        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
+        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
       </c>
       <c r="D83" t="str">
-        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
+        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>台球店基本信息</v>
+        <v>关于我们</v>
       </c>
       <c r="B84" t="str">
         <v>台球天地</v>
       </c>
       <c r="C84" t="str">
-        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
+        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
       </c>
       <c r="D84" t="str">
-        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
+        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>台球种类专业介绍</v>
+        <v>台球初学者指南</v>
       </c>
       <c r="B85" t="str">
         <v>台球天地</v>
       </c>
       <c r="C85" t="str">
-        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
+        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
       </c>
       <c r="D85" t="str">
-        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
+        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>台球设备介绍</v>
+        <v>台球店基本信息</v>
       </c>
       <c r="B86" t="str">
         <v>台球天地</v>
       </c>
       <c r="C86" t="str">
-        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
+        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
       </c>
       <c r="D86" t="str">
-        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
+        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>台球设备评测报告</v>
+        <v>台球种类专业介绍</v>
       </c>
       <c r="B87" t="str">
         <v>台球天地</v>
       </c>
       <c r="C87" t="str">
-        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
+        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
       </c>
       <c r="D87" t="str">
-        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
+        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>台球运动：助力青少年全面发展的独特运动</v>
+        <v>台球设备介绍</v>
       </c>
       <c r="B88" t="str">
         <v>台球天地</v>
       </c>
       <c r="C88" t="str">
-        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
+        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
       </c>
       <c r="D88" t="str">
-        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
+        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>台球运动的物理学原理</v>
+        <v>台球设备评测报告</v>
       </c>
       <c r="B89" t="str">
         <v>台球天地</v>
       </c>
       <c r="C89" t="str">
-        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
+        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
       </c>
       <c r="D89" t="str">
-        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
+        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>台球高级技巧分享</v>
+        <v>台球运动：助力青少年全面发展的独特运动</v>
       </c>
       <c r="B90" t="str">
         <v>台球天地</v>
       </c>
       <c r="C90" t="str">
-        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
+        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
       </c>
       <c r="D90" t="str">
-        <v>台球高级技巧, 战术应用, 技巧实践</v>
+        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
+        <v>台球运动的物理学原理</v>
       </c>
       <c r="B91" t="str">
         <v>台球天地</v>
       </c>
       <c r="C91" t="str">
-        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
+        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
       </c>
       <c r="D91" t="str">
-        <v>商业模拟, 自助台球店</v>
+        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
+        <v>台球高级技巧分享</v>
       </c>
       <c r="B92" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C92" t="str">
-        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
+        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
       </c>
       <c r="D92" t="str">
-        <v>台球政策, 商业策略, 算力服务费</v>
+        <v>台球高级技巧, 战术应用, 技巧实践</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>为什么台球店没有请陪打女主教</v>
+        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
       </c>
       <c r="B93" t="str">
-        <v>台球经营</v>
+        <v>台球天地</v>
       </c>
       <c r="C93" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
       </c>
       <c r="D93" t="str">
-        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
+        <v>商业模拟, 自助台球店</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>开台球店的一些注意事项</v>
+        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
       </c>
       <c r="B94" t="str">
         <v>台球经营</v>
       </c>
       <c r="C94" t="str">
-        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
+        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D94" t="str">
-        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
+        <v>台球政策, 商业策略, 算力服务费</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
+        <v>为什么台球店没有请陪打女主教</v>
       </c>
       <c r="B95" t="str">
         <v>台球经营</v>
       </c>
       <c r="C95" t="str">
-        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D95" t="str">
-        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
+        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>台球运动在不同文化背景下的特色玩法</v>
+        <v>开台球店的一些注意事项</v>
       </c>
       <c r="B96" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C96" t="str">
-        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
+        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
       </c>
       <c r="D96" t="str">
-        <v>文化交流, 文化差异</v>
+        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>国内外重要台球赛事</v>
+        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
       </c>
       <c r="B97" t="str">
-        <v>台球运动</v>
+        <v>台球经营</v>
       </c>
       <c r="C97" t="str">
-        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
+        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
       </c>
       <c r="D97" t="str">
-        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
+        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>提升台球技能小贴士</v>
+        <v>台球运动在不同文化背景下的特色玩法</v>
       </c>
       <c r="B98" t="str">
         <v>台球运动</v>
       </c>
       <c r="C98" t="str">
-        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
+        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
       </c>
       <c r="D98" t="str">
-        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
+        <v>文化交流, 文化差异</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>科技如何重塑台球运动体验</v>
+        <v>国内外重要台球赛事</v>
       </c>
       <c r="B99" t="str">
         <v>台球运动</v>
       </c>
       <c r="C99" t="str">
-        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
+        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
       </c>
       <c r="D99" t="str">
-        <v>台球, 智能设备, 科技应用, 运动科技</v>
+        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>独立开发者探寻机会的多元路径解析</v>
+        <v>提升台球技能小贴士</v>
       </c>
       <c r="B100" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C100" t="str">
-        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
+        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
       </c>
       <c r="D100" t="str">
-        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
+        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>自助台球门店客流量差异分析</v>
+        <v>科技如何重塑台球运动体验</v>
       </c>
       <c r="B101" t="str">
-        <v>商业洞察</v>
+        <v>台球运动</v>
       </c>
       <c r="C101" t="str">
-        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
+        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
       </c>
       <c r="D101" t="str">
-        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
+        <v>台球, 智能设备, 科技应用, 运动科技</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
+        <v>独立开发者探寻机会的多元路径解析</v>
       </c>
       <c r="B102" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C102" t="str">
-        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
+        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
       </c>
       <c r="D102" t="str">
-        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
+        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>夫妻之间，无性婚姻能坚持多久？</v>
+        <v>自助台球门店客流量差异分析</v>
       </c>
       <c r="B103" t="str">
-        <v>婚姻情感</v>
+        <v>商业洞察</v>
       </c>
       <c r="C103" t="str">
-        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
+        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
       </c>
       <c r="D103" t="str">
-        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
+        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
+        <v>揭秘陨石为何总是落在陨石坑里</v>
       </c>
       <c r="B104" t="str">
-        <v>婚姻情感</v>
+        <v>天文现象</v>
       </c>
       <c r="C104" t="str">
-        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
+        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
       </c>
       <c r="D104" t="str">
-        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
+        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>女人应该在什么时候把自己嫁出去？</v>
+        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
       </c>
       <c r="B105" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C105" t="str">
-        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
+        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D105" t="str">
-        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
+        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>如何成为一个好丈夫：关键要素与实践指南</v>
+        <v>夫妻之间，无性婚姻能坚持多久？</v>
       </c>
       <c r="B106" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C106" t="str">
-        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
+        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
       </c>
       <c r="D106" t="str">
-        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
+        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>如何成为令人称羡的好妻子</v>
+        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
       </c>
       <c r="B107" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C107" t="str">
-        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
+        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
       </c>
       <c r="D107" t="str">
-        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
+        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
+        <v>女人应该在什么时候把自己嫁出去？</v>
       </c>
       <c r="B108" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C108" t="str">
-        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
+        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
       </c>
       <c r="D108" t="str">
-        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
+        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>婚外情能维持到老死吗？</v>
+        <v>如何成为一个好丈夫：关键要素与实践指南</v>
       </c>
       <c r="B109" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C109" t="str">
-        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
+        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
       </c>
       <c r="D109" t="str">
-        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
+        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>老公对我不错但性生活缺失是否该离婚</v>
+        <v>如何成为令人称羡的好妻子</v>
       </c>
       <c r="B110" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C110" t="str">
-        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
+        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
       </c>
       <c r="D110" t="str">
-        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
+        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
       </c>
       <c r="B111" t="str">
-        <v>宇宙探索</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C111" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
       </c>
       <c r="D111" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>为啥我爸妈结婚时没喊我参加婚礼？</v>
+        <v>婚外情能维持到老死吗？</v>
       </c>
       <c r="B112" t="str">
-        <v>家庭情感</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C112" t="str">
-        <v>探讨为何很多人会遗憾错过父母婚礼这一话题，从父母婚礼的时代背景、个人选择出发，分析人们对此的情感反应，并给出弥补遗憾的方法，带你感受家庭情感中的理解与温暖。</v>
+        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
       </c>
       <c r="D112" t="str">
-        <v>个人选择, 弥补遗憾, 情感反应, 时代背景, 父母婚礼</v>
+        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>冰箱与冰柜名称背后的有趣谜题</v>
+        <v>老公对我不错但性生活缺失是否该离婚</v>
       </c>
       <c r="B113" t="str">
-        <v>家电知识</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C113" t="str">
-        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
+        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
       </c>
       <c r="D113" t="str">
-        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
+        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B114" t="str">
-        <v>差旅办公</v>
+        <v>宇宙探索</v>
       </c>
       <c r="C114" t="str">
-        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D114" t="str">
-        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>建一栋10亿层高的大楼可能吗？</v>
+        <v>为啥我爸妈结婚时没喊我参加婚礼？</v>
       </c>
       <c r="B115" t="str">
-        <v>建筑探索</v>
+        <v>家庭情感</v>
       </c>
       <c r="C115" t="str">
-        <v>探讨建造一栋10亿层高的大楼的可能性，从建筑高度现状、技术挑战、经济与社会因素、环境影响等多方面进行分析，并展望未来实现这一设想的可能性。</v>
+        <v>探讨为何很多人会遗憾错过父母婚礼这一话题，从父母婚礼的时代背景、个人选择出发，分析人们对此的情感反应，并给出弥补遗憾的方法，带你感受家庭情感中的理解与温暖。</v>
       </c>
       <c r="D115" t="str">
-        <v>建筑高度, 技术挑战, 未来展望, 环境影响, 经济社会因素</v>
+        <v>个人选择, 弥补遗憾, 情感反应, 时代背景, 父母婚礼</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>这个男人来自地球观后感</v>
+        <v>冰箱与冰柜名称背后的有趣谜题</v>
       </c>
       <c r="B116" t="str">
-        <v>影视评论</v>
+        <v>家电知识</v>
       </c>
       <c r="C116" t="str">
-        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
+        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
       </c>
       <c r="D116" t="str">
-        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
+        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
       </c>
       <c r="B117" t="str">
-        <v>心理调适</v>
+        <v>差旅办公</v>
       </c>
       <c r="C117" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
       </c>
       <c r="D117" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>建一栋10亿层高的大楼可能吗？</v>
       </c>
       <c r="B118" t="str">
-        <v>心理调适</v>
+        <v>建筑探索</v>
       </c>
       <c r="C118" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>探讨建造一栋10亿层高的大楼的可能性，从建筑高度现状、技术挑战、经济与社会因素、环境影响等多方面进行分析，并展望未来实现这一设想的可能性。</v>
       </c>
       <c r="D118" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>建筑高度, 技术挑战, 未来展望, 环境影响, 经济社会因素</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>这个男人来自地球观后感</v>
       </c>
       <c r="B119" t="str">
-        <v>心理调适</v>
+        <v>影视评论</v>
       </c>
       <c r="C119" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
       </c>
       <c r="D119" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D120" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D121" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D122" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D123" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D124" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D125" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D126" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D127" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D128" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D129" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D130" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D131" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D132" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D133" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D134" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D135" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B136" t="str">
         <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D136" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B137" t="str">
         <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D137" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B138" t="str">
         <v>心理调适</v>
       </c>
       <c r="C138" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D138" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B139" t="str">
         <v>心理调适</v>
       </c>
       <c r="C139" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D139" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B140" t="str">
         <v>心理调适</v>
       </c>
       <c r="C140" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D140" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B141" t="str">
         <v>心理调适</v>
       </c>
       <c r="C141" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D141" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B142" t="str">
         <v>心理调适</v>
       </c>
       <c r="C142" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D142" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B143" t="str">
         <v>心理调适</v>
       </c>
       <c r="C143" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D143" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B144" t="str">
         <v>心理调适</v>
       </c>
       <c r="C144" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D144" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B145" t="str">
         <v>心理调适</v>
       </c>
       <c r="C145" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D145" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B146" t="str">
         <v>心理调适</v>
       </c>
       <c r="C146" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D146" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B147" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C147" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D147" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B148" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C148" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D148" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>自杀：世界多了一个自杀的人还是少了一个自杀的人？</v>
       </c>
       <c r="B149" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C149" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>深入探讨自杀这一沉重话题，从不同角度分析自杀对世界的影响，包括社会现象、生命终结和哲学思考等方面，并阐述自杀预防与应对措施，旨在提高对自杀问题的重视，守护生命。</v>
       </c>
       <c r="D149" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>心理健康, 生命意义, 社会影响, 自杀, 自杀预防</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B150" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C150" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D150" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D151" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B152" t="str">
         <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D152" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B153" t="str">
         <v>性别健康</v>
       </c>
       <c r="C153" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D153" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B154" t="str">
         <v>性别健康</v>
       </c>
       <c r="C154" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D154" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B155" t="str">
         <v>性别健康</v>
       </c>
       <c r="C155" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D155" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B156" t="str">
         <v>性别健康</v>
       </c>
       <c r="C156" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D156" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B157" t="str">
         <v>性别健康</v>
       </c>
       <c r="C157" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D157" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B158" t="str">
         <v>性别健康</v>
       </c>
       <c r="C158" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D158" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B159" t="str">
         <v>性别健康</v>
       </c>
       <c r="C159" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D159" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B160" t="str">
         <v>性别健康</v>
       </c>
       <c r="C160" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D160" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B161" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C161" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D161" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B162" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C162" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D162" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B163" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C163" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D163" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B164" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C164" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D164" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B165" t="str">
-        <v>情感故事</v>
+        <v>情感关系</v>
       </c>
       <c r="C165" t="str">
-        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D165" t="str">
-        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B166" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C166" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D166" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B167" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C167" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D167" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B168" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C168" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D168" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
       </c>
       <c r="B169" t="str">
-        <v>教育学习</v>
+        <v>情感故事</v>
       </c>
       <c r="C169" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
       </c>
       <c r="D169" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B170" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C170" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D170" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B171" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C171" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D171" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>探寻色彩认知：黑人会称黑色为“肉色”吗？</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B172" t="str">
-        <v>文化研究</v>
+        <v>教育学习</v>
       </c>
       <c r="C172" t="str">
-        <v>深入探讨在全球化背景下，不同文化中色彩认知的差异，聚焦黑人是否会将黑色称为“肉色”这一有趣话题，剖析背后文化、社交等因素的影响，促进跨文化理解。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D172" t="str">
-        <v>文化差异, 肤色称呼, 色彩认知, 跨文化理解, 黑人社区</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>毕业3年，学费为何不退还？</v>
       </c>
       <c r="B173" t="str">
-        <v>时尚生活</v>
+        <v>教育学习</v>
       </c>
       <c r="C173" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>探讨毕业多年后学费看似“未得到回报”却不退还的原因，深入解析教育投资在知识能力培养、资源利用、学习长期效应等方面的价值体现。</v>
       </c>
       <c r="D173" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>学习效应, 学费价值, 教育回报, 教育投资, 知识能力</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B174" t="str">
-        <v>时尚生活</v>
+        <v>教育学习</v>
       </c>
       <c r="C174" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D174" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>高考满分750，冲击985的秘籍大揭秘</v>
       </c>
       <c r="B175" t="str">
-        <v>时尚生活</v>
+        <v>教育学习</v>
       </c>
       <c r="C175" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>全面解析冲击985高校的高考备考秘籍，涵盖985录取规则、专属备考计划制定、高效学习方法以及心态与压力管理等方面，助力考生在总分750分的高考中脱颖而出。</v>
       </c>
       <c r="D175" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>985高校, 备考计划, 学习方法, 心态调整, 高考</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B176" t="str">
-        <v>法律</v>
+        <v>数字科技</v>
       </c>
       <c r="C176" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D176" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B177" t="str">
-        <v>游戏竞技</v>
+        <v>数字科技</v>
       </c>
       <c r="C177" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D177" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
+        <v>探寻色彩认知：黑人会称黑色为“肉色”吗？</v>
       </c>
       <c r="B178" t="str">
-        <v>玩具科普</v>
+        <v>文化研究</v>
       </c>
       <c r="C178" t="str">
-        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
+        <v>深入探讨在全球化背景下，不同文化中色彩认知的差异，聚焦黑人是否会将黑色称为“肉色”这一有趣话题，剖析背后文化、社交等因素的影响，促进跨文化理解。</v>
       </c>
       <c r="D178" t="str">
-        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
+        <v>文化差异, 肤色称呼, 色彩认知, 跨文化理解, 黑人社区</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>如果不孕不育是遗传的，如何传递基因？</v>
+        <v>贾宝玉出生时嘴里含着玉，为何不叫“宝国”？</v>
       </c>
       <c r="B179" t="str">
-        <v>生殖健康</v>
+        <v>文化研究</v>
       </c>
       <c r="C179" t="str">
-        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
+        <v>深入探究《红楼梦》中贾宝玉出生时嘴里含着玉却不取名“宝国”的原因，剖析其名字由来、不取名“宝国”的考量因素，以及名字与人物性格、文学命名艺术之间的关系。</v>
       </c>
       <c r="D179" t="str">
-        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
+        <v>人物性格, 命名艺术, 文化内涵, 红楼梦, 贾宝玉</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B180" t="str">
-        <v>生活感悟</v>
+        <v>时尚生活</v>
       </c>
       <c r="C180" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D180" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B181" t="str">
-        <v>生活感悟</v>
+        <v>时尚生活</v>
       </c>
       <c r="C181" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D181" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B182" t="str">
-        <v>生活感悟</v>
+        <v>时尚生活</v>
       </c>
       <c r="C182" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D182" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>暴雨橙色预警是要下芬达的意思吗？</v>
       </c>
       <c r="B183" t="str">
-        <v>生活感悟</v>
+        <v>气象预警</v>
       </c>
       <c r="C183" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>解析暴雨橙色预警的定义、背后蕴含的信息，包括降雨强度、可能引发的次生灾害以及对日常生活的影响，并提供遇到暴雨橙色预警时应采取的应对措施，纠正“暴雨橙色预警是要下芬达”这一玩笑观点，强调科学应对气象预警的重要性。</v>
       </c>
       <c r="D183" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>暴雨橙色预警, 次生灾害, 气象预警, 防范措施, 降雨强度</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>去自首的路上被抓了还算自首吗？</v>
       </c>
       <c r="B184" t="str">
-        <v>生活感悟</v>
+        <v>法律知识</v>
       </c>
       <c r="C184" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>深入剖析犯罪嫌疑人在去自首的路上被抓这一复杂情况是否算自首，结合自首的法律定义、构成要件及相关案例进行解读，助您了解相关法律知识。</v>
       </c>
       <c r="D184" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>司法实践, 法律定义, 犯罪嫌疑人, 自首, 量刑</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B185" t="str">
-        <v>生活感悟</v>
+        <v>法律知识</v>
       </c>
       <c r="C185" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D185" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B186" t="str">
-        <v>生活感悟</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C186" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D186" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
       </c>
       <c r="B187" t="str">
-        <v>生活感悟</v>
+        <v>玩具科普</v>
       </c>
       <c r="C187" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
       </c>
       <c r="D187" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>如果不孕不育是遗传的，如何传递基因？</v>
       </c>
       <c r="B188" t="str">
-        <v>生活感悟</v>
+        <v>生殖健康</v>
       </c>
       <c r="C188" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
       </c>
       <c r="D188" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B189" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C189" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D189" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B190" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C190" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D190" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B191" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C191" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D191" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B192" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C192" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D192" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B193" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C193" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D193" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>回首2024</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B194" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C194" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D194" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B195" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C195" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D195" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B196" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C196" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D196" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B197" t="str">
-        <v>生涯规划</v>
+        <v>生活感悟</v>
       </c>
       <c r="C197" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D197" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B198" t="str">
-        <v>社会探究</v>
+        <v>生活感悟</v>
       </c>
       <c r="C198" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D198" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B199" t="str">
-        <v>社会探究</v>
+        <v>生活感悟</v>
       </c>
       <c r="C199" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D199" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B200" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C200" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D200" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B201" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C201" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D201" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B202" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C202" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D202" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>回首2024</v>
       </c>
       <c r="B203" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C203" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D203" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B204" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C204" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D204" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B205" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C205" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D205" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B206" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C206" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D206" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D207" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D208" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D209" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B210" t="str">
         <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D210" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B211" t="str">
         <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D211" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B212" t="str">
         <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D212" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B213" t="str">
         <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D213" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B214" t="str">
         <v>社会探究</v>
       </c>
       <c r="C214" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D214" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B215" t="str">
         <v>社会探究</v>
       </c>
       <c r="C215" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D215" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B216" t="str">
         <v>社会探究</v>
       </c>
       <c r="C216" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D216" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B217" t="str">
         <v>社会探究</v>
       </c>
       <c r="C217" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D217" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B218" t="str">
         <v>社会探究</v>
       </c>
       <c r="C218" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D218" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B219" t="str">
         <v>社会探究</v>
       </c>
       <c r="C219" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D219" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B220" t="str">
         <v>社会探究</v>
       </c>
       <c r="C220" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D220" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B221" t="str">
         <v>社会探究</v>
       </c>
       <c r="C221" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D221" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B222" t="str">
         <v>社会探究</v>
       </c>
       <c r="C222" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D222" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B223" t="str">
         <v>社会探究</v>
       </c>
       <c r="C223" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D223" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B224" t="str">
         <v>社会探究</v>
       </c>
       <c r="C224" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D224" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B225" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C225" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D225" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B226" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C226" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D226" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B227" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C227" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D227" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B228" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C228" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D228" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>再聊姜萍</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B229" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C229" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D229" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B230" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C230" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D230" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B231" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C231" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D231" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B232" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C232" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D232" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B233" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C233" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D233" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B234" t="str">
         <v>社会现象</v>
       </c>
       <c r="C234" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D234" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B235" t="str">
         <v>社会现象</v>
       </c>
       <c r="C235" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D235" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B236" t="str">
         <v>社会现象</v>
       </c>
       <c r="C236" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D236" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B237" t="str">
         <v>社会现象</v>
       </c>
       <c r="C237" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D237" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B238" t="str">
         <v>社会现象</v>
       </c>
       <c r="C238" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D238" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B239" t="str">
         <v>社会现象</v>
       </c>
       <c r="C239" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D239" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>如何反驳“现实点，社会就是这样”？</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B240" t="str">
-        <v>社会观点</v>
+        <v>社会现象</v>
       </c>
       <c r="C240" t="str">
-        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D240" t="str">
-        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B241" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C241" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D241" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B242" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C242" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D242" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B243" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C243" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D243" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B244" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C244" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D244" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B245" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C245" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D245" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B246" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C246" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D246" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
       </c>
       <c r="B247" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C247" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
       </c>
       <c r="D247" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B248" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C248" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D248" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B249" t="str">
-        <v>科技探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C249" t="str">
-        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D249" t="str">
-        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>如何反驳“现实点，社会就是这样”？</v>
       </c>
       <c r="B250" t="str">
-        <v>职业发展</v>
+        <v>社会观点</v>
       </c>
       <c r="C250" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
       </c>
       <c r="D250" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>什么是成功的定义？</v>
+        <v>倒立的时候是不是举起了地球？</v>
       </c>
       <c r="B251" t="str">
-        <v>职业发展</v>
+        <v>科学探索</v>
       </c>
       <c r="C251" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>探讨倒立这一动作背后的科学原理，包括地球引力、人体力学等方面，同时从哲学角度思考倒立与地球的关系，以及其在科学与艺术领域的跨界之美。</v>
       </c>
       <c r="D251" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>人体力学, 倒立, 哲学思考, 地球引力, 科学与艺术</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>巧用3kg和5kg砝码称出8kg水的方法</v>
       </c>
       <c r="B252" t="str">
-        <v>职业发展</v>
+        <v>科学探索</v>
       </c>
       <c r="C252" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>介绍如何仅利用3kg和5kg的砝码，通过天平精确称出8kg水的详细步骤与操作技巧，帮助提升生活中的测量能力与逻辑思维。</v>
       </c>
       <c r="D252" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>天平, 测量技巧, 砝码, 称水, 逻辑思维</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B253" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C253" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D253" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B254" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C254" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D254" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B255" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C255" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D255" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B256" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C256" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D256" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B257" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C257" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D257" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B258" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C258" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D258" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B259" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C259" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D259" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B260" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C260" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D260" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
       </c>
       <c r="B261" t="str">
-        <v>职业发展</v>
+        <v>科技探索</v>
       </c>
       <c r="C261" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
       </c>
       <c r="D261" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B262" t="str">
         <v>职业发展</v>
       </c>
       <c r="C262" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D262" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B263" t="str">
         <v>职业发展</v>
       </c>
       <c r="C263" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D263" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B264" t="str">
         <v>职业发展</v>
       </c>
       <c r="C264" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D264" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B265" t="str">
         <v>职业发展</v>
       </c>
       <c r="C265" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D265" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B266" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C266" t="str">
-        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D266" t="str">
-        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>19世纪人类是否全部灭绝过？</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B267" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C267" t="str">
-        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D267" t="str">
-        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>上帝能否创造一块自己搬不动的石头？</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B268" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C268" t="str">
-        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D268" t="str">
-        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B269" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C269" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D269" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>台风眼里引爆核弹能平息台风吗？</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B270" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C270" t="str">
-        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D270" t="str">
-        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B271" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C271" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D271" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B272" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C272" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D272" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>如何用向下射击的机枪制作飞行背包？</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B273" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C273" t="str">
-        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D273" t="str">
-        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B274" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C274" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D274" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B275" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C275" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D275" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B276" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C276" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D276" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B277" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C277" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D277" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>探索发电机与永动机的奥秘：连接发电机能否创造永动机？</v>
       </c>
       <c r="B278" t="str">
-        <v>脑洞大开</v>
+        <v>能源科学</v>
       </c>
       <c r="C278" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>深入剖析连接发电机能否创造永动机这一问题，解读发电机工作原理、永动机定义分类，阐述因能量损耗和能量守恒定律限制无法实现，同时讲述永动机探索带来的启示。</v>
       </c>
       <c r="D278" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>发电机原理, 永动机概念, 科学探索, 能量守恒定律, 能量损耗</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B279" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C279" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D279" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
+        <v>19世纪人类是否全部灭绝过？</v>
       </c>
       <c r="B280" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C280" t="str">
-        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
+        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
       </c>
       <c r="D280" t="str">
-        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
+        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B281" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C281" t="str">
-        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D281" t="str">
-        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
+        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>斑马纹路是否影响捕食者视觉？</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B282" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C282" t="str">
-        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D282" t="str">
-        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>午餐肉，我可以晚上吃吗？</v>
       </c>
       <c r="B283" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C283" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>探讨午餐肉作为晚餐的可行性，分析其营养价值、健康考量因素，以及提供多种晚餐搭配建议，助力读者在享受美食的同时保持健康饮食。</v>
       </c>
       <c r="D283" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>健康饮食, 午餐肉, 晚餐搭配, 烹饪方式, 营养价值</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>台风眼里引爆核弹能平息台风吗？</v>
       </c>
       <c r="B284" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C284" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
       </c>
       <c r="D284" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B285" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C285" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D285" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
+        <v>哪吒有三头六臂，加入其中一个头得了脑血栓，另外两个头会不会得？</v>
       </c>
       <c r="B286" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C286" t="str">
-        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
+        <v>文章以哪吒三头六臂的神话形象为切入点，探讨若其中一个头患脑血栓，其余两头是否受影响的有趣问题。结合现实中脑血栓知识与神话设定，深入分析并给出应对策略，还阐述了其中蕴含的健康管理和团队合作启示。</v>
       </c>
       <c r="D286" t="str">
-        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
+        <v>三头六臂, 健康启示, 哪吒, 神话医学, 脑血栓</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B287" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C287" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D287" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>如何用向下射击的机枪制作飞行背包？</v>
       </c>
       <c r="B288" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C288" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
       </c>
       <c r="D288" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B289" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C289" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D289" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B290" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C290" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D290" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B291" t="str">
-        <v>自我成长</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C291" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D291" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B292" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C292" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D292" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B293" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C293" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D293" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B294" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C294" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D294" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>妲己不是九尾狐而是藏狐，纣王还会爱上她吗？</v>
       </c>
       <c r="B295" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C295" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>探讨妲己形象从九尾狐转变为藏狐后，纣王是否仍会爱她这一新颖话题，分析妲己不同形象特点、纣王爱情观，以及此设定对理解爱情、权力和人性的意义。</v>
       </c>
       <c r="D295" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>九尾狐, 妲己, 爱情观, 纣王, 藏狐</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B296" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C296" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D296" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>我买了一斤藕，为啥半斤都是空的？</v>
       </c>
       <c r="B297" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C297" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>深入剖析藕出现空心现象的科学缘由、生物学意义，分享挑选实心藕的实用方法，同时介绍藕丰富多样的营养价值，带你全面了解这种常见水生植物的奥秘。</v>
       </c>
       <c r="D297" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>挑选技巧, 水生植物, 空心结构, 营养价值</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
       </c>
       <c r="B298" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C298" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
       </c>
       <c r="D298" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>斑马纹路是否影响捕食者视觉？</v>
       </c>
       <c r="B299" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C299" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
       </c>
       <c r="D299" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B300" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C300" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D300" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>法律未禁御剑飞行却无人尝试的原因探究</v>
       </c>
       <c r="B301" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C301" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>深入探究法律虽未禁止御剑飞行，但现实中却几乎无人尝试的原因，从技术、安全、社会认知、法律伦理等多方面进行剖析。</v>
       </c>
       <c r="D301" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>安全隐忧, 御剑飞行, 技术瓶颈, 法律伦理, 社会认知</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>玉皇大帝住的是平流层还是对流层？</v>
       </c>
       <c r="B302" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C302" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>探讨中国古代神话中玉皇大帝居住的天庭究竟处于平流层还是对流层这一问题，从神话传说、科学角度及文化意义多方面展开分析，开启神话与科学交融的奇妙探索之旅。</v>
       </c>
       <c r="D302" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>天庭, 对流层, 平流层, 玉皇大帝, 神话科学融合</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B303" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C303" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D303" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B304" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C304" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D304" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>蓝牙耳机坏了，去医院挂牙科还是耳科？</v>
       </c>
       <c r="B305" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C305" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>以幽默的方式引出蓝牙耳机坏了该如何处理的话题，详细介绍蓝牙耳机故障的常见原因、自我诊断技巧、寻求专业维修的方法以及日常保养的要点，帮助读者了解如何应对蓝牙耳机故障并做好预防。</v>
       </c>
       <c r="D305" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>故障原因, 维修方法, 耳机保养, 蓝牙耳机, 预防措施</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
       </c>
       <c r="B306" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C306" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
       </c>
       <c r="D306" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B307" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C307" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D307" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B308" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C308" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D308" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B309" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C309" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D309" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>鉴黄师下班看黄色视频：加班还是违法？</v>
       </c>
       <c r="B310" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C310" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>探讨鉴黄师下班观看黄色视频的行为是否属于加班或违法，分析其工作性质、法律责任及职场伦理，帮助理解这一特殊职业面临的挑战与抉择。</v>
       </c>
       <c r="D310" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>工作与生活平衡, 法律法规, 网络环境净化, 职场伦理, 鉴黄师</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>字典数排序</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B311" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C311" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D311" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>香菇掉厕所了还能叫香菇吗？</v>
       </c>
       <c r="B312" t="str">
-        <v>自然科学</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C312" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>探讨“香菇掉厕所了还能叫香菇吗”这一有趣话题，从科学分类、文化心理角度分析香菇命名问题，同时介绍香菇营养价值与烹饪方法，领略其在文化艺术中的魅力。</v>
       </c>
       <c r="D312" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>文化心理, 物品命名, 食材营养, 香菇, 香菇烹饪</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B313" t="str">
-        <v>自然科学</v>
+        <v>自我成长</v>
       </c>
       <c r="C313" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D313" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B314" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C314" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D314" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B315" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C315" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D315" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B316" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C316" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D316" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B317" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C317" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D317" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B318" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C318" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D318" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B319" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C319" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
       </c>
       <c r="D319" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B320" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C320" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D320" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B321" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C321" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D321" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B322" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C322" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D322" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B323" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C323" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
       </c>
       <c r="D323" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>个人发展, 心态管理, 成功学, 目标设定</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B324" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C324" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D324" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B325" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C325" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D325" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B326" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C326" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D326" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B327" t="str">
-        <v>财富管理</v>
+        <v>自我提升</v>
       </c>
       <c r="C327" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D327" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B328" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C328" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D328" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B329" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C329" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D329" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B330" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C330" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D330" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B331" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C331" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D331" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>为什么有钱人喜欢安静？</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B332" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C332" t="str">
-        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D332" t="str">
-        <v>健康生活, 决策, 安静偏好, 有钱人, 财富积累</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>字典数排序</v>
       </c>
       <c r="B333" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C333" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D333" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B334" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C334" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D334" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B335" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C335" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D335" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B336" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C336" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D336" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B337" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C337" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D337" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B338" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C338" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D338" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B339" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C339" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D339" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B340" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C340" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D340" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B341" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C341" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D341" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B342" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C342" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D342" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B343" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C343" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D343" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>雷公电母放的是直流电还是交流电？</v>
       </c>
       <c r="B344" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C344" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
       </c>
       <c r="D344" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>交流电, 直流电, 雷电, 雷电形成, 雷电防护</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B345" t="str">
         <v>财富管理</v>
       </c>
       <c r="C345" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D345" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B346" t="str">
         <v>财富管理</v>
       </c>
       <c r="C346" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D346" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B347" t="str">
         <v>财富管理</v>
       </c>
       <c r="C347" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D347" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>有效增加收入指南</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B348" t="str">
         <v>财富管理</v>
       </c>
       <c r="C348" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D348" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B349" t="str">
         <v>财富管理</v>
       </c>
       <c r="C349" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D349" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B350" t="str">
         <v>财富管理</v>
       </c>
       <c r="C350" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D350" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B351" t="str">
         <v>财富管理</v>
       </c>
       <c r="C351" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D351" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>穷人怎么翻身</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B352" t="str">
         <v>财富管理</v>
       </c>
       <c r="C352" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D352" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B353" t="str">
         <v>财富管理</v>
       </c>
       <c r="C353" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D353" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B354" t="str">
         <v>财富管理</v>
       </c>
       <c r="C354" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D354" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>为什么有钱人喜欢安静？</v>
       </c>
       <c r="B355" t="str">
         <v>财富管理</v>
       </c>
       <c r="C355" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
       </c>
       <c r="D355" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>健康生活, 决策, 安静偏好, 有钱人, 财富积累</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B356" t="str">
         <v>财富管理</v>
       </c>
       <c r="C356" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D356" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B357" t="str">
         <v>财富管理</v>
       </c>
       <c r="C357" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D357" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B358" t="str">
         <v>财富管理</v>
       </c>
       <c r="C358" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D358" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B359" t="str">
         <v>财富管理</v>
       </c>
       <c r="C359" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D359" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B360" t="str">
         <v>财富管理</v>
       </c>
       <c r="C360" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D360" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B361" t="str">
         <v>财富管理</v>
       </c>
       <c r="C361" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D361" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B362" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C362" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D362" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B363" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C363" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D363" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B364" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C364" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D364" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B365" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C365" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D365" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B366" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C366" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D366" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B367" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C367" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D367" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B368" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C368" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D368" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B369" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C369" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D369" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B370" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C370" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D370" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B371" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C371" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D371" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B372" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C372" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D372" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B373" t="str">
-        <v>软件开发</v>
+        <v>财富管理</v>
       </c>
       <c r="C373" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D373" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B374" t="str">
-        <v>软件开发</v>
+        <v>财富管理</v>
       </c>
       <c r="C374" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D374" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B375" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C375" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D375" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B376" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C376" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D376" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B377" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C377" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D377" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B378" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C378" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D378" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B379" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C379" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D379" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B380" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C380" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D380" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B381" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C381" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D381" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B382" t="str">
-        <v>运营指南</v>
+        <v>财富管理</v>
       </c>
       <c r="C382" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D382" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
+        <v>重新审视“有钱能使鬼推磨”</v>
+      </c>
+      <c r="B383" t="str">
+        <v>财富管理</v>
+      </c>
+      <c r="C383" t="str">
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+      </c>
+      <c r="D383" t="str">
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>钱真的能买到快乐吗？</v>
+      </c>
+      <c r="B384" t="str">
+        <v>财富管理</v>
+      </c>
+      <c r="C384" t="str">
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+      </c>
+      <c r="D384" t="str">
+        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
+      </c>
+      <c r="B385" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C385" t="str">
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+      </c>
+      <c r="D385" t="str">
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>产后吃什么对身体恢复好</v>
+      </c>
+      <c r="B386" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C386" t="str">
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+      </c>
+      <c r="D386" t="str">
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+      </c>
+      <c r="B387" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C387" t="str">
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+      </c>
+      <c r="D387" t="str">
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>失眠了该怎么办？</v>
+      </c>
+      <c r="B388" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C388" t="str">
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+      </c>
+      <c r="D388" t="str">
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>如何保持长寿与健康？</v>
+      </c>
+      <c r="B389" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C389" t="str">
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+      </c>
+      <c r="D389" t="str">
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
+      </c>
+      <c r="B390" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C390" t="str">
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+      </c>
+      <c r="D390" t="str">
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>怎么锻炼下半身的力量</v>
+      </c>
+      <c r="B391" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C391" t="str">
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+      </c>
+      <c r="D391" t="str">
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+      </c>
+      <c r="B392" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C392" t="str">
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+      </c>
+      <c r="D392" t="str">
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>甲流发烧为什么不建议洗澡</v>
+      </c>
+      <c r="B393" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C393" t="str">
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+      </c>
+      <c r="D393" t="str">
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>癌症未来能被彻底治愈吗？</v>
+      </c>
+      <c r="B394" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C394" t="str">
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+      </c>
+      <c r="D394" t="str">
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
+      </c>
+      <c r="B395" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C395" t="str">
+        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
+      </c>
+      <c r="D395" t="str">
+        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>自慰会导致早泄吗</v>
+      </c>
+      <c r="B396" t="str">
+        <v>身体健康</v>
+      </c>
+      <c r="C396" t="str">
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+      </c>
+      <c r="D396" t="str">
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>程序员技术好的评判标准</v>
+      </c>
+      <c r="B397" t="str">
+        <v>软件开发</v>
+      </c>
+      <c r="C397" t="str">
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+      </c>
+      <c r="D397" t="str">
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>解决Markdown文件中标题解析异常的问题</v>
+      </c>
+      <c r="B398" t="str">
+        <v>软件开发</v>
+      </c>
+      <c r="C398" t="str">
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+      </c>
+      <c r="D398" t="str">
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>小红书爆款内容打造全攻略</v>
+      </c>
+      <c r="B399" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C399" t="str">
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+      </c>
+      <c r="D399" t="str">
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>微信公众号爆款文章打造全攻略</v>
+      </c>
+      <c r="B400" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C400" t="str">
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+      </c>
+      <c r="D400" t="str">
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>打造今日头条爆款内容的实用秘籍</v>
+      </c>
+      <c r="B401" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C401" t="str">
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+      </c>
+      <c r="D401" t="str">
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>打造百家号爆款内容的实用秘籍</v>
+      </c>
+      <c r="B402" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C402" t="str">
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+      </c>
+      <c r="D402" t="str">
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>打造知乎爆款内容的实用秘籍</v>
+      </c>
+      <c r="B403" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C403" t="str">
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+      </c>
+      <c r="D403" t="str">
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>抖音爆款内容打造全攻略</v>
+      </c>
+      <c r="B404" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C404" t="str">
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+      </c>
+      <c r="D404" t="str">
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>畅销长篇小说创作秘籍全解析</v>
+      </c>
+      <c r="B405" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C405" t="str">
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+      </c>
+      <c r="D405" t="str">
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B406" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C406" t="str">
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+      </c>
+      <c r="D406" t="str">
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
         <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
       </c>
-      <c r="B383" t="str">
+      <c r="B407" t="str">
         <v>食品安全</v>
       </c>
-      <c r="C383" t="str">
+      <c r="C407" t="str">
         <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
       </c>
-      <c r="D383" t="str">
+      <c r="D407" t="str">
         <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>如果猪肾虚，那它的腰子还补吗？</v>
+      </c>
+      <c r="B408" t="str">
+        <v>饮食健康</v>
+      </c>
+      <c r="C408" t="str">
+        <v>探讨猪肾虚的情况下其腰子是否还具有补肾功效，分析猪腰子的营养价值、中医与西医对肾虚的不同定义及相关研究，为读者提供关于猪腰子食用的科学知识。</v>
+      </c>
+      <c r="D408" t="str">
+        <v>中医理论, 猪腰子, 肾虚, 营养价值, 补肾</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D383"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D408"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -4868,10 +4868,10 @@
         <v>自我提升</v>
       </c>
       <c r="C319" t="str">
-        <v>深入探讨自我认知在人生中的重要性，阐述如何通过多种方式提升自我认知水平，包括自我反思、他人反馈、心理测试、尝试新事物和持续学习等，以实现明确人生方向、提升人际关系和促进个人成长的目标。</v>
+        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
       </c>
       <c r="D319" t="str">
-        <v>个人成长, 人生方向, 自我提升, 自我认知</v>
+        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
       </c>
     </row>
     <row r="320">
@@ -4924,10 +4924,10 @@
         <v>自我提升</v>
       </c>
       <c r="C323" t="str">
-        <v>阐述自我激励的重要性和实现方法，以及目标设定的SMART原则、拆解方法、评估调整策略，强调二者对个人走向成功的关键作用。</v>
+        <v>深入剖析自我激励与目标设定在个人成长中的关键作用，阐述二者如何相互配合成为奏响成功乐章的双弦，为追求成功的人们提供实用的指导与启发。</v>
       </c>
       <c r="D323" t="str">
-        <v>个人发展, 心态管理, 成功学, 目标设定</v>
+        <v>个人发展, 动力源泉, 成功之道, 目标设定, 自我激励</v>
       </c>
     </row>
     <row r="324">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -475,7 +475,7 @@
         <v>介绍2025年DeepSeek技术的最新进展，包括从Transformer架构到混合专家系统的革新、训练优化策略、多模态能力的发展以及在不同领域的应用。DeepSeek通过引入如混合专家系统（MoE）、多头隐式注意力（MLA）等技术显著提升了处理效率和性能，同时在金融、医疗、教育等多个垂直领域实现了高效的应用。此外，DeepSeek正探索具身智能和绿色AI技术，旨在降低算力依赖并提高模型与物理世界的交互能力，预示着AI将向更高效、精准的方向发展。</v>
       </c>
       <c r="D5" t="str">
-        <v>DeepSeek, 人工智能, 多模态技术</v>
+        <v>DeepSeek, 多模态技术, 技术趋势</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         <v>介绍DeepSeek，一款正在重塑教育生态的国产大模型，通过其在个性化学习、课堂教学革新、教学管理优化等方面的强大能力，推动教育向更高效和普惠的方向发展。DeepSeek不仅降低了技术成本，使中小教育机构也能享受到智能教育的优势，还面临着如透明度和数据安全等挑战。它预示着教育从工业化模式向个性化发展的转型，旨在服务育人初心，开启更加包容和智慧的认知复兴时代。</v>
       </c>
       <c r="D6" t="str">
-        <v>DeepSeek, 个性化学习, 教学管理优化, 教育普惠, 教育科技</v>
+        <v>DeepSeek, 个性化学习, 教学管理优化, 教育创新, 教育普惠</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +797,7 @@
         <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
       </c>
       <c r="D28" t="str">
-        <v>人工智能, 人机交互, 人类特质, 情感处理</v>
+        <v>人机交互, 人类特质, 情感处理</v>
       </c>
     </row>
     <row r="29">
@@ -993,7 +993,7 @@
         <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
       </c>
       <c r="D42" t="str">
-        <v>人际关系, 生活智慧</v>
+        <v>人际关系, 情绪管理</v>
       </c>
     </row>
     <row r="43">
@@ -1133,7 +1133,7 @@
         <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
       </c>
       <c r="D52" t="str">
-        <v>审美哲学, 文化解读, 模仿与创新, 社会反思, 身份突破</v>
+        <v>传统寓言, 审美哲学, 文化解读, 模仿与创新, 社会反思</v>
       </c>
     </row>
     <row r="53">
@@ -1875,7 +1875,7 @@
         <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D105" t="str">
-        <v>家庭关系, 家庭和谐, 家庭理财, 财富积累</v>
+        <v>婚姻与财富, 家庭关系, 家庭和谐, 财富积累</v>
       </c>
     </row>
     <row r="106">
@@ -2799,7 +2799,7 @@
         <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D171" t="str">
-        <v>个人成长, 即时满足, 战略思维, 时间管理, 职业发展</v>
+        <v>即时满足, 战略思维, 时间管理, 目标管理, 职业发展</v>
       </c>
     </row>
     <row r="172">
@@ -3205,7 +3205,7 @@
         <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D200" t="str">
-        <v>三十多岁男人, 休闲时尚, 商务正装, 手表选购, 高端奢华</v>
+        <v>休闲时尚, 商务正装, 手表选购, 时尚配饰, 高端奢华</v>
       </c>
     </row>
     <row r="201">
@@ -3485,7 +3485,7 @@
         <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D220" t="str">
-        <v>时间折叠, 熵增博弈, 科学前沿, 认知科学, 道家哲学</v>
+        <v>宇宙哲学, 时间折叠, 熵增博弈, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="221">
@@ -3527,7 +3527,7 @@
         <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D223" t="str">
-        <v>生存策略, 认知科学, 语言艺术, 资源分配, 预期管理</v>
+        <v>生存策略, 管理智慧, 认知科学, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="224">
@@ -4339,7 +4339,7 @@
         <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D281" t="str">
-        <v>上帝全能, 人类认知, 哲学思考, 宗教解读, 逻辑悖论</v>
+        <v>人类认知, 哲学思考, 宗教解读, 神学逻辑, 逻辑悖论</v>
       </c>
     </row>
     <row r="282">
@@ -4997,7 +4997,7 @@
         <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D328" t="str">
-        <v>听觉感知, 心理依赖, 感官障碍, 注意力分配, 视觉感知</v>
+        <v>心理依赖, 感官交互, 感官障碍, 注意力分配</v>
       </c>
     </row>
     <row r="329">
@@ -5137,7 +5137,7 @@
         <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D338" t="str">
-        <v>人类探月, 月亮, 月亮影响, 月球表面, 月相变化</v>
+        <v>人类探月, 天文探索, 月亮, 月球表面, 月相变化</v>
       </c>
     </row>
     <row r="339">
@@ -5179,7 +5179,7 @@
         <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D341" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学发展, 资源限制</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学哲学, 资源限制</v>
       </c>
     </row>
     <row r="342">
@@ -5207,7 +5207,7 @@
         <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D343" t="str">
-        <v>博弈论, 叙事重构, 战略思维, 资源调度, 风险管理</v>
+        <v>博弈论, 历史智慧, 叙事重构, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="344">
@@ -5221,7 +5221,7 @@
         <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
       </c>
       <c r="D344" t="str">
-        <v>交流电, 直流电, 雷电, 雷电形成, 雷电防护</v>
+        <v>交流电, 气象物理, 直流电, 雷电, 雷电防护</v>
       </c>
     </row>
     <row r="345">
@@ -5375,7 +5375,7 @@
         <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
       </c>
       <c r="D355" t="str">
-        <v>健康生活, 决策, 安静偏好, 有钱人, 财富积累</v>
+        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
       </c>
     </row>
     <row r="356">
@@ -5501,7 +5501,7 @@
         <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D364" t="str">
-        <v>哲学思考, 宗教文化, 物质与精神平衡, 精神追求, 金钱观</v>
+        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
       </c>
     </row>
     <row r="365">
@@ -5781,7 +5781,7 @@
         <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D384" t="str">
-        <v>心理效应, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="385">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -475,7 +475,7 @@
         <v>介绍2025年DeepSeek技术的最新进展，包括从Transformer架构到混合专家系统的革新、训练优化策略、多模态能力的发展以及在不同领域的应用。DeepSeek通过引入如混合专家系统（MoE）、多头隐式注意力（MLA）等技术显著提升了处理效率和性能，同时在金融、医疗、教育等多个垂直领域实现了高效的应用。此外，DeepSeek正探索具身智能和绿色AI技术，旨在降低算力依赖并提高模型与物理世界的交互能力，预示着AI将向更高效、精准的方向发展。</v>
       </c>
       <c r="D5" t="str">
-        <v>DeepSeek, 多模态技术, 技术趋势</v>
+        <v>DeepSeek, 多模态技术</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         <v>介绍DeepSeek，一款正在重塑教育生态的国产大模型，通过其在个性化学习、课堂教学革新、教学管理优化等方面的强大能力，推动教育向更高效和普惠的方向发展。DeepSeek不仅降低了技术成本，使中小教育机构也能享受到智能教育的优势，还面临着如透明度和数据安全等挑战。它预示着教育从工业化模式向个性化发展的转型，旨在服务育人初心，开启更加包容和智慧的认知复兴时代。</v>
       </c>
       <c r="D6" t="str">
-        <v>DeepSeek, 个性化学习, 教学管理优化, 教育创新, 教育普惠</v>
+        <v>DeepSeek, 个性化学习, 教育创新, 教育普惠, 教育科技</v>
       </c>
     </row>
     <row r="7">
@@ -993,7 +993,7 @@
         <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
       </c>
       <c r="D42" t="str">
-        <v>人际关系, 情绪管理</v>
+        <v>人际关系, 心理成长</v>
       </c>
     </row>
     <row r="43">
@@ -1133,7 +1133,7 @@
         <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
       </c>
       <c r="D52" t="str">
-        <v>传统寓言, 审美哲学, 文化解读, 模仿与创新, 社会反思</v>
+        <v>传统寓言, 文化心理, 文化解读, 模仿与创新, 社会反思</v>
       </c>
     </row>
     <row r="53">
@@ -5137,7 +5137,7 @@
         <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D338" t="str">
-        <v>人类探月, 天文探索, 月亮, 月球表面, 月相变化</v>
+        <v>人类探月, 天文探索, 宇宙科学, 月球表面</v>
       </c>
     </row>
     <row r="339">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -433,7 +433,7 @@
         <v>推荐《牛奶可乐经济学》这本书，阐述其在经济学知识普及方面的独特价值，包括以通俗方式结合生活实例讲解经济学原理、培养经济学思维模式、体现经济学实用性等，适合多种人群阅读。</v>
       </c>
       <c r="D2" t="str">
-        <v>经济学入门, 经济学原理, 经济学思维, 经济读物</v>
+        <v>经济学入门, 经济学原理, 经济学普及, 经济读物</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         <v>探索《世界怪史》中所记载的各地奇异历史事件，从古代文明遗迹到现代神秘现象，这本书带你领略人类社会的多彩与复杂，发现历史的独特魅力。</v>
       </c>
       <c r="D3" t="str">
-        <v>人类历史, 历史书籍, 历史事件, 文化探索</v>
+        <v>人类历史, 历史书籍, 历史事件, 古代文明</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>本文为普通人推荐了一系列易于阅读且富有魅力的名著，涵盖贴近生活的现实主义名著、充满智慧的人生哲理名著以及扣人心弦的冒险名著，帮助读者找到适合自己的名著，享受阅读乐趣，收获知识与智慧。</v>
       </c>
       <c r="D4" t="str">
-        <v>名著推荐, 文学名著, 阅读指南</v>
+        <v>名著推荐, 文学名著, 经典文学</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         <v>介绍2025年DeepSeek技术的最新进展，包括从Transformer架构到混合专家系统的革新、训练优化策略、多模态能力的发展以及在不同领域的应用。DeepSeek通过引入如混合专家系统（MoE）、多头隐式注意力（MLA）等技术显著提升了处理效率和性能，同时在金融、医疗、教育等多个垂直领域实现了高效的应用。此外，DeepSeek正探索具身智能和绿色AI技术，旨在降低算力依赖并提高模型与物理世界的交互能力，预示着AI将向更高效、精准的方向发展。</v>
       </c>
       <c r="D5" t="str">
-        <v>DeepSeek, 多模态技术</v>
+        <v>AI应用, DeepSeek, 技术革新</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         <v>介绍DeepSeek，一款正在重塑教育生态的国产大模型，通过其在个性化学习、课堂教学革新、教学管理优化等方面的强大能力，推动教育向更高效和普惠的方向发展。DeepSeek不仅降低了技术成本，使中小教育机构也能享受到智能教育的优势，还面临着如透明度和数据安全等挑战。它预示着教育从工业化模式向个性化发展的转型，旨在服务育人初心，开启更加包容和智慧的认知复兴时代。</v>
       </c>
       <c r="D6" t="str">
-        <v>DeepSeek, 个性化学习, 教育创新, 教育普惠, 教育科技</v>
+        <v>DeepSeek, 个性化学习, 教育创新, 教育科技, 智能教育</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>DeepSeek作为新一代生成式AI，通过其多模态交互、知识推理与场景化应用能力，正在引领效率革命，重塑教育、医疗、工作等行业，并带来社会挑战。文章探讨了DeepSeek对生产力的提升、行业变革的影响以及未来人机共生的可能性，强调需同步进化社会制度、教育体系及伦理框架以适应AI技术带来的深刻变化。</v>
       </c>
       <c r="D7" t="str">
-        <v>DeepSeek, 效率革命, 社会挑战, 行业重塑</v>
+        <v>DeepSeek, 智能生活, 社会挑战, 行业重塑</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +517,7 @@
         <v>探讨DeepSeek与ChatGPT在技术架构、性能差异、成本控制、应用场景及生态竞争方面的对比，展示了国产AI模型DeepSeek如何通过混合专家（MoE）架构创新、专注于垂直领域和实施成本革命策略实现市场突围。文章指出DeepSeek在中文处理能力和特定领域的高效表现，以及其开源模式对开发者的吸引力，同时也分析了ChatGPT在通用场景中的优势，预示着两者对决可能重塑AI行业的全球化与本地化竞争格局。</v>
       </c>
       <c r="D8" t="str">
-        <v>ChatGPT, DeepSeek, 市场竞争, 成本革命</v>
+        <v>AI商业化, ChatGPT, DeepSeek, 市场竞争</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         <v>探讨DeepSeek引发的AI伦理争议，包括数据隐私、算法偏见及真实与虚构内容模糊等失控场景。文章指出技术快速发展与伦理滞后之间的矛盾，并提出通过技术透明化、提升全民数字素养和全球化治理协作来寻找创新与约束之间的平衡。面对AI推理成本低于人类思考耗电量的新时代，探讨如何准备好与机器共治，以及AI伦理在其中应扮演的角色。</v>
       </c>
       <c r="D9" t="str">
-        <v>DeepSeek, 伦理讨论, 技术透明化, 科技伦理</v>
+        <v>AI治理, DeepSeek, 伦理讨论, 科技伦理</v>
       </c>
     </row>
     <row r="10">
@@ -545,7 +545,7 @@
         <v>介绍DeepSeek智能写作助手如何助力用户实现内容的批量生产与违禁词规避，提升创作效率与内容质量。文章详细讲解了模板化写作、自动化内容生成等核心技巧，以及内置和自定义违禁词库的使用方法。此外，还分享了关键词优化、语义分析等提升内容质量的策略，并通过电商、新闻媒体和教育行业的实际应用案例展示了DeepSeek的多功能性和适用性。无论是提高产品描述的质量还是确保新闻稿件的合规性，DeepSeek都是强有力的内容创作工具。</v>
       </c>
       <c r="D10" t="str">
-        <v>DeepSeek, 批量生产, 智能写作助手, 违禁词规避</v>
+        <v>DeepSeek, 内容创作工具, 智能写作助手, 违禁词规避</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>DeepSeek作为一款强大的跨境内容营销工具，为企业提供了全方位的解决方案。本文将深入探讨DeepSeek在多语言SEO优化与本地化实践中的应用，帮助企业更好地实现全球化战略。</v>
       </c>
       <c r="D20" t="str">
-        <v>DeepSeek, 搜索引擎优化, 数据驱动, 本地化实践, 跨境内容营销</v>
+        <v>DeepSeek, 搜索引擎优化, 本地化实践, 跨境内容营销, 跨境营销工具</v>
       </c>
     </row>
     <row r="21">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,3236 +704,3236 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>探寻人生意义：在好好活中做有意义的事</v>
+        <v>为什么人际关系总是这么复杂？</v>
       </c>
       <c r="B22" t="str">
-        <v>人生智慧</v>
+        <v>人际相处</v>
       </c>
       <c r="C22" t="str">
-        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
+        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
       </c>
       <c r="D22" t="str">
-        <v>人生意义, 有意义的事, 生命价值, 自我探寻</v>
+        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
+        <v>为什么小龙女不杀强奸她的那个人？</v>
       </c>
       <c r="B23" t="str">
-        <v>人生智慧</v>
+        <v>人际相处</v>
       </c>
       <c r="C23" t="str">
-        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D23" t="str">
-        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
+        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>为什么人际关系总是这么复杂？</v>
+        <v>为什么越想忘记越难忘？</v>
       </c>
       <c r="B24" t="str">
         <v>人际相处</v>
       </c>
       <c r="C24" t="str">
-        <v>探索人际关系复杂性的科学解释与应对策略，提供5套科学工具改善沟通、管理情绪、平衡权力，助你建立健康高效的人际网络。基于社会神经科学最新研究，破解社交迷局，提升社交健康度。</v>
+        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
       </c>
       <c r="D24" t="str">
-        <v>人际关系, 情绪管理, 沟通技巧, 社交健康, 社交心理</v>
+        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>为什么小龙女不杀强奸她的那个人？</v>
+        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
       </c>
       <c r="B25" t="str">
         <v>人际相处</v>
       </c>
       <c r="C25" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
       </c>
       <c r="D25" t="str">
-        <v>人性探讨, 小龙女, 性格分析, 情节推动, 武侠伦理</v>
+        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>为什么越想忘记越难忘？</v>
+        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
       </c>
       <c r="B26" t="str">
         <v>人际相处</v>
       </c>
       <c r="C26" t="str">
-        <v>本文探讨了为何越尝试忘记某些事情反而记得更清楚的心理学原理，包括大脑的“相反效应”、记忆与遗忘的关系以及情感对记忆的影响。文章还提供了实用建议，如接受情绪、转移注意力和培养积极生活方式，帮助读者更有效地处理想要忘记的记忆，实现心灵的释放与平静。</v>
+        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
       </c>
       <c r="D26" t="str">
-        <v>实用建议, 心理学原理, 情感处理, 记忆机制, 遗忘过程</v>
+        <v>人机交互, 人类特质, 情感处理</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>人与人之间的关系是基于利益、情感还是其他因素？</v>
+        <v>初恋记忆为何自带“美颜滤镜”</v>
       </c>
       <c r="B27" t="str">
         <v>人际相处</v>
       </c>
       <c r="C27" t="str">
-        <v>本文探讨了人与人之间关系的复杂性，分析了利益、情感作为关系建立的重要因素，同时考虑了社会规范和文化背景等其他影响因素。人际关系既由现实的利益驱动，也受深刻的情感纽带影响，理解这些因素有助于我们更好地维护和发展与他人的关系。</v>
+        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
       </c>
       <c r="D27" t="str">
-        <v>人际关系, 利益关系, 情感纽带, 文化背景, 社会规范</v>
+        <v>初恋记忆, 情感因素, 认知因素, 记忆美化</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>凌晨3点，我和AI聊到崩溃：这些事，机器永远学不会！</v>
+        <v>友情中的距离之道：把握分寸，情谊长久</v>
       </c>
       <c r="B28" t="str">
         <v>人际相处</v>
       </c>
       <c r="C28" t="str">
-        <v>探讨人工智能在处理人类情感方面的局限性，指出尽管AI能提供安慰和解决方案，但它无法理解或复制人类特有的情感复杂性与不完美。文章通过具体例子说明了人类的情感、记忆和体验是无法被完全数字化或模仿的，强调保留“人味”的重要性，并提供了在未来保持人性化的建议。最终表明，正是这些不完美之处构成了人类真实的情感世界。</v>
+        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
       </c>
       <c r="D28" t="str">
-        <v>人机交互, 人类特质, 情感处理</v>
+        <v>友情管理, 友情维护</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>初恋记忆为何自带“美颜滤镜”</v>
+        <v>大家都说我嘴甜，他们是什么时候尝的？</v>
       </c>
       <c r="B29" t="str">
         <v>人际相处</v>
       </c>
       <c r="C29" t="str">
-        <v>分析初恋记忆自带“美颜滤镜”的原因，从情感因素、认知因素和社会文化因素三个方面深入探讨，揭示记忆的美化机制，帮助读者更好地理解初恋记忆的特点。</v>
+        <v>探讨“嘴甜”在社交中的重要性及其应用场景，从初次见面、日常相处到关键时刻，揭示嘴甜背后的情商奥秘，教你如何用真诚的语言温暖他人，提升人际关系。</v>
       </c>
       <c r="D29" t="str">
-        <v>初恋记忆, 情感因素, 认知因素, 记忆美化</v>
+        <v>人际关系, 嘴甜, 情商, 沟通技巧, 社交</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>友情中的距离之道：把握分寸，情谊长久</v>
+        <v>如何与喜欢咒骂表达情绪的人相处</v>
       </c>
       <c r="B30" t="str">
         <v>人际相处</v>
       </c>
       <c r="C30" t="str">
-        <v>阐述友情中保持适当距离的重要性，介绍判断适当距离的方法，针对不同阶段的友情给出距离把握策略，并提供在保持距离同时维护友情的有效途径，帮助读者更好地经营友情。</v>
+        <v>介绍与喜欢通过咒骂来表达情绪的人相处的实用方法，包括挖掘咒骂根源、保持理智、主动沟通、划清界限和给予鼓励等方面，帮助读者更好地应对这类人并维护良好人际关系。</v>
       </c>
       <c r="D30" t="str">
-        <v>友情管理, 友情维护</v>
+        <v>咒骂行为, 情绪表达, 相处技巧, 自我保护</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>大家都说我嘴甜，他们是什么时候尝的？</v>
+        <v>如何走出失恋的痛苦？</v>
       </c>
       <c r="B31" t="str">
         <v>人际相处</v>
       </c>
       <c r="C31" t="str">
-        <v>探讨“嘴甜”在社交中的重要性及其应用场景，从初次见面、日常相处到关键时刻，揭示嘴甜背后的情商奥秘，教你如何用真诚的语言温暖他人，提升人际关系。</v>
+        <v>学习如何有效走出失恋的痛苦，重建情感与生活的平衡。本文提供了一系列实用的方法，包括接受自己的情绪、避免急于开始新恋情、寻找支持系统、专注于自我成长、学会放手、寻找新的生活平衡以及给自己时间去治愈。通过这些策略，你能够逐渐恢复自信，找到内心的平静与幸福，迎接更加光明的未来。</v>
       </c>
       <c r="D31" t="str">
-        <v>人际关系, 嘴甜, 情商, 沟通技巧, 社交</v>
+        <v>情感修复, 情感恢复, 支持系统, 自我成长</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>如何与喜欢咒骂表达情绪的人相处</v>
+        <v>如果两个人最终一定会分离，那相遇的意义是什么 ？</v>
       </c>
       <c r="B32" t="str">
         <v>人际相处</v>
       </c>
       <c r="C32" t="str">
-        <v>介绍与喜欢通过咒骂来表达情绪的人相处的实用方法，包括挖掘咒骂根源、保持理智、主动沟通、划清界限和给予鼓励等方面，帮助读者更好地应对这类人并维护良好人际关系。</v>
+        <v>探索相遇的真谛，即使面临分离，也能找到爱与成长的意义。本文深入分析了为何每一段关系都是生命中的宝贵财富，强调珍惜过程、勇敢面对当下的重要性，帮助你在人际关系中找到内心的平静与情感智慧。</v>
       </c>
       <c r="D32" t="str">
-        <v>咒骂行为, 情绪表达, 相处技巧, 自我保护</v>
+        <v>心灵成长, 情感思考, 爱与离别, 相遇意义</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>如何走出失恋的痛苦？</v>
+        <v>家庭关系中的代际沟通技巧：搭建和谐亲情的坚固桥梁</v>
       </c>
       <c r="B33" t="str">
         <v>人际相处</v>
       </c>
       <c r="C33" t="str">
-        <v>学习如何有效走出失恋的痛苦，重建情感与生活的平衡。本文提供了一系列实用的方法，包括接受自己的情绪、避免急于开始新恋情、寻找支持系统、专注于自我成长、学会放手、寻找新的生活平衡以及给自己时间去治愈。通过这些策略，你能够逐渐恢复自信，找到内心的平静与幸福，迎接更加光明的未来。</v>
+        <v>阐述家庭关系里代际沟通的重要性，剖析代际差异的表现，介绍巧妙的沟通技巧并说明营造良好沟通氛围的方式，助力搭建和谐亲情的坚固桥梁。</v>
       </c>
       <c r="D33" t="str">
-        <v>情感修复, 情感恢复, 支持系统, 自我成长</v>
+        <v>代际差异, 代际沟通, 家庭沟通, 沟通技巧</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>如果两个人最终一定会分离，那相遇的意义是什么 ？</v>
+        <v>家庭关系对恋爱关系的隐形塑造</v>
       </c>
       <c r="B34" t="str">
         <v>人际相处</v>
       </c>
       <c r="C34" t="str">
-        <v>探索相遇的真谛，即使面临分离，也能找到爱与成长的意义。本文深入分析了为何每一段关系都是生命中的宝贵财富，强调珍惜过程、勇敢面对当下的重要性，帮助你在人际关系中找到内心的平静与情感智慧。</v>
+        <v>深入剖析家庭关系如何在多个方面隐形塑造恋爱关系，包括家庭氛围、相处模式、情感缺失以及价值观等方面，同时探讨如何驾驭家庭影响构建美好恋爱关系。</v>
       </c>
       <c r="D34" t="str">
-        <v>心灵成长, 情感思考, 爱与离别, 相遇意义</v>
+        <v>家庭影响, 恋爱关系, 情感缺失, 相处模式</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>家庭关系中的代际沟通技巧：搭建和谐亲情的坚固桥梁</v>
+        <v>幸福是一种主观感受还是客观存在？</v>
       </c>
       <c r="B35" t="str">
         <v>人际相处</v>
       </c>
       <c r="C35" t="str">
-        <v>阐述家庭关系里代际沟通的重要性，剖析代际差异的表现，介绍巧妙的沟通技巧并说明营造良好沟通氛围的方式，助力搭建和谐亲情的坚固桥梁。</v>
+        <v>幸福既是主观感受也是客观存在的体现，它由个人的内心体验和外部环境共同决定。本文探讨了幸福的双重维度，包括个体的性格、价值观等主观因素，以及经济状况、社会关系、自然环境等客观条件对幸福感的影响，强调了理解幸福复杂性对于提升个人幸福感的重要性。</v>
       </c>
       <c r="D35" t="str">
-        <v>代际差异, 代际沟通, 家庭沟通, 沟通技巧</v>
+        <v>幸福本质, 幸福研究</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>家庭关系对恋爱关系的隐形塑造</v>
+        <v>应对老妈超强控制欲的有效策略</v>
       </c>
       <c r="B36" t="str">
         <v>人际相处</v>
       </c>
       <c r="C36" t="str">
-        <v>深入剖析家庭关系如何在多个方面隐形塑造恋爱关系，包括家庭氛围、相处模式、情感缺失以及价值观等方面，同时探讨如何驾驭家庭影响构建美好恋爱关系。</v>
+        <v>阐述老妈控制欲强的表现、背后原因，并提供如坦诚沟通、明确边界、给予陪伴、寻求外援等实用的应对方法，帮助读者在维护自身自由权利的同时改善家庭关系。</v>
       </c>
       <c r="D36" t="str">
-        <v>家庭影响, 恋爱关系, 情感缺失, 相处模式</v>
+        <v>亲子沟通, 家庭关系, 应对策略, 老妈控制欲</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>幸福是一种主观感受还是客观存在？</v>
+        <v>异地三百公里的选择题：我用了十年才看懂的爱情真相</v>
       </c>
       <c r="B37" t="str">
         <v>人际相处</v>
       </c>
       <c r="C37" t="str">
-        <v>幸福既是主观感受也是客观存在的体现，它由个人的内心体验和外部环境共同决定。本文探讨了幸福的双重维度，包括个体的性格、价值观等主观因素，以及经济状况、社会关系、自然环境等客观条件对幸福感的影响，强调了理解幸福复杂性对于提升个人幸福感的重要性。</v>
+        <v>本文深入探讨了异地恋关系中的复杂情感与实际考量，通过分析“前任异地”的阴影、当代异地恋的新公式、长期友谊的潜在问题以及使用麦肯锡MECE法则进行决策模型构建等方面，揭示了异地恋背后的真相。文章提供了实用的建议和策略，如建立“战备值班”制度、“云生活”场景开发等，并强调了在做出是否继续异地恋决定时的重要性。适合那些处于异地恋或考虑进入异地恋关系的人士，帮助他们更好地理解并处理这种特殊关系中的挑战。爱情不是选择题而是证明题，关键在于是否值得让对方放弃一切来选择你。</v>
       </c>
       <c r="D37" t="str">
-        <v>幸福本质, 幸福研究</v>
+        <v>异地恋, 心理学, 情感分析, 生活成本</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>应对老妈超强控制欲的有效策略</v>
+        <v>异地恋中的信任问题处理方法</v>
       </c>
       <c r="B38" t="str">
         <v>人际相处</v>
       </c>
       <c r="C38" t="str">
-        <v>阐述老妈控制欲强的表现、背后原因，并提供如坦诚沟通、明确边界、给予陪伴、寻求外援等实用的应对方法，帮助读者在维护自身自由权利的同时改善家庭关系。</v>
+        <v>本文探讨了异地恋中的信任问题及其解决方法，包括建立有效沟通机制、增强彼此安全感、建立共同目标以及自我提升与独立等方面，帮助异地情侣更好地维护感情。</v>
       </c>
       <c r="D38" t="str">
-        <v>亲子沟通, 家庭关系, 应对策略, 老妈控制欲</v>
+        <v>共同目标, 安全感, 异地恋, 情感沟通, 情感维护</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>异地三百公里的选择题：我用了十年才看懂的爱情真相</v>
+        <v>当发现我没有道德后，对方放弃了道德绑架</v>
       </c>
       <c r="B39" t="str">
         <v>人际相处</v>
       </c>
       <c r="C39" t="str">
-        <v>本文深入探讨了异地恋关系中的复杂情感与实际考量，通过分析“前任异地”的阴影、当代异地恋的新公式、长期友谊的潜在问题以及使用麦肯锡MECE法则进行决策模型构建等方面，揭示了异地恋背后的真相。文章提供了实用的建议和策略，如建立“战备值班”制度、“云生活”场景开发等，并强调了在做出是否继续异地恋决定时的重要性。适合那些处于异地恋或考虑进入异地恋关系的人士，帮助他们更好地理解并处理这种特殊关系中的挑战。爱情不是选择题而是证明题，关键在于是否值得让对方放弃一切来选择你。</v>
+        <v>探讨人际交往中道德绑架现象，分析对方发现“我”没有道德后放弃道德绑架的原因，以及这一变化带来的修复关系、助力成长和推动社会进步等多方面影响。</v>
       </c>
       <c r="D39" t="str">
-        <v>异地恋, 心理学, 情感分析, 生活成本</v>
+        <v>个人成长, 人际交往, 关系修复, 道德标准, 道德绑架</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>异地恋中的信任问题处理方法</v>
+        <v>得饶人处且饶人：生活中的智慧与美德</v>
       </c>
       <c r="B40" t="str">
         <v>人际相处</v>
       </c>
       <c r="C40" t="str">
-        <v>本文探讨了异地恋中的信任问题及其解决方法，包括建立有效沟通机制、增强彼此安全感、建立共同目标以及自我提升与独立等方面，帮助异地情侣更好地维护感情。</v>
+        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
       </c>
       <c r="D40" t="str">
-        <v>共同目标, 安全感, 异地恋, 情感沟通, 情感维护</v>
+        <v>人际关系, 心理成长</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>当发现我没有道德后，对方放弃了道德绑架</v>
+        <v>恋爱中独立人格的保鲜之道</v>
       </c>
       <c r="B41" t="str">
         <v>人际相处</v>
       </c>
       <c r="C41" t="str">
-        <v>探讨人际交往中道德绑架现象，分析对方发现“我”没有道德后放弃道德绑架的原因，以及这一变化带来的修复关系、助力成长和推动社会进步等多方面影响。</v>
+        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
       </c>
       <c r="D41" t="str">
-        <v>个人成长, 人际交往, 关系修复, 道德标准, 道德绑架</v>
+        <v>恋爱关系, 恋爱心理, 独立人格, 社交圈子, 经济独立</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>得饶人处且饶人：生活中的智慧与美德</v>
+        <v>情侣之间婚前性行为的全面剖析</v>
       </c>
       <c r="B42" t="str">
         <v>人际相处</v>
       </c>
       <c r="C42" t="str">
-        <v>阐述“得饶人处且饶人”这一古老智慧在生活中的重要意义，包括其在人际关系、社会和谐以及个人修养方面的价值，并探讨如何做到宽容饶恕他人。</v>
+        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
       </c>
       <c r="D42" t="str">
-        <v>人际关系, 心理成长</v>
+        <v>性观念, 恋爱时长, 情侣关系, 情感关系, 情感表达</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>恋爱中独立人格的保鲜之道</v>
+        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
       </c>
       <c r="B43" t="str">
         <v>人际相处</v>
       </c>
       <c r="C43" t="str">
-        <v>探讨在恋爱中保持独立人格的重要性及具体方法，包括经济独立、维护社交圈子、坚守个人兴趣与梦想以及保持思想独立等方面，以实现健康、平等、持久的爱情关系。</v>
+        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
       </c>
       <c r="D43" t="str">
-        <v>恋爱关系, 恋爱心理, 独立人格, 社交圈子, 经济独立</v>
+        <v>情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>情侣之间婚前性行为的全面剖析</v>
+        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
       </c>
       <c r="B44" t="str">
         <v>人际相处</v>
       </c>
       <c r="C44" t="str">
-        <v>深入探讨情侣之间婚前性行为这一备受关注的话题，分析其在新时代的认知变化，阐述恋爱时长与亲密行为的关系，以及性生活并非情侣关系的唯一表达方式，为情侣们提供关于此问题的思考方向和决策依据。</v>
+        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
       </c>
       <c r="D44" t="str">
-        <v>性观念, 恋爱时长, 情侣关系, 情感关系, 情感表达</v>
+        <v>价值观冲突, 情感依赖, 情感关系, 边界感</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>情侣之间的沟通秘籍：构建深度情感连接</v>
+        <v>现代社会如何看待“有仇不报非君子”</v>
       </c>
       <c r="B45" t="str">
         <v>人际相处</v>
       </c>
       <c r="C45" t="str">
-        <v>介绍情侣之间有效沟通的秘籍，包括积极倾听、清晰表达、尊重对方等多方面技巧，帮助情侣构建深度情感连接，维系健康美满的关系。</v>
+        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
       </c>
       <c r="D45" t="str">
-        <v>情侣沟通, 情感连接, 沟通技巧, 爱情保鲜</v>
+        <v>复仇与宽容, 有仇不报非君子, 权益维护, 现代社会, 社会价值观</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>情感关系中的边界感设定：守护内心的宁静港湾</v>
+        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
       </c>
       <c r="B46" t="str">
         <v>人际相处</v>
       </c>
       <c r="C46" t="str">
-        <v>探讨在情感关系中设定边界感的重要性，分析常见的边界问题，并提供实用的设定边界感的方法，帮助读者在情感关系中保持独立自主，维护健康和谐的关系。</v>
+        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
       </c>
       <c r="D46" t="str">
-        <v>价值观冲突, 情感依赖, 情感关系, 边界感</v>
+        <v>处女情结, 恋爱关系, 情感冲突, 感情纠葛, 沟通理解</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>现代社会如何看待“有仇不报非君子”</v>
+        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
       </c>
       <c r="B47" t="str">
         <v>人际相处</v>
       </c>
       <c r="C47" t="str">
-        <v>探讨在现代社会背景下，对传统观念“有仇不报非君子”的重新审视，分析其传统意义、现代反思以及在现代生活中平衡仇恨与维护自身权益的方法。</v>
+        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
       </c>
       <c r="D47" t="str">
-        <v>复仇与宽容, 有仇不报非君子, 权益维护, 现代社会, 社会价值观</v>
+        <v>嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>男朋友得知我不是第一次后的反应：传统观念与现代爱情的碰撞</v>
+        <v>见一面是“少一面”还是“多一面”</v>
       </c>
       <c r="B48" t="str">
         <v>人际相处</v>
       </c>
       <c r="C48" t="str">
-        <v>探讨男朋友得知女朋友不是第一次后的各种反应，分析背后的传统观念因素、沟通缺失以及应对方式，阐述构建健康感情关系的秘诀，为处于类似情感纠葛中的情侣提供参考。</v>
+        <v>深入探讨人与人相遇时“见一面是‘少一面’还是‘多一面’”这一深刻话题，从哲学、情感、社会等多层面剖析相遇对人际关系及个人生命体验的影响。</v>
       </c>
       <c r="D48" t="str">
-        <v>处女情结, 恋爱关系, 情感冲突, 感情纠葛, 沟通理解</v>
+        <v>人际关系, 心灵交融, 相遇意义, 社会价值, 视野拓展</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>破解人际关系中的心理枷锁：实现和谐人际关系的关键</v>
+        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
       </c>
       <c r="B49" t="str">
         <v>人际相处</v>
       </c>
       <c r="C49" t="str">
-        <v>深入剖析社交恐惧、自卑心理、嫉妒心理和沟通障碍等常见人际关系中的心理枷锁，提供实用的应对策略，助力读者打破枷锁，建立和谐、美好的人际关系。</v>
+        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
       </c>
       <c r="D49" t="str">
-        <v>嫉妒心理, 沟通障碍, 社交恐惧, 自卑心理</v>
+        <v>恋爱相处, 文化冲突, 文化差异, 文化融合, 跨国恋情</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>见一面是“少一面”还是“多一面”</v>
+        <v>东施效颦：一场被曲解的“觉醒实验”</v>
       </c>
       <c r="B50" t="str">
-        <v>人际相处</v>
+        <v>传统文化</v>
       </c>
       <c r="C50" t="str">
-        <v>深入探讨人与人相遇时“见一面是‘少一面’还是‘多一面’”这一深刻话题，从哲学、情感、社会等多层面剖析相遇对人际关系及个人生命体验的影响。</v>
+        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
       </c>
       <c r="D50" t="str">
-        <v>人际关系, 心灵交融, 相遇意义, 社会价值, 视野拓展</v>
+        <v>传统寓言, 文化心理, 文化解读, 模仿与创新, 社会反思</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>跨国恋情中的文化碰撞与交融：谱写爱的新乐章</v>
+        <v>传统文化该如何传承创新？</v>
       </c>
       <c r="B51" t="str">
-        <v>人际相处</v>
+        <v>传统文化</v>
       </c>
       <c r="C51" t="str">
-        <v>探讨在全球化背景下跨国恋情中文化碰撞与交融的现象，分析其中的价值观、生活方式和沟通方式等方面的冲突，并分享成功案例，为处于或即将步入跨国恋情的人提供启发，助力他们谱写爱的新乐章。</v>
+        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
       </c>
       <c r="D51" t="str">
-        <v>恋爱相处, 文化冲突, 文化差异, 文化融合, 跨国恋情</v>
+        <v>守艺, 文化传承, 生活文化, 非遗保护</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>东施效颦：一场被曲解的“觉醒实验”</v>
+        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
       </c>
       <c r="B52" t="str">
         <v>传统文化</v>
       </c>
       <c r="C52" t="str">
-        <v>本文重新解读“东施效颦”这一古老寓言，揭示了其中蕴含的对主流审美的挑战和觉醒。东施并非简单的模仿者，而是试图打破审美霸权、探索多元美学的先锋。文章指出，真正的美源于本真而非刻意复刻，强调在模仿中寻找自我、重构美的定义的重要性。最终提醒我们，美不应被标准化，每个人都应勇敢书写自己独特的美。</v>
+        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
       </c>
       <c r="D52" t="str">
-        <v>传统寓言, 文化心理, 文化解读, 模仿与创新, 社会反思</v>
+        <v>动态思维, 哲学思考, 认知科学</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>传统文化该如何传承创新？</v>
+        <v>削足适履：被误解千年的生存智慧</v>
       </c>
       <c r="B53" t="str">
         <v>传统文化</v>
       </c>
       <c r="C53" t="str">
-        <v>本文探讨传统文化传承与创新的四种方法：守艺、破界、焕新及播种。通过坚持传统工艺、跨界融合科技与艺术、融入日常生活以及激发年轻一代的力量，让传统文化在当代社会中焕发新生，实现千年文脉的延续与发展。</v>
+        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
       </c>
       <c r="D53" t="str">
-        <v>守艺, 文化传承, 生活文化, 非遗保护</v>
+        <v>哲学思考, 文化重构, 生存策略, 规则适应</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>刻舟求剑：一个关于“时空错位”的认知寓言</v>
+        <v>南辕北辙：一场跨越千年的认知突围</v>
       </c>
       <c r="B54" t="str">
         <v>传统文化</v>
       </c>
       <c r="C54" t="str">
-        <v>本文以“刻舟求剑”这一古老寓言为蓝本，探讨了静态思维在信息时代的局限性，并提出了动态思维的重要性。文章通过量子物理的视角，揭示了在处理流动的信息和复杂系统时，依赖固定坐标或模式可能带来的问题。为了应对不断变化的世界，建议采用维度跃迁、弹性标记和涌现认知等策略，实现从静态到动态的认知转变。这不仅是对传统思维方式的挑战，也为现代社会中的个人和组织提供了重要的启示，即要在不确定性和变化中寻找新的方向和解决方案。</v>
+        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
       </c>
       <c r="D54" t="str">
-        <v>动态思维, 哲学思考, 认知科学</v>
+        <v>多维思维, 方向审计, 认知科学, 隐性成本</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>削足适履：被误解千年的生存智慧</v>
+        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
       </c>
       <c r="B55" t="str">
         <v>传统文化</v>
       </c>
       <c r="C55" t="str">
-        <v>本文重新审视“削足适履”的含义，探讨其在规则与自由间的深层生存哲学。从医学视角看，“削足”如同治疗手段，通过短期痛苦换取长期适应；文化隐喻中，“适履”揭示了规则应为需求服务的真相，鼓励用创新重构规则；反向思维中，“削足”象征打破认知茧房，触发进化。结语强调适应不是终点而是蜕变的开始，呼吁尊重那些敢于在规则边缘探索的人。</v>
+        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
       </c>
       <c r="D55" t="str">
-        <v>哲学思考, 文化重构, 生存策略, 规则适应</v>
+        <v>实践智慧, 心理困境, 现实认知, 理想主义, 精神困境</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>南辕北辙：一场跨越千年的认知突围</v>
+        <v>守株待兔：被误读千年的逆向生存智慧</v>
       </c>
       <c r="B56" t="str">
         <v>传统文化</v>
       </c>
       <c r="C56" t="str">
-        <v>本文深入探讨了“南辕北辙”这一古老成语在现代社会中的新含义，指出错误方向上的资源投入会带来隐性成本的累积，并强调了多维度思维和动态纠偏机制的重要性。通过分析职场、创业等领域的实例，文章揭示了单一维度方向判断的局限性，提倡利用反共识训练、元认知监控及弹性目标管理等策略来突破传统思维模式，实现个人与组织的认知升级与战略转向。最终，本文鼓励读者在面对不确定性时，应积极探索多元方向，将挑战转化为提升认知能力的机会。</v>
+        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
       </c>
       <c r="D56" t="str">
-        <v>多维思维, 方向审计, 认知科学, 隐性成本</v>
+        <v>机会构建, 概率思维, 现代寓言, 生存策略, 认知偏误</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>叶公好龙：被误读千年的理想主义者，如何照见现代人的精神困境</v>
+        <v>狐假虎威新解说：传统寓言的现代启示</v>
       </c>
       <c r="B57" t="str">
         <v>传统文化</v>
       </c>
       <c r="C57" t="str">
-        <v>本文重新解读了“叶公好龙”这一寓言，指出叶公实际上是对理想与现实界限有着清醒认知的现实主义者。文章探讨了现代社会中人们对符号价值的迷恋和由此产生的精神困境，如通过收藏而不使用来获得虚假的充实感。通过对历史人物叶公实际成就的分析，文章强调了理想主义与务实精神之间的平衡，并提出了区分符号价值与本质价值、建立渐进式实践路径以及培养面对挑战的勇气等破局之道。最终，本文提醒现代人在追求理想的道路上，应像叶公一样，既能怀抱高远志向，也能脚踏实地实现目标。</v>
+        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
       </c>
       <c r="D57" t="str">
-        <v>实践智慧, 心理困境, 现实认知, 理想主义, 精神困境</v>
+        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>守株待兔：被误读千年的逆向生存智慧</v>
+        <v>狡兔三窟新解说：深度剖析与现代应用</v>
       </c>
       <c r="B58" t="str">
         <v>传统文化</v>
       </c>
       <c r="C58" t="str">
-        <v>本文重新解读了守株待兔这一古老寓言，揭示了其中蕴含的逆向生存智慧。文章指出，农夫的错误不在于等待本身，而在于对概率法则的误判，将偶然事件视为必然规律。通过现代认知科学和行为经济学的视角，本文探讨了战略等待的重要性，并提出了通过系统设计将偶然转化为必然的机会构建方法。最终，文章强调，在不确定的时代，关键不是是否等待，而是如何构建能够吸引机会的“能量场”，从而实现从被动等待到主动创造的转变。这一古代智慧为现代社会提供了深刻的启示。</v>
+        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
       </c>
       <c r="D58" t="str">
-        <v>机会构建, 概率思维, 现代寓言, 生存策略, 认知偏误</v>
+        <v>投资策略, 狡兔三窟, 职业规划, 风险管理, 风险管理</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>狐假虎威新解说：传统寓言的现代启示</v>
+        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
       </c>
       <c r="B59" t="str">
         <v>传统文化</v>
       </c>
       <c r="C59" t="str">
-        <v>重新解读传统寓言“狐假虎威”，剖析其在现代职场、商业竞争等方面的新表现，探秘背后心理，并提供应对策略，挖掘古老寓言的现代启示。</v>
+        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
       </c>
       <c r="D59" t="str">
-        <v>商业竞争, 寓言新解, 狐假虎威, 社会心理, 职场现象</v>
+        <v>情绪GPS导航, 数字断舍离, 科技伦理, 自我成长, 认知科学</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>狡兔三窟新解说：深度剖析与现代应用</v>
+        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
       </c>
       <c r="B60" t="str">
         <v>传统文化</v>
       </c>
       <c r="C60" t="str">
-        <v>深度剖析古老成语“狡兔三窟”在现代社会的应用价值，涵盖风险管理、职业规划、投资策略等多方面，探索如何运用其智慧为现代生活开辟坦途。</v>
+        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
       </c>
       <c r="D60" t="str">
-        <v>投资策略, 狡兔三窟, 职业规划, 风险管理, 风险管理</v>
+        <v>反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>现代版“吾日三省吾身”：用古老智慧解锁自我成长的3个维度</v>
+        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
       </c>
       <c r="B61" t="str">
         <v>传统文化</v>
       </c>
       <c r="C61" t="str">
-        <v>探索现代版“吾日三省吾身”的实践方法，在2025年的今天，通过决策省察、情绪GPS导航和数字断舍离三大维度解锁自我成长。本文融合古老智慧与最新科技发展，提供实用的自省框架和工具包配置建议，帮助你在算法推荐与AI共生的时代中保持清醒认知，建立坚固的认知健康指数。从晨间三问到技术伦理检查表，掌握提升元认知能力、价值锚定力及意义建构力的方法，让每日反思成为你在数字洪流中的认知方舟。适合追求个人成长、关注科技伦理以及希望在智能时代中持续自我迭代的所有读者。</v>
+        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
       </c>
       <c r="D61" t="str">
-        <v>情绪GPS导航, 数字断舍离, 科技伦理, 自我成长, 认知科学</v>
+        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>现代社会中的“刻舟求剑”行为：识别与改善指南</v>
+        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
       </c>
       <c r="B62" t="str">
         <v>传统文化</v>
       </c>
       <c r="C62" t="str">
-        <v>现代社会中的“刻舟求剑”现象体现在职场经验依赖、企业管理路径锁定及个人决策的静态思维等方面。文章提供了建立动态认知框架、构建敏捷响应系统、培养反脆弱能力及建立反馈校准机制的四维解决方案，帮助识别并改善这种不合时宜的行为模式，以适应快速变化的时代需求。成功转型案例进一步证明了持续学习与灵活应对的重要性。</v>
+        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
       </c>
       <c r="D62" t="str">
-        <v>反脆弱能力, 经验依赖症, 路径锁定, 静态思维</v>
+        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>现代社会中的“掩耳盗铃”行为：现象、危害与破解之道</v>
+        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
       </c>
       <c r="B63" t="str">
         <v>传统文化</v>
       </c>
       <c r="C63" t="str">
-        <v>现代社会中的“掩耳盗铃”现象包括学术造假、职场敷衍、数据美化及个人生活的认知偏差等，这些行为不仅导致资源浪费和信任损害，还可能引发系统性风险。文章提出了认知重构、制度设计和行为干预三大策略来破解这种自欺行为，强调通过建立透明化体系、正向反馈机制以及教育体系的改进，从个体到系统层面逐步减少此类现象，推动社会向更加诚信和理性的方向发展。</v>
+        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
       </c>
       <c r="D63" t="str">
-        <v>制度设计, 学术造假, 数据美化, 职场敷衍, 认知科学</v>
+        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>缘木求鱼：逆向思维下的认知突围与生命韧性</v>
+        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
       </c>
       <c r="B64" t="str">
         <v>传统文化</v>
       </c>
       <c r="C64" t="str">
-        <v>本文通过“缘木求鱼”这一古老寓言，探讨了突破传统思维定式的重要性。文章指出，当现实条件与理想路径发生冲突时，所谓的“错误”方法可能带来意想不到的创新和突破。借助自然界和现代社会中的实例，如弹涂鱼离水爬树、特斯拉颠覆汽车业等，本文强调了打破路径依赖、转化资源错位及提升认知维度的价值。最终，本文鼓励读者在面对看似不可能的情况下，勇于挑战常规思维，寻找新的可能性，因为真正的限制往往在于我们对“正确”的狭隘理解，而进化的关键则在于不断突破这些预设框架。</v>
+        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
       </c>
       <c r="D64" t="str">
-        <v>生命韧性, 认知科学, 路径依赖, 进化突破, 逆向思维</v>
+        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>解构与重构：《三只小猪》叙事迷宫中的生存哲学</v>
+        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
       </c>
       <c r="B65" t="str">
         <v>传统文化</v>
       </c>
       <c r="C65" t="str">
-        <v>本文重新解读了《三只小猪》这一经典童话，揭示了其中蕴含的生存哲学和叙事创新。文章通过角色突破第四面墙、大灰狼的话语权申诉以及砖屋的安全感悖论，探讨了对既定规则的质疑和社会舆论的影响。进一步分析指出，真正的智慧在于保持动态应变的能力，而非依赖固化的安全模式。最终强调，每个人都可以成为自己人生故事的编辑者，在面对危机时重构叙事，实现自我救赎。这启示我们在现实生活中应勇于挑战和重新定义规则，构建更加灵活和富有弹性的生存策略。</v>
+        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
       </c>
       <c r="D65" t="str">
-        <v>叙事创新, 多元宇宙, 存在主义, 自我救赎, 话语权博弈</v>
+        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>负荆请罪：一场跨越千年的非暴力沟通范本</v>
+        <v>顺手牵羊新解：多视角下的行为探秘</v>
       </c>
       <c r="B66" t="str">
         <v>传统文化</v>
       </c>
       <c r="C66" t="str">
-        <v>本文分析了战国时期赵国“负荆请罪”的经典案例，展示了通过战略性示弱和仪式化道歉解决冲突的智慧。蔺相如的退让策略制造了道德势能、重构了权力平衡，并触发了群体反思。廉颇的道歉通过视觉符号设计、场景选择艺术及情绪峰值控制，成功实现了危机公关。这种冲突管理方法不仅在古代有效，在现代职场和国际外交中同样适用。结语强调，最高明的破局之道往往始于看似被动的退让。</v>
+        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
       </c>
       <c r="D66" t="str">
-        <v>冲突管理, 战略示弱, 生存策略, 组织凝聚力, 非暴力沟通</v>
+        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>金斧头银斧头：一场关于人性试炼的千年寓言</v>
+        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
       </c>
       <c r="B67" t="str">
-        <v>传统文化</v>
+        <v>体育运动</v>
       </c>
       <c r="C67" t="str">
-        <v>本文重新解读了“金斧头银斧头”这一经典寓言，揭示了其中关于人性试炼的深层含义。文章通过分析铁斧头作为劳动工具的本质和金、银斧头作为物质诱惑的象征，探讨了人们在面对物质利益时的心理隐喻与生存哲学。樵夫最终获得三把斧头的故事结局，提示我们超越工具理性才能实现真正的财富跟随。文章进一步将河流解释为集体无意识的象征，强调在现代社会中保持本心的重要性。最终提醒读者，在物欲横流的世界里，应坚守与工具之间的纯粹关系，找到生命的真实坐标。</v>
+        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
       </c>
       <c r="D67" t="str">
-        <v>人性试炼, 工具理性, 心理隐喻, 物质诱惑, 生存策略</v>
+        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>顺手牵羊新解：多视角下的行为探秘</v>
+        <v>探秘毒蛇相残：毒蛇用毒蛇毒毒毒蛇，会被毒死吗？</v>
       </c>
       <c r="B68" t="str">
-        <v>传统文化</v>
+        <v>动物探秘</v>
       </c>
       <c r="C68" t="str">
-        <v>深入剖析“顺手牵羊”行为在不同场景下的表现形式，从传统到现代，从个人到社会，探讨其背后的心理和社会因素，并提出相应的防范措施，以促进社会和谐与公正。</v>
+        <v>深入探究毒蛇之间用毒液攻击的场景，剖析毒液类型、毒性差异，解读同种与异种毒蛇互咬时不同的生死结局，以及影响毒液作用效果的多重因素，揭示毒蛇在自然选择下的生存策略。</v>
       </c>
       <c r="D68" t="str">
-        <v>商业竞争, 网络安全, 行为防范, 道德伦理, 顺手牵羊</v>
+        <v>同类相残, 毒液, 毒液免疫, 毒蛇, 生存策略</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>聊一下乒乓混双得主王楚钦和邓颖莎</v>
+        <v>斑马是黑底白纹还是白底黑纹？揭开斑马条纹的神秘面纱</v>
       </c>
       <c r="B69" t="str">
-        <v>体育运动</v>
+        <v>动物文化</v>
       </c>
       <c r="C69" t="str">
-        <v>文章通过乒乓球混双冠军王楚钦和孙颖莎的例子，探讨了运动员的成熟态度与真性情。孙颖莎在领奖台上的团队精神和谦逊态度展现了年轻运动员的领导风范，而王楚钦则通过直率的情感表达体现了真性情的一面。文中还提及了对于同一件事情不同人的看法，并强调了在生活中学习这些优秀运动员处事方式的重要性，以期让生活更加顺心和谐。这不仅是一次体育成就的分享，更是一次关于成长、态度和人性的生活哲理讨论。</v>
+        <v>深入探究斑马身上黑白条纹的颜色之谜，分析其究竟是黑底白纹还是白底黑纹，并详细介绍斑马条纹在伪装保护、驱虫防病、社交交流等方面的功能，同时讲述其在艺术文化领域的意义。</v>
       </c>
       <c r="D69" t="str">
-        <v>孙颖莎, 成熟态度, 王楚钦, 生活哲理, 真性情, 运动员精神</v>
+        <v>动物习性, 动物文化, 斑马, 条纹功能, 条纹颜色</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>马镫未发明时，骑兵如何作战？</v>
+        <v>眼镜发明前，眼镜蛇叫什么？</v>
       </c>
       <c r="B70" t="str">
-        <v>军事历史</v>
+        <v>动物文化</v>
       </c>
       <c r="C70" t="str">
-        <v>深入探究在马镫未被发明的时代，骑兵如何在战场上凭借骑射战术、冲锋战术、近身搏斗及战术配合等方式奋勇杀敌，揭开古代骑兵作战的神秘面纱。</v>
+        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
       </c>
       <c r="D70" t="str">
-        <v>冲锋战术, 近身搏斗, 马镫, 骑兵, 骑射战术</v>
+        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>探秘毒蛇相残：毒蛇用毒蛇毒毒毒蛇，会被毒死吗？</v>
+        <v>历史事件对当今社会和个人有哪些启示？</v>
       </c>
       <c r="B71" t="str">
-        <v>动物探秘</v>
+        <v>历史探究</v>
       </c>
       <c r="C71" t="str">
-        <v>深入探究毒蛇之间用毒液攻击的场景，剖析毒液类型、毒性差异，解读同种与异种毒蛇互咬时不同的生死结局，以及影响毒液作用效果的多重因素，揭示毒蛇在自然选择下的生存策略。</v>
+        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
       </c>
       <c r="D71" t="str">
-        <v>同类相残, 毒液, 毒液免疫, 毒蛇, 生存策略</v>
+        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>眼镜发明前，眼镜蛇叫什么？</v>
+        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
       </c>
       <c r="B72" t="str">
-        <v>动物文化</v>
+        <v>历史探究</v>
       </c>
       <c r="C72" t="str">
-        <v>探寻眼镜发明前眼镜蛇在不同文明中的独特命名及其背后蕴含的深厚文化，了解其在古埃及、印度、中国、日本以及古希腊和罗马等文化中的称谓与象征意义。</v>
+        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
       </c>
       <c r="D72" t="str">
-        <v>动物传说, 历史称谓, 古代文明, 文化象征, 眼镜蛇</v>
+        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>斑马是黑底白纹还是白底黑纹？揭开斑马条纹的神秘面纱</v>
+        <v>探秘：第一个喝牛奶的人对牛做了什么？</v>
       </c>
       <c r="B73" t="str">
-        <v>动物科普</v>
+        <v>历史探究</v>
       </c>
       <c r="C73" t="str">
-        <v>深入探究斑马身上黑白条纹的颜色之谜，分析其究竟是黑底白纹还是白底黑纹，并详细介绍斑马条纹在伪装保护、驱虫防病、社交交流等方面的功能，同时讲述其在艺术文化领域的意义。</v>
+        <v>深入探究人类历史上第一个喝牛奶的人对牛做了什么，全面解析牛奶的起源、早期利用、与牛的关系、社会文化意义以及现代产业发展，带你领略牛奶背后的深厚历史与文化内涵。</v>
       </c>
       <c r="D73" t="str">
-        <v>动物习性, 动物文化, 斑马, 条纹功能, 条纹颜色</v>
+        <v>牛奶产业, 牛奶利用, 牛奶文化, 牛奶起源, 牛的驯化</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>吃健胃消食片会撑死还是饿死？</v>
+        <v>谋士为何难成一把手？</v>
       </c>
       <c r="B74" t="str">
-        <v>医药健康</v>
+        <v>历史探究</v>
       </c>
       <c r="C74" t="str">
-        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
+        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
       </c>
       <c r="D74" t="str">
-        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
+        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>历史事件对当今社会和个人有哪些启示？</v>
+        <v>马镫未发明时，骑兵如何作战？</v>
       </c>
       <c r="B75" t="str">
         <v>历史探究</v>
       </c>
       <c r="C75" t="str">
-        <v>文章探讨了历史事件对当今社会和个人的启示，强调通过研究历史可以发现社会发展规律、避免重复错误，并为个人成长提供宝贵教训和精神力量，以史为鉴，照亮未来发展方向。</v>
+        <v>深入探究在马镫未被发明的时代，骑兵如何在战场上凭借骑射战术、冲锋战术、近身搏斗及战术配合等方式奋勇杀敌，揭开古代骑兵作战的神秘面纱。</v>
       </c>
       <c r="D75" t="str">
-        <v>个人成长, 历史事件, 未来导向, 社会影响, 经验教训</v>
+        <v>冲锋战术, 近身搏斗, 马镫, 骑兵, 骑射战术</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>我们能否从历史中吸取教训，避免重蹈覆辙？</v>
+        <v>中式八球台球礼仪须知</v>
       </c>
       <c r="B76" t="str">
-        <v>历史探究</v>
+        <v>台球天地</v>
       </c>
       <c r="C76" t="str">
-        <v>探讨人类能否从历史中吸取教训以避免重蹈覆辙，分析了人性弱点如记忆有限和傲慢自大导致的重复错误，并提出系统性学习、反思机制及历史教育等方法论来更好地应用历史经验。文中还列举了日本战后重建和中东冲突的历史案例，强调开放学习与理性面对现实的重要性，以期照亮未来道路。</v>
+        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
       </c>
       <c r="D76" t="str">
-        <v>人性弱点, 历史反思, 历史学习, 成功案例, 方法论</v>
+        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>谋士为何难成一把手？</v>
+        <v>中式八球台球规则详解</v>
       </c>
       <c r="B77" t="str">
-        <v>历史探究</v>
+        <v>台球天地</v>
       </c>
       <c r="C77" t="str">
-        <v>深入剖析谋士难以登上权力巅峰成为一把手的原因，涵盖角色定位局限、性格思维差异以及政治环境和人际关系复杂性等方面，探寻这一历史现象背后的奥秘。</v>
+        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
       </c>
       <c r="D77" t="str">
-        <v>一把手, 政治环境, 职场发展, 角色定位, 谋士</v>
+        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>探秘：第一个喝牛奶的人对牛做了什么？</v>
+        <v>中式八球台球运动简介</v>
       </c>
       <c r="B78" t="str">
-        <v>历史文化</v>
+        <v>台球天地</v>
       </c>
       <c r="C78" t="str">
-        <v>深入探究人类历史上第一个喝牛奶的人对牛做了什么，全面解析牛奶的起源、早期利用、与牛的关系、社会文化意义以及现代产业发展，带你领略牛奶背后的深厚历史与文化内涵。</v>
+        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
       </c>
       <c r="D78" t="str">
-        <v>牛奶产业, 牛奶利用, 牛奶文化, 牛奶起源, 牛的驯化</v>
+        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>中式八球台球礼仪须知</v>
+        <v>中式八球的发展史</v>
       </c>
       <c r="B79" t="str">
         <v>台球天地</v>
       </c>
       <c r="C79" t="str">
-        <v>中式八球台球礼仪包括比赛前的装备检查与热身、比赛期间的轮流击球、避免干扰对手、犯规时认错，以及特殊情况如球落袋和僵局的处理。比赛结束时应有适当的庆祝与安慰，并整理现场。观众应保持安静，尊重选手，共同维护良好的比赛环境。</v>
+        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
       </c>
       <c r="D79" t="str">
-        <v>中式八球, 台球文化, 比赛礼仪, 犯规处理, 观众礼仪, 轮流击球</v>
+        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>中式八球台球规则详解</v>
+        <v>令人绝望的“文盲”</v>
       </c>
       <c r="B80" t="str">
         <v>台球天地</v>
       </c>
       <c r="C80" t="str">
-        <v>中式八球是一项结合了特定规则与技巧的台球运动，本文详细介绍了其比赛器材标准、摆球规则、开球要求、击球顺序及获胜条件等关键要素。此外，还涵盖了犯规处理与处罚机制以及比赛方式等内容，为爱好者提供了全面了解和参与中式八球的基础知识。</v>
+        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
       </c>
       <c r="D80" t="str">
-        <v>中式八球, 击球顺序, 开球要求, 摆球规则, 比赛器材</v>
+        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>中式八球台球运动简介</v>
+        <v>关于我们</v>
       </c>
       <c r="B81" t="str">
         <v>台球天地</v>
       </c>
       <c r="C81" t="str">
-        <v>中式八球是一种结合了中国本土文化与国际台球规则的运动，以其独特的玩法和简便的规则在全球范围内获得广泛欢迎。本文介绍了中式八球的起源、设备与场地要求、基本规则、技巧与策略及其赛事组织情况，展示了这项运动的魅力与活力，适合各类台球爱好者了解和参与。</v>
+        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
       </c>
       <c r="D81" t="str">
-        <v>中式八球, 击球顺序, 台球文化, 基本规则, 技巧与策略</v>
+        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>中式八球的发展史</v>
+        <v>台球初学者指南</v>
       </c>
       <c r="B82" t="str">
         <v>台球天地</v>
       </c>
       <c r="C82" t="str">
-        <v>介绍了中式八球从20世纪初随着西方文化引入中国，到逐渐发展成具有中国特色的台球运动的过程。文章详细讲述了中式八球在规则上的本土化改造及其标准化，强调了中国台球协会在推动这项运动规范化和专业化方面的作用。此外，还提到了全国性和国际性赛事的兴起对提升中式八球社会影响力的重要性，并展望了其在未来通过数字化转型和产业生态建设实现更广泛认可的发展趋势。中式八球不仅在中国深受欢迎，而且正逐步走向世界，成为中国文化软实力的一部分。</v>
+        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
       </c>
       <c r="D82" t="str">
-        <v>中式八球, 全国性赛事, 台球文化, 国际赛事, 规则标准化</v>
+        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>令人绝望的“文盲”</v>
+        <v>台球店基本信息</v>
       </c>
       <c r="B83" t="str">
         <v>台球天地</v>
       </c>
       <c r="C83" t="str">
-        <v>记录了一次因“好评返时长”活动引发的顾客管理问题，描述了一个青少年试图通过修改在线评价来多次获取奖励时长的不诚信行为。当他的行为被识破后，该青少年转而给出恶意差评，导致店铺评分下降。文章反映了商业活动中遇到的挑战和对诚信缺失行为的无奈与失望，同时也强调了个人担当和诚信的重要性。最终，平台支持了商家的申诉，将恶意差评折叠不展示，但事件也让商家反思活动设计上的不足，并提醒其他经营者注意类似的风险。</v>
+        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
       </c>
       <c r="D83" t="str">
-        <v>商业管理, 消费心理, 评价系统, 顾客管理</v>
+        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>关于我们</v>
+        <v>台球种类专业介绍</v>
       </c>
       <c r="B84" t="str">
         <v>台球天地</v>
       </c>
       <c r="C84" t="str">
-        <v>介绍一个致力于台球运动的网站，它不仅为台球爱好者提供了丰富的学习资源和交流平台，还支持台球店的运营管理。网站内容包括从台球的历史、规则到技巧和策略的全方位覆盖，并通过清晰的分类列表和标签系统帮助用户快速找到所需信息。此外，还提供实用工具和游戏资源以增强用户体验，同时鼓励用户间的互动交流，分享经验和提问。网站还集成了微信公众号文章，确保用户能获取最新的台球资讯和深度分析。无论是新手还是老手，都能在这个平台上找到乐趣和知识。</v>
+        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
       </c>
       <c r="D84" t="str">
-        <v>台球历史, 台球技巧, 台球文化, 技术驱动体验</v>
+        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>台球初学者指南</v>
+        <v>台球设备介绍</v>
       </c>
       <c r="B85" t="str">
         <v>台球天地</v>
       </c>
       <c r="C85" t="str">
-        <v>本指南为台球初学者提供了全面的入门知识，包括基本技巧如握杆与站姿、瞄球与击球的方法，以及不同杆法的介绍。此外，还介绍了几种战术运用方式，如直接击球、翻袋和解球等，并给出了练习和比赛时应注意的事项。通过阅读本文，初学者可以学习到如何稳定地控制球杆，掌握不同的击球技巧，理解台球的基本战术，从而更快地上手这项优雅而策略性的运动。适合希望快速入门并享受台球乐趣的新手玩家。耐心练习和对规则的理解是成功的关键。</v>
+        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
       </c>
       <c r="D85" t="str">
-        <v>台球技巧, 台球教学, 战术运用, 握杆与站姿, 杆法介绍, 注意事项, 瞄球与击球</v>
+        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>台球店基本信息</v>
+        <v>台球设备评测报告</v>
       </c>
       <c r="B86" t="str">
         <v>台球天地</v>
       </c>
       <c r="C86" t="str">
-        <v>小铁24h无人自助台球（南山店）提供全天候服务，涵盖龙井与方大城两店。了解其营业时间、收费标准、会员制度及权益、设备提供、教练服务预订方式等详细信息，享受便捷的台球娱乐体验。支持多种支付方式，店内设施齐全，为您的健康与舒适考虑，合理安排娱乐时间，注意言行举止。</v>
+        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
       </c>
       <c r="D86" t="str">
-        <v>台球服务, 台球馆信息, 收费标准, 教练服务</v>
+        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>台球种类专业介绍</v>
+        <v>台球运动：助力青少年全面发展的独特运动</v>
       </c>
       <c r="B87" t="str">
         <v>台球天地</v>
       </c>
       <c r="C87" t="str">
-        <v>本文详细介绍了多种台球类型，包括斯诺克、八球、九球、十球、开伦及英式台球等，涵盖了它们的起源、设备、规则及其独特的游戏技巧。无论是寻求竞技挑战还是休闲娱乐，每种台球都有其特色，适合不同需求的玩家。</v>
+        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
       </c>
       <c r="D87" t="str">
-        <v>台球分类, 台球种类, 斯诺克, 英式台球</v>
+        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>台球设备介绍</v>
+        <v>台球运动的物理学原理</v>
       </c>
       <c r="B88" t="str">
         <v>台球天地</v>
       </c>
       <c r="C88" t="str">
-        <v>中式八球台球设备包括知名品牌的球杆如杨帆、乔氏和星牌，以及高质量的球桌品牌如乔氏、星牌和威利。了解球杆类型、材质与护理方法，球桌规格、构造及维护建议，还有球的数量分类与保养技巧，选择合适并妥善维护设备对提升台球技巧和享受游戏至关重要。</v>
+        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
       </c>
       <c r="D88" t="str">
-        <v>台球设备, 球杆品牌, 球桌规格, 设备维护</v>
+        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>台球设备评测报告</v>
+        <v>台球高级技巧分享</v>
       </c>
       <c r="B89" t="str">
         <v>台球天地</v>
       </c>
       <c r="C89" t="str">
-        <v>本评测报告详细分析了市面上主流的台球设备，包括不同品牌的球杆、球桌及球类的性能特点。从专业选手到业余爱好者，读者可以根据自身需求对比杨帆、乔氏、星牌等品牌的产品，了解其在手感、精度、稳定性等方面的表现，从而做出更明智的购买决策。无论是追求高性能还是性价比，本报告都提供了有价值的参考信息。</v>
+        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
       </c>
       <c r="D89" t="str">
-        <v>台球设备评测, 球杆品牌对比, 球桌性能分析, 球类材料评估</v>
+        <v>台球高级技巧, 战术应用, 技巧实践</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>台球运动：助力青少年全面发展的独特运动</v>
+        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
       </c>
       <c r="B90" t="str">
         <v>台球天地</v>
       </c>
       <c r="C90" t="str">
-        <v>阐述台球运动对青少年身体素质、心理素质、社交能力以及品德修养等多方面的积极影响，强调其助力青少年全面发展的重要意义。</v>
+        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
       </c>
       <c r="D90" t="str">
-        <v>品德修养, 社交能力, 身心健康, 青少年体育</v>
+        <v>商业模拟, 自助台球店</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>台球运动的物理学原理</v>
+        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
       </c>
       <c r="B91" t="str">
-        <v>台球天地</v>
+        <v>台球经营</v>
       </c>
       <c r="C91" t="str">
-        <v>探索台球运动背后的物理学原理，从击球力学、能量转换到碰撞理论和空气动力学。深入理解高杆、低杆、侧旋等技巧的科学基础，提升你的游戏策略和技能。无论是职业选手还是业余爱好者，掌握这些知识都将为您的台球之旅增添无限乐趣与精准度。欢迎了解台球运动中蕴含的科学奥秘，让每一次击球都成为经典。</v>
+        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
       </c>
       <c r="D91" t="str">
-        <v>台球物理学, 碰撞理论, 空气动力学, 能量转换, 运动物理, 运动科学</v>
+        <v>台球政策, 商业策略, 算力服务费</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>台球高级技巧分享</v>
+        <v>为什么台球店没有请陪打女主教</v>
       </c>
       <c r="B92" t="str">
-        <v>台球天地</v>
+        <v>台球经营</v>
       </c>
       <c r="C92" t="str">
-        <v>文章详细介绍了中式八球的高级技巧，包括精确瞄准、力度控制、高杆、低杆、侧旋等基础与进阶技巧，以及攻防结合、心理战术等实战策略，旨在帮助玩家提升技术水平和比赛表现。</v>
+        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
       </c>
       <c r="D92" t="str">
-        <v>台球高级技巧, 战术应用, 技巧实践</v>
+        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>开店梦想成真？自助台球店的模拟经营的设计思考</v>
+        <v>开台球店的一些注意事项</v>
       </c>
       <c r="B93" t="str">
-        <v>台球天地</v>
+        <v>台球经营</v>
       </c>
       <c r="C93" t="str">
-        <v>探讨了开发一款模拟经营自助台球店游戏的设计思路，包括选址、决策、定价、满台率、卫生管理及随机事件等模块。文章强调了通过这种模拟游戏可以帮助潜在的创业者更好地理解台球店经营的实际挑战和不确定性，但同时也指出即使是最真实的模拟也无法完全预测现实中的经营情况。作者呼吁由更专业的团队来开发此类游戏，并鼓励创业者亲自体验开店的过程，以获得最直接的感受和经验。</v>
+        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
       </c>
       <c r="D93" t="str">
-        <v>商业模拟, 自助台球店</v>
+        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>【逆潮流而动】无人自助台球品牌某铁今年3月1日起开始抽点“算力服务费</v>
+        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
       </c>
       <c r="B94" t="str">
         <v>台球经营</v>
       </c>
       <c r="C94" t="str">
-        <v>无人自助台球品牌某铁宣布自2025年3月1日起向加盟商征收“算力服务费”，这一政策在行业内引起震动。该费用将直接影响加盟商的盈利预期，延长回本周期，并可能引发设备使用率下降及顾客消费意愿降低等问题。此外，此收费模式还可能导致合同纠纷及集体维权行动，对品牌形象和市场份额造成负面影响。面对技术进步与收费悖论，某铁需重新评估政策合理性，以维护行业健康发展。</v>
+        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
       </c>
       <c r="D94" t="str">
-        <v>台球政策, 商业策略, 算力服务费</v>
+        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>为什么台球店没有请陪打女主教</v>
+        <v>台球运动在不同文化背景下的特色玩法</v>
       </c>
       <c r="B95" t="str">
-        <v>台球经营</v>
+        <v>台球运动</v>
       </c>
       <c r="C95" t="str">
-        <v>小龙女在《神雕侠侣》中没有选择杀死对她实施侵犯的尹志平（后修订为甄志丙），这一决定可以从她的性格、成长背景、情节发展的需要、武侠伦理以及作者的创作意图等多个角度来理解。小龙女的反应体现了她清冷克制的性格和超脱世俗的价值观，同时也推动了杨过角色的成长及故事悲剧色彩的加深。金庸通过这一情节探讨了人性的复杂性和命运的无常，强调了宽恕与自我救赎的主题。</v>
+        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
       </c>
       <c r="D95" t="str">
-        <v>台球文化, 安全保障, 成本控制, 用户体验</v>
+        <v>文化交流, 文化差异</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>开台球店的一些注意事项</v>
+        <v>国内外重要台球赛事</v>
       </c>
       <c r="B96" t="str">
-        <v>台球经营</v>
+        <v>台球运动</v>
       </c>
       <c r="C96" t="str">
-        <v>本文为有意开设台球店的创业者提供了几项关键注意事项，包括选址策略、客源分析、满台率的理解、回本周期的考量以及单价信息的处理。强调了选择靠近学校等有固定人群的地方作为店铺位置的重要性，同时指出了旺季与淡季的影响。文中还提醒投资者注意市场竞争状况，并建议在已有品牌附近开店以利用溢出流量。对于满台率和回本周期，作者强调不应过分依赖平均值或加盟商提供的数据，而应进行独立的风险评估和市场调研。此外，不同地区的消费水平差异大，需根据具体情况做出投资决策。适合计划进入台球娱乐行业的创业者阅读。</v>
+        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
       </c>
       <c r="D96" t="str">
-        <v>单价信息, 回本周期, 客源分析, 满台率, 选址策略</v>
+        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>遭遇“好评”陷阱：开自助台球店遇到的那些奇葩事</v>
+        <v>提升台球技能小贴士</v>
       </c>
       <c r="B97" t="str">
-        <v>台球经营</v>
+        <v>台球运动</v>
       </c>
       <c r="C97" t="str">
-        <v>本文讲述了作者在经营自助台球店时遇到的由“好评送优惠券”活动引发的一系列奇葩事件，包括顾客试图通过修改好评多次获取优惠券，甚至在被发现后将好评改为差评。文章反思了此类行为背后的心理，并提出了通过在评论中加入标志码来减少恶意操作的解决方案。强调商家和平台需要共同努力，提升操作体验，以促进健康、公正的商业环境。</v>
+        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
       </c>
       <c r="D97" t="str">
-        <v>商业管理, 商家经验, 好评陷阱, 平台管理, 顾客行为</v>
+        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>台球运动在不同文化背景下的特色玩法</v>
+        <v>科技如何重塑台球运动体验</v>
       </c>
       <c r="B98" t="str">
         <v>台球运动</v>
       </c>
       <c r="C98" t="str">
-        <v>本文深入探讨了台球运动在不同文化背景下的特色玩法，包括欧美文化中的美式台球和英式台球、亚洲文化中的中式台球和斯诺克台球，以及非洲文化中的独特台球玩法，分析了它们各自的规则与特色，并阐述了不同文化背景下台球玩法的交流与融合，展现了台球运动的多元魅力。</v>
+        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
       </c>
       <c r="D98" t="str">
-        <v>文化交流, 文化差异</v>
+        <v>台球, 智能设备, 科技应用, 运动科技</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>国内外重要台球赛事</v>
+        <v>独立开发者探寻机会的多元路径解析</v>
       </c>
       <c r="B99" t="str">
-        <v>台球运动</v>
+        <v>商业洞察</v>
       </c>
       <c r="C99" t="str">
-        <v>全面解析国内外重要台球赛事，包括中式八球锦标赛、全国台球团体锦标赛、世界台球锦标赛、美国9球公开赛等，探讨这些赛事对台球运动发展、文化交流和相关产业带动的意义。</v>
+        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
       </c>
       <c r="D99" t="str">
-        <v>世界台球锦标赛, 中式八球, 台球文化, 台球赛事, 美国9球公开赛</v>
+        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>提升台球技能小贴士</v>
+        <v>自助台球门店客流量差异分析</v>
       </c>
       <c r="B100" t="str">
-        <v>台球运动</v>
+        <v>商业洞察</v>
       </c>
       <c r="C100" t="str">
-        <v>提升台球技能涉及从基础训练如稳定的站姿和准确的瞄准，到进阶技巧如高杆低杆的应用，再到心理素质的培养及实战经验的积累。本文提供了全面的小贴士，包括技术细节、心理调节方法以及如何通过观察对手和调整策略来增强比赛表现，旨在帮助台球爱好者在持续练习中找到乐趣并不断提升自我水平。无论是新手还是有经验的选手，都能从中获得实用的指导和启发。</v>
+        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
       </c>
       <c r="D100" t="str">
-        <v>台球技能提升, 基础训练, 实战经验, 心理素质, 进阶技巧</v>
+        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>科技如何重塑台球运动体验</v>
+        <v>为啥我爸妈结婚时没喊我参加婚礼？</v>
       </c>
       <c r="B101" t="str">
-        <v>台球运动</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C101" t="str">
-        <v>阐述科技在台球运动中的创新应用，包括智能台球设备、VR与AR技术、数据分析与训练软件等，探讨科技对台球运动体验的全方位提升。</v>
+        <v>探讨为何很多人会遗憾错过父母婚礼这一话题，从父母婚礼的时代背景、个人选择出发，分析人们对此的情感反应，并给出弥补遗憾的方法，带你感受家庭情感中的理解与温暖。</v>
       </c>
       <c r="D101" t="str">
-        <v>台球, 智能设备, 科技应用, 运动科技</v>
+        <v>个人选择, 弥补遗憾, 情感反应, 时代背景, 父母婚礼</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>独立开发者探寻机会的多元路径解析</v>
+        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
       </c>
       <c r="B102" t="str">
-        <v>商业洞察</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C102" t="str">
-        <v>深入剖析独立开发者在数字化时代探寻机会的创新方法与实用策略，涵盖捕捉市场需求、挖掘自身优势、探索新兴技术以及编织合作网络等方面，助力独立开发者找准方向，实现商业成就。</v>
+        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
       </c>
       <c r="D102" t="str">
-        <v>市场需求, 新兴技术, 机会探寻, 独立开发者, 自身优势</v>
+        <v>婚姻与财富, 家庭关系, 家庭和谐, 财富积累</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>自助台球门店客流量差异分析</v>
+        <v>夫妻之间，无性婚姻能坚持多久？</v>
       </c>
       <c r="B103" t="str">
-        <v>商业洞察</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C103" t="str">
-        <v>探索深圳两家24小时自助台球馆——龙井店与方大城店之间客流量差异的原因。通过分析地理位置、电梯设施、球房布局等多个维度，揭示了影响顾客选择的关键因素，并提出了针对龙井店提升服务质量和顾客体验的优化建议。欢迎各界人士分享宝贵意见和创新引流方案，共同促进门店的发展与繁荣。</v>
+        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
       </c>
       <c r="D103" t="str">
-        <v>台球运营, 地理位置, 客流量分析, 球房布局, 电梯设施</v>
+        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>揭秘陨石为何总是落在陨石坑里</v>
+        <v>夫妻关系：人际关系中最重要的基石</v>
       </c>
       <c r="B104" t="str">
-        <v>天文现象</v>
+        <v>婚姻情感</v>
       </c>
       <c r="C104" t="str">
-        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
+        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
       </c>
       <c r="D104" t="str">
-        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
+        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>亏妻者百财不入：家庭与财富的微妙平衡</v>
+        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
       </c>
       <c r="B105" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C105" t="str">
-        <v>阐述家庭中妻子的重要角色及亏妻对家庭财富的影响，探讨如何避免亏妻以实现家庭与财富的共赢，强调家庭与财富的紧密联系和相互影响。</v>
+        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
       </c>
       <c r="D105" t="str">
-        <v>婚姻与财富, 家庭关系, 家庭和谐, 财富积累</v>
+        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>夫妻之间，无性婚姻能坚持多久？</v>
+        <v>女人应该在什么时候把自己嫁出去？</v>
       </c>
       <c r="B106" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C106" t="str">
-        <v>探讨夫妻间无性婚姻能坚持多久，分析其现状、成因、对夫妻关系的影响，阐述个体差异和外部因素在其中的作用，并提供应对无性婚姻的方法。</v>
+        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
       </c>
       <c r="D106" t="str">
-        <v>夫妻关系, 婚姻持续时间, 应对方法, 情感沟通, 无性婚姻</v>
+        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>女人因孩子原谅出轨老公：对错的复杂权衡</v>
+        <v>如何成为一个好丈夫：关键要素与实践指南</v>
       </c>
       <c r="B107" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C107" t="str">
-        <v>探讨女人在老公出轨后因孩子因素选择原谅这一现象，分析其中涉及的沉重代价、可能收获、隐藏风险，以及如何做出正确抉择，权衡这一行为对错的复杂性。</v>
+        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
       </c>
       <c r="D107" t="str">
-        <v>原谅的影响, 女人抉择, 婚姻修复, 婚姻出轨, 孩子与家庭</v>
+        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>女人应该在什么时候把自己嫁出去？</v>
+        <v>如何成为令人称羡的好妻子</v>
       </c>
       <c r="B108" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C108" t="str">
-        <v>探讨女性何时步入婚姻殿堂的最佳时机，综合考虑爱情、个人成长、社会压力及个人发展等因素，帮助女性做出适合自己的婚姻选择。</v>
+        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
       </c>
       <c r="D108" t="str">
-        <v>个人成长, 女性婚姻, 爱情与婚姻, 社会压力, 结婚时机</v>
+        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>如何成为一个好丈夫：关键要素与实践指南</v>
+        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
       </c>
       <c r="B109" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C109" t="str">
-        <v>本文探讨了成为一个好丈夫所需的关键要素，包括情感支持、家庭责任、沟通交流和个人成长等方面，旨在帮助男性更好地履行丈夫角色，创造幸福美满的婚姻生活。</v>
+        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
       </c>
       <c r="D109" t="str">
-        <v>个人成长, 好丈夫, 家庭责任, 情感支持, 沟通交流</v>
+        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>如何成为令人称羡的好妻子</v>
+        <v>婚外情能维持到老死吗？</v>
       </c>
       <c r="B110" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C110" t="str">
-        <v>本文从情感支持、家庭管理、个人成长和人际关系等多个角度探讨如何成为令人称羡的好妻子，为女性在婚姻生活中的角色提供了实用的指导和深刻的见解。</v>
+        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
       </c>
       <c r="D110" t="str">
-        <v>个人成长, 人际关系, 好妻子, 家庭管理, 情感支持</v>
+        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>婚前同居：是时尚选择还是价值“掉价”？</v>
+        <v>老公对我不错但性生活缺失是否该离婚</v>
       </c>
       <c r="B111" t="str">
         <v>婚姻情感</v>
       </c>
       <c r="C111" t="str">
-        <v>探讨婚前同居在现代社会中的现象，分析其背后的个人价值观、传统与现代观念的碰撞、利弊交织的现实考量等方面，以理性和包容的态度看待这一现象，为面临相关选择的人提供参考。</v>
+        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
       </c>
       <c r="D111" t="str">
-        <v>个人价值观, 利弊分析, 婚前同居, 情感关系, 社会观念</v>
+        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>婚外情能维持到老死吗？</v>
+        <v>冰箱与冰柜名称背后的有趣谜题</v>
       </c>
       <c r="B112" t="str">
-        <v>婚姻情感</v>
+        <v>家电知识</v>
       </c>
       <c r="C112" t="str">
-        <v>探讨婚外情是否能维持到老死这一沉重话题，从婚外情的开端、维系的困难、维持到老死的现实可能性以及回归家庭的建议等方面进行分析，揭示婚外情面临的诸多挑战和回归家庭的重要性。</v>
+        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
       </c>
       <c r="D112" t="str">
-        <v>婚外情, 婚姻关系, 情感维系, 道德伦理</v>
+        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>老公对我不错但性生活缺失是否该离婚</v>
+        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
       </c>
       <c r="B113" t="str">
-        <v>婚姻情感</v>
+        <v>差旅办公</v>
       </c>
       <c r="C113" t="str">
-        <v>探讨老公对女方不错但存在性生活缺失的情况下是否应该离婚，分析性生活缺失的原因，提出解决问题的方法，并权衡离婚的利弊，帮助读者做出适合自己的决定。</v>
+        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
       </c>
       <c r="D113" t="str">
-        <v>夫妻沟通, 婚姻关系, 性生活缺失, 感情处理, 离婚决策</v>
+        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>建一栋10亿层高的大楼可能吗？</v>
       </c>
       <c r="B114" t="str">
-        <v>宇宙探索</v>
+        <v>建筑探索</v>
       </c>
       <c r="C114" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>探讨建造一栋10亿层高的大楼的可能性，从建筑高度现状、技术挑战、经济与社会因素、环境影响等多方面进行分析，并展望未来实现这一设想的可能性。</v>
       </c>
       <c r="D114" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>建筑高度, 技术挑战, 未来展望, 环境影响, 经济社会因素</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>为啥我爸妈结婚时没喊我参加婚礼？</v>
+        <v>这个男人来自地球观后感</v>
       </c>
       <c r="B115" t="str">
-        <v>家庭情感</v>
+        <v>影视评论</v>
       </c>
       <c r="C115" t="str">
-        <v>探讨为何很多人会遗憾错过父母婚礼这一话题，从父母婚礼的时代背景、个人选择出发，分析人们对此的情感反应，并给出弥补遗憾的方法，带你感受家庭情感中的理解与温暖。</v>
+        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
       </c>
       <c r="D115" t="str">
-        <v>个人选择, 弥补遗憾, 情感反应, 时代背景, 父母婚礼</v>
+        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>冰箱与冰柜名称背后的有趣谜题</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B116" t="str">
-        <v>家电知识</v>
+        <v>心理调适</v>
       </c>
       <c r="C116" t="str">
-        <v>深入探究冰箱与冰柜名称背后的奥秘，剖析历史渊源、功能差异、文化因素、设计与外观以及行业规范与市场认知等多方面原因，揭示这一独特命名方式的成因，带你感受语言和文化的魅力。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D116" t="str">
-        <v>冰柜, 冰箱, 功能差异, 名称由来, 文化因素</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>人到中年但工作经常要出差，适合差旅办公的物品推荐</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B117" t="str">
-        <v>差旅办公</v>
+        <v>心理调适</v>
       </c>
       <c r="C117" t="str">
-        <v>为中年到中年经常出差的朋友推荐适合差旅办公的各类物品，涵盖办公设备、用品、生活便利、健康护理和休闲娱乐等方面，助您出差更轻松高效。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D117" t="str">
-        <v>中年出差, 休闲娱乐, 健康护理, 办公设备, 生活便利</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>建一栋10亿层高的大楼可能吗？</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B118" t="str">
-        <v>建筑探索</v>
+        <v>心理调适</v>
       </c>
       <c r="C118" t="str">
-        <v>探讨建造一栋10亿层高的大楼的可能性，从建筑高度现状、技术挑战、经济与社会因素、环境影响等多方面进行分析，并展望未来实现这一设想的可能性。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D118" t="str">
-        <v>建筑高度, 技术挑战, 未来展望, 环境影响, 经济社会因素</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>这个男人来自地球观后感</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B119" t="str">
-        <v>影视评论</v>
+        <v>心理调适</v>
       </c>
       <c r="C119" t="str">
-        <v>本文是我最近看的一部低成本电影《这个男人来自地球》的观后感。这部电影讲述了一个来自地球的男人，他的故事充满了人性思考，也让我对科技发展的未来充满了期待。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D119" t="str">
-        <v>人性思考, 低成本电影, 影视解析, 生活意义, 科技与人文价值</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D120" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D121" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D122" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D123" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D124" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D125" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D126" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D127" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D128" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D129" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D130" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D131" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D132" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D133" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D134" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D135" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B136" t="str">
         <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D136" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B137" t="str">
         <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D137" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B138" t="str">
         <v>心理调适</v>
       </c>
       <c r="C138" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D138" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B139" t="str">
         <v>心理调适</v>
       </c>
       <c r="C139" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D139" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B140" t="str">
         <v>心理调适</v>
       </c>
       <c r="C140" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D140" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B141" t="str">
         <v>心理调适</v>
       </c>
       <c r="C141" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D141" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B142" t="str">
         <v>心理调适</v>
       </c>
       <c r="C142" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D142" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B143" t="str">
         <v>心理调适</v>
       </c>
       <c r="C143" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D143" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B144" t="str">
         <v>心理调适</v>
       </c>
       <c r="C144" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D144" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>自杀：世界多了一个自杀的人还是少了一个自杀的人？</v>
       </c>
       <c r="B145" t="str">
         <v>心理调适</v>
       </c>
       <c r="C145" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>深入探讨自杀这一沉重话题，从不同角度分析自杀对世界的影响，包括社会现象、生命终结和哲学思考等方面，并阐述自杀预防与应对措施，旨在提高对自杀问题的重视，守护生命。</v>
       </c>
       <c r="D145" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>心理健康, 生命意义, 社会影响, 自杀, 自杀预防</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B146" t="str">
         <v>心理调适</v>
       </c>
       <c r="C146" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D146" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B147" t="str">
-        <v>心理调适</v>
+        <v>性别健康</v>
       </c>
       <c r="C147" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D147" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B148" t="str">
-        <v>心理调适</v>
+        <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D148" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>自杀：世界多了一个自杀的人还是少了一个自杀的人？</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B149" t="str">
-        <v>心理调适</v>
+        <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>深入探讨自杀这一沉重话题，从不同角度分析自杀对世界的影响，包括社会现象、生命终结和哲学思考等方面，并阐述自杀预防与应对措施，旨在提高对自杀问题的重视，守护生命。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D149" t="str">
-        <v>心理健康, 生命意义, 社会影响, 自杀, 自杀预防</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B150" t="str">
-        <v>心理调适</v>
+        <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D150" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D151" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B152" t="str">
         <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D152" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>如果不孕不育是遗传的，如何传递基因？</v>
       </c>
       <c r="B153" t="str">
         <v>性别健康</v>
       </c>
       <c r="C153" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
       </c>
       <c r="D153" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B154" t="str">
         <v>性别健康</v>
       </c>
       <c r="C154" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D154" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B155" t="str">
         <v>性别健康</v>
       </c>
       <c r="C155" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D155" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B156" t="str">
         <v>性别健康</v>
       </c>
       <c r="C156" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D156" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B157" t="str">
         <v>性别健康</v>
       </c>
       <c r="C157" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D157" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B158" t="str">
         <v>性别健康</v>
       </c>
       <c r="C158" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D158" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B159" t="str">
         <v>性别健康</v>
       </c>
       <c r="C159" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D159" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B160" t="str">
         <v>性别健康</v>
       </c>
       <c r="C160" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D160" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B161" t="str">
         <v>性别健康</v>
       </c>
       <c r="C161" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D161" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B162" t="str">
-        <v>性别健康</v>
+        <v>情感关系</v>
       </c>
       <c r="C162" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D162" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B163" t="str">
-        <v>性别健康</v>
+        <v>情感关系</v>
       </c>
       <c r="C163" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D163" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B164" t="str">
-        <v>性别健康</v>
+        <v>情感关系</v>
       </c>
       <c r="C164" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D164" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
       </c>
       <c r="B165" t="str">
-        <v>情感关系</v>
+        <v>情感故事</v>
       </c>
       <c r="C165" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
       </c>
       <c r="D165" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>夫妻关系：人际关系中最重要的基石</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B166" t="str">
-        <v>情感关系</v>
+        <v>教育学习</v>
       </c>
       <c r="C166" t="str">
-        <v>探讨夫妻关系在人际关系中的重要性，分析其作为情感港湾、家庭稳定器、个人成长助力及对社会和谐的意义，强调珍惜和维护夫妻关系的必要性。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D166" t="str">
-        <v>个人成长, 夫妻关系, 家庭关系, 情感支持, 社会和谐</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B167" t="str">
-        <v>情感关系</v>
+        <v>教育学习</v>
       </c>
       <c r="C167" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D167" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>即时满足, 战略思维, 时间管理, 目标管理, 职业发展</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B168" t="str">
-        <v>情感关系</v>
+        <v>教育学习</v>
       </c>
       <c r="C168" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D168" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
+        <v>毕业3年，学费为何不退还？</v>
       </c>
       <c r="B169" t="str">
-        <v>情感故事</v>
+        <v>教育学习</v>
       </c>
       <c r="C169" t="str">
-        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
+        <v>探讨毕业多年后学费看似“未得到回报”却不退还的原因，深入解析教育投资在知识能力培养、资源利用、学习长期效应等方面的价值体现。</v>
       </c>
       <c r="D169" t="str">
-        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
+        <v>学习效应, 学费价值, 教育回报, 教育投资, 知识能力</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B170" t="str">
         <v>教育学习</v>
       </c>
       <c r="C170" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D170" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>高考满分750，冲击985的秘籍大揭秘</v>
       </c>
       <c r="B171" t="str">
         <v>教育学习</v>
       </c>
       <c r="C171" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>全面解析冲击985高校的高考备考秘籍，涵盖985录取规则、专属备考计划制定、高效学习方法以及心态与压力管理等方面，助力考生在总分750分的高考中脱颖而出。</v>
       </c>
       <c r="D171" t="str">
-        <v>即时满足, 战略思维, 时间管理, 目标管理, 职业发展</v>
+        <v>985高校, 备考计划, 学习方法, 心态调整, 高考</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B172" t="str">
-        <v>教育学习</v>
+        <v>数字科技</v>
       </c>
       <c r="C172" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D172" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>毕业3年，学费为何不退还？</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B173" t="str">
-        <v>教育学习</v>
+        <v>数字科技</v>
       </c>
       <c r="C173" t="str">
-        <v>探讨毕业多年后学费看似“未得到回报”却不退还的原因，深入解析教育投资在知识能力培养、资源利用、学习长期效应等方面的价值体现。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D173" t="str">
-        <v>学习效应, 学费价值, 教育回报, 教育投资, 知识能力</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>探寻色彩认知：黑人会称黑色为“肉色”吗？</v>
       </c>
       <c r="B174" t="str">
-        <v>教育学习</v>
+        <v>文化研究</v>
       </c>
       <c r="C174" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>深入探讨在全球化背景下，不同文化中色彩认知的差异，聚焦黑人是否会将黑色称为“肉色”这一有趣话题，剖析背后文化、社交等因素的影响，促进跨文化理解。</v>
       </c>
       <c r="D174" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>文化差异, 肤色称呼, 色彩认知, 跨文化理解, 黑人社区</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>高考满分750，冲击985的秘籍大揭秘</v>
+        <v>贾宝玉出生时嘴里含着玉，为何不叫“宝国”？</v>
       </c>
       <c r="B175" t="str">
-        <v>教育学习</v>
+        <v>文化研究</v>
       </c>
       <c r="C175" t="str">
-        <v>全面解析冲击985高校的高考备考秘籍，涵盖985录取规则、专属备考计划制定、高效学习方法以及心态与压力管理等方面，助力考生在总分750分的高考中脱颖而出。</v>
+        <v>深入探究《红楼梦》中贾宝玉出生时嘴里含着玉却不取名“宝国”的原因，剖析其名字由来、不取名“宝国”的考量因素，以及名字与人物性格、文学命名艺术之间的关系。</v>
       </c>
       <c r="D175" t="str">
-        <v>985高校, 备考计划, 学习方法, 心态调整, 高考</v>
+        <v>人物性格, 命名艺术, 文化内涵, 红楼梦, 贾宝玉</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B176" t="str">
-        <v>数字科技</v>
+        <v>时尚生活</v>
       </c>
       <c r="C176" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D176" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B177" t="str">
-        <v>数字科技</v>
+        <v>时尚生活</v>
       </c>
       <c r="C177" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D177" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>探寻色彩认知：黑人会称黑色为“肉色”吗？</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B178" t="str">
-        <v>文化研究</v>
+        <v>时尚生活</v>
       </c>
       <c r="C178" t="str">
-        <v>深入探讨在全球化背景下，不同文化中色彩认知的差异，聚焦黑人是否会将黑色称为“肉色”这一有趣话题，剖析背后文化、社交等因素的影响，促进跨文化理解。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D178" t="str">
-        <v>文化差异, 肤色称呼, 色彩认知, 跨文化理解, 黑人社区</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>贾宝玉出生时嘴里含着玉，为何不叫“宝国”？</v>
+        <v>暴雨橙色预警是要下芬达的意思吗？</v>
       </c>
       <c r="B179" t="str">
-        <v>文化研究</v>
+        <v>气象预警</v>
       </c>
       <c r="C179" t="str">
-        <v>深入探究《红楼梦》中贾宝玉出生时嘴里含着玉却不取名“宝国”的原因，剖析其名字由来、不取名“宝国”的考量因素，以及名字与人物性格、文学命名艺术之间的关系。</v>
+        <v>解析暴雨橙色预警的定义、背后蕴含的信息，包括降雨强度、可能引发的次生灾害以及对日常生活的影响，并提供遇到暴雨橙色预警时应采取的应对措施，纠正“暴雨橙色预警是要下芬达”这一玩笑观点，强调科学应对气象预警的重要性。</v>
       </c>
       <c r="D179" t="str">
-        <v>人物性格, 命名艺术, 文化内涵, 红楼梦, 贾宝玉</v>
+        <v>暴雨橙色预警, 次生灾害, 气象预警, 防范措施, 降雨强度</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>去自首的路上被抓了还算自首吗？</v>
       </c>
       <c r="B180" t="str">
-        <v>时尚生活</v>
+        <v>法律知识</v>
       </c>
       <c r="C180" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>深入剖析犯罪嫌疑人在去自首的路上被抓这一复杂情况是否算自首，结合自首的法律定义、构成要件及相关案例进行解读，助您了解相关法律知识。</v>
       </c>
       <c r="D180" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>司法实践, 法律定义, 犯罪嫌疑人, 自首, 量刑</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B181" t="str">
-        <v>时尚生活</v>
+        <v>法律知识</v>
       </c>
       <c r="C181" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D181" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B182" t="str">
-        <v>时尚生活</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C182" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D182" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>暴雨橙色预警是要下芬达的意思吗？</v>
+        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
       </c>
       <c r="B183" t="str">
-        <v>气象预警</v>
+        <v>玩具科普</v>
       </c>
       <c r="C183" t="str">
-        <v>解析暴雨橙色预警的定义、背后蕴含的信息，包括降雨强度、可能引发的次生灾害以及对日常生活的影响，并提供遇到暴雨橙色预警时应采取的应对措施，纠正“暴雨橙色预警是要下芬达”这一玩笑观点，强调科学应对气象预警的重要性。</v>
+        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
       </c>
       <c r="D183" t="str">
-        <v>暴雨橙色预警, 次生灾害, 气象预警, 防范措施, 降雨强度</v>
+        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>去自首的路上被抓了还算自首吗？</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B184" t="str">
-        <v>法律知识</v>
+        <v>生活感悟</v>
       </c>
       <c r="C184" t="str">
-        <v>深入剖析犯罪嫌疑人在去自首的路上被抓这一复杂情况是否算自首，结合自首的法律定义、构成要件及相关案例进行解读，助您了解相关法律知识。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D184" t="str">
-        <v>司法实践, 法律定义, 犯罪嫌疑人, 自首, 量刑</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B185" t="str">
-        <v>法律知识</v>
+        <v>生活感悟</v>
       </c>
       <c r="C185" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D185" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>探寻人生意义：在好好活中做有意义的事</v>
       </c>
       <c r="B186" t="str">
-        <v>游戏竞技</v>
+        <v>生活感悟</v>
       </c>
       <c r="C186" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
       </c>
       <c r="D186" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>人生意义, 有意义的事, 生命价值, 自我探寻</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
+        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
       </c>
       <c r="B187" t="str">
-        <v>玩具科普</v>
+        <v>生活感悟</v>
       </c>
       <c r="C187" t="str">
-        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
+        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
       </c>
       <c r="D187" t="str">
-        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
+        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>如果不孕不育是遗传的，如何传递基因？</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B188" t="str">
-        <v>生殖健康</v>
+        <v>生活感悟</v>
       </c>
       <c r="C188" t="str">
-        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D188" t="str">
-        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B189" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C189" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D189" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B190" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C190" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D190" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B191" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C191" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D191" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B192" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C192" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D192" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B193" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C193" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D193" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B194" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C194" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D194" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B195" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C195" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D195" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B196" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C196" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D196" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B197" t="str">
-        <v>生活感悟</v>
+        <v>生活日常</v>
       </c>
       <c r="C197" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D197" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>休闲时尚, 商务正装, 手表选购, 时尚配饰, 高端奢华</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B198" t="str">
-        <v>生活感悟</v>
+        <v>生活日常</v>
       </c>
       <c r="C198" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D198" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B199" t="str">
-        <v>生活感悟</v>
+        <v>生活日常</v>
       </c>
       <c r="C199" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D199" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>回首2024</v>
       </c>
       <c r="B200" t="str">
         <v>生活日常</v>
       </c>
       <c r="C200" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D200" t="str">
-        <v>休闲时尚, 商务正装, 手表选购, 时尚配饰, 高端奢华</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B201" t="str">
         <v>生活日常</v>
       </c>
       <c r="C201" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D201" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B202" t="str">
         <v>生活日常</v>
       </c>
       <c r="C202" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D202" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>回首2024</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B203" t="str">
-        <v>生活日常</v>
+        <v>生涯规划</v>
       </c>
       <c r="C203" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D203" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B204" t="str">
-        <v>生活日常</v>
+        <v>社会探究</v>
       </c>
       <c r="C204" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D204" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B205" t="str">
-        <v>生活日常</v>
+        <v>社会探究</v>
       </c>
       <c r="C205" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D205" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B206" t="str">
-        <v>生涯规划</v>
+        <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D206" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D207" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D208" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D209" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B210" t="str">
         <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D210" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B211" t="str">
         <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D211" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B212" t="str">
         <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D212" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B213" t="str">
         <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D213" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B214" t="str">
         <v>社会探究</v>
       </c>
       <c r="C214" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D214" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B215" t="str">
         <v>社会探究</v>
       </c>
       <c r="C215" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D215" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B216" t="str">
         <v>社会探究</v>
       </c>
       <c r="C216" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D216" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B217" t="str">
         <v>社会探究</v>
       </c>
       <c r="C217" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D217" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>宇宙哲学, 时间折叠, 熵增博弈, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B218" t="str">
         <v>社会探究</v>
       </c>
       <c r="C218" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D218" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B219" t="str">
         <v>社会探究</v>
       </c>
       <c r="C219" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D219" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B220" t="str">
         <v>社会探究</v>
       </c>
       <c r="C220" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D220" t="str">
-        <v>宇宙哲学, 时间折叠, 熵增博弈, 认知科学, 道家哲学</v>
+        <v>生存策略, 管理智慧, 认知科学, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B221" t="str">
         <v>社会探究</v>
       </c>
       <c r="C221" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D221" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B222" t="str">
         <v>社会探究</v>
       </c>
       <c r="C222" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D222" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B223" t="str">
         <v>社会探究</v>
       </c>
       <c r="C223" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D223" t="str">
-        <v>生存策略, 管理智慧, 认知科学, 资源分配, 预期管理</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B224" t="str">
         <v>社会探究</v>
       </c>
       <c r="C224" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D224" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B225" t="str">
         <v>社会探究</v>
       </c>
       <c r="C225" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D225" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B226" t="str">
         <v>社会探究</v>
       </c>
       <c r="C226" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D226" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B227" t="str">
         <v>社会探究</v>
       </c>
       <c r="C227" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D227" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B228" t="str">
         <v>社会探究</v>
       </c>
       <c r="C228" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D228" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B229" t="str">
         <v>社会探究</v>
       </c>
       <c r="C229" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D229" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B230" t="str">
         <v>社会探究</v>
       </c>
       <c r="C230" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D230" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B231" t="str">
-        <v>社会探究</v>
+        <v>社会现象</v>
       </c>
       <c r="C231" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D231" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B232" t="str">
-        <v>社会探究</v>
+        <v>社会现象</v>
       </c>
       <c r="C232" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D232" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B233" t="str">
-        <v>社会探究</v>
+        <v>社会现象</v>
       </c>
       <c r="C233" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D233" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B234" t="str">
         <v>社会现象</v>
       </c>
       <c r="C234" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D234" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B235" t="str">
         <v>社会现象</v>
       </c>
       <c r="C235" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D235" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B236" t="str">
         <v>社会现象</v>
       </c>
       <c r="C236" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D236" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B237" t="str">
         <v>社会现象</v>
       </c>
       <c r="C237" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D237" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>再聊姜萍</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B238" t="str">
         <v>社会现象</v>
       </c>
       <c r="C238" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D238" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B239" t="str">
         <v>社会现象</v>
       </c>
       <c r="C239" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D239" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B240" t="str">
         <v>社会现象</v>
       </c>
       <c r="C240" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D240" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B241" t="str">
         <v>社会现象</v>
       </c>
       <c r="C241" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D241" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B242" t="str">
         <v>社会现象</v>
       </c>
       <c r="C242" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D242" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B243" t="str">
         <v>社会现象</v>
       </c>
       <c r="C243" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D243" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
       </c>
       <c r="B244" t="str">
         <v>社会现象</v>
       </c>
       <c r="C244" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
       </c>
       <c r="D244" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B245" t="str">
         <v>社会现象</v>
       </c>
       <c r="C245" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D245" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B246" t="str">
         <v>社会现象</v>
       </c>
       <c r="C246" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D246" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
+        <v>如何反驳“现实点，社会就是这样”？</v>
       </c>
       <c r="B247" t="str">
-        <v>社会现象</v>
+        <v>社会观点</v>
       </c>
       <c r="C247" t="str">
-        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
+        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
       </c>
       <c r="D247" t="str">
-        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
+        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
       </c>
       <c r="B248" t="str">
-        <v>社会现象</v>
+        <v>科学探索</v>
       </c>
       <c r="C248" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
       </c>
       <c r="D248" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>倒立的时候是不是举起了地球？</v>
       </c>
       <c r="B249" t="str">
-        <v>社会现象</v>
+        <v>科学探索</v>
       </c>
       <c r="C249" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>探讨倒立这一动作背后的科学原理，包括地球引力、人体力学等方面，同时从哲学角度思考倒立与地球的关系，以及其在科学与艺术领域的跨界之美。</v>
       </c>
       <c r="D249" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>人体力学, 倒立, 哲学思考, 地球引力, 科学与艺术</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>如何反驳“现实点，社会就是这样”？</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B250" t="str">
-        <v>社会观点</v>
+        <v>科学探索</v>
       </c>
       <c r="C250" t="str">
-        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D250" t="str">
-        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>倒立的时候是不是举起了地球？</v>
+        <v>巧用3kg和5kg砝码称出8kg水的方法</v>
       </c>
       <c r="B251" t="str">
         <v>科学探索</v>
       </c>
       <c r="C251" t="str">
-        <v>探讨倒立这一动作背后的科学原理，包括地球引力、人体力学等方面，同时从哲学角度思考倒立与地球的关系，以及其在科学与艺术领域的跨界之美。</v>
+        <v>介绍如何仅利用3kg和5kg的砝码，通过天平精确称出8kg水的详细步骤与操作技巧，帮助提升生活中的测量能力与逻辑思维。</v>
       </c>
       <c r="D251" t="str">
-        <v>人体力学, 倒立, 哲学思考, 地球引力, 科学与艺术</v>
+        <v>天平, 测量技巧, 砝码, 称水, 逻辑思维</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>巧用3kg和5kg砝码称出8kg水的方法</v>
+        <v>揭秘陨石为何总是落在陨石坑里</v>
       </c>
       <c r="B252" t="str">
         <v>科学探索</v>
       </c>
       <c r="C252" t="str">
-        <v>介绍如何仅利用3kg和5kg的砝码，通过天平精确称出8kg水的详细步骤与操作技巧，帮助提升生活中的测量能力与逻辑思维。</v>
+        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
       </c>
       <c r="D252" t="str">
-        <v>天平, 测量技巧, 砝码, 称水, 逻辑思维</v>
+        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
       </c>
     </row>
     <row r="253">
@@ -4050,142 +4050,142 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B261" t="str">
-        <v>科技探索</v>
+        <v>职业发展</v>
       </c>
       <c r="C261" t="str">
-        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D261" t="str">
-        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B262" t="str">
         <v>职业发展</v>
       </c>
       <c r="C262" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D262" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>什么是成功的定义？</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B263" t="str">
         <v>职业发展</v>
       </c>
       <c r="C263" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D263" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B264" t="str">
         <v>职业发展</v>
       </c>
       <c r="C264" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D264" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B265" t="str">
         <v>职业发展</v>
       </c>
       <c r="C265" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D265" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B266" t="str">
         <v>职业发展</v>
       </c>
       <c r="C266" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D266" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B267" t="str">
         <v>职业发展</v>
       </c>
       <c r="C267" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D267" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B268" t="str">
         <v>职业发展</v>
       </c>
       <c r="C268" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D268" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B269" t="str">
         <v>职业发展</v>
       </c>
       <c r="C269" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D269" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>拿离职威胁涨薪：一把双刃剑</v>
       </c>
       <c r="B270" t="str">
         <v>职业发展</v>
       </c>
       <c r="C270" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>深入剖析拿离职威胁涨薪这一现象，揭示其短期收益与长期风险，为职场人士提供更合适的涨薪策略，助力职场人理性追求薪资增长与职业发展。</v>
       </c>
       <c r="D270" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>人际关系, 离职威胁, 职业发展, 职场涨薪, 薪资谈判</v>
       </c>
     </row>
     <row r="271">
@@ -4778,142 +4778,142 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B313" t="str">
-        <v>自我成长</v>
+        <v>自我提升</v>
       </c>
       <c r="C313" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D313" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B314" t="str">
         <v>自我提升</v>
       </c>
       <c r="C314" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D314" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B315" t="str">
         <v>自我提升</v>
       </c>
       <c r="C315" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D315" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B316" t="str">
         <v>自我提升</v>
       </c>
       <c r="C316" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D316" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B317" t="str">
         <v>自我提升</v>
       </c>
       <c r="C317" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D317" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B318" t="str">
         <v>自我提升</v>
       </c>
       <c r="C318" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
       </c>
       <c r="D318" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B319" t="str">
         <v>自我提升</v>
       </c>
       <c r="C319" t="str">
-        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D319" t="str">
-        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B320" t="str">
         <v>自我提升</v>
       </c>
       <c r="C320" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D320" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B321" t="str">
         <v>自我提升</v>
       </c>
       <c r="C321" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D321" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B322" t="str">
         <v>自我提升</v>
       </c>
       <c r="C322" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D322" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="323">
@@ -5226,69 +5226,69 @@
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>为何西方雕塑常展现裸露之姿</v>
       </c>
       <c r="B345" t="str">
-        <v>财富管理</v>
+        <v>艺术赏析</v>
       </c>
       <c r="C345" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>深入剖析西方雕塑常展现裸露之姿的背后原因，涵盖古希腊文化对人体美的崇拜、宗教与哲学的影响、社会文化背景的推动以及艺术表现手法的独特魅力等多方面因素。</v>
       </c>
       <c r="D345" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>人体美, 古希腊文化, 宗教哲学, 社会文化, 西方雕塑</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B346" t="str">
         <v>财富管理</v>
       </c>
       <c r="C346" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D346" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B347" t="str">
         <v>财富管理</v>
       </c>
       <c r="C347" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D347" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B348" t="str">
         <v>财富管理</v>
       </c>
       <c r="C348" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D348" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B349" t="str">
         <v>财富管理</v>
       </c>
       <c r="C349" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D349" t="str">
         <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
@@ -5296,55 +5296,55 @@
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B350" t="str">
         <v>财富管理</v>
       </c>
       <c r="C350" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D350" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B351" t="str">
         <v>财富管理</v>
       </c>
       <c r="C351" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D351" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B352" t="str">
         <v>财富管理</v>
       </c>
       <c r="C352" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D352" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B353" t="str">
         <v>财富管理</v>
       </c>
       <c r="C353" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D353" t="str">
         <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
@@ -5352,44 +5352,44 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B354" t="str">
         <v>财富管理</v>
       </c>
       <c r="C354" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D354" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>为什么有钱人喜欢安静？</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B355" t="str">
         <v>财富管理</v>
       </c>
       <c r="C355" t="str">
-        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D355" t="str">
-        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>为什么有钱人喜欢安静？</v>
       </c>
       <c r="B356" t="str">
         <v>财富管理</v>
       </c>
       <c r="C356" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
       </c>
       <c r="D356" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
       </c>
     </row>
     <row r="357">
@@ -5400,729 +5400,757 @@
         <v>财富管理</v>
       </c>
       <c r="C357" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D357" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B358" t="str">
         <v>财富管理</v>
       </c>
       <c r="C358" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D358" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B359" t="str">
         <v>财富管理</v>
       </c>
       <c r="C359" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D359" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B360" t="str">
         <v>财富管理</v>
       </c>
       <c r="C360" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D360" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B361" t="str">
         <v>财富管理</v>
       </c>
       <c r="C361" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D361" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B362" t="str">
         <v>财富管理</v>
       </c>
       <c r="C362" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D362" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B363" t="str">
         <v>财富管理</v>
       </c>
       <c r="C363" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D363" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B364" t="str">
         <v>财富管理</v>
       </c>
       <c r="C364" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D364" t="str">
-        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B365" t="str">
         <v>财富管理</v>
       </c>
       <c r="C365" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D365" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B366" t="str">
         <v>财富管理</v>
       </c>
       <c r="C366" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D366" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B367" t="str">
         <v>财富管理</v>
       </c>
       <c r="C367" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D367" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B368" t="str">
         <v>财富管理</v>
       </c>
       <c r="C368" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D368" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B369" t="str">
         <v>财富管理</v>
       </c>
       <c r="C369" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D369" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B370" t="str">
         <v>财富管理</v>
       </c>
       <c r="C370" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D370" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>有效增加收入指南</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B371" t="str">
         <v>财富管理</v>
       </c>
       <c r="C371" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D371" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B372" t="str">
         <v>财富管理</v>
       </c>
       <c r="C372" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D372" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B373" t="str">
         <v>财富管理</v>
       </c>
       <c r="C373" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D373" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B374" t="str">
         <v>财富管理</v>
       </c>
       <c r="C374" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D374" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>穷人怎么翻身</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B375" t="str">
         <v>财富管理</v>
       </c>
       <c r="C375" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D375" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B376" t="str">
         <v>财富管理</v>
       </c>
       <c r="C376" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D376" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B377" t="str">
         <v>财富管理</v>
       </c>
       <c r="C377" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D377" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B378" t="str">
         <v>财富管理</v>
       </c>
       <c r="C378" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D378" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B379" t="str">
         <v>财富管理</v>
       </c>
       <c r="C379" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D379" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B380" t="str">
         <v>财富管理</v>
       </c>
       <c r="C380" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D380" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B381" t="str">
         <v>财富管理</v>
       </c>
       <c r="C381" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D381" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B382" t="str">
         <v>财富管理</v>
       </c>
       <c r="C382" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D382" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B383" t="str">
         <v>财富管理</v>
       </c>
       <c r="C383" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D383" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B384" t="str">
         <v>财富管理</v>
       </c>
       <c r="C384" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D384" t="str">
-        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B385" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C385" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D385" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B386" t="str">
         <v>身体健康</v>
       </c>
       <c r="C386" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D386" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B387" t="str">
         <v>身体健康</v>
       </c>
       <c r="C387" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D387" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>吃健胃消食片会撑死还是饿死？</v>
       </c>
       <c r="B388" t="str">
         <v>身体健康</v>
       </c>
       <c r="C388" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
       </c>
       <c r="D388" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B389" t="str">
         <v>身体健康</v>
       </c>
       <c r="C389" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D389" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B390" t="str">
         <v>身体健康</v>
       </c>
       <c r="C390" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D390" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B391" t="str">
         <v>身体健康</v>
       </c>
       <c r="C391" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D391" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B392" t="str">
         <v>身体健康</v>
       </c>
       <c r="C392" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D392" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B393" t="str">
         <v>身体健康</v>
       </c>
       <c r="C393" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D393" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B394" t="str">
         <v>身体健康</v>
       </c>
       <c r="C394" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D394" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B395" t="str">
         <v>身体健康</v>
       </c>
       <c r="C395" t="str">
-        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D395" t="str">
-        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B396" t="str">
         <v>身体健康</v>
       </c>
       <c r="C396" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D396" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
       </c>
       <c r="B397" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C397" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
       </c>
       <c r="D397" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B398" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C398" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D398" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B399" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C399" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D399" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B400" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C400" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D400" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B401" t="str">
         <v>运营指南</v>
       </c>
       <c r="C401" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D401" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B402" t="str">
         <v>运营指南</v>
       </c>
       <c r="C402" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D402" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B403" t="str">
         <v>运营指南</v>
       </c>
       <c r="C403" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D403" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>打造百家号爆款内容的实用秘籍</v>
       </c>
       <c r="B404" t="str">
         <v>运营指南</v>
       </c>
       <c r="C404" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
       </c>
       <c r="D404" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>打造知乎爆款内容的实用秘籍</v>
       </c>
       <c r="B405" t="str">
         <v>运营指南</v>
       </c>
       <c r="C405" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
       </c>
       <c r="D405" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>抖音爆款内容打造全攻略</v>
       </c>
       <c r="B406" t="str">
         <v>运营指南</v>
       </c>
       <c r="C406" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
       </c>
       <c r="D406" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+        <v>畅销长篇小说创作秘籍全解析</v>
       </c>
       <c r="B407" t="str">
-        <v>食品安全</v>
+        <v>运营指南</v>
       </c>
       <c r="C407" t="str">
-        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
       </c>
       <c r="D407" t="str">
-        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B408" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C408" t="str">
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+      </c>
+      <c r="D408" t="str">
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+      </c>
+      <c r="B409" t="str">
+        <v>食品安全</v>
+      </c>
+      <c r="C409" t="str">
+        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+      </c>
+      <c r="D409" t="str">
+        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
         <v>如果猪肾虚，那它的腰子还补吗？</v>
       </c>
-      <c r="B408" t="str">
+      <c r="B410" t="str">
         <v>饮食健康</v>
       </c>
-      <c r="C408" t="str">
+      <c r="C410" t="str">
         <v>探讨猪肾虚的情况下其腰子是否还具有补肾功效，分析猪腰子的营养价值、中医与西医对肾虚的不同定义及相关研究，为读者提供关于猪腰子食用的科学知识。</v>
       </c>
-      <c r="D408" t="str">
+      <c r="D410" t="str">
         <v>中医理论, 猪腰子, 肾虚, 营养价值, 补肾</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D408"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D410"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -2692,30 +2692,30 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
       </c>
       <c r="B164" t="str">
         <v>情感关系</v>
       </c>
       <c r="C164" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
       </c>
       <c r="D164" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B165" t="str">
-        <v>情感故事</v>
+        <v>情感关系</v>
       </c>
       <c r="C165" t="str">
-        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D165" t="str">
-        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="166">
@@ -3756,114 +3756,114 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>如何反驳“现实点，社会就是这样”？</v>
       </c>
       <c r="B240" t="str">
         <v>社会现象</v>
       </c>
       <c r="C240" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
       </c>
       <c r="D240" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B241" t="str">
         <v>社会现象</v>
       </c>
       <c r="C241" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D241" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B242" t="str">
         <v>社会现象</v>
       </c>
       <c r="C242" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D242" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B243" t="str">
         <v>社会现象</v>
       </c>
       <c r="C243" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D243" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B244" t="str">
         <v>社会现象</v>
       </c>
       <c r="C244" t="str">
-        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D244" t="str">
-        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
       </c>
       <c r="B245" t="str">
         <v>社会现象</v>
       </c>
       <c r="C245" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
       </c>
       <c r="D245" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B246" t="str">
         <v>社会现象</v>
       </c>
       <c r="C246" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D246" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>如何反驳“现实点，社会就是这样”？</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B247" t="str">
-        <v>社会观点</v>
+        <v>社会现象</v>
       </c>
       <c r="C247" t="str">
-        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D247" t="str">
-        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="248">
@@ -3924,380 +3924,380 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>揭秘陨石为何总是落在陨石坑里</v>
+        <v>探索发电机与永动机的奥秘：连接发电机能否创造永动机？</v>
       </c>
       <c r="B252" t="str">
         <v>科学探索</v>
       </c>
       <c r="C252" t="str">
-        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
+        <v>深入剖析连接发电机能否创造永动机这一问题，解读发电机工作原理、永动机定义分类，阐述因能量损耗和能量守恒定律限制无法实现，同时讲述永动机探索带来的启示。</v>
       </c>
       <c r="D252" t="str">
-        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
+        <v>发电机原理, 永动机概念, 科学探索, 能量守恒定律, 能量损耗</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>揭秘陨石为何总是落在陨石坑里</v>
       </c>
       <c r="B253" t="str">
-        <v>科技前沿</v>
+        <v>科学探索</v>
       </c>
       <c r="C253" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
       </c>
       <c r="D253" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B254" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C254" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D254" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B255" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C255" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D255" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B256" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C256" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D256" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B257" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C257" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D257" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B258" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C258" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D258" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B259" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C259" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D259" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B260" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C260" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D260" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B261" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C261" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D261" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>什么是成功的定义？</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B262" t="str">
         <v>职业发展</v>
       </c>
       <c r="C262" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D262" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B263" t="str">
         <v>职业发展</v>
       </c>
       <c r="C263" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D263" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B264" t="str">
         <v>职业发展</v>
       </c>
       <c r="C264" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D264" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B265" t="str">
         <v>职业发展</v>
       </c>
       <c r="C265" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D265" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B266" t="str">
         <v>职业发展</v>
       </c>
       <c r="C266" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D266" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B267" t="str">
         <v>职业发展</v>
       </c>
       <c r="C267" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D267" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B268" t="str">
         <v>职业发展</v>
       </c>
       <c r="C268" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D268" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B269" t="str">
         <v>职业发展</v>
       </c>
       <c r="C269" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D269" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>拿离职威胁涨薪：一把双刃剑</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B270" t="str">
         <v>职业发展</v>
       </c>
       <c r="C270" t="str">
-        <v>深入剖析拿离职威胁涨薪这一现象，揭示其短期收益与长期风险，为职场人士提供更合适的涨薪策略，助力职场人理性追求薪资增长与职业发展。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D270" t="str">
-        <v>人际关系, 离职威胁, 职业发展, 职场涨薪, 薪资谈判</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>拿离职威胁涨薪：一把双刃剑</v>
       </c>
       <c r="B271" t="str">
         <v>职业发展</v>
       </c>
       <c r="C271" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>深入剖析拿离职威胁涨薪这一现象，揭示其短期收益与长期风险，为职场人士提供更合适的涨薪策略，助力职场人理性追求薪资增长与职业发展。</v>
       </c>
       <c r="D271" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>人际关系, 离职威胁, 职业发展, 职场涨薪, 薪资谈判</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B272" t="str">
         <v>职业发展</v>
       </c>
       <c r="C272" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D272" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B273" t="str">
         <v>职业发展</v>
       </c>
       <c r="C273" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D273" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B274" t="str">
         <v>职业发展</v>
       </c>
       <c r="C274" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D274" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B275" t="str">
         <v>职业发展</v>
       </c>
       <c r="C275" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D275" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B276" t="str">
         <v>职业发展</v>
       </c>
       <c r="C276" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D276" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B277" t="str">
         <v>职业发展</v>
       </c>
       <c r="C277" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D277" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>探索发电机与永动机的奥秘：连接发电机能否创造永动机？</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B278" t="str">
-        <v>能源科学</v>
+        <v>职业发展</v>
       </c>
       <c r="C278" t="str">
-        <v>深入剖析连接发电机能否创造永动机这一问题，解读发电机工作原理、永动机定义分类，阐述因能量损耗和能量守恒定律限制无法实现，同时讲述永动机探索带来的启示。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D278" t="str">
-        <v>发电机原理, 永动机概念, 科学探索, 能量守恒定律, 能量损耗</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="279">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D410"/>
+  <dimension ref="A1:D416"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2020,4137 +2020,4221 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>不懂的和别人交流？这些心理学书值得一读</v>
+        <v>心理健康：现代生活的隐形护盾</v>
       </c>
       <c r="B116" t="str">
-        <v>心理调适</v>
+        <v>心理调试</v>
       </c>
       <c r="C116" t="str">
-        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
+        <v>探讨心理健康在现代生活中的重要性及其面临的挑战，提供有效的心理健康管理方法，帮助读者在快节奏的生活中维护心理平衡，实现全面发展。</v>
       </c>
       <c r="D116" t="str">
-        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
+        <v>信息爆炸, 心理健康, 情绪调节, 现代生活, 社交媒体影响</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>为什么现代人焦虑症越来越普遍？</v>
+        <v>不懂的和别人交流？这些心理学书值得一读</v>
       </c>
       <c r="B117" t="str">
         <v>心理调适</v>
       </c>
       <c r="C117" t="str">
-        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
+        <v>介绍几本对人际交流有帮助的心理学书籍，包括《非暴力沟通》《沟通的艺术》等，阐述其在改善沟通方面的作用，为存在交流困扰的人提供阅读参考。</v>
       </c>
       <c r="D117" t="str">
-        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
+        <v>人际交流, 影响力, 心理学书籍, 思考快与慢, 非暴力沟通</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
+        <v>为什么现代人焦虑症越来越普遍？</v>
       </c>
       <c r="B118" t="str">
         <v>心理调适</v>
       </c>
       <c r="C118" t="str">
-        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
+        <v>探讨快节奏生活、社交媒体及健康问题如何导致现代人焦虑症频发，分享实用建议帮助建立心理缓冲区，实现身心和谐。</v>
       </c>
       <c r="D118" t="str">
-        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
+        <v>现代生活压力, 生活平衡, 社交媒体焦虑, 身体健康警示</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>冥想对提升自我意识的重要意义与实践</v>
+        <v>儿童心理健康的早期培养：筑牢孩子未来的根基</v>
       </c>
       <c r="B119" t="str">
         <v>心理调适</v>
       </c>
       <c r="C119" t="str">
-        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
+        <v>阐述儿童心理健康早期培养的重要性、关键时期、方法等内容，强调其为孩子未来筑牢根基的意义，涵盖从0 - 12岁不同阶段的培养要点及家庭、学校和社会的协同作用。</v>
       </c>
       <c r="D119" t="str">
-        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
+        <v>人格塑造, 儿童心理健康, 家庭教育, 早期培养, 社交能力</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>压力应对的情绪调节实用技巧</v>
+        <v>冥想对提升自我意识的重要意义与实践</v>
       </c>
       <c r="B120" t="str">
         <v>心理调适</v>
       </c>
       <c r="C120" t="str">
-        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
+        <v>阐述冥想与自我意识的关联，介绍不同冥想方式及提升自我意识的攻略，探讨冥想对情绪管理、人际关系和个人成长的深远影响，帮助读者了解通过冥想开启自我意识提升之旅的方法和意义。</v>
       </c>
       <c r="D120" t="str">
-        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
+        <v>个人成长, 冥想, 心理健康, 情绪管理, 自我意识</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>原生家庭的影响有多大？</v>
+        <v>压力应对的情绪调节实用技巧</v>
       </c>
       <c r="B121" t="str">
         <v>心理调适</v>
       </c>
       <c r="C121" t="str">
-        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
+        <v>阐述在快节奏生活中压力与情绪的关系，介绍多种情绪调节技巧，包括常见技巧、不同场景下的策略、培养积极生活态度的方法以及借助外部资源的方式，以帮助人们更好地应对压力。</v>
       </c>
       <c r="D121" t="str">
-        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
+        <v>压力应对, 情绪调节, 深呼吸, 积极生活态度, 认知重构</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
+        <v>原生家庭的影响有多大？</v>
       </c>
       <c r="B122" t="str">
         <v>心理调适</v>
       </c>
       <c r="C122" t="str">
-        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
+        <v>文章探讨了原生家庭对个人性格形成、行为模式及心理健康的影响，分析了其正面与负面影响，并提供了应对策略，强调认识并积极处理原生家庭影响的重要性，以建立健康的人际关系和生活方式。</v>
       </c>
       <c r="D122" t="str">
-        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
+        <v>原生家庭, 应对策略, 心理健康, 性格形成, 行为模式</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>多件坏事接踵而至时的心态调整策略</v>
+        <v>在自我认知的过程中，会遇到哪些困境和挑战？</v>
       </c>
       <c r="B123" t="str">
         <v>心理调适</v>
       </c>
       <c r="C123" t="str">
-        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
+        <v>探讨在自我认知过程中可能遇到的困境和挑战，包括认知偏差如过度自信、确认偏误和归因偏差，身份认同中的角色冲突和社会期待与个人意愿的矛盾，外界评价对自我认知的影响，以及成长过程中面对改变的恐惧和接受自我的挑战。文章指出，自我认知是一个长期且动态的过程，需要持续反思并以开放的心态面对自身的优点与不足，从而实现个人成长和自我接纳。</v>
       </c>
       <c r="D123" t="str">
-        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
+        <v>外界评价, 成长挑战, 自我认知, 认知偏差, 身份认同</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>如何在压力下保持心理健康</v>
+        <v>多件坏事接踵而至时的心态调整策略</v>
       </c>
       <c r="B124" t="str">
         <v>心理调适</v>
       </c>
       <c r="C124" t="str">
-        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
+        <v>阐述当多件坏事接连发生时，如何通过接纳现实、冷静分析、寻求支持等多种方法调整心态，以更好地面对生活中的困境。</v>
       </c>
       <c r="D124" t="str">
-        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
+        <v>健康生活, 坏事应对, 寻求支持, 心态调整, 积极心态</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>如何建立和维护健康、和谐的人际关系？</v>
+        <v>如何在压力下保持心理健康</v>
       </c>
       <c r="B125" t="str">
         <v>心理调适</v>
       </c>
       <c r="C125" t="str">
-        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
+        <v>本文探讨了在现代社会中如何有效应对压力，保持心理健康。文章分析了压力的来源，提供了多种应对压力的方法，包括生活方式调整、心理调适技巧和建立社交支持系统，并针对不同场景（如工作、学习和生活中）给出了具体的心理健康维护秘籍。</v>
       </c>
       <c r="D125" t="str">
-        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
+        <v>压力管理, 应对策略, 心理健康, 生活方式, 社交支持</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>如何才能真正实现内心的幸福和满足？</v>
+        <v>如何建立和维护健康、和谐的人际关系？</v>
       </c>
       <c r="B126" t="str">
         <v>心理调适</v>
       </c>
       <c r="C126" t="str">
-        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
+        <v>本文详细介绍了如何建立和维护健康、和谐的人际关系，涵盖了自我认知、有效沟通、同理心培养、边界意识、关系维护及幽默感等多个关键方面。强调了了解自己需求与特点的重要性，以及在沟通中倾听和表达的技巧。同时指出，通过换位思考、尊重他人选择、适时调整相处方式等方法，可以加深人际关系，并保持其活力。适合希望改善自身社交能力、寻求建立更深厚人际关系的读者阅读。真诚和尊重是贯穿始终的核心原则。</v>
       </c>
       <c r="D126" t="str">
-        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
+        <v>人际关系, 关系维护, 同理心, 幽默感, 有效沟通, 自我认知, 边界意识</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>如何调整失去和失败带来的情绪？</v>
+        <v>如何才能真正实现内心的幸福和满足？</v>
       </c>
       <c r="B127" t="str">
         <v>心理调适</v>
       </c>
       <c r="C127" t="str">
-        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
+        <v>文章探讨了实现内心幸福与满足的方法，包括认识真实的自己、停止对他人的期待、活在当下、建立健康的人际关系、追求有意义的生活等，强调幸福是一种内求的过程，需要通过自我认知和生活实践来达成。</v>
       </c>
       <c r="D127" t="str">
-        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
+        <v>人际关系, 心流体验, 生命意义, 生活实践, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>孤独：生命的别样馈赠</v>
+        <v>如何调整失去和失败带来的情绪？</v>
       </c>
       <c r="B128" t="str">
         <v>心理调适</v>
       </c>
       <c r="C128" t="str">
-        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
+        <v>文章提供了应对失去和失败带来的情绪的方法，包括正视情绪、转移注意力、重建积极心态、避免报复心理及寻求专业帮助，强调通过感恩、自我接纳和设定小目标等方式走出负面情绪，重建积极的生活态度。</v>
       </c>
       <c r="D128" t="str">
-        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
+        <v>失败应对, 心理健康, 情绪管理, 报复心理, 积极心态</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
+        <v>孤独：生命的别样馈赠</v>
       </c>
       <c r="B129" t="str">
         <v>心理调适</v>
       </c>
       <c r="C129" t="str">
-        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
+        <v>阐述孤独在现代社会中的多种呈现，深入探讨孤独对自我认知、创造力激发以及情感成长的积极意义，同时强调要正确对待孤独，在孤独与社交间找到平衡。</v>
       </c>
       <c r="D129" t="str">
-        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
+        <v>内心探索, 创造力, 孤独, 情感成长, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
+        <v>心理健康与社会支持系统：构筑心灵的防护壁垒</v>
       </c>
       <c r="B130" t="str">
         <v>心理调适</v>
       </c>
       <c r="C130" t="str">
-        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
+        <v>阐述心理健康的重要性，分析社会支持系统（家庭、朋友、社区与社会组织）对心理健康的积极作用，探讨二者紧密交织的关系，并提出从个人、家庭和社会层面构建和完善该系统的多元路径。</v>
       </c>
       <c r="D130" t="str">
-        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
+        <v>家庭支持, 心理健康, 朋友支持, 社会支持系统, 社区支持</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>心理咨询：个人成长的隐形翅膀</v>
+        <v>心理健康与饮食：饮食对心理状态的深度影响</v>
       </c>
       <c r="B131" t="str">
         <v>心理调适</v>
       </c>
       <c r="C131" t="str">
-        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
+        <v>深入探讨饮食与心理健康之间的紧密联系，分析各类营养成分对心理状态的影响，以及不同饮食习惯和特殊饮食模式如何作用于心理健康，为通过饮食维护心理健康提供指导。</v>
       </c>
       <c r="D131" t="str">
-        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
+        <v>心理健康, 矿物质, 维生素, 脂肪酸, 饮食营养</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
+        <v>心理咨询：个人成长的隐形翅膀</v>
       </c>
       <c r="B132" t="str">
         <v>心理调适</v>
       </c>
       <c r="C132" t="str">
-        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
+        <v>阐述心理咨询在个人成长各方面的重要作用，包括深入内心探索、情绪管理、人际关系发展、职业发展等，强调其在当下社会助力个人成长的意义。</v>
       </c>
       <c r="D132" t="str">
-        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
+        <v>个人成长, 人际关系, 心理咨询, 情绪管理, 职业发展</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>心理治疗在修复过程中起到怎样的作用？</v>
+        <v>心理咨询入门：挑选契合的心理咨询师的方法</v>
       </c>
       <c r="B133" t="str">
         <v>心理调适</v>
       </c>
       <c r="C133" t="str">
-        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
+        <v>本文为初次涉足心理咨询领域的人提供挑选契合心理咨询师的实用建议，涵盖咨询师的资质认证、咨询风格与方法、沟通能力与人际关系、费用和时间安排以及探寻途径等方面，助力大家找到合适的咨询师开启心理健康之旅。</v>
       </c>
       <c r="D133" t="str">
-        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
+        <v>咨询师选择, 咨询风格, 心理咨询, 费用安排, 资质认证</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
+        <v>心理治疗在修复过程中起到怎样的作用？</v>
       </c>
       <c r="B134" t="str">
         <v>心理调适</v>
       </c>
       <c r="C134" t="str">
-        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
+        <v>本文详细介绍了心理治疗在修复过程中的重要作用，包括提供情绪支持与疏导、进行认知行为矫正以及改善行为习惯等方面。特别强调了心理治疗在创伤修复中的应用，如处理创伤后应激障碍（PTSD）、重建安全感与信任及促进自我接纳与成长。文章还探讨了心理治疗与药物治疗、家庭和社会支持结合的重要性，并展望了个性化治疗方案、技术创新和跨学科合作的未来发展趋势。适合希望了解心理治疗如何帮助个体克服心理困扰、实现内心平衡与成长的读者阅读。心理治疗不仅关注问题解决，更注重引导患者发现自身潜力，实现长远的心理健康。</v>
       </c>
       <c r="D134" t="str">
-        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
+        <v>个性化治疗, 创伤修复, 情绪支持, 情绪管理, 认知行为矫正</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>怎样克服社交恐惧症？</v>
+        <v>心理韧性的培养：笑对失败与挫折的智慧之道</v>
       </c>
       <c r="B135" t="str">
         <v>心理调适</v>
       </c>
       <c r="C135" t="str">
-        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
+        <v>阐述心理韧性的重要性，并提供一系列培养心理韧性的实用方法，包括重塑认知、培育积极心态、搭建人际关系、设定目标和持续学习成长，同时介绍其在职场和生活困境中的应用，帮助读者提升应对失败与挫折的能力。</v>
       </c>
       <c r="D135" t="str">
-        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
+        <v>人际关系, 应对挫折, 心理韧性, 成长智慧, 积极心态</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>我们是否真正了解自己？</v>
+        <v>怎样克服社交恐惧症？</v>
       </c>
       <c r="B136" t="str">
         <v>心理调适</v>
       </c>
       <c r="C136" t="str">
-        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
+        <v>克服社交恐惧症需认识其症状和原因，如过度担忧他人评价及负面环境影响。首先接纳自己的恐惧，设定小目标逐步练习社交技巧，并记录进步。采用认知行为疗法调整负面思维，通过模拟训练提升自信。遇到挫折不放弃，必要时寻求专业心理咨询或药物辅助。关键在于保持耐心和善意，勇敢迈出第一步，逐步建立自信，改善社交生活。</v>
       </c>
       <c r="D136" t="str">
-        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
+        <v>专业帮助, 寻求支持, 社交恐惧症, 认知行为疗法, 设定小目标</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>打破心中成见的枷锁：方法与意义</v>
+        <v>我们是否真正了解自己？</v>
       </c>
       <c r="B137" t="str">
         <v>心理调适</v>
       </c>
       <c r="C137" t="str">
-        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
+        <v>本文深入探讨了自我认知的复杂性和挑战，指出真正的自我了解涉及多个维度，包括心理、情感和社会角色等方面。文中讨论了认知局限如何影响我们的自我理解，并提出了几种探索自我的实用方法，如自我观察、记录内心感受和重视他人反馈。强调维持开放心态对于突破固有思维模式的重要性。适合希望深入了解自己、关注心理健康和个人发展的读者。</v>
       </c>
       <c r="D137" t="str">
-        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
+        <v>心理机制, 探索路径, 社会角色, 自我认知, 认知科学</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>掌控情绪：开启美好生活的密钥</v>
+        <v>打破心中成见的枷锁：方法与意义</v>
       </c>
       <c r="B138" t="str">
         <v>心理调适</v>
       </c>
       <c r="C138" t="str">
-        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
+        <v>阐述成见形成的根源与表现，剖析其对个人成长和人际关系的危害，介绍打破成见的自我反思和积极沟通等方法，强调放下成见对个人和人际关系的重要性。</v>
       </c>
       <c r="D138" t="str">
-        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
+        <v>个人成长, 人际关系, 成见, 积极沟通, 自我反思</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>现代社会中保持心理健康的实用指南</v>
+        <v>掌控情绪：开启美好生活的密钥</v>
       </c>
       <c r="B139" t="str">
         <v>心理调适</v>
       </c>
       <c r="C139" t="str">
-        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
+        <v>学习如何有效地管理情绪，通过认知重构、情绪表达、放松技巧等方法，成为情绪的主人，从而引领我们穿越生活的风雨，驶向美好的彼岸。</v>
       </c>
       <c r="D139" t="str">
-        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
+        <v>情绪管理, 情绪表达, 放松技巧, 自我觉察, 认知重构</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
+        <v>现代社会中保持心理健康的实用指南</v>
       </c>
       <c r="B140" t="str">
         <v>心理调适</v>
       </c>
       <c r="C140" t="str">
-        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
+        <v>一份现代社会中保持心理健康的实用指南，涵盖自我认知、社交支持、健康生活方式等多方面内容，助您在现代生活中保持心理健康。</v>
       </c>
       <c r="D140" t="str">
-        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
+        <v>专业帮助, 健康生活方式, 心理健康, 社交支持, 自我认知</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
+        <v>私心的隐匿与觉察：揭开隐藏在话语背后的真相</v>
       </c>
       <c r="B141" t="str">
         <v>心理调适</v>
       </c>
       <c r="C141" t="str">
-        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
+        <v>深入探讨私心在日常生活和工作中的隐蔽表现，学习如何觉察和应对隐藏在话语背后的私心，以促进更健康的沟通和人际关系。</v>
       </c>
       <c r="D141" t="str">
-        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
+        <v>人际关系, 私心, 职场心理学, 自我认知, 话语分析</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>经历重大心理创伤后，人们是如何修复自己的心理创伤的？</v>
       </c>
       <c r="B142" t="str">
         <v>心理调适</v>
       </c>
       <c r="C142" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>深入探讨经历重大心理创伤后人们修复心理创伤的多种有效途径，包括寻求专业援助、自我疗愈、借助他人力量以及重塑生活意义等方面，为受创伤者提供实用的指导和建议。</v>
       </c>
       <c r="D142" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>心理创伤修复, 情绪管理, 生活意义, 自我疗愈</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B143" t="str">
         <v>心理调适</v>
       </c>
       <c r="C143" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D143" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B144" t="str">
         <v>心理调适</v>
       </c>
       <c r="C144" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D144" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>自杀：世界多了一个自杀的人还是少了一个自杀的人？</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B145" t="str">
         <v>心理调适</v>
       </c>
       <c r="C145" t="str">
-        <v>深入探讨自杀这一沉重话题，从不同角度分析自杀对世界的影响，包括社会现象、生命终结和哲学思考等方面，并阐述自杀预防与应对措施，旨在提高对自杀问题的重视，守护生命。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D145" t="str">
-        <v>心理健康, 生命意义, 社会影响, 自杀, 自杀预防</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>自杀：世界多了一个自杀的人还是少了一个自杀的人？</v>
       </c>
       <c r="B146" t="str">
         <v>心理调适</v>
       </c>
       <c r="C146" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>深入探讨自杀这一沉重话题，从不同角度分析自杀对世界的影响，包括社会现象、生命终结和哲学思考等方面，并阐述自杀预防与应对措施，旨在提高对自杀问题的重视，守护生命。</v>
       </c>
       <c r="D146" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>心理健康, 生命意义, 社会影响, 自杀, 自杀预防</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B147" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C147" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D147" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B148" t="str">
         <v>性别健康</v>
       </c>
       <c r="C148" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D148" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B149" t="str">
         <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D149" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B150" t="str">
         <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D150" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D151" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B152" t="str">
         <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D152" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>如果不孕不育是遗传的，如何传递基因？</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B153" t="str">
         <v>性别健康</v>
       </c>
       <c r="C153" t="str">
-        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
       </c>
       <c r="D153" t="str">
-        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
+        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>少女与少妇：不同阶段的独特魅力解析</v>
+        <v>如果不孕不育是遗传的，如何传递基因？</v>
       </c>
       <c r="B154" t="str">
         <v>性别健康</v>
       </c>
       <c r="C154" t="str">
-        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
+        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
       </c>
       <c r="D154" t="str">
-        <v>生活方式, 生理差异, 社会角色</v>
+        <v>不孕不育, 心理支持, 辅助生殖技术, 遗传咨询, 遗传机制</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>怎么提高怀孕几率</v>
+        <v>少女与少妇：不同阶段的独特魅力解析</v>
       </c>
       <c r="B155" t="str">
         <v>性别健康</v>
       </c>
       <c r="C155" t="str">
-        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
+        <v>深入剖析少女与少妇在生理、心理、生活方式和社会角色等方面的显著区别，展现不同阶段的独特魅力，帮助读者更好地理解和尊重女性在不同人生阶段的特点。</v>
       </c>
       <c r="D155" t="str">
-        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
+        <v>生活方式, 生理差异, 社会角色</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>男人为什么不喜欢戴避孕套</v>
+        <v>怎么提高怀孕几率</v>
       </c>
       <c r="B156" t="str">
         <v>性别健康</v>
       </c>
       <c r="C156" t="str">
-        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
+        <v>提高怀孕几率的方法包括了解身体周期，如通过基础体温法或排卵试纸监测排卵并在排卵日前后同房。调整生活习惯，均衡饮食补充叶酸，选择适量运动如散步瑜伽，保持愉快心情。进行孕前生育检查，必要时考虑辅助生殖技术。避免过度频繁同房，保持规律作息，长时间尝试未果应及时就医。关键是找到适合自己的方法并保持积极心态。</v>
       </c>
       <c r="D156" t="str">
-        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
+        <v>健康饮食, 排卵监测, 生育检查, 辅助生殖技术, 适量运动</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>男人喜欢女人用嘴是什么原因呢</v>
+        <v>男人为什么不喜欢戴避孕套</v>
       </c>
       <c r="B157" t="str">
         <v>性别健康</v>
       </c>
       <c r="C157" t="str">
-        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
+        <v>男性可能因舒适度问题、对避孕套效果的误解、心理因素及文化社会观念等原因不喜欢戴避孕套。然而，正确使用避孕套对于预防意外怀孕和性传播疾病至关重要。提倡开放沟通，选择安全且双方同意的避孕方法，并在有疑问时咨询专业医疗人员。</v>
       </c>
       <c r="D157" t="str">
-        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
+        <v>性健康, 文化和社会观念, 舒适度, 误解与信息不足, 避孕套</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>男人多大年龄就没性功能了</v>
+        <v>男人喜欢女人用嘴是什么原因呢</v>
       </c>
       <c r="B158" t="str">
         <v>性别健康</v>
       </c>
       <c r="C158" t="str">
-        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
+        <v>本文解析了男性偏好口交行为的多种原因，如生理上的愉悦感受、心理和情感层面的信任与亲密感、追求新鲜体验等。同时也提到了文化和社会因素对此偏好的影响。文章强调了在亲密关系中进行开放沟通的重要性，以确保双方的意愿和界限得到尊重。适合希望深入了解性别健康和亲密关系管理的读者。</v>
       </c>
       <c r="D158" t="str">
-        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
+        <v>亲密关系, 性健康, 情感表达, 沟通, 社会影响</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>男人性时长：正常范围的深度剖析</v>
+        <v>男人多大年龄就没性功能了</v>
       </c>
       <c r="B159" t="str">
         <v>性别健康</v>
       </c>
       <c r="C159" t="str">
-        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
+        <v>探索男性性功能随年龄变化的奥秘，了解影响性健康的多种因素。网页深入解析生理变化、心理状态、生活方式及疾病如何左右男性性功能，强调无统一年龄定义失去性功能时刻。提倡健康生活与积极心态，关注性别健康，预防疾病，维持长久活力。适合关心性别健康、追求高品质生活的您。</v>
       </c>
       <c r="D159" t="str">
-        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
+        <v>年龄因素, 心理健康, 性别健康, 性功能, 生活方式, 生理变化, 疾病影响</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>男人长期不过性生活有什么影响</v>
+        <v>男人性时长：正常范围的深度剖析</v>
       </c>
       <c r="B160" t="str">
         <v>性别健康</v>
       </c>
       <c r="C160" t="str">
-        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
+        <v>深入探讨男性性能力的正常范围，分析影响性能力的多元因素，包括生理、心理和生活习惯等方面，同时介绍早泄的界定及延长性行为时间的策略，帮助男性了解自身性健康，以积极态度面对性生活。</v>
       </c>
       <c r="D160" t="str">
-        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
+        <v>影响性能力因素, 性时长, 性生活健康, 早泄界定, 男性性能力</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>男孩何时真正意识到自己是男人</v>
+        <v>男人长期不过性生活有什么影响</v>
       </c>
       <c r="B161" t="str">
         <v>性别健康</v>
       </c>
       <c r="C161" t="str">
-        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
+        <v>探讨男性健康方面的问题，包括性生活的频率、心理影响以及生理适应等，这是一个普遍关心的话题。</v>
       </c>
       <c r="D161" t="str">
-        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
+        <v>心理健康, 性别健康, 性生活频率, 生殖系统健康, 生理适应</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>八个瑞士卷与和尚分粥</v>
+        <v>男孩何时真正意识到自己是男人</v>
       </c>
       <c r="B162" t="str">
-        <v>情感关系</v>
+        <v>性别健康</v>
       </c>
       <c r="C162" t="str">
-        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
+        <v>深入探讨男孩成长为男人的过程，剖析从自我认知觉醒、社会角色转变到心理成熟各阶段的特征，为男孩成长提供有益指引，助力其成为有担当、内心成熟的男人。</v>
       </c>
       <c r="D162" t="str">
-        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
+        <v>心理成熟, 社会角色, 自我认知, 责任担当</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>时间与新欢：情感困境的双重破局之道</v>
+        <v>八个瑞士卷与和尚分粥</v>
       </c>
       <c r="B163" t="str">
         <v>情感关系</v>
       </c>
       <c r="C163" t="str">
-        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
+        <v>文章通过“八个瑞士卷”与“和尚分粥”的故事，探讨了资源分配在夫妻关系及合伙人之间的公平性问题，强调了个人获取和配置资源能力的重要性，以及寻找能够使资源价值最大化的合作伙伴的意义。指出自媒体环境下，一些日常小矛盾被放大成了性别对立的话题。</v>
       </c>
       <c r="D163" t="str">
-        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
+        <v>和尚分粥, 夫妻关系, 自媒体效应, 资源分配</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
+        <v>时间与新欢：情感困境的双重破局之道</v>
       </c>
       <c r="B164" t="str">
         <v>情感关系</v>
       </c>
       <c r="C164" t="str">
-        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
+        <v>探讨在情感困境中，时间和新欢分别发挥的作用以及二者融合的可能性，帮助深陷情感困扰的人找到适合自己的破局之道。</v>
       </c>
       <c r="D164" t="str">
-        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
+        <v>情感困境, 情感成长, 新欢作用, 时间疗伤, 爱情选择</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>爱一个人需要理由吗？</v>
+        <v>煎蛋追求荷包蛋：情歌里的浪漫与勇气</v>
       </c>
       <c r="B165" t="str">
         <v>情感关系</v>
       </c>
       <c r="C165" t="str">
-        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
+        <v>讲述煎蛋追求荷包蛋这一独特视角下的爱情故事，展现其中蕴含的浪漫与勇气，以及从中得到的爱情启示，带你领略别样爱情世界。</v>
       </c>
       <c r="D165" t="str">
-        <v>情感平衡, 爱情哲学, 理性与感性</v>
+        <v>勇气启示, 情歌寓意, 浪漫爱情, 煎蛋荷包蛋, 爱情故事</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
+        <v>爱一个人需要理由吗？</v>
       </c>
       <c r="B166" t="str">
-        <v>教育学习</v>
+        <v>情感关系</v>
       </c>
       <c r="C166" t="str">
-        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
+        <v>探讨爱一个人是否需要理由，分析理性与感性在爱情中的角色及如何找到两者之间的平衡点，让感情自然生长。文章深入浅出地解读了爱情的本质，帮助读者理解在关系中真诚的重要性。</v>
       </c>
       <c r="D166" t="str">
-        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
+        <v>情感平衡, 爱情哲学, 理性与感性</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
+        <v>为什么语文老师要求多看名著，不让看网络小说？</v>
       </c>
       <c r="B167" t="str">
         <v>教育学习</v>
       </c>
       <c r="C167" t="str">
-        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
+        <v>语文老师建议学生多读名著而非网络小说，主要是因为名著具有更高的文学价值和思想深度，有助于提升学生的批判性思维和文化素养。名著的语言规范，适合学习高质量的写作技巧，同时能够正向引导学生形成健康的价值观。相比之下，虽然并非所有网络小说都缺乏营养，但它们往往更注重娱乐性，可能在语言规范、思想深度及价值观方面存在不足。因此，教师提倡以经典名著为主，辅以精选的优质网络小说，来培养学生的阅读兴趣与独立判断能力。</v>
       </c>
       <c r="D167" t="str">
-        <v>即时满足, 战略思维, 时间管理, 目标管理, 职业发展</v>
+        <v>价值观引导, 教育目标, 文学价值, 文学素养, 语言规范</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>大学该选热门专业还是兴趣专业？</v>
+        <v>人生这场马拉松，你是在种西瓜还是捡芝麻？</v>
       </c>
       <c r="B168" t="str">
         <v>教育学习</v>
       </c>
       <c r="C168" t="str">
-        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
+        <v>本文通过比喻手法探讨了在人生这场马拉松中，选择专注于长期价值（种西瓜）与追求即时满足（捡芝麻）之间的差异。文章分析了当代社会中普遍存在的认知陷阱，即过度追求短期的、低质量的满足感，而忽视了那些需要长时间积累和努力才能实现的核心价值和个人成长。提出了量化时间的复利、建立痛苦阈值以及警惕伪西瓜陷阱等策略，帮助读者识别并专注于那些能够带来长远利益的目标。适合希望摆脱即时满足诱惑，致力于个人成长和职业发展的读者阅读。真正的成功来自于对重要事物的坚持和耐心等待。</v>
       </c>
       <c r="D168" t="str">
-        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
+        <v>即时满足, 战略思维, 时间管理, 目标管理, 职业发展</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>毕业3年，学费为何不退还？</v>
+        <v>大学该选热门专业还是兴趣专业？</v>
       </c>
       <c r="B169" t="str">
         <v>教育学习</v>
       </c>
       <c r="C169" t="str">
-        <v>探讨毕业多年后学费看似“未得到回报”却不退还的原因，深入解析教育投资在知识能力培养、资源利用、学习长期效应等方面的价值体现。</v>
+        <v>文章探讨了大学专业选择时面临的热门专业与兴趣专业之间的抉择，分析了两者各自的优缺点，并提出了行业周期研判、兴趣转化能力、院校资源评估等五个关键维度来帮助做出决策，提倡采用复合型发展路径及分阶段实现策略，以在现实与理想之间找到平衡。</v>
       </c>
       <c r="D169" t="str">
-        <v>学习效应, 学费价值, 教育回报, 教育投资, 知识能力</v>
+        <v>专业选择, 兴趣导向, 复合型发展, 热门专业, 职业规划</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>认知过载时代深度学习的解锁之道</v>
+        <v>未来教育技术的创新趋势</v>
       </c>
       <c r="B170" t="str">
         <v>教育学习</v>
       </c>
       <c r="C170" t="str">
-        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
+        <v>探索未来教育技术的创新趋势，包括人工智能助力个性化学习、VR/AR打造沉浸式体验、在线教育平台多元化发展、大数据驱动教育决策与评估，以及智能硬件和教育模式创新等，为培养高素质人才开辟新路径。</v>
       </c>
       <c r="D170" t="str">
-        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
+        <v>VR/AR, 人工智能, 在线教育, 大数据, 教育技术</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>高考满分750，冲击985的秘籍大揭秘</v>
+        <v>毕业3年，学费为何不退还？</v>
       </c>
       <c r="B171" t="str">
         <v>教育学习</v>
       </c>
       <c r="C171" t="str">
-        <v>全面解析冲击985高校的高考备考秘籍，涵盖985录取规则、专属备考计划制定、高效学习方法以及心态与压力管理等方面，助力考生在总分750分的高考中脱颖而出。</v>
+        <v>探讨毕业多年后学费看似“未得到回报”却不退还的原因，深入解析教育投资在知识能力培养、资源利用、学习长期效应等方面的价值体现。</v>
       </c>
       <c r="D171" t="str">
-        <v>985高校, 备考计划, 学习方法, 心态调整, 高考</v>
+        <v>学习效应, 学费价值, 教育回报, 教育投资, 知识能力</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>写公众号和建立独立网站的差异对比</v>
+        <v>认知过载时代深度学习的解锁之道</v>
       </c>
       <c r="B172" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C172" t="str">
-        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
+        <v>阐述在认知过载时代面临的挑战，强调深度学习的意义，并介绍开启深度学习的实用方法，包括定位学习目标、筛选信息源、运用学习策略以及培养专注力和耐心等，帮助读者提升认知能力。</v>
       </c>
       <c r="D172" t="str">
-        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
+        <v>专注力, 信息筛选, 学习目标, 深度学习, 认知过载</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
+        <v>高考满分750，冲击985的秘籍大揭秘</v>
       </c>
       <c r="B173" t="str">
-        <v>数字科技</v>
+        <v>教育学习</v>
       </c>
       <c r="C173" t="str">
-        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
+        <v>全面解析冲击985高校的高考备考秘籍，涵盖985录取规则、专属备考计划制定、高效学习方法以及心态与压力管理等方面，助力考生在总分750分的高考中脱颖而出。</v>
       </c>
       <c r="D173" t="str">
-        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
+        <v>985高校, 备考计划, 学习方法, 心态调整, 高考</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>探寻色彩认知：黑人会称黑色为“肉色”吗？</v>
+        <v>写公众号和建立独立网站的差异对比</v>
       </c>
       <c r="B174" t="str">
-        <v>文化研究</v>
+        <v>数字科技</v>
       </c>
       <c r="C174" t="str">
-        <v>深入探讨在全球化背景下，不同文化中色彩认知的差异，聚焦黑人是否会将黑色称为“肉色”这一有趣话题，剖析背后文化、社交等因素的影响，促进跨文化理解。</v>
+        <v>文章对比了写公众号和建立独立网站的差异，包括平台控制、内容形式、用户互动、收益模式和发展空间等方面，帮助读者根据自身需求选择最适合的内容分享方式。</v>
       </c>
       <c r="D174" t="str">
-        <v>文化差异, 肤色称呼, 色彩认知, 跨文化理解, 黑人社区</v>
+        <v>公众号, 内容形式, 发展空间, 平台差异, 收益模式, 独立网站, 用户互动</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>贾宝玉出生时嘴里含着玉，为何不叫“宝国”？</v>
+        <v>数字围城下的生存法则：普通人的隐私自卫指南</v>
       </c>
       <c r="B175" t="str">
-        <v>文化研究</v>
+        <v>数字科技</v>
       </c>
       <c r="C175" t="str">
-        <v>深入探究《红楼梦》中贾宝玉出生时嘴里含着玉却不取名“宝国”的原因，剖析其名字由来、不取名“宝国”的考量因素，以及名字与人物性格、文学命名艺术之间的关系。</v>
+        <v>文章提供了全面的隐私保护指南，涵盖密码管理、社交平台使用、手机应用权限控制、公共空间安全防范及信息泄露应急措施等方面，旨在帮助普通用户在数字时代有效保护个人隐私，确保生活主动权。</v>
       </c>
       <c r="D175" t="str">
-        <v>人物性格, 命名艺术, 文化内涵, 红楼梦, 贾宝玉</v>
+        <v>个人信息管理, 公共WiFi, 应用权限, 社交媒体, 网络安全, 隐私保护</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>女人钟情的男士香水密码</v>
+        <v>探寻色彩认知：黑人会称黑色为“肉色”吗？</v>
       </c>
       <c r="B176" t="str">
-        <v>时尚生活</v>
+        <v>文化研究</v>
       </c>
       <c r="C176" t="str">
-        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
+        <v>深入探讨在全球化背景下，不同文化中色彩认知的差异，聚焦黑人是否会将黑色称为“肉色”这一有趣话题，剖析背后文化、社交等因素的影响，促进跨文化理解。</v>
       </c>
       <c r="D176" t="str">
-        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
+        <v>文化差异, 肤色称呼, 色彩认知, 跨文化理解, 黑人社区</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>当下男性不蓄胡须被视为美的原因剖析</v>
+        <v>贾宝玉出生时嘴里含着玉，为何不叫“宝国”？</v>
       </c>
       <c r="B177" t="str">
-        <v>时尚生活</v>
+        <v>文化研究</v>
       </c>
       <c r="C177" t="str">
-        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
+        <v>深入探究《红楼梦》中贾宝玉出生时嘴里含着玉却不取名“宝国”的原因，剖析其名字由来、不取名“宝国”的考量因素，以及名字与人物性格、文学命名艺术之间的关系。</v>
       </c>
       <c r="D177" t="str">
-        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
+        <v>人物性格, 命名艺术, 文化内涵, 红楼梦, 贾宝玉</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>手动剃须刀与电动剃须刀的比较分析</v>
+        <v>女人钟情的男士香水密码</v>
       </c>
       <c r="B178" t="str">
         <v>时尚生活</v>
       </c>
       <c r="C178" t="str">
-        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
+        <v>深入剖析女人钟情的男士香水类型，探索时尚品牌的经典之作，掌握不同场合的香水搭配智慧，助你在生活中展现独特魅力。</v>
       </c>
       <c r="D178" t="str">
-        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
+        <v>木质香型, 海洋香型, 清新花香型, 男士香水, 香水品牌</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>暴雨橙色预警是要下芬达的意思吗？</v>
+        <v>当下男性不蓄胡须被视为美的原因剖析</v>
       </c>
       <c r="B179" t="str">
-        <v>气象预警</v>
+        <v>时尚生活</v>
       </c>
       <c r="C179" t="str">
-        <v>解析暴雨橙色预警的定义、背后蕴含的信息，包括降雨强度、可能引发的次生灾害以及对日常生活的影响，并提供遇到暴雨橙色预警时应采取的应对措施，纠正“暴雨橙色预警是要下芬达”这一玩笑观点，强调科学应对气象预警的重要性。</v>
+        <v>深入分析当下男性不蓄胡须被视为美的多种原因，涵盖文化观念全球化重塑、现代生活快节奏刚需、时尚潮流引领、科技与美容行业助力以及心理因素驱动等方面，探讨这一现象背后的多元因素。</v>
       </c>
       <c r="D179" t="str">
-        <v>暴雨橙色预警, 次生灾害, 气象预警, 防范措施, 降雨强度</v>
+        <v>时尚潮流, 现代生活, 男性审美, 科技美容, 胡须文化</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>去自首的路上被抓了还算自首吗？</v>
+        <v>手动剃须刀与电动剃须刀的比较分析</v>
       </c>
       <c r="B180" t="str">
-        <v>法律知识</v>
+        <v>时尚生活</v>
       </c>
       <c r="C180" t="str">
-        <v>深入剖析犯罪嫌疑人在去自首的路上被抓这一复杂情况是否算自首，结合自首的法律定义、构成要件及相关案例进行解读，助您了解相关法律知识。</v>
+        <v>对比手动剃须刀和电动剃须刀的优缺点，帮助男士根据自身需求和情况选择最适合的剃须工具，提升剃须体验。</v>
       </c>
       <c r="D180" t="str">
-        <v>司法实践, 法律定义, 犯罪嫌疑人, 自首, 量刑</v>
+        <v>剃须刀, 剃须技巧, 手动剃须, 电动剃须, 男士护理</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
+        <v>暴雨橙色预警是要下芬达的意思吗？</v>
       </c>
       <c r="B181" t="str">
-        <v>法律知识</v>
+        <v>气象预警</v>
       </c>
       <c r="C181" t="str">
-        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
+        <v>解析暴雨橙色预警的定义、背后蕴含的信息，包括降雨强度、可能引发的次生灾害以及对日常生活的影响，并提供遇到暴雨橙色预警时应采取的应对措施，纠正“暴雨橙色预警是要下芬达”这一玩笑观点，强调科学应对气象预警的重要性。</v>
       </c>
       <c r="D181" t="str">
-        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
+        <v>暴雨橙色预警, 次生灾害, 气象预警, 防范措施, 降雨强度</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
+        <v>去自首的路上被抓了还算自首吗？</v>
       </c>
       <c r="B182" t="str">
-        <v>游戏竞技</v>
+        <v>法律知识</v>
       </c>
       <c r="C182" t="str">
-        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
+        <v>深入剖析犯罪嫌疑人在去自首的路上被抓这一复杂情况是否算自首，结合自首的法律定义、构成要件及相关案例进行解读，助您了解相关法律知识。</v>
       </c>
       <c r="D182" t="str">
-        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
+        <v>司法实践, 法律定义, 犯罪嫌疑人, 自首, 量刑</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
+        <v>服刑期间，父母去世，有机会见最后一面吗？</v>
       </c>
       <c r="B183" t="str">
-        <v>玩具科普</v>
+        <v>法律知识</v>
       </c>
       <c r="C183" t="str">
-        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
+        <v>本文探讨了在中国服刑人员于父母去世时申请探视的可能性及现实困境。尽管《中华人民共和国监狱法》允许在特定情况下特许探视，但实践中往往因“保障监管秩序”等原因受限。文章强调了司法人性化的重要性，指出法律应兼具温度，尊重生命尊严，并提倡通过更多理解和宽容促进法治文明的进步。这不仅关乎服刑人员的权利保护，也体现了社会的人文关怀。</v>
       </c>
       <c r="D183" t="str">
-        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
+        <v>司法人性化, 服刑人员权益, 法治文明, 生命尊严, 监狱管理</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>斗地主发牌方式分析：如何在速度与准确性之间寻找最优解</v>
       </c>
       <c r="B184" t="str">
-        <v>生活感悟</v>
+        <v>游戏竞技</v>
       </c>
       <c r="C184" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>在三人斗地主游戏中，如何平衡发牌速度与准确性是提升游戏体验的关键。本文详细分析了三种常见发牌方案，最终推荐使用三次发牌（6+6+5）的方法，因其能在减少发牌次数、保证操作效率的同时，确保清点的准确性和游戏规则的合规性。此方法不仅适用于各种场合，无论是新手还是老手都能从中受益，享受流畅的游戏过程。通过对比不同方案的关键指标，我们发现“6+6+5”分法是在效率和准确性之间寻找最优解的最佳策略。</v>
       </c>
       <c r="D184" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>准确性, 斗地主, 游戏体验, 游戏效率, 游戏策略</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>塑料恐龙玩具是否含真正恐龙成分揭秘</v>
       </c>
       <c r="B185" t="str">
-        <v>生活感悟</v>
+        <v>玩具科普</v>
       </c>
       <c r="C185" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>探讨塑料恐龙玩具是否含有真正的恐龙成分，深入解析其材质、与真正恐龙成分的区别，同时介绍其教育价值和市场新动态，为你揭开塑料恐龙玩具背后的秘密。</v>
       </c>
       <c r="D185" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>塑料恐龙玩具, 恐龙成分, 玩具市场动态, 玩具教育价值, 玩具材质</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>探寻人生意义：在好好活中做有意义的事</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B186" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C186" t="str">
-        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D186" t="str">
-        <v>人生意义, 有意义的事, 生命价值, 自我探寻</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B187" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C187" t="str">
-        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D187" t="str">
-        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>探寻人生意义：在好好活中做有意义的事</v>
       </c>
       <c r="B188" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C188" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
       </c>
       <c r="D188" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>人生意义, 有意义的事, 生命价值, 自我探寻</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
       </c>
       <c r="B189" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C189" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
       </c>
       <c r="D189" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B190" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C190" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D190" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B191" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C191" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D191" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B192" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C192" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D192" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B193" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C193" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D193" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B194" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C194" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D194" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B195" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C195" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D195" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B196" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C196" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D196" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B197" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C197" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D197" t="str">
-        <v>休闲时尚, 商务正装, 手表选购, 时尚配饰, 高端奢华</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B198" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C198" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D198" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B199" t="str">
         <v>生活日常</v>
       </c>
       <c r="C199" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D199" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>休闲时尚, 商务正装, 手表选购, 时尚配饰, 高端奢华</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>回首2024</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B200" t="str">
         <v>生活日常</v>
       </c>
       <c r="C200" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D200" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B201" t="str">
         <v>生活日常</v>
       </c>
       <c r="C201" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D201" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>回首2024</v>
       </c>
       <c r="B202" t="str">
         <v>生活日常</v>
       </c>
       <c r="C202" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D202" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B203" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C203" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D203" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B204" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C204" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D204" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B205" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C205" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D205" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B206" t="str">
         <v>社会探究</v>
       </c>
       <c r="C206" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D206" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B207" t="str">
         <v>社会探究</v>
       </c>
       <c r="C207" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D207" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B208" t="str">
         <v>社会探究</v>
       </c>
       <c r="C208" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D208" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B209" t="str">
         <v>社会探究</v>
       </c>
       <c r="C209" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D209" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B210" t="str">
         <v>社会探究</v>
       </c>
       <c r="C210" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D210" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B211" t="str">
         <v>社会探究</v>
       </c>
       <c r="C211" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D211" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B212" t="str">
         <v>社会探究</v>
       </c>
       <c r="C212" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D212" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B213" t="str">
         <v>社会探究</v>
       </c>
       <c r="C213" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D213" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B214" t="str">
         <v>社会探究</v>
       </c>
       <c r="C214" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D214" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B215" t="str">
         <v>社会探究</v>
       </c>
       <c r="C215" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D215" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B216" t="str">
         <v>社会探究</v>
       </c>
       <c r="C216" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D216" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B217" t="str">
         <v>社会探究</v>
       </c>
       <c r="C217" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D217" t="str">
-        <v>宇宙哲学, 时间折叠, 熵增博弈, 认知科学, 道家哲学</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B218" t="str">
         <v>社会探究</v>
       </c>
       <c r="C218" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D218" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B219" t="str">
         <v>社会探究</v>
       </c>
       <c r="C219" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D219" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>宇宙哲学, 时间折叠, 熵增博弈, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B220" t="str">
         <v>社会探究</v>
       </c>
       <c r="C220" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D220" t="str">
-        <v>生存策略, 管理智慧, 认知科学, 资源分配, 预期管理</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B221" t="str">
         <v>社会探究</v>
       </c>
       <c r="C221" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D221" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B222" t="str">
         <v>社会探究</v>
       </c>
       <c r="C222" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D222" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>生存策略, 管理智慧, 认知科学, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B223" t="str">
         <v>社会探究</v>
       </c>
       <c r="C223" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D223" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B224" t="str">
         <v>社会探究</v>
       </c>
       <c r="C224" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D224" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B225" t="str">
         <v>社会探究</v>
       </c>
       <c r="C225" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D225" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B226" t="str">
         <v>社会探究</v>
       </c>
       <c r="C226" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D226" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B227" t="str">
         <v>社会探究</v>
       </c>
       <c r="C227" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D227" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B228" t="str">
         <v>社会探究</v>
       </c>
       <c r="C228" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D228" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B229" t="str">
         <v>社会探究</v>
       </c>
       <c r="C229" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D229" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B230" t="str">
         <v>社会探究</v>
       </c>
       <c r="C230" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D230" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B231" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C231" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D231" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B232" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C232" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D232" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B233" t="str">
         <v>社会现象</v>
       </c>
       <c r="C233" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D233" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B234" t="str">
         <v>社会现象</v>
       </c>
       <c r="C234" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D234" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>再聊姜萍</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B235" t="str">
         <v>社会现象</v>
       </c>
       <c r="C235" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D235" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B236" t="str">
         <v>社会现象</v>
       </c>
       <c r="C236" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D236" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B237" t="str">
         <v>社会现象</v>
       </c>
       <c r="C237" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D237" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B238" t="str">
         <v>社会现象</v>
       </c>
       <c r="C238" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D238" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B239" t="str">
         <v>社会现象</v>
       </c>
       <c r="C239" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D239" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>如何反驳“现实点，社会就是这样”？</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B240" t="str">
         <v>社会现象</v>
       </c>
       <c r="C240" t="str">
-        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D240" t="str">
-        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B241" t="str">
         <v>社会现象</v>
       </c>
       <c r="C241" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D241" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>如何反驳“现实点，社会就是这样”？</v>
       </c>
       <c r="B242" t="str">
         <v>社会现象</v>
       </c>
       <c r="C242" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
       </c>
       <c r="D242" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B243" t="str">
         <v>社会现象</v>
       </c>
       <c r="C243" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D243" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B244" t="str">
         <v>社会现象</v>
       </c>
       <c r="C244" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D244" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B245" t="str">
         <v>社会现象</v>
       </c>
       <c r="C245" t="str">
-        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D245" t="str">
-        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B246" t="str">
         <v>社会现象</v>
       </c>
       <c r="C246" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D246" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
       </c>
       <c r="B247" t="str">
         <v>社会现象</v>
       </c>
       <c r="C247" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
       </c>
       <c r="D247" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B248" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C248" t="str">
-        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D248" t="str">
-        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>倒立的时候是不是举起了地球？</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B249" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C249" t="str">
-        <v>探讨倒立这一动作背后的科学原理，包括地球引力、人体力学等方面，同时从哲学角度思考倒立与地球的关系，以及其在科学与艺术领域的跨界之美。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D249" t="str">
-        <v>人体力学, 倒立, 哲学思考, 地球引力, 科学与艺术</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
       </c>
       <c r="B250" t="str">
         <v>科学探索</v>
       </c>
       <c r="C250" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
       </c>
       <c r="D250" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>巧用3kg和5kg砝码称出8kg水的方法</v>
+        <v>倒立的时候是不是举起了地球？</v>
       </c>
       <c r="B251" t="str">
         <v>科学探索</v>
       </c>
       <c r="C251" t="str">
-        <v>介绍如何仅利用3kg和5kg的砝码，通过天平精确称出8kg水的详细步骤与操作技巧，帮助提升生活中的测量能力与逻辑思维。</v>
+        <v>探讨倒立这一动作背后的科学原理，包括地球引力、人体力学等方面，同时从哲学角度思考倒立与地球的关系，以及其在科学与艺术领域的跨界之美。</v>
       </c>
       <c r="D251" t="str">
-        <v>天平, 测量技巧, 砝码, 称水, 逻辑思维</v>
+        <v>人体力学, 倒立, 哲学思考, 地球引力, 科学与艺术</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>探索发电机与永动机的奥秘：连接发电机能否创造永动机？</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B252" t="str">
         <v>科学探索</v>
       </c>
       <c r="C252" t="str">
-        <v>深入剖析连接发电机能否创造永动机这一问题，解读发电机工作原理、永动机定义分类，阐述因能量损耗和能量守恒定律限制无法实现，同时讲述永动机探索带来的启示。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D252" t="str">
-        <v>发电机原理, 永动机概念, 科学探索, 能量守恒定律, 能量损耗</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>揭秘陨石为何总是落在陨石坑里</v>
+        <v>巧用3kg和5kg砝码称出8kg水的方法</v>
       </c>
       <c r="B253" t="str">
         <v>科学探索</v>
       </c>
       <c r="C253" t="str">
-        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
+        <v>介绍如何仅利用3kg和5kg的砝码，通过天平精确称出8kg水的详细步骤与操作技巧，帮助提升生活中的测量能力与逻辑思维。</v>
       </c>
       <c r="D253" t="str">
-        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
+        <v>天平, 测量技巧, 砝码, 称水, 逻辑思维</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>探索发电机与永动机的奥秘：连接发电机能否创造永动机？</v>
       </c>
       <c r="B254" t="str">
-        <v>科技前沿</v>
+        <v>科学探索</v>
       </c>
       <c r="C254" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>深入剖析连接发电机能否创造永动机这一问题，解读发电机工作原理、永动机定义分类，阐述因能量损耗和能量守恒定律限制无法实现，同时讲述永动机探索带来的启示。</v>
       </c>
       <c r="D254" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>发电机原理, 永动机概念, 科学探索, 能量守恒定律, 能量损耗</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>揭秘陨石为何总是落在陨石坑里</v>
       </c>
       <c r="B255" t="str">
-        <v>科技前沿</v>
+        <v>科学探索</v>
       </c>
       <c r="C255" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
       </c>
       <c r="D255" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B256" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C256" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D256" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B257" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C257" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D257" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B258" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C258" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D258" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B259" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C259" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D259" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B260" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C260" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D260" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B261" t="str">
         <v>科技前沿</v>
       </c>
       <c r="C261" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D261" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B262" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C262" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D262" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>什么是成功的定义？</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B263" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C263" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D263" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B264" t="str">
         <v>职业发展</v>
       </c>
       <c r="C264" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D264" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B265" t="str">
         <v>职业发展</v>
       </c>
       <c r="C265" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D265" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B266" t="str">
         <v>职业发展</v>
       </c>
       <c r="C266" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D266" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B267" t="str">
         <v>职业发展</v>
       </c>
       <c r="C267" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D267" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B268" t="str">
         <v>职业发展</v>
       </c>
       <c r="C268" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D268" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B269" t="str">
         <v>职业发展</v>
       </c>
       <c r="C269" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D269" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>如何通过在线课程提升职业技能</v>
       </c>
       <c r="B270" t="str">
         <v>职业发展</v>
       </c>
       <c r="C270" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>深入探讨如何利用在线课程有效提升职业技能，涵盖目标定位、平台选择、学习计划制定、学习投入及实践应用等方面，助力在职场中脱颖而出。</v>
       </c>
       <c r="D270" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>在线课程, 学习方法, 职业技能, 职场发展, 自我提升</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>拿离职威胁涨薪：一把双刃剑</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B271" t="str">
         <v>职业发展</v>
       </c>
       <c r="C271" t="str">
-        <v>深入剖析拿离职威胁涨薪这一现象，揭示其短期收益与长期风险，为职场人士提供更合适的涨薪策略，助力职场人理性追求薪资增长与职业发展。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D271" t="str">
-        <v>人际关系, 离职威胁, 职业发展, 职场涨薪, 薪资谈判</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B272" t="str">
         <v>职业发展</v>
       </c>
       <c r="C272" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D272" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B273" t="str">
         <v>职业发展</v>
       </c>
       <c r="C273" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D273" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>拿离职威胁涨薪：一把双刃剑</v>
       </c>
       <c r="B274" t="str">
         <v>职业发展</v>
       </c>
       <c r="C274" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>深入剖析拿离职威胁涨薪这一现象，揭示其短期收益与长期风险，为职场人士提供更合适的涨薪策略，助力职场人理性追求薪资增长与职业发展。</v>
       </c>
       <c r="D274" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>人际关系, 离职威胁, 职业发展, 职场涨薪, 薪资谈判</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B275" t="str">
         <v>职业发展</v>
       </c>
       <c r="C275" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D275" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B276" t="str">
         <v>职业发展</v>
       </c>
       <c r="C276" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D276" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B277" t="str">
         <v>职业发展</v>
       </c>
       <c r="C277" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D277" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B278" t="str">
         <v>职业发展</v>
       </c>
       <c r="C278" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D278" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B279" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C279" t="str">
-        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D279" t="str">
-        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>19世纪人类是否全部灭绝过？</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B280" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C280" t="str">
-        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D280" t="str">
-        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>上帝能否创造一块自己搬不动的石头？</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B281" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C281" t="str">
-        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D281" t="str">
-        <v>人类认知, 哲学思考, 宗教解读, 神学逻辑, 逻辑悖论</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B282" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C282" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D282" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>午餐肉，我可以晚上吃吗？</v>
+        <v>19世纪人类是否全部灭绝过？</v>
       </c>
       <c r="B283" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C283" t="str">
-        <v>探讨午餐肉作为晚餐的可行性，分析其营养价值、健康考量因素，以及提供多种晚餐搭配建议，助力读者在享受美食的同时保持健康饮食。</v>
+        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
       </c>
       <c r="D283" t="str">
-        <v>健康饮食, 午餐肉, 晚餐搭配, 烹饪方式, 营养价值</v>
+        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>台风眼里引爆核弹能平息台风吗？</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B284" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C284" t="str">
-        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D284" t="str">
-        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
+        <v>人类认知, 哲学思考, 宗教解读, 神学逻辑, 逻辑悖论</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B285" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C285" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D285" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>哪吒有三头六臂，加入其中一个头得了脑血栓，另外两个头会不会得？</v>
+        <v>午餐肉，我可以晚上吃吗？</v>
       </c>
       <c r="B286" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C286" t="str">
-        <v>文章以哪吒三头六臂的神话形象为切入点，探讨若其中一个头患脑血栓，其余两头是否受影响的有趣问题。结合现实中脑血栓知识与神话设定，深入分析并给出应对策略，还阐述了其中蕴含的健康管理和团队合作启示。</v>
+        <v>探讨午餐肉作为晚餐的可行性，分析其营养价值、健康考量因素，以及提供多种晚餐搭配建议，助力读者在享受美食的同时保持健康饮食。</v>
       </c>
       <c r="D286" t="str">
-        <v>三头六臂, 健康启示, 哪吒, 神话医学, 脑血栓</v>
+        <v>健康饮食, 午餐肉, 晚餐搭配, 烹饪方式, 营养价值</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>台风眼里引爆核弹能平息台风吗？</v>
       </c>
       <c r="B287" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C287" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
       </c>
       <c r="D287" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>如何用向下射击的机枪制作飞行背包？</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B288" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C288" t="str">
-        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D288" t="str">
-        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>哪吒有三头六臂，加入其中一个头得了脑血栓，另外两个头会不会得？</v>
       </c>
       <c r="B289" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C289" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>文章以哪吒三头六臂的神话形象为切入点，探讨若其中一个头患脑血栓，其余两头是否受影响的有趣问题。结合现实中脑血栓知识与神话设定，深入分析并给出应对策略，还阐述了其中蕴含的健康管理和团队合作启示。</v>
       </c>
       <c r="D289" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>三头六臂, 健康启示, 哪吒, 神话医学, 脑血栓</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B290" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C290" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D290" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>如何用向下射击的机枪制作飞行背包？</v>
       </c>
       <c r="B291" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C291" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
       </c>
       <c r="D291" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B292" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C292" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D292" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B293" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C293" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D293" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B294" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C294" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D294" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>妲己不是九尾狐而是藏狐，纣王还会爱上她吗？</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B295" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C295" t="str">
-        <v>探讨妲己形象从九尾狐转变为藏狐后，纣王是否仍会爱她这一新颖话题，分析妲己不同形象特点、纣王爱情观，以及此设定对理解爱情、权力和人性的意义。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D295" t="str">
-        <v>九尾狐, 妲己, 爱情观, 纣王, 藏狐</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B296" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C296" t="str">
-        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D296" t="str">
-        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>我买了一斤藕，为啥半斤都是空的？</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B297" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C297" t="str">
-        <v>深入剖析藕出现空心现象的科学缘由、生物学意义，分享挑选实心藕的实用方法，同时介绍藕丰富多样的营养价值，带你全面了解这种常见水生植物的奥秘。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D297" t="str">
-        <v>挑选技巧, 水生植物, 空心结构, 营养价值</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
+        <v>妲己不是九尾狐而是藏狐，纣王还会爱上她吗？</v>
       </c>
       <c r="B298" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C298" t="str">
-        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
+        <v>探讨妲己形象从九尾狐转变为藏狐后，纣王是否仍会爱她这一新颖话题，分析妲己不同形象特点、纣王爱情观，以及此设定对理解爱情、权力和人性的意义。</v>
       </c>
       <c r="D298" t="str">
-        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
+        <v>九尾狐, 妲己, 爱情观, 纣王, 藏狐</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>斑马纹路是否影响捕食者视觉？</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B299" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C299" t="str">
-        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D299" t="str">
-        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>我买了一斤藕，为啥半斤都是空的？</v>
       </c>
       <c r="B300" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C300" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>深入剖析藕出现空心现象的科学缘由、生物学意义，分享挑选实心藕的实用方法，同时介绍藕丰富多样的营养价值，带你全面了解这种常见水生植物的奥秘。</v>
       </c>
       <c r="D300" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>挑选技巧, 水生植物, 空心结构, 营养价值</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>法律未禁御剑飞行却无人尝试的原因探究</v>
+        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
       </c>
       <c r="B301" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C301" t="str">
-        <v>深入探究法律虽未禁止御剑飞行，但现实中却几乎无人尝试的原因，从技术、安全、社会认知、法律伦理等多方面进行剖析。</v>
+        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
       </c>
       <c r="D301" t="str">
-        <v>安全隐忧, 御剑飞行, 技术瓶颈, 法律伦理, 社会认知</v>
+        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>玉皇大帝住的是平流层还是对流层？</v>
+        <v>斑马纹路是否影响捕食者视觉？</v>
       </c>
       <c r="B302" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C302" t="str">
-        <v>探讨中国古代神话中玉皇大帝居住的天庭究竟处于平流层还是对流层这一问题，从神话传说、科学角度及文化意义多方面展开分析，开启神话与科学交融的奇妙探索之旅。</v>
+        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
       </c>
       <c r="D302" t="str">
-        <v>天庭, 对流层, 平流层, 玉皇大帝, 神话科学融合</v>
+        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B303" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C303" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D303" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>法律未禁御剑飞行却无人尝试的原因探究</v>
       </c>
       <c r="B304" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C304" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>深入探究法律虽未禁止御剑飞行，但现实中却几乎无人尝试的原因，从技术、安全、社会认知、法律伦理等多方面进行剖析。</v>
       </c>
       <c r="D304" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>安全隐忧, 御剑飞行, 技术瓶颈, 法律伦理, 社会认知</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>蓝牙耳机坏了，去医院挂牙科还是耳科？</v>
+        <v>玉皇大帝住的是平流层还是对流层？</v>
       </c>
       <c r="B305" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C305" t="str">
-        <v>以幽默的方式引出蓝牙耳机坏了该如何处理的话题，详细介绍蓝牙耳机故障的常见原因、自我诊断技巧、寻求专业维修的方法以及日常保养的要点，帮助读者了解如何应对蓝牙耳机故障并做好预防。</v>
+        <v>探讨中国古代神话中玉皇大帝居住的天庭究竟处于平流层还是对流层这一问题，从神话传说、科学角度及文化意义多方面展开分析，开启神话与科学交融的奇妙探索之旅。</v>
       </c>
       <c r="D305" t="str">
-        <v>故障原因, 维修方法, 耳机保养, 蓝牙耳机, 预防措施</v>
+        <v>天庭, 对流层, 平流层, 玉皇大帝, 神话科学融合</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B306" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C306" t="str">
-        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D306" t="str">
-        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B307" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C307" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D307" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>蓝牙耳机坏了，去医院挂牙科还是耳科？</v>
       </c>
       <c r="B308" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C308" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>以幽默的方式引出蓝牙耳机坏了该如何处理的话题，详细介绍蓝牙耳机故障的常见原因、自我诊断技巧、寻求专业维修的方法以及日常保养的要点，帮助读者了解如何应对蓝牙耳机故障并做好预防。</v>
       </c>
       <c r="D308" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>故障原因, 维修方法, 耳机保养, 蓝牙耳机, 预防措施</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
       </c>
       <c r="B309" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C309" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
       </c>
       <c r="D309" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>鉴黄师下班看黄色视频：加班还是违法？</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B310" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C310" t="str">
-        <v>探讨鉴黄师下班观看黄色视频的行为是否属于加班或违法，分析其工作性质、法律责任及职场伦理，帮助理解这一特殊职业面临的挑战与抉择。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D310" t="str">
-        <v>工作与生活平衡, 法律法规, 网络环境净化, 职场伦理, 鉴黄师</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B311" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C311" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D311" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>香菇掉厕所了还能叫香菇吗？</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B312" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C312" t="str">
-        <v>探讨“香菇掉厕所了还能叫香菇吗”这一有趣话题，从科学分类、文化心理角度分析香菇命名问题，同时介绍香菇营养价值与烹饪方法，领略其在文化艺术中的魅力。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D312" t="str">
-        <v>文化心理, 物品命名, 食材营养, 香菇, 香菇烹饪</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>鉴黄师下班看黄色视频：加班还是违法？</v>
       </c>
       <c r="B313" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C313" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>探讨鉴黄师下班观看黄色视频的行为是否属于加班或违法，分析其工作性质、法律责任及职场伦理，帮助理解这一特殊职业面临的挑战与抉择。</v>
       </c>
       <c r="D313" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>工作与生活平衡, 法律法规, 网络环境净化, 职场伦理, 鉴黄师</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B314" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C314" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D314" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>香菇掉厕所了还能叫香菇吗？</v>
       </c>
       <c r="B315" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C315" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>探讨“香菇掉厕所了还能叫香菇吗”这一有趣话题，从科学分类、文化心理角度分析香菇命名问题，同时介绍香菇营养价值与烹饪方法，领略其在文化艺术中的魅力。</v>
       </c>
       <c r="D315" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>文化心理, 物品命名, 食材营养, 香菇, 香菇烹饪</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B316" t="str">
         <v>自我提升</v>
       </c>
       <c r="C316" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D316" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B317" t="str">
         <v>自我提升</v>
       </c>
       <c r="C317" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D317" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B318" t="str">
         <v>自我提升</v>
       </c>
       <c r="C318" t="str">
-        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D318" t="str">
-        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B319" t="str">
         <v>自我提升</v>
       </c>
       <c r="C319" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D319" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B320" t="str">
         <v>自我提升</v>
       </c>
       <c r="C320" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D320" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B321" t="str">
         <v>自我提升</v>
       </c>
       <c r="C321" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
       </c>
       <c r="D321" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B322" t="str">
         <v>自我提升</v>
       </c>
       <c r="C322" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D322" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B323" t="str">
         <v>自我提升</v>
       </c>
       <c r="C323" t="str">
-        <v>深入剖析自我激励与目标设定在个人成长中的关键作用，阐述二者如何相互配合成为奏响成功乐章的双弦，为追求成功的人们提供实用的指导与启发。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D323" t="str">
-        <v>个人发展, 动力源泉, 成功之道, 目标设定, 自我激励</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B324" t="str">
         <v>自我提升</v>
       </c>
       <c r="C324" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D324" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B325" t="str">
         <v>自我提升</v>
       </c>
       <c r="C325" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D325" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B326" t="str">
         <v>自我提升</v>
       </c>
       <c r="C326" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>深入剖析自我激励与目标设定在个人成长中的关键作用，阐述二者如何相互配合成为奏响成功乐章的双弦，为追求成功的人们提供实用的指导与启发。</v>
       </c>
       <c r="D326" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>个人发展, 动力源泉, 成功之道, 目标设定, 自我激励</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B327" t="str">
         <v>自我提升</v>
       </c>
       <c r="C327" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D327" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B328" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C328" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D328" t="str">
-        <v>心理依赖, 感官交互, 感官障碍, 注意力分配</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B329" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C329" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D329" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B330" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C330" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D330" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B331" t="str">
         <v>自然科学</v>
       </c>
       <c r="C331" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D331" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>心理依赖, 感官交互, 感官障碍, 注意力分配</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B332" t="str">
         <v>自然科学</v>
       </c>
       <c r="C332" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D332" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>字典数排序</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B333" t="str">
         <v>自然科学</v>
       </c>
       <c r="C333" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D333" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B334" t="str">
         <v>自然科学</v>
       </c>
       <c r="C334" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D334" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B335" t="str">
         <v>自然科学</v>
       </c>
       <c r="C335" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D335" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>字典数排序</v>
       </c>
       <c r="B336" t="str">
         <v>自然科学</v>
       </c>
       <c r="C336" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D336" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B337" t="str">
         <v>自然科学</v>
       </c>
       <c r="C337" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D337" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B338" t="str">
         <v>自然科学</v>
       </c>
       <c r="C338" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D338" t="str">
-        <v>人类探月, 天文探索, 宇宙科学, 月球表面</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B339" t="str">
         <v>自然科学</v>
       </c>
       <c r="C339" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D339" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B340" t="str">
         <v>自然科学</v>
       </c>
       <c r="C340" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D340" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B341" t="str">
         <v>自然科学</v>
       </c>
       <c r="C341" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D341" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学哲学, 资源限制</v>
+        <v>人类探月, 天文探索, 宇宙科学, 月球表面</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B342" t="str">
         <v>自然科学</v>
       </c>
       <c r="C342" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D342" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B343" t="str">
         <v>自然科学</v>
       </c>
       <c r="C343" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D343" t="str">
-        <v>博弈论, 历史智慧, 叙事重构, 资源调度, 风险管理</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>雷公电母放的是直流电还是交流电？</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B344" t="str">
         <v>自然科学</v>
       </c>
       <c r="C344" t="str">
-        <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D344" t="str">
-        <v>交流电, 气象物理, 直流电, 雷电, 雷电防护</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学哲学, 资源限制</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>为何西方雕塑常展现裸露之姿</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B345" t="str">
-        <v>艺术赏析</v>
+        <v>自然科学</v>
       </c>
       <c r="C345" t="str">
-        <v>深入剖析西方雕塑常展现裸露之姿的背后原因，涵盖古希腊文化对人体美的崇拜、宗教与哲学的影响、社会文化背景的推动以及艺术表现手法的独特魅力等多方面因素。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D345" t="str">
-        <v>人体美, 古希腊文化, 宗教哲学, 社会文化, 西方雕塑</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B346" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C346" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D346" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>博弈论, 历史智慧, 叙事重构, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>雷公电母放的是直流电还是交流电？</v>
       </c>
       <c r="B347" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C347" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
       </c>
       <c r="D347" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>交流电, 气象物理, 直流电, 雷电, 雷电防护</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>为何西方雕塑常展现裸露之姿</v>
       </c>
       <c r="B348" t="str">
-        <v>财富管理</v>
+        <v>艺术赏析</v>
       </c>
       <c r="C348" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>深入剖析西方雕塑常展现裸露之姿的背后原因，涵盖古希腊文化对人体美的崇拜、宗教与哲学的影响、社会文化背景的推动以及艺术表现手法的独特魅力等多方面因素。</v>
       </c>
       <c r="D348" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人体美, 古希腊文化, 宗教哲学, 社会文化, 西方雕塑</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B349" t="str">
         <v>财富管理</v>
       </c>
       <c r="C349" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D349" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>一万二月收入的生活日常</v>
       </c>
       <c r="B350" t="str">
         <v>财富管理</v>
       </c>
       <c r="C350" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
       </c>
       <c r="D350" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>一万五月收入的生活日常</v>
       </c>
       <c r="B351" t="str">
         <v>财富管理</v>
       </c>
       <c r="C351" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
       </c>
       <c r="D351" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>一万元月收入的生活日常</v>
       </c>
       <c r="B352" t="str">
         <v>财富管理</v>
       </c>
       <c r="C352" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
       </c>
       <c r="D352" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>一万八元月收入的生活日常</v>
       </c>
       <c r="B353" t="str">
         <v>财富管理</v>
       </c>
       <c r="C353" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
       </c>
       <c r="D353" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>三万元月收入的生活日常</v>
       </c>
       <c r="B354" t="str">
         <v>财富管理</v>
       </c>
       <c r="C354" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
       </c>
       <c r="D354" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>三千元月收入的生活日常</v>
       </c>
       <c r="B355" t="str">
         <v>财富管理</v>
       </c>
       <c r="C355" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
       </c>
       <c r="D355" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>为什么有钱人喜欢安静？</v>
+        <v>两万五月收入的生活日常</v>
       </c>
       <c r="B356" t="str">
         <v>财富管理</v>
       </c>
       <c r="C356" t="str">
-        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
+        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
       </c>
       <c r="D356" t="str">
-        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>两万元月收入的生活日常</v>
       </c>
       <c r="B357" t="str">
         <v>财富管理</v>
       </c>
       <c r="C357" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D357" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B358" t="str">
         <v>财富管理</v>
       </c>
       <c r="C358" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D358" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>为什么有钱人喜欢安静？</v>
       </c>
       <c r="B359" t="str">
         <v>财富管理</v>
       </c>
       <c r="C359" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
       </c>
       <c r="D359" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B360" t="str">
         <v>财富管理</v>
       </c>
       <c r="C360" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
       </c>
       <c r="D360" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>五千元月收入的生活日常</v>
       </c>
       <c r="B361" t="str">
         <v>财富管理</v>
       </c>
       <c r="C361" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
       </c>
       <c r="D361" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>八千元月收入的生活日常</v>
       </c>
       <c r="B362" t="str">
         <v>财富管理</v>
       </c>
       <c r="C362" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
       </c>
       <c r="D362" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B363" t="str">
         <v>财富管理</v>
       </c>
       <c r="C363" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D363" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B364" t="str">
         <v>财富管理</v>
       </c>
       <c r="C364" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D364" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B365" t="str">
         <v>财富管理</v>
       </c>
       <c r="C365" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D365" t="str">
-        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B366" t="str">
         <v>财富管理</v>
       </c>
       <c r="C366" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
       </c>
       <c r="D366" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B367" t="str">
         <v>财富管理</v>
       </c>
       <c r="C367" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D367" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B368" t="str">
         <v>财富管理</v>
       </c>
       <c r="C368" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D368" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>如何通过投资组合实现财务自由</v>
       </c>
       <c r="B369" t="str">
         <v>财富管理</v>
       </c>
       <c r="C369" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>详细介绍如何通过构建和管理投资组合来实现财务自由，涵盖投资组合的概念、重要性、构建方法、管理要点以及实现财务自由的具体步骤，为投资者提供实用的指导和建议。</v>
       </c>
       <c r="D369" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>投资收益, 投资组合, 财务自由, 资产配置, 风险管理</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B370" t="str">
         <v>财富管理</v>
       </c>
       <c r="C370" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D370" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B371" t="str">
         <v>财富管理</v>
       </c>
       <c r="C371" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D371" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>有效增加收入指南</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B372" t="str">
         <v>财富管理</v>
       </c>
       <c r="C372" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D372" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B373" t="str">
         <v>财富管理</v>
       </c>
       <c r="C373" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D373" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B374" t="str">
         <v>财富管理</v>
       </c>
       <c r="C374" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D374" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B375" t="str">
         <v>财富管理</v>
       </c>
       <c r="C375" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D375" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>穷人怎么翻身</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B376" t="str">
         <v>财富管理</v>
       </c>
       <c r="C376" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D376" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B377" t="str">
         <v>财富管理</v>
       </c>
       <c r="C377" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D377" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B378" t="str">
         <v>财富管理</v>
       </c>
       <c r="C378" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D378" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B379" t="str">
         <v>财富管理</v>
       </c>
       <c r="C379" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D379" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B380" t="str">
         <v>财富管理</v>
       </c>
       <c r="C380" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D380" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B381" t="str">
         <v>财富管理</v>
       </c>
       <c r="C381" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D381" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B382" t="str">
         <v>财富管理</v>
       </c>
       <c r="C382" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D382" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B383" t="str">
         <v>财富管理</v>
       </c>
       <c r="C383" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D383" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B384" t="str">
         <v>财富管理</v>
       </c>
       <c r="C384" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D384" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B385" t="str">
         <v>财富管理</v>
       </c>
       <c r="C385" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D385" t="str">
-        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B386" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C386" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D386" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B387" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C387" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D387" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>吃健胃消食片会撑死还是饿死？</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B388" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C388" t="str">
-        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D388" t="str">
-        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B389" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C389" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D389" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B390" t="str">
         <v>身体健康</v>
       </c>
       <c r="C390" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D390" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B391" t="str">
         <v>身体健康</v>
       </c>
       <c r="C391" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D391" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>吃健胃消食片会撑死还是饿死？</v>
       </c>
       <c r="B392" t="str">
         <v>身体健康</v>
       </c>
       <c r="C392" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
       </c>
       <c r="D392" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B393" t="str">
         <v>身体健康</v>
       </c>
       <c r="C393" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D393" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B394" t="str">
         <v>身体健康</v>
       </c>
       <c r="C394" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D394" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B395" t="str">
         <v>身体健康</v>
       </c>
       <c r="C395" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D395" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B396" t="str">
         <v>身体健康</v>
       </c>
       <c r="C396" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D396" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B397" t="str">
         <v>身体健康</v>
       </c>
       <c r="C397" t="str">
-        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D397" t="str">
-        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B398" t="str">
         <v>身体健康</v>
       </c>
       <c r="C398" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D398" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B399" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C399" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D399" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B400" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C400" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D400" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
       </c>
       <c r="B401" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C401" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
       </c>
       <c r="D401" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B402" t="str">
-        <v>运营指南</v>
+        <v>身体健康</v>
       </c>
       <c r="C402" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D402" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B403" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C403" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D403" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B404" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C404" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D404" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B405" t="str">
         <v>运营指南</v>
       </c>
       <c r="C405" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D405" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B406" t="str">
         <v>运营指南</v>
       </c>
       <c r="C406" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D406" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B407" t="str">
         <v>运营指南</v>
       </c>
       <c r="C407" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D407" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>打造百家号爆款内容的实用秘籍</v>
       </c>
       <c r="B408" t="str">
         <v>运营指南</v>
       </c>
       <c r="C408" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
       </c>
       <c r="D408" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+        <v>打造知乎爆款内容的实用秘籍</v>
       </c>
       <c r="B409" t="str">
-        <v>食品安全</v>
+        <v>运营指南</v>
       </c>
       <c r="C409" t="str">
-        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
       </c>
       <c r="D409" t="str">
-        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
+        <v>抖音爆款内容打造全攻略</v>
+      </c>
+      <c r="B410" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C410" t="str">
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+      </c>
+      <c r="D410" t="str">
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>畅销长篇小说创作秘籍全解析</v>
+      </c>
+      <c r="B411" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C411" t="str">
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+      </c>
+      <c r="D411" t="str">
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
+      </c>
+      <c r="B412" t="str">
+        <v>运营指南</v>
+      </c>
+      <c r="C412" t="str">
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+      </c>
+      <c r="D412" t="str">
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>新兴金融科技对传统理财方式的影响</v>
+      </c>
+      <c r="B413" t="str">
+        <v>金融科技</v>
+      </c>
+      <c r="C413" t="str">
+        <v>分析新兴金融科技如移动支付、智能投顾、区块链技术等对传统理财方式在理财渠道、投资决策、风险管理等方面的影响，探讨其带来的挑战与机遇以及传统理财方式的应对策略。</v>
+      </c>
+      <c r="D413" t="str">
+        <v>传统理财方式, 区块链技术, 新兴金融科技, 智能投顾, 移动支付</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+      </c>
+      <c r="B414" t="str">
+        <v>食品安全</v>
+      </c>
+      <c r="C414" t="str">
+        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+      </c>
+      <c r="D414" t="str">
+        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
         <v>如果猪肾虚，那它的腰子还补吗？</v>
       </c>
-      <c r="B410" t="str">
+      <c r="B415" t="str">
         <v>饮食健康</v>
       </c>
-      <c r="C410" t="str">
+      <c r="C415" t="str">
         <v>探讨猪肾虚的情况下其腰子是否还具有补肾功效，分析猪腰子的营养价值、中医与西医对肾虚的不同定义及相关研究，为读者提供关于猪腰子食用的科学知识。</v>
       </c>
-      <c r="D410" t="str">
+      <c r="D415" t="str">
         <v>中医理论, 猪腰子, 肾虚, 营养价值, 补肾</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>饮食与运动：预防慢性疾病的两大法宝</v>
+      </c>
+      <c r="B416" t="str">
+        <v>饮食健康</v>
+      </c>
+      <c r="C416" t="str">
+        <v>介绍饮食与运动在预防心血管疾病、糖尿病、肥胖症等慢性疾病中的重要作用，包括合理饮食的要点、不同类型运动的功效，以及综合的健康计划制定等内容，为人们提供预防慢性疾病的实用方法。</v>
+      </c>
+      <c r="D416" t="str">
+        <v>健康生活方式, 慢性疾病, 营养均衡, 运动保健, 饮食预防</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D410"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D416"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -3000,2536 +3000,2536 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>如何看待“近水楼台先得月”这一社会现象</v>
+        <v>一万元月收入的生活日常：在成都的精致生活</v>
       </c>
       <c r="B186" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C186" t="str">
-        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
+        <v>走进成都青年陈墨月入一万的生活，看他在忙碌工作与自我提升间找到平衡，在烟火成都把日子过得精致充实，开启属于自己的精彩生活篇章。</v>
       </c>
       <c r="D186" t="str">
-        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
+        <v>成都生活, 时间管理, 月入一万, 精致生活, 自我提升</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
+        <v>如何看待“近水楼台先得月”这一社会现象</v>
       </c>
       <c r="B187" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C187" t="str">
-        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
+        <v>深入剖析“近水楼台先得月”现象在职场、社交等方面的体现，探讨其背后的原因，并阐述应如何正确看待这一现象，鼓励读者打造自身优势。</v>
       </c>
       <c r="D187" t="str">
-        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
+        <v>信息力量, 社交优势, 职场现象, 自我提升, 近水楼台先得月</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>探寻人生意义：在好好活中做有意义的事</v>
+        <v>我放弃了鸿蒙Next，回归了使用鸿蒙4.2的用户阵营</v>
       </c>
       <c r="B188" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C188" t="str">
-        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
+        <v>本文记录了作者尝试使用鸿蒙Next系统但最终选择回归鸿蒙4.0系统的经历，分享了不同版本系统间的差异和个人感受。</v>
       </c>
       <c r="D188" t="str">
-        <v>人生意义, 有意义的事, 生命价值, 自我探寻</v>
+        <v>手机应用, 用户体验, 科技生活, 系统升级, 鸿蒙系统</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
+        <v>探寻人生意义：在好好活中做有意义的事</v>
       </c>
       <c r="B189" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C189" t="str">
-        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
+        <v>本文深入探讨了人生意义这一主题，强调有意义就是好好活，好好活就是做有意义的事。从探寻生命意义的方法，到践行有意义之事的挑战与收获，再到发现平凡生活中的意义宝藏，引导读者用心思考、追寻人生意义，让生命绽放光彩。</v>
       </c>
       <c r="D189" t="str">
-        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
+        <v>人生意义, 有意义的事, 生命价值, 自我探寻</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>树叶日落日扫背后的人生深意</v>
+        <v>早起的鸟儿有虫吃，早起的虫儿被鸟吃：生活中的竞争与智慧</v>
       </c>
       <c r="B190" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C190" t="str">
-        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
+        <v>深入剖析“早起的鸟儿有虫吃，早起的虫儿被鸟吃”这一生活哲理，探索在不同角色与境遇下的生存智慧，如何在激烈的竞争中找到平衡，实现个人价值。</v>
       </c>
       <c r="D190" t="str">
-        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
+        <v>商业洞察, 学术研究, 生活竞争, 职场策略</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>树挪死人挪活：人生智慧的新解</v>
+        <v>树叶日落日扫背后的人生深意</v>
       </c>
       <c r="B191" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C191" t="str">
-        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
+        <v>阐述树叶日落日扫这一平常现象背后所蕴含的诸多人生道理，包括在无常中构建秩序、坚持与耐心的力量、珍惜时光中的美好以及接纳变化放下过去等人生感悟。</v>
       </c>
       <c r="D191" t="str">
-        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
+        <v>人生哲理, 坚持耐心, 接纳放下, 珍惜感恩, 秩序构建</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
+        <v>树挪死人挪活：人生智慧的新解</v>
       </c>
       <c r="B192" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C192" t="str">
-        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
+        <v>解读“树挪死人挪活”背后蕴含的人生智慧，分析其在不同人生阶段的应用，探讨在职场晋升、人际关系优化和自我成长突破等方面的实践方法，并阐述正确对待这一智慧的方式。</v>
       </c>
       <c r="D192" t="str">
-        <v>初心坚守, 勇气追求</v>
+        <v>不同人生阶段, 人生智慧, 树挪死人挪活, 职场发展, 自我成长</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
+        <v>洄游的鱼，南飞的鸟：探寻背后的人生智慧</v>
       </c>
       <c r="B193" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C193" t="str">
-        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
+        <v>本文通过洄游的鱼和南飞的鸟的生命之旅，深入探寻背后蕴含的人生智慧，如坚守初心、勇往直前、追求自由、心怀希望、顺应自然、团结协作等，为读者在人生道路上提供启示与指引。</v>
       </c>
       <c r="D193" t="str">
-        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
+        <v>初心坚守, 勇气追求</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
+        <v>深度剖析“冰冻三尺非一日之寒”：事物发展的渐进性</v>
       </c>
       <c r="B194" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C194" t="str">
-        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
+        <v>深入剖析“冰冻三尺非一日之寒”所蕴含的事物发展渐进性哲理，通过自然现象、社会生活等多方面阐述，探讨如何运用此智慧应对生活与工作中的挑战。</v>
       </c>
       <c r="D194" t="str">
-        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
+        <v>事物发展, 渐进性, 理性看待, 积累沉淀, 耐心毅力</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>生命的意义究竟是什么？</v>
+        <v>深度解析“兔子不吃窝边草”背后的多重智慧</v>
       </c>
       <c r="B195" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C195" t="str">
-        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
+        <v>深入剖析“兔子不吃窝边草”这一俗语在生存策略、人际关系、个人成长等方面的内涵，探讨其在不同情境下的应用，以及如何灵活运用这一智慧以实现人生的平衡与幸福。</v>
       </c>
       <c r="D195" t="str">
-        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
+        <v>个人成长, 人际关系, 兔子不吃窝边草, 灵活运用, 生存策略</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>自由是否是有边界的？</v>
+        <v>生命的意义究竟是什么？</v>
       </c>
       <c r="B196" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C196" t="str">
-        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
+        <v>本文探讨了关于生命意义这一永恒话题，从科学解释到平凡生活中的体现，再到个人如何寻找属于自己的答案。文中引用了进化生物学、神经科学和量子物理的研究成果，揭示了生命在基因延续、帮助他人和社会互动中的意义。通过讲述匠人精神、超越个体苦难的生命联结以及生态智慧的例子，展示了平凡生活中蕴含的深刻意义。文章最后鼓励读者在日常坚持与奉献中发现生命的价值，暗示生命的真正答案可能就藏在我们每个人认真走过的脚印里。适合对探索生命深层次意义感兴趣的读者阅读。</v>
       </c>
       <c r="D196" t="str">
-        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
+        <v>存在主义危机, 平凡生活, 生命意义, 科学解释, 精神追求</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>重新审视“枪打出头鸟”</v>
+        <v>自由是否是有边界的？</v>
       </c>
       <c r="B197" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C197" t="str">
-        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
+        <v>探讨自由是否具有边界，从自然法则、社会契约和自我约束三个角度分析自由的限制与实现。文章指出，自由并非无拘无束，而是在尊重自然规律、遵守社会秩序及实现自我管理的基础上，个人能够达到的一种状态。真正的自由涉及责任、规则及自我认知，是个人与社会和谐共处的结果。</v>
       </c>
       <c r="D197" t="str">
-        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
+        <v>社会契约, 自我约束, 自然法则, 自由边界</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
+        <v>重新审视“枪打出头鸟”</v>
       </c>
       <c r="B198" t="str">
         <v>生活感悟</v>
       </c>
       <c r="C198" t="str">
-        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
+        <v>重新审视“枪打出头鸟”这一传统观念，分析其在传统视角下的内涵，探讨现代社会对其的新思考，阐述正确对待“出头”行为的策略，强调在尊重传统价值观基础上鼓励创新进取的重要性。</v>
       </c>
       <c r="D198" t="str">
-        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
+        <v>传统观念, 创新突破, 枪打出头鸟, 现代社会, 竞争环境</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>三十多岁中年男人的手表选购指南</v>
+        <v>风浪越大鱼越贵：于挑战处寻机遇与价值</v>
       </c>
       <c r="B199" t="str">
-        <v>生活日常</v>
+        <v>生活感悟</v>
       </c>
       <c r="C199" t="str">
-        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
+        <v>阐述生活如同大海充满风浪，而风浪背后隐藏机遇与价值。从个人成长、事业发展、社会进步等多方面探讨如何在挑战中挖掘价值，鼓励人们勇敢面对风浪收获成功成长。</v>
       </c>
       <c r="D199" t="str">
-        <v>休闲时尚, 商务正装, 手表选购, 时尚配饰, 高端奢华</v>
+        <v>个人成长, 事业发展, 挑战机遇, 社会进步, 风险应对</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>中年男人的多元消费偏好：深度解析</v>
+        <v>一万八的月收入，也能活出精彩</v>
       </c>
       <c r="B200" t="str">
         <v>生活日常</v>
       </c>
       <c r="C200" t="str">
-        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
+        <v>讲述成都互联网后端开发工程师陈墨月入一万八，在高生活成本下通过精细规划、平衡工作生活等方式活出精彩的故事，为职场人提供生活启示。</v>
       </c>
       <c r="D200" t="str">
-        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
+        <v>成都生活, 月入一万八, 生活小确幸, 生活规划, 职场人</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>初入社会的男士手表选购指南</v>
+        <v>三万元月收入的生活日常分享</v>
       </c>
       <c r="B201" t="str">
         <v>生活日常</v>
       </c>
       <c r="C201" t="str">
-        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
+        <v>分享月入三万在三线城市的生活日常，涵盖住房、饮食、交通等多方面开销规划，以及如何在满足当下生活需求的同时进行储蓄与投资，为未来发展奠定基础。</v>
       </c>
       <c r="D201" t="str">
-        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
+        <v>储蓄投资, 品质生活, 月入三万, 消费规划, 生活日常</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>回首2024</v>
+        <v>三十多岁中年男人的手表选购指南</v>
       </c>
       <c r="B202" t="str">
         <v>生活日常</v>
       </c>
       <c r="C202" t="str">
-        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
+        <v>为三十多岁的中年男人提供全面的手表选购指南，涵盖商务正装、休闲时尚和高端奢华等不同风格手表推荐，并阐述选择手表时的预算、功能需求和个人风格等考量因素。</v>
       </c>
       <c r="D202" t="str">
-        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
+        <v>休闲时尚, 商务正装, 手表选购, 时尚配饰, 高端奢华</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
+        <v>三千元月收入的生活日常：于平凡处绽放生活光芒</v>
       </c>
       <c r="B203" t="str">
         <v>生活日常</v>
       </c>
       <c r="C203" t="str">
-        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
+        <v>讲述李明在三千元月收入下的生活点滴，展现平凡生活中的满足、乐趣与成长，传递积极乐观面对平凡生活的态度。</v>
       </c>
       <c r="D203" t="str">
-        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
+        <v>三千元月收入, 平凡生活, 生活乐趣, 生活日常, 自我成长</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>男人挑选合适钱包指南</v>
+        <v>两万五月收入的生活日常：在都市中享受品质生活</v>
       </c>
       <c r="B204" t="str">
         <v>生活日常</v>
       </c>
       <c r="C204" t="str">
-        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
+        <v>探索一名互联网后端开发工程师如何在两万五的月收入下，精心规划生活，享受都市中的品质生活。从住房、通勤到饮食、娱乐，全面解析月入两万五的生活日常。</v>
       </c>
       <c r="D204" t="str">
-        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
+        <v>品质生活, 城市生活, 月收入, 生活日常, 职场人</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>年轻人如何面对选择与被选择</v>
+        <v>两万元月收入的成都职场人生活日常</v>
       </c>
       <c r="B205" t="str">
-        <v>生涯规划</v>
+        <v>生活日常</v>
       </c>
       <c r="C205" t="str">
-        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
+        <v>深入了解一位在成都月收入两万元的职场人如何规划生活开销，在住房、饮食、通勤、娱乐、社交等方面精打细算，平衡工作与生活，追求属于自己的小确幸。</v>
       </c>
       <c r="D205" t="str">
-        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
+        <v>平衡生活, 成都生活, 月收入两万, 生活开销, 职场日常</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
+        <v>中年男人的多元消费偏好：深度解析</v>
       </c>
       <c r="B206" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C206" t="str">
-        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
+        <v>本文深入剖析中年男人的消费偏好，涵盖健康养生、品质生活、兴趣爱好和教育学习等多方面，打破大众刻板印象，展现其多元且深邃的消费版图，有助于商家把握市场需求及大众理解该群体生活方式与价值观。</v>
       </c>
       <c r="D206" t="str">
-        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
+        <v>中年男人, 健康养生, 兴趣爱好, 品质生活, 教育学习, 消费偏好</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
+        <v>五万元月收入的生活日常解析</v>
       </c>
       <c r="B207" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C207" t="str">
-        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
+        <v>详细解析五万元月收入人群的生活日常开销，涵盖住房、饮食、交通、娱乐等多方面支出情况，展现这一收入水平下的生活状态与规划智慧。</v>
       </c>
       <c r="D207" t="str">
-        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
+        <v>五万元月收入, 住房支出, 娱乐休闲, 生活日常, 饮食消费</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>人类存在的终极意义是什么？</v>
+        <v>五千元月收入的生活日常：平凡中的充实与意义</v>
       </c>
       <c r="B208" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C208" t="str">
-        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
+        <v>讲述月收入五千元普通人的生活日常，展现如何在有限收入下通过合理安排让生活充实且有意义，包括工作、学习、家庭、休闲等多方面的生活点滴。</v>
       </c>
       <c r="D208" t="str">
-        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
+        <v>休闲娱乐, 家庭时光, 月收入, 生活日常, 自我提升</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>人类未来能移民其他星球吗？</v>
+        <v>八千元月收入的都市生活日常</v>
       </c>
       <c r="B209" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C209" t="str">
-        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
+        <v>展现月入八千元职场人的真实生活样貌，从居住、饮食、交通等多方面分享如何在有限收入下精心规划、用心经营，勾勒充实满足的生活画卷，为同收入人群提供启示。</v>
       </c>
       <c r="D209" t="str">
-        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
+        <v>城市生活, 月入八千, 消费理财, 生活规划, 职场日常</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
+        <v>初入社会的男士手表选购指南</v>
       </c>
       <c r="B210" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C210" t="str">
-        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
+        <v>为初入职场的男士提供全面的手表选购指南，涵盖预算规划、场合适配、功能需求等方面，并精选不同风格和品牌的手表，助力职场新人展现独特形象与品味。</v>
       </c>
       <c r="D210" t="str">
-        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
+        <v>初入社会, 手表品牌, 男士手表, 职场穿搭, 选购指南</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>全球变暖还能逆转吗？</v>
+        <v>四万元月收入的生活日常</v>
       </c>
       <c r="B211" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C211" t="str">
-        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
+        <v>深入了解月入四万元的生活日常，从居住、饮食到娱乐休闲、社交及理财规划，全面解析在繁华都市中如何平衡生活开销与追求品质生活。</v>
       </c>
       <c r="D211" t="str">
-        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
+        <v>城市生活, 月入四万, 理财规划, 生活品质, 生活开销</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>命运是由自己掌握的还是注定的</v>
+        <v>回首2024</v>
       </c>
       <c r="B212" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C212" t="str">
-        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
+        <v>回顾2024年的主要事件，包括工作上的成就与挑战、步入婚姻的个人生活变化以及对健康管理的反思。在工作中，经历了系统和组织重构，并成功上线了一个重要系统；个人生活方面，作者与伴侣结婚，并体验到了婚姻生活中处理矛盾的方式和相互理解的重要性；健康方面，虽然没有不良习惯，但由于作息不规律等因素，感受到了身体素质的下降，意识到需要通过运动和调整生活习惯来改善健康状况。文章展望未来，表达了对于2025年围绕家庭成长和事业发展做出更多努力的愿望。</v>
       </c>
       <c r="D212" t="str">
-        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
+        <v>健康管理, 婚姻生活, 工作进展, 年度回顾, 生活变化</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>唯一不变的就是变化</v>
+        <v>我与炉石传说的“分手”之旅：如何摆脱游戏沉迷</v>
       </c>
       <c r="B213" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C213" t="str">
-        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
+        <v>分享作者从沉迷炉石传说到成功戒掉这款游戏的心路历程，探讨如何通过改变生活习惯、寻找替代活动以及提升自律能力来摆脱游戏沉迷，重拾健康积极的生活。</v>
       </c>
       <c r="D213" t="str">
-        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
+        <v>时间管理, 游戏沉迷, 炉石传说, 社交生活, 自我提升</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>善与恶的界限在哪里？</v>
+        <v>月入一万二千元在大城市的生活日常</v>
       </c>
       <c r="B214" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C214" t="str">
-        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
+        <v>展现月入一万二千元在大城市的生活点滴，涵盖住房、饮食、通勤、休闲娱乐、社交和学习成长等方面，呈现普通人在大城市的真实生活画卷。</v>
       </c>
       <c r="D214" t="str">
-        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
+        <v>住房, 大城市生活, 月入一万二, 通勤, 饮食</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
+        <v>月入一万五千元的生活日常：普通上班族的精致生活攻略</v>
       </c>
       <c r="B215" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C215" t="str">
-        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
+        <v>走进月入一万五千元普通上班族小李的生活，看他在住房、饮食、交通等多方面如何精打细算，合理规划收支，在有限收入下把日子过得有滋有味，实现生活品质与自我提升。</v>
       </c>
       <c r="D215" t="str">
-        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
+        <v>上班族, 月入一万五, 理财规划, 生活品质, 生活日常</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
+        <v>男人挑选合适钱包指南</v>
       </c>
       <c r="B216" t="str">
-        <v>社会探究</v>
+        <v>生活日常</v>
       </c>
       <c r="C216" t="str">
-        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
+        <v>为男士提供挑选合适钱包的全面指南，涵盖钱包功能需求、材质、设计风格、预算选择以及品牌与口碑等方面的内容，助您选到心仪钱包。</v>
       </c>
       <c r="D216" t="str">
-        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
+        <v>男士钱包, 钱包品牌, 钱包挑选, 钱包材质, 钱包风格</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
+        <v>年轻人如何面对选择与被选择</v>
       </c>
       <c r="B217" t="str">
-        <v>社会探究</v>
+        <v>生涯规划</v>
       </c>
       <c r="C217" t="str">
-        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
+        <v>阐述年轻人在生活中面临众多选择与被选择的现状，包括职业、生活方式、感情等方面的选择迷茫和被选择的无奈，并提供应对方法，探讨如何在过程中实现蜕变。</v>
       </c>
       <c r="D217" t="str">
-        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
+        <v>年轻人, 感情, 职业规划, 被选择, 选择</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
+        <v>《两小儿辩日》：一场跨越千年的认知突围战</v>
       </c>
       <c r="B218" t="str">
         <v>社会探究</v>
       </c>
       <c r="C218" t="str">
-        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
+        <v>本文通过解读《两小儿辩日》的故事，探讨了认知科学与思辨方法的重要性。文章指出，两小儿分别从视觉和热力学角度提出关于太阳远近的不同论点，展示了将现象抽象为理论的早期科学思维。孔子面对争论无法决断，反映了承认无知对于认知突破的重要性。本文还讨论了信息茧房现象对现代人认知的影响，并提倡在不确定中寻找确定性，鼓励读者保持质疑精神，勇于突破认知边界，正如故事中的孩童一样，用天真破除权威，以矛盾推动创新。这些古代智慧为现代社会提供了重要的启示。</v>
       </c>
       <c r="D218" t="str">
-        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
+        <v>历史故事, 思辨方法, 科技前沿, 认知科学</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>愚公移山：一场颠覆认知的时空革命</v>
+        <v>人真的有自由意志吗？科学和哲学的千年追问</v>
       </c>
       <c r="B219" t="str">
         <v>社会探究</v>
       </c>
       <c r="C219" t="str">
-        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
+        <v>文章探讨了人类是否真正拥有自由意志这一深奥问题，从科学与哲学的角度分析了决定论与自由意志之间的关系。通过讨论神经科学中的发现、量子力学的不确定性以及进化生物学中的“涌现”现象，文章提出自由意志可能存在于量子现象与经典世界的接口中，并且强调自由更多是一个程度变量，体现在人们承担责任和构建超越零和博弈的新规则的能力上。文章最后指出，正是这种不断自我审视的过程，赋予了人类尊严与独特性。</v>
       </c>
       <c r="D219" t="str">
-        <v>宇宙哲学, 时间折叠, 熵增博弈, 认知科学, 道家哲学</v>
+        <v>决定论, 神经科学, 科学哲学, 自由意志, 量子力学</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
+        <v>人类存在的终极意义是什么？</v>
       </c>
       <c r="B220" t="str">
         <v>社会探究</v>
       </c>
       <c r="C220" t="str">
-        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
+        <v>文章探讨了人类存在的终极意义，通过分析生命意志在物质和精神层面的表现，指出尽管人类不断追求满足，但这种满足感是短暂的，新的渴望会不断出现。文章提出，生命的意义可能不在于找到一个永恒的答案，而在于追寻意义的过程本身，鼓励人们学会与不确定性共处，接受存在的荒诞性，在这个过程中安放自己的灵魂并创造个人价值。</v>
       </c>
       <c r="D220" t="str">
-        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
+        <v>人类文明, 哲学思考, 存在意义, 心灵探索, 生命意志</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
+        <v>人类未来能移民其他星球吗？</v>
       </c>
       <c r="B221" t="str">
         <v>社会探究</v>
       </c>
       <c r="C221" t="str">
-        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
+        <v>文章探讨了人类未来能否移民其他星球的可能性，分析了包括食物、水、空气供应、辐射防护和推进系统在内的技术挑战，同时也讨论了星际移民带来的伦理和社会影响。尽管面临诸多难题，随着科技的不断进步，人类对星际移民的探索正逐步从科幻走向现实，未来或许能够在其他星球上建立永久居住点。</v>
       </c>
       <c r="D221" t="str">
-        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
+        <v>伦理问题, 太空探索, 技术挑战, 星际移民, 社会影响</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>朝三暮四：被误读千年的预期管理课</v>
+        <v>从权谋闹剧到创作困境：狗尾续貂的千年警示</v>
       </c>
       <c r="B222" t="str">
         <v>社会探究</v>
       </c>
       <c r="C222" t="str">
-        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
+        <v>本文探讨“狗尾续貂”从古至今的意义，揭示在身份焦虑、艺术创作、技术泡沫中的价值稀释现象。司马伦篡位事件象征着权力与稀缺资源的滥用，现代社会中表现为注水文凭、影视IP过度开发、“空气币”等问题。文章强调需警惕这些现象对真正价值的侵蚀，并提倡保持对事物本质的敬畏。</v>
       </c>
       <c r="D222" t="str">
-        <v>生存策略, 管理智慧, 认知科学, 资源分配, 预期管理</v>
+        <v>权力游戏, 科技伦理, 续集困境, 艺术创作, 身份焦虑</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>死亡是终点还是新的开始？</v>
+        <v>全球变暖还能逆转吗？</v>
       </c>
       <c r="B223" t="str">
         <v>社会探究</v>
       </c>
       <c r="C223" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>全球变暖导致温度上升及一系列环境问题，科学界对逆转可能性有不同看法。减少温室气体排放和保护自然碳汇是关键措施，个人可通过节能减排等方式参与。虽然完全逆转困难，但通过全球合作和个人努力，能有效减缓其影响，避免最坏情况发生。</v>
       </c>
       <c r="D223" t="str">
-        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
+        <v>个人行动, 全球变暖, 气候变化, 温室气体排放, 碳汇保护</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>汉语是人类语言中最美的面向对象的语言</v>
+        <v>命运是由自己掌握的还是注定的</v>
       </c>
       <c r="B224" t="str">
         <v>社会探究</v>
       </c>
       <c r="C224" t="str">
-        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
+        <v>本文探讨了命运是由自己掌握还是注定这一古老而深邃的话题，从历史视角到现代科学的不同角度进行了分析。通过回顾古希腊和中国古代对命运的思考，引用现代科学研究如量子物理和神经科学的发现，揭示了人类行为与选择背后的复杂性。文章还列举了王阳明和稻盛和夫等真实案例，展示了个人如何通过认知革命和积极思维模式改写命运。最后，提出了超越传统宿命论的新思维，强调了在遵循客观规律的同时，通过主观选择创造新的可能性的重要性。适合对探索人生意义、自由意志与命运关系感兴趣的读者阅读。命运既不是完全注定也不是绝对自由，而是两者的微妙结合。</v>
       </c>
       <c r="D224" t="str">
-        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
+        <v>历史视角, 命运探讨, 哲学思考, 宿命论, 新思维, 自我实现</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
+        <v>唯一不变的就是变化</v>
       </c>
       <c r="B225" t="str">
         <v>社会探究</v>
       </c>
       <c r="C225" t="str">
-        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
+        <v>从人类文明的历程到数字时代的加速变迁，"唯一不变的就是变化"。文章探讨了自古以来人类如何适应环境和社会的变革，分析了工业革命带来的深远影响以及信息时代的变化速度，并提出了拥抱变化、持续学习是未来个人和组织成功的关键。在这个不断变化的世界中，适应能力和创新意识成为核心竞争力。</v>
       </c>
       <c r="D225" t="str">
-        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
+        <v>人类文明变迁, 信息时代, 变革适应, 工业革命, 持续学习</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
+        <v>善与恶的界限在哪里？</v>
       </c>
       <c r="B226" t="str">
         <v>社会探究</v>
       </c>
       <c r="C226" t="str">
-        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
+        <v>探讨善与恶的界限，从远古时期的道德萌芽到现代科技带来的伦理挑战，分析不同文明对善恶标准的影响及哲学思考。文章通过考古发现、哲学论述以及现代实验揭示了善恶既是客观存在也是主观观测的结果，并提出在人工智能时代，理解善恶需要超越传统的黑白思维框架，寻找动态平衡的生存智慧。善恶边界如同指引文明方向的星辰，在人性探索中持续演变。</v>
       </c>
       <c r="D226" t="str">
-        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
+        <v>善恶探讨, 心理学, 文明对比, 科技伦理, 道德哲学</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
+        <v>女娲补天：从生态修复到文明重构的远古隐喻</v>
       </c>
       <c r="B227" t="str">
         <v>社会探究</v>
       </c>
       <c r="C227" t="str">
-        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
+        <v>本文重新解读了女娲补天这一古老神话，揭示其在生态修复与文明重构方面的现代意义。文章指出，女娲采取的五色石、神鳌足和芦灰等元素象征着系统性修复和资源循环利用的理念，与当代生态学观点不谋而合。此外，文中强调了母系智慧中的协作和系统思维在解决复杂问题上的重要性，并讨论了直面历史创伤对文明恢复的关键作用。通过这些分析，本文展示了古代神话中蕴含的宝贵生存智慧，为应对现代环境和社会挑战提供了独特的视角和启示。</v>
       </c>
       <c r="D227" t="str">
-        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
+        <v>文明重构, 母系智慧, 灾难应对, 生存策略, 生态修复</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>男女平等的社会何时才能到来？</v>
+        <v>媒体在塑造公众舆论和社会价值观方面扮演着怎样的角色？</v>
       </c>
       <c r="B228" t="str">
         <v>社会探究</v>
       </c>
       <c r="C228" t="str">
-        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
+        <v>文章探讨了媒体在塑造公众舆论和社会价值观方面的作用，包括通过信息筛选和议程设置影响公众认知，以及传递和塑造社会共识的价值观。同时讨论了现代媒体面临的挑战与责任，强调了在技术进步的背景下，媒体需要在创新与社会责任之间找到平衡，以促进健康和谐的社会价值观的形成。</v>
       </c>
       <c r="D228" t="str">
-        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
+        <v>价值观传递, 信息筛选, 媒体角色, 技术进步, 社会责任, 议程设置</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>精卫填海：被误读千年的神话密码与当代解码</v>
+        <v>孔融让梨：被误读千年的社交智慧与人性博弈</v>
       </c>
       <c r="B229" t="str">
         <v>社会探究</v>
       </c>
       <c r="C229" t="str">
-        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
+        <v>本文重新解读了“孔融让梨”这一经典故事，揭示了其背后复杂的社交智慧和资源博弈策略。孔融选择小梨并非单纯出于谦让美德，而是对家族权力结构的适应及早期情商的展现。文章分析了让梨行为在资源分配、语言艺术和预期管理方面的微妙作用，并对比了东西方文化差异下的不同理解。现代职场中的应用进一步展示了通过适度退让建立信用、赢得支持的重要性。心理学研究指出儿童谦让行为中存在策略性，强调了谦让作为社会化生存策略的本质。最终，文章提出真正的生存之道在于掌握何时该分配资源、何时该争取利益的动态平衡能力。</v>
       </c>
       <c r="D229" t="str">
-        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
+        <v>情商启蒙, 文化差异, 生存策略, 社交智慧, 资源博弈</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
+        <v>当面临两难的道德抉择时，比如为了拯救多数人而牺牲少数人，这种行为是否可以被道德所原谅？</v>
       </c>
       <c r="B230" t="str">
         <v>社会探究</v>
       </c>
       <c r="C230" t="str">
-        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
+        <v>探讨在道德困境中，如电车难题，牺牲少数人以拯救多数人的行为是否能被道德原谅。分析功利主义与义务论两种哲学观点，并讨论如何在理性与情感间寻找平衡，尊重个体权利同时最大化整体利益。文章强调面对道德抉择时深入思考、权衡利弊及遵循内心良知的重要性。</v>
       </c>
       <c r="D230" t="str">
-        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
+        <v>义务论, 功利主义, 电车难题, 道德判断, 道德困境</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
+        <v>愚公移山：一场颠覆认知的时空革命</v>
       </c>
       <c r="B231" t="str">
         <v>社会探究</v>
       </c>
       <c r="C231" t="str">
-        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
+        <v>探索《愚公移山》在量子物理与认知科学中的新解读，揭示古老寓言背后的宇宙哲学与现代科学的奇妙共振。学习如何通过认知升维、时间折叠等概念突破传统思维，迎接未来挑战。</v>
       </c>
       <c r="D231" t="str">
-        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
+        <v>宇宙哲学, 时间折叠, 熵增博弈, 认知科学, 道家哲学</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>道德标准是绝对的吗？</v>
+        <v>换位思考的高级实践：突破人际困境的5个高阶场景应用</v>
       </c>
       <c r="B232" t="str">
         <v>社会探究</v>
       </c>
       <c r="C232" t="str">
-        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
+        <v>本文深入探讨了换位思考在复杂人际关系中的高阶应用，通过心理学原理与真实案例的结合，展示了如何在职场冲突、亲密关系、商业谈判、代际沟通及危机公关五个关键场景中运用高级换位思考技巧。文章提供了具体的工具和方法，如三维视角、情绪翻译器、利益光谱图等，并提出了系统性的培养路径，包括每日三问训练法、认知多样性日记和角色扮演沙盘等。适合希望提升人际交往能力、寻求解决复杂沟通问题方法的读者阅读。真正的换位思考不仅是视角的转换，更是认知维度的升级。</v>
       </c>
       <c r="D232" t="str">
-        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
+        <v>三维视角, 利益光谱图, 情绪翻译器, 换位思考, 认知干预</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>世界和平真的有可能实现吗？</v>
+        <v>探索存在的意义：我们在这个宇宙中的角色与价值</v>
       </c>
       <c r="B233" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C233" t="str">
-        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
+        <v>本文探讨了人类在宇宙中的角色与价值。尽管人类在宇宙尺度下显得渺小，但我们的独特性在于具备自我意识和创造能力。个体通过日常生活中的互动、创造为世界增添色彩，体现生命的价值。集体智慧促进了知识的分享和全球协作，助力应对共同挑战。无论未来如何，追寻意义的过程本身就是人类存在的证明和价值所在。</v>
       </c>
       <c r="D233" t="str">
-        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
+        <v>个体价值, 人类独特性, 存在意义, 宇宙观, 集体智慧</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>为什么社会贫富差距越来越大？</v>
+        <v>朝三暮四：被误读千年的预期管理课</v>
       </c>
       <c r="B234" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C234" t="str">
-        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
+        <v>本文重新解读“朝三暮四”寓言，揭示了预期管理和资源分配的智慧。狙公通过调整分配顺序管理猴群，展示了时间维度的价值重构。猴子优先确保当下安全的决策反映资源有限下的理性。此策略在现代如薪资设计和营销中广泛应用，强调认知框架调整对行为和情绪的影响。文章提醒我们注意这些策略，并学会在类似情况下更好地生存和发展。</v>
       </c>
       <c r="D234" t="str">
-        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
+        <v>生存策略, 管理智慧, 认知科学, 资源分配, 预期管理</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>为什么车厘子一个月到中国却不腐烂</v>
+        <v>死亡是终点还是新的开始？</v>
       </c>
       <c r="B235" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C235" t="str">
-        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D235" t="str">
-        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
+        <v>文化仪式, 死亡哲学, 生死认知, 科学探索, 精神追求</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>为何男人会对女人家暴</v>
+        <v>汉语是人类语言中最美的面向对象的语言</v>
       </c>
       <c r="B236" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C236" t="str">
-        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
+        <v>汉语作为一种语言体系，展现了与面向对象编程相似的核心特性，如多态性、封装性和继承性。文章通过分析汉语的发音系统、字形结构及汉字间的组合关系，揭示了汉语在表达上的高效与科学性，体现了其作为“面向对象语言”的美学价值和智慧结晶。这种跨领域的共通性为理解语言和编程提供了新的视角。</v>
       </c>
       <c r="D236" t="str">
-        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
+        <v>多态性, 封装性, 汉字系统, 汉语, 继承性, 面向对象编程</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>再聊姜萍</v>
+        <v>现代社会“揠苗助长”的典型行为与科学改善路径</v>
       </c>
       <c r="B237" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C237" t="str">
-        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
+        <v>本文探讨了现代社会中“揠苗助长”的典型行为，如教育内卷、职场透支及企业短视等，并提出了科学的改善路径。文章强调应尊重成长规律，避免超前教育和过度补习，提倡通过科学规划、家校联动及心理调适等方式促进健康发展。同时，文中引用日本、北欧的教育模式和华为的企业策略为例，展示了回归本质、遵循规律的重要性，旨在帮助个体和社会实现可持续发展。</v>
       </c>
       <c r="D237" t="str">
-        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
+        <v>企业战略, 心理健康, 成长规律, 教育内卷, 职业压力</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
+        <v>现代社会中的“舍近求远”行为：现象与解决之道</v>
       </c>
       <c r="B238" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C238" t="str">
-        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
+        <v>现代社会中的“舍近求远”现象体现在医疗资源的非理性选择、个人健康管理的低效投入以及职场与生活的路径依赖等方面。为解决这些问题，可以从优化服务设计、激发内在潜能和构建社会支持系统三方面入手，通过管理创新、回归本质需求及强化公共教育等措施来实现。长远来看，需要量化评估代价、拥抱渐进式改进并建立动态适应机制，以达到短期便利与长期收益之间的平衡，促进个人和社会的可持续发展。</v>
       </c>
       <c r="D238" t="str">
-        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
+        <v>个人发展, 健康管理, 社会支持, 管理创新, 资源利用</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>在现代社会中，如何真正实现社会公平？</v>
+        <v>田忌赛马：被低估的职场生存术，看懂的人早已逆袭</v>
       </c>
       <c r="B239" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C239" t="str">
-        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
+        <v>本文通过“田忌赛马”的故事，揭示了职场生存与晋升的战略思维。田忌通过巧妙示弱、资源重组及非对称竞争策略，在保持君王颜面的同时提升了自己的地位，并成功将孙膑引入权力中心。文章指出，真正的资源整合在于打破线性思维，构建多维价值网络，提倡在职场中运用示弱思维、错维打击和资源杠杆等策略，实现从执行者到战略家的转变。这些古代智慧为现代职场人士提供了宝贵的启示。</v>
       </c>
       <c r="D239" t="str">
-        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
+        <v>战略思维, 示弱策略, 职业发展, 资源重组, 非对称竞争</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
+        <v>男女平等的社会何时才能到来？</v>
       </c>
       <c r="B240" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C240" t="str">
-        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
+        <v>本文探讨了现代社会中性别平等的现状与挑战，通过分析职场、家庭教育、社会观念等多个层面的数据和实例，揭示了当前性别平等进程中的障碍。文章不仅回顾了历史上推动性别平等的关键时刻，还展示了冰岛、卢旺达、硅谷等地在促进性别平等方面的成功实践。此外，文中提到的教育领域变革及年轻一代观念的转变，预示着性别平等的新曙光正在显现。适合关注性别平等议题、希望了解如何推动社会进步的人士阅读。真正的平等在于每个个体都能挣脱性别的桎梏，在自由选择中绽放独特光芒。</v>
       </c>
       <c r="D240" t="str">
-        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
+        <v>性别平等, 政策影响, 教育差异, 社会变革, 职场性别差距</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>大货车未安装无死角摄像头的原因分析</v>
+        <v>精卫填海：被误读千年的神话密码与当代解码</v>
       </c>
       <c r="B241" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C241" t="str">
-        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
+        <v>精卫填海作为中国古代神话，蕴含着对远古海洋文明探索、母系社会遗痕及先民科技隐喻的深刻解读。本文揭示了精卫神话不仅是关于复仇与执念的故事，更是中华民族精神原型的构建，象征着对抗宿命、持续抗争的永恒精神。在当代，这种精神体现在女性科技工作者的崛起和生态修复实践中，展现出从传统神话到现代文明的智慧转变。通过重新审视精卫填海，我们发现了连接过去与未来的文化基因，以及它对现代社会的深远启示。</v>
       </c>
       <c r="D241" t="str">
-        <v>交通事故, 安全技术, 视线盲区</v>
+        <v>上古文明, 母系社会, 神话解读, 科技隐喻, 精神原型</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>如何反驳“现实点，社会就是这样”？</v>
+        <v>纸上谈兵：被误读千年的“知识陷阱”，藏着现代人最深的焦虑</v>
       </c>
       <c r="B242" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C242" t="str">
-        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
+        <v>本文重新审视了“纸上谈兵”这一典故，揭示了现代人在面对海量信息时的决策焦虑和实践缺失问题。赵括虽熟读兵书却因缺乏实战经验而失败，这反映了当前社会中普遍存在的“知识诅咒”现象——过度依赖理论和方法论，忽视实际操作中的复杂性和变化。文章指出，构建动态知识生态、实现知识的不断更新与实践验证是解决之道，强调真正的智慧在于将理论与现实相结合，避免陷入静态知识的陷阱。通过案例分析，本文提醒读者在理论与现实的裂缝中寻找重生的机会。</v>
       </c>
       <c r="D242" t="str">
-        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
+        <v>动态知识, 实践缺失, 知识代谢, 知识诅咒, 认知折叠</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>学历对成功到底有多重要？</v>
+        <v>认知差异下的成长启示：重读《小马过河》的现代隐喻</v>
       </c>
       <c r="B243" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C243" t="str">
-        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
+        <v>本文通过重读经典童话《小马过河》，探讨了其中蕴含的关于认知差异、信息筛选与决策困境的现代隐喻。文章分析了经验如何成为认知的局限，强调了试错的重要性以及通过主动探索构建个人知识体系的价值。此外，还讨论了真相的动态属性和数字时代特有的“小马困境”，即在信息爆炸背景下独立思考的重要性。适合希望从传统故事中寻找解决现代问题启示的读者。</v>
       </c>
       <c r="D243" t="str">
-        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
+        <v>信息筛选, 决策困境, 教育理念, 数字时代, 认知科学</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>导盲犬禁止入内标识的深度解读</v>
+        <v>道德标准是绝对的吗？</v>
       </c>
       <c r="B244" t="str">
-        <v>社会现象</v>
+        <v>社会探究</v>
       </c>
       <c r="C244" t="str">
-        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
+        <v>探讨道德标准是否绝对，通过绝对道德论和相对道德论的视角，分析了从古代法典到现代伦理问题中的道德观念。文章指出，虽然某些道德原则如医疗领域的“不伤害原则”具有普遍性，但许多道德标准也深深植根于特定的文化和社会环境中，表现出相对性。在绝对与相对之间找到动态平衡，是人类社会持续探索的方向，尤其是在面对新兴技术和全球化挑战时，这种平衡显得尤为重要。</v>
       </c>
       <c r="D244" t="str">
-        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
+        <v>伦理学, 动态平衡, 相对道德论, 绝对道德论, 道德标准</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
+        <v>世界和平真的有可能实现吗？</v>
       </c>
       <c r="B245" t="str">
         <v>社会现象</v>
       </c>
       <c r="C245" t="str">
-        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
+        <v>本文探讨了世界和平的可能性，通过分析历史上的暴力趋势、现代文明中的和平机制以及技术发展和公民社会在全球范围内的积极作用，展示了人类向和平迈进的种种迹象。尽管存在诸多挑战，但随着教育水平的提升、科技的应用及全球合作的加深，和平正逐渐成为现实，而非遥不可及的梦想。</v>
       </c>
       <c r="D245" t="str">
-        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
+        <v>世界和平, 公民社会, 历史暴力, 技术发展, 现代文明</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>新手司机上路有什么值得注意的吗？</v>
+        <v>为什么社会贫富差距越来越大？</v>
       </c>
       <c r="B246" t="str">
         <v>社会现象</v>
       </c>
       <c r="C246" t="str">
-        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
+        <v>贫富差距扩大是全球面临的挑战，受经济全球化、科技革命、政策机制及教育机会不平等的影响。发达国家与发展中国家、资本与劳动者的收益差距逐渐拉大，同时，高收入者通过税务规划规避税负，而低收入群体缺乏社会支持。解决这一问题需要完善税收和社会保障体系，推动技术普及和共享，确保社会发展的成果能够惠及更广泛的人群。</v>
       </c>
       <c r="D246" t="str">
-        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
+        <v>政策机制, 教育机会, 科技革命, 经济全球化, 贫富差距</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
+        <v>为什么车厘子一个月到中国却不腐烂</v>
       </c>
       <c r="B247" t="str">
         <v>社会现象</v>
       </c>
       <c r="C247" t="str">
-        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
+        <v>文章分析了车厘子能够在长时间运输过程中保持不腐烂的原因，包括采摘后的快速冷却和预冷处理、使用专用包装材料和气调包装、全程冷链运输以及优化物流链等保鲜技术和物流管理措施，同时也提及了某些车厘子品种自身具备的良好耐储性。</v>
       </c>
       <c r="D247" t="str">
-        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
+        <v>品种特性, 物流管理, 车厘子保鲜, 采摘后处理</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
+        <v>为何男人会对女人家暴</v>
       </c>
       <c r="B248" t="str">
         <v>社会现象</v>
       </c>
       <c r="C248" t="str">
-        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
+        <v>深入剖析男人对女人家暴的原因，涵盖社会文化根源、个人心理因素、婚姻关系矛盾以及法律意识与监管缺失等多方面，探讨如何解决这一复杂的社会问题。</v>
       </c>
       <c r="D248" t="str">
-        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
+        <v>婚姻关系, 家庭暴力, 法律监管, 男性心理, 社会文化</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
+        <v>再聊姜萍</v>
       </c>
       <c r="B249" t="str">
         <v>社会现象</v>
       </c>
       <c r="C249" t="str">
-        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
+        <v>文章通过“姜萍事件”探讨如何运用概率学与批判性思维辨别生活中的骗局，强调独立思考的重要性，提醒读者不要轻信低概率事件，避免成为骗子的目标。</v>
       </c>
       <c r="D249" t="str">
-        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
+        <v>批判性思维, 概率学, 独立思考, 骗局识别</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
+        <v>在全球化的背景下，文化的多样性是否会逐渐消失？</v>
       </c>
       <c r="B250" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C250" t="str">
-        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
+        <v>全球化促进了文化的快速传播与融合，既带来了文化交流与创新的机会，也引发了文化同质化的担忧。文章探讨了在全球化背景下文化多样性的现状、面临的挑战及保护措施，强调通过政策支持、企业责任和个人行动共同维护文化多样性，促进文化在交融中焕发新生，确保人类文明的可持续发展。</v>
       </c>
       <c r="D250" t="str">
-        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
+        <v>全球化, 文化交融, 文化保护, 文化创新, 文化多样性</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>倒立的时候是不是举起了地球？</v>
+        <v>在现代社会中，如何真正实现社会公平？</v>
       </c>
       <c r="B251" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C251" t="str">
-        <v>探讨倒立这一动作背后的科学原理，包括地球引力、人体力学等方面，同时从哲学角度思考倒立与地球的关系，以及其在科学与艺术领域的跨界之美。</v>
+        <v>文章探讨了在现代社会中实现社会公平的途径，包括推动教育公平、优化经济分配、均衡资源布局及强化法律保障等方面，强调需要政府、企业和社会各界共同努力，构建一个更加公平和谐的社会。</v>
       </c>
       <c r="D251" t="str">
-        <v>人体力学, 倒立, 哲学思考, 地球引力, 科学与艺术</v>
+        <v>教育公平, 社会公平, 经济公平, 资源分配</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>在月球游泳能实现“轻功水上漂”吗？</v>
+        <v>在追求自由的过程中，如何平衡个人自由与社会责任？</v>
       </c>
       <c r="B252" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C252" t="str">
-        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
+        <v>文章探讨了个人自由与社会责任之间的关系，强调在追求自由的同时必须履行对社会的责任，提出通过法律框架、道德价值观及社会契约来实现两者的平衡，以促进个人成长和社会进步。</v>
       </c>
       <c r="D252" t="str">
-        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
+        <v>个人自由, 法律框架, 社会责任, 道德选择</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>巧用3kg和5kg砝码称出8kg水的方法</v>
+        <v>大货车未安装无死角摄像头的原因分析</v>
       </c>
       <c r="B253" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C253" t="str">
-        <v>介绍如何仅利用3kg和5kg的砝码，通过天平精确称出8kg水的详细步骤与操作技巧，帮助提升生活中的测量能力与逻辑思维。</v>
+        <v>深入探讨大货车未普遍安装无死角摄像头的原因，包括技术瓶颈、成本高昂及法规标准缺失等问题，并提出相应的替代策略和未来发展建议，以期为提升道路交通安全提供有益参考。</v>
       </c>
       <c r="D253" t="str">
-        <v>天平, 测量技巧, 砝码, 称水, 逻辑思维</v>
+        <v>交通事故, 安全技术, 视线盲区</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>探索发电机与永动机的奥秘：连接发电机能否创造永动机？</v>
+        <v>如何反驳“现实点，社会就是这样”？</v>
       </c>
       <c r="B254" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C254" t="str">
-        <v>深入剖析连接发电机能否创造永动机这一问题，解读发电机工作原理、永动机定义分类，阐述因能量损耗和能量守恒定律限制无法实现，同时讲述永动机探索带来的启示。</v>
+        <v>针对“现实点，社会就是这样”这一常见观点进行有力反驳，阐述社会时刻在变、社会具有多元性、追求理想与适应现实可融合等内容，鼓励人们积极改变社会、追求理想。</v>
       </c>
       <c r="D254" t="str">
-        <v>发电机原理, 永动机概念, 科学探索, 能量守恒定律, 能量损耗</v>
+        <v>个人力量, 理想追求, 社会变革, 社会多元性, 社会进步</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>揭秘陨石为何总是落在陨石坑里</v>
+        <v>学历对成功到底有多重要？</v>
       </c>
       <c r="B255" t="str">
-        <v>科学探索</v>
+        <v>社会现象</v>
       </c>
       <c r="C255" t="str">
-        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
+        <v>学历在成功之路上扮演着重要角色，但并非唯一决定因素。文章探讨了学历作为职场入场券的价值、其隐性优势如圈层资源和政策红利，以及在不同行业中学历权重的差异。同时强调了能力与学历之间的动态平衡，及终身学习的重要性，提出构建“学历+能力+认知”的三维竞争力模型才是通往成功的路径。</v>
       </c>
       <c r="D255" t="str">
-        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
+        <v>学历价值, 成功因素, 终身学习, 职业发展, 行业差异</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
+        <v>导盲犬禁止入内标识的深度解读</v>
       </c>
       <c r="B256" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C256" t="str">
-        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
+        <v>深度剖析“导盲犬禁止入内”标识背后的意义，探讨其在保障盲人权益与维护公共秩序之间的平衡作用，以及如何通过社会宣传和法律完善来消除误解，创造更包容的社会环境。</v>
       </c>
       <c r="D256" t="str">
-        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
+        <v>公共秩序, 导盲犬, 标识解读, 盲人权益, 社会包容</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>未来十年的发展机遇：开拓无限潜能</v>
+        <v>我们应该如何在文化交流中保持自身文化的独特性？</v>
       </c>
       <c r="B257" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C257" t="str">
-        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
+        <v>在全球化背景下，保持文化独特性需要理解与尊重其他文化、坚守自身文化的核心价值、通过创新传承文化、在开放中寻求平衡以及培养文化自信。通过这些方法，我们可以在多元文化交流中既展现自我又吸收外来文化的精华，确保文化的独特性和活力得以延续。</v>
       </c>
       <c r="D257" t="str">
-        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
+        <v>创新传承, 文化交流, 文化独特性, 文化自信, 核心价值</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>未来十年科技会有哪些突破？</v>
+        <v>新手司机上路有什么值得注意的吗？</v>
       </c>
       <c r="B258" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C258" t="str">
-        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
+        <v>本文为新手司机提供了详尽的上路指南，包括出发前的车辆检查与准备、行车中的安全事项、停车规范、突发事件处理的心理建设及培养良好驾驶习惯。了解这些关键细节，有助于确保行车安全，逐步成长为一名自信且负责任的驾驶员。掌握正确的新手驾驶技巧，从细节做起，保障你和他人的安全。</v>
       </c>
       <c r="D258" t="str">
-        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
+        <v>停车规范, 出发准备, 安全驾驶, 心理建设, 新手司机, 行车注意, 驾驶习惯</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
+        <v>未成年人玩手机有各种限制，要不要将手机列为成人用品？</v>
       </c>
       <c r="B259" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C259" t="str">
-        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
+        <v>探讨未成年人玩手机带来的诸多问题，分析现有限制措施的不足，讨论将手机列为成人用品的利弊，提出平衡解决未成年人手机使用问题的策略。</v>
       </c>
       <c r="D259" t="str">
-        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
+        <v>手机使用, 教育引导, 未成年人, 身心健康, 限制措施</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>科技浪潮下人类情感面临的崭新挑战</v>
+        <v>经济差距、教育资源分配不均等问题能否得到根本解决？</v>
       </c>
       <c r="B260" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C260" t="str">
-        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
+        <v>探讨经济差距与教育资源分配不均的问题，分析其形成原因及对社会的影响，并提出通过政策引导和社会各界共同努力来促进教育公平、缩小经济差距的解决之道。文章强调了实现教育资源均衡分配的重要性，以及为每个人提供平等发展机会的长远目标。尽管完全消除这些问题极具挑战性，但通过持续努力可以逐步改善现状，促进社会更加公平和谐的发展。</v>
       </c>
       <c r="D260" t="str">
-        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
+        <v>公共政策, 教育公平, 教育资源分配, 社会流动, 经济差距</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
+        <v>虚假信息和舆论引导对社会和个人会产生哪些深远影响？</v>
       </c>
       <c r="B261" t="str">
-        <v>科技前沿</v>
+        <v>社会现象</v>
       </c>
       <c r="C261" t="str">
-        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
+        <v>虚假信息如网络谣言等破坏社会信任，影响决策，加剧分化；对个人则妨碍认知，威胁财产，影响心理。应对措施有提升媒介素养、加强法律和技术手段来识别拦截虚假信息。共同营造健康网络环境至关重要。</v>
       </c>
       <c r="D261" t="str">
-        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
+        <v>个人影响, 应对策略, 社会影响, 舆论引导, 虚假信息</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>量子计算的实际应用前景：开启科技新时代</v>
+        <v>人类制造的涂料能否覆盖地球所有陆地？</v>
       </c>
       <c r="B262" t="str">
-        <v>科技前沿</v>
+        <v>科学探索</v>
       </c>
       <c r="C262" t="str">
-        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
+        <v>探讨人类制造的涂料覆盖地球所有陆地的可能性，分析其中面临的技术、资源、环境、社会和经济等多方面挑战，以及科技创新和全球合作在其中的重要作用。</v>
       </c>
       <c r="D262" t="str">
-        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
+        <v>全球合作, 地球陆地, 涂料, 环境影响, 科技挑战</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>金融科技对传统银行业的影响及应对策略</v>
+        <v>倒立的时候是不是举起了地球？</v>
       </c>
       <c r="B263" t="str">
-        <v>科技前沿</v>
+        <v>科学探索</v>
       </c>
       <c r="C263" t="str">
-        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
+        <v>探讨倒立这一动作背后的科学原理，包括地球引力、人体力学等方面，同时从哲学角度思考倒立与地球的关系，以及其在科学与艺术领域的跨界之美。</v>
       </c>
       <c r="D263" t="str">
-        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
+        <v>人体力学, 倒立, 哲学思考, 地球引力, 科学与艺术</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
+        <v>在月球游泳能实现“轻功水上漂”吗？</v>
       </c>
       <c r="B264" t="str">
-        <v>职业发展</v>
+        <v>科学探索</v>
       </c>
       <c r="C264" t="str">
-        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
+        <v>探讨在月球上游泳并实现“轻功水上漂”这一幻想是否可行，分析月球的物理环境、相关科学原理，对比科幻与现实差距，揭示这一设想暂时无法实现的原因。</v>
       </c>
       <c r="D264" t="str">
-        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
+        <v>低重力, 宇宙幻想, 月球, 科学原理, 轻功水上漂</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>什么是成功的定义？</v>
+        <v>巧用3kg和5kg砝码称出8kg水的方法</v>
       </c>
       <c r="B265" t="str">
-        <v>职业发展</v>
+        <v>科学探索</v>
       </c>
       <c r="C265" t="str">
-        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
+        <v>介绍如何仅利用3kg和5kg的砝码，通过天平精确称出8kg水的详细步骤与操作技巧，帮助提升生活中的测量能力与逻辑思维。</v>
       </c>
       <c r="D265" t="str">
-        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
+        <v>天平, 测量技巧, 砝码, 称水, 逻辑思维</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>内向者在职场沟通中的策略与优势</v>
+        <v>探索发电机与永动机的奥秘：连接发电机能否创造永动机？</v>
       </c>
       <c r="B266" t="str">
-        <v>职业发展</v>
+        <v>科学探索</v>
       </c>
       <c r="C266" t="str">
-        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
+        <v>深入剖析连接发电机能否创造永动机这一问题，解读发电机工作原理、永动机定义分类，阐述因能量损耗和能量守恒定律限制无法实现，同时讲述永动机探索带来的启示。</v>
       </c>
       <c r="D266" t="str">
-        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
+        <v>发电机原理, 永动机概念, 科学探索, 能量守恒定律, 能量损耗</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
+        <v>揭秘陨石为何总是落在陨石坑里</v>
       </c>
       <c r="B267" t="str">
-        <v>职业发展</v>
+        <v>科学探索</v>
       </c>
       <c r="C267" t="str">
-        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
+        <v>探索“陨石为何总是落在陨石坑里”这一有趣说法背后的真相，从陨石坑的定义、陨石撞击原理等方面剖析原因，揭示其科学意义。</v>
       </c>
       <c r="D267" t="str">
-        <v>沟通技巧, 涨薪谈判, 职业发展</v>
+        <v>地质记录, 科学研究, 视觉错觉, 陨石坑, 陨石撞击</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>如何找到自己的人生方向？</v>
+        <v>微信深夜放大招：搜索框变AI管家，百度连夜跟牌为哪般？</v>
       </c>
       <c r="B268" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C268" t="str">
-        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
+        <v>微信升级搜索框为AI管家，大幅提高效率，百度紧急接入DeepSeek模型回应。腾讯利用社交数据优势构建服务闭环，而百度面临广告收入下降和合规挑战。专家提醒，过度依赖AI可能导致负面效果，建议采用“AI+专家”模式并审慎验证AI信息。</v>
       </c>
       <c r="D268" t="str">
-        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
+        <v>DeepSeek, 微信, 搜索引擎, 百度</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>如何确定自己的人生方向和目标？</v>
+        <v>未来十年的发展机遇：开拓无限潜能</v>
       </c>
       <c r="B269" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C269" t="str">
-        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
+        <v>探讨未来十年在科技、经济、社会和环境等领域的发展机遇，包括人工智能、大数据、新兴市场崛起、可持续发展等方面的内容，助力个人与事业把握时代脉搏实现腾飞。</v>
       </c>
       <c r="D269" t="str">
-        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
+        <v>未来发展, 环境挑战, 社会进步, 科技前沿, 经济变革</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>如何通过在线课程提升职业技能</v>
+        <v>未来十年科技会有哪些突破？</v>
       </c>
       <c r="B270" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C270" t="str">
-        <v>深入探讨如何利用在线课程有效提升职业技能，涵盖目标定位、平台选择、学习计划制定、学习投入及实践应用等方面，助力在职场中脱颖而出。</v>
+        <v>探讨2024-2035年间七大科技趋势：1) 量子计算机普及，成本大幅降低；2) 脑机接口技术发展，实现意念控制和情绪调节；3) 核聚变商业化，能源格局大变革；4) 生物编程兴起，基因编辑治愈遗传病；5) 元宇宙发展，数字孪生与文明模拟出现；6) 新材料如室温超导体及自修复材料的突破；7) 太空工业化，近地轨道经济圈形成。这些科技进步预示着人类文明的巨大飞跃。</v>
       </c>
       <c r="D270" t="str">
-        <v>在线课程, 学习方法, 职业技能, 职场发展, 自我提升</v>
+        <v>技术进步, 未来十年, 环境与可持续性, 社会变迁, 经济趋势</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
+        <v>生物技术在医疗领域的突破：开启健康新纪元</v>
       </c>
       <c r="B271" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C271" t="str">
-        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
+        <v>阐述生物技术在医疗领域的多方面突破，包括基因编辑技术、细胞治疗、精准医疗和生物制药创新等，探讨其对医疗行业的影响及面临的挑战。</v>
       </c>
       <c r="D271" t="str">
-        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
+        <v>医疗突破, 基因编辑, 生物技术, 精准医疗, 细胞治疗</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
+        <v>科技浪潮下人类情感面临的崭新挑战</v>
       </c>
       <c r="B272" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C272" t="str">
-        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
+        <v>探讨科技发展给人类情感带来的新挑战及应对策略，分析虚拟社交和科技对人际关系的影响，强调平衡虚拟与真实社交、提升情感能力及树立正确观念的重要性。</v>
       </c>
       <c r="D272" t="str">
-        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
+        <v>人类情感, 人际关系, 情感应对, 科技浪潮, 虚拟社交</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
+        <v>虚拟现实技术的未来趋势：开启无限可能的数字新纪元</v>
       </c>
       <c r="B273" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C273" t="str">
-        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
+        <v>深入剖析虚拟现实技术的当下格局与突破，展望其极致真实沉浸感、多领域深度交融及社交互动全新境界的发展趋向，同时探讨面临的挑战与机遇，探索这一科技前沿如何开启无限可能的数字新纪元。</v>
       </c>
       <c r="D273" t="str">
-        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
+        <v>多领域融合, 技术挑战, 沉浸感, 社交互动, 虚拟现实技术</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>拿离职威胁涨薪：一把双刃剑</v>
+        <v>量子计算的实际应用前景：开启科技新时代</v>
       </c>
       <c r="B274" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C274" t="str">
-        <v>深入剖析拿离职威胁涨薪这一现象，揭示其短期收益与长期风险，为职场人士提供更合适的涨薪策略，助力职场人理性追求薪资增长与职业发展。</v>
+        <v>本文深入探讨量子计算的实际应用前景，分析其在科学研究、商业、医疗健康等多领域的应用潜力，同时阐述量子计算面临的挑战与机遇，展现其开启科技新时代的巨大潜力。</v>
       </c>
       <c r="D274" t="str">
-        <v>人际关系, 离职威胁, 职业发展, 职场涨薪, 薪资谈判</v>
+        <v>医疗健康, 商业领域, 应用前景, 科学研究, 量子计算</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
+        <v>金融科技对传统银行业的影响及应对策略</v>
       </c>
       <c r="B275" t="str">
-        <v>职业发展</v>
+        <v>科技前沿</v>
       </c>
       <c r="C275" t="str">
-        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
+        <v>分析金融科技浪潮下传统银行业面临的挑战，探讨其应对策略，并展望金融科技与传统银行业的融合发展趋势，助力传统银行在竞争中转型升级。</v>
       </c>
       <c r="D275" t="str">
-        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
+        <v>传统银行业, 开放银行, 数字化转型, 智能化金融服务, 金融科技</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>互联网行业“35岁危机”蔓延与春招应届生职业规划</v>
       </c>
       <c r="B276" t="str">
         <v>职业发展</v>
       </c>
       <c r="C276" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>分析互联网行业的“35岁危机”是否向其他科技领域蔓延，并为春招应届生提供职业路径规划建议，助力他们在科技行业成功发展。</v>
       </c>
       <c r="D276" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>35岁危机, 互联网行业, 春招应届生, 科技领域, 职业规划</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>什么是成功的定义？</v>
       </c>
       <c r="B277" t="str">
         <v>职业发展</v>
       </c>
       <c r="C277" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>文章重新定义了成功的概念，提出了科学评估人生价值的五个维度：能量净值、抗脆弱系数、时空自由度、传承密度和熵减能力。通过避开社会比较和幸存者偏差等陷阱，文章提倡从目标导向转向过程导向，提供了包括三阶目标拆解法、能量投资组合策略及失败价值提取术在内的实用工具，帮助个人构建自己的成功操作系统。最终，成功被描绘成一个持续理解世界复杂与美的过程，而非外界赋予的标签或奖赏。</v>
       </c>
       <c r="D277" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>个人发展, 心理健康, 成功定义, 抗脆弱性, 科学评估</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>内向者在职场沟通中的策略与优势</v>
       </c>
       <c r="B278" t="str">
         <v>职业发展</v>
       </c>
       <c r="C278" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>本文探讨了内向者在职场沟通中的独特处境与潜在优势，阐述了职场沟通的基本准则，并为内向者提供了实用的沟通妙招，帮助打破偏见，展现职场魅力。</v>
       </c>
       <c r="D278" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>内向者策略, 团队合作, 沟通准则, 职场技巧, 职场沟通</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>在什么时间以什么方法提出涨薪要求最合适？</v>
       </c>
       <c r="B279" t="str">
         <v>职业发展</v>
       </c>
       <c r="C279" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>文章提供了关于何时以及如何提出涨薪要求的建议，包括选择在年度总结、绩效考核后或公司盈利时提出，并强调使用数据支持自己的价值、以解决问题的态度进行沟通，同时保持与公司的良好关系，为职业发展铺路。</v>
       </c>
       <c r="D279" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>沟通技巧, 涨薪谈判, 职业发展</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>如何找到自己的人生方向？</v>
       </c>
       <c r="B280" t="str">
         <v>职业发展</v>
       </c>
       <c r="C280" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>在不确定的时代，找到人生方向至关重要。本文提供方法来解构认知陷阱、建立自我认知，并通过实际行动校准方向。利用‘能量日记’、‘痛苦图谱’和‘可能性清单’进行探索，采用‘100天实验法’和每周‘可能性时间’促进行动。学会与不确定性共处，培养弹性方向感，享受探索过程，让生活中的迷雾转化为指引前路的星光。</v>
       </c>
       <c r="D280" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>不确定性, 人生方向, 心理咨询, 自我认知, 行动指南</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>如何确定自己的人生方向和目标？</v>
       </c>
       <c r="B281" t="str">
         <v>职业发展</v>
       </c>
       <c r="C281" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>探讨如何确定个人的人生方向和目标，强调了自我认知的重要性，包括了解个人兴趣和价值观。文章介绍了设定目标时可采用的SMART原则，以及制定和执行计划的方法，如分解目标、制定时间表等。此外，还提到了保持积极心态、接受不确定性、坚持与耐心的重要性，并鼓励持续探索新事物和终身学习，以适应生活中的变化和个人成长的需求。最终指出，找到适合自己的道路需要倾听内心的声音并不断调整自己的计划和策略。</v>
       </c>
       <c r="D281" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>人生方向, 目标设定, 积极心态, 自我认知, 行动计划</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
+        <v>如何通过在线课程提升职业技能</v>
       </c>
       <c r="B282" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C282" t="str">
-        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
+        <v>深入探讨如何利用在线课程有效提升职业技能，涵盖目标定位、平台选择、学习计划制定、学习投入及实践应用等方面，助力在职场中脱颖而出。</v>
       </c>
       <c r="D282" t="str">
-        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
+        <v>在线课程, 学习方法, 职业技能, 职场发展, 自我提升</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>19世纪人类是否全部灭绝过？</v>
+        <v>导演饺子蛰伏多年终成爆款，长期主义者在“速成”职场如何自洽？</v>
       </c>
       <c r="B283" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C283" t="str">
-        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
+        <v>本文通过动画电影导演饺子的成功案例，探讨了在追求“速成”的职场环境中，长期主义者如何坚守初心、专注当下、持续学习并寻找志同道合的伙伴，以实现自我价值和成功。</v>
       </c>
       <c r="D283" t="str">
-        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
+        <v>成功案例, 职场环境, 自我成长, 速成文化, 长期主义</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>上帝能否创造一块自己搬不动的石头？</v>
+        <v>当个人价值遇上创业公司：何时该为自己的收入争取</v>
       </c>
       <c r="B284" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C284" t="str">
-        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
+        <v>本文探讨了在创业公司背景下，个人何时以及如何为自己的收入争取更好的待遇。文章分析了创业公司不同发展阶段对个人价值认知的差异、团队内部的利益平衡问题及职业发展的长远考量。提供了具体的加薪谈判策略，如通过数据展示个人贡献、设定合理的薪资目标并解释其合理性等。强调了在创业公司中学会为自己发声的重要性，同时也提醒读者在必要时考虑寻找更适合的发展机会。适合希望在创业环境中实现个人价值与薪酬匹配的专业人士阅读。</v>
       </c>
       <c r="D284" t="str">
-        <v>人类认知, 哲学思考, 宗教解读, 神学逻辑, 逻辑悖论</v>
+        <v>个人价值, 创业公司, 团队博弈, 职业发展, 薪资谈判</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>当代码重构遇上技术革命：程序员岗位变迁的五个关键信号</v>
       </c>
       <c r="B285" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C285" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>随着技术革命和代码重构的趋势，程序员岗位正在经历重大变迁。基础编码需求减少、技术栈快速迭代、成本结构重构、价值评估体系转移及跨界能力的重要性增加是五个关键信号。为了应对这些变化，程序员需要通过技能重塑、专注于复杂系统设计以及开发跨领域的专业能力来实现职业转型与价值跃迁。尽管智能工具提高了生产力，但对高级开发者在复杂问题处理上的需求依然强劲。</v>
       </c>
       <c r="D285" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>代码重构, 技术革命, 技能重塑, 职业发展, 跨界能力</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>午餐肉，我可以晚上吃吗？</v>
+        <v>拿离职威胁涨薪：一把双刃剑</v>
       </c>
       <c r="B286" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C286" t="str">
-        <v>探讨午餐肉作为晚餐的可行性，分析其营养价值、健康考量因素，以及提供多种晚餐搭配建议，助力读者在享受美食的同时保持健康饮食。</v>
+        <v>深入剖析拿离职威胁涨薪这一现象，揭示其短期收益与长期风险，为职场人士提供更合适的涨薪策略，助力职场人理性追求薪资增长与职业发展。</v>
       </c>
       <c r="D286" t="str">
-        <v>健康饮食, 午餐肉, 晚餐搭配, 烹饪方式, 营养价值</v>
+        <v>人际关系, 离职威胁, 职业发展, 职场涨薪, 薪资谈判</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>台风眼里引爆核弹能平息台风吗？</v>
+        <v>离职抉择：领导加薪挽留与新offer如何权衡</v>
       </c>
       <c r="B287" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C287" t="str">
-        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
+        <v>深入探讨在面对领导加薪挽留和新的工作offer时，如何综合考虑各种因素做出最佳决策，以实现个人职业发展的最大利益。</v>
       </c>
       <c r="D287" t="str">
-        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
+        <v>新offer, 离职抉择, 职业发展, 薪资福利, 领导挽留</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B288" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C288" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D288" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>哪吒有三头六臂，加入其中一个头得了脑血栓，另外两个头会不会得？</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B289" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C289" t="str">
-        <v>文章以哪吒三头六臂的神话形象为切入点，探讨若其中一个头患脑血栓，其余两头是否受影响的有趣问题。结合现实中脑血栓知识与神话设定，深入分析并给出应对策略，还阐述了其中蕴含的健康管理和团队合作启示。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D289" t="str">
-        <v>三头六臂, 健康启示, 哪吒, 神话医学, 脑血栓</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B290" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C290" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D290" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>如何用向下射击的机枪制作飞行背包？</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B291" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C291" t="str">
-        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D291" t="str">
-        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B292" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C292" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D292" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B293" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C293" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D293" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B294" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C294" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D294" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>19世纪人类是否全部灭绝过？</v>
       </c>
       <c r="B295" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C295" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
       </c>
       <c r="D295" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B296" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C296" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D296" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>人类认知, 哲学思考, 宗教解读, 神学逻辑, 逻辑悖论</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B297" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C297" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D297" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>妲己不是九尾狐而是藏狐，纣王还会爱上她吗？</v>
+        <v>午餐肉，我可以晚上吃吗？</v>
       </c>
       <c r="B298" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C298" t="str">
-        <v>探讨妲己形象从九尾狐转变为藏狐后，纣王是否仍会爱她这一新颖话题，分析妲己不同形象特点、纣王爱情观，以及此设定对理解爱情、权力和人性的意义。</v>
+        <v>探讨午餐肉作为晚餐的可行性，分析其营养价值、健康考量因素，以及提供多种晚餐搭配建议，助力读者在享受美食的同时保持健康饮食。</v>
       </c>
       <c r="D298" t="str">
-        <v>九尾狐, 妲己, 爱情观, 纣王, 藏狐</v>
+        <v>健康饮食, 午餐肉, 晚餐搭配, 烹饪方式, 营养价值</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
+        <v>台风眼里引爆核弹能平息台风吗？</v>
       </c>
       <c r="B299" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C299" t="str">
-        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
+        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
       </c>
       <c r="D299" t="str">
-        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
+        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>我买了一斤藕，为啥半斤都是空的？</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B300" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C300" t="str">
-        <v>深入剖析藕出现空心现象的科学缘由、生物学意义，分享挑选实心藕的实用方法，同时介绍藕丰富多样的营养价值，带你全面了解这种常见水生植物的奥秘。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D300" t="str">
-        <v>挑选技巧, 水生植物, 空心结构, 营养价值</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
+        <v>哪吒有三头六臂，加入其中一个头得了脑血栓，另外两个头会不会得？</v>
       </c>
       <c r="B301" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C301" t="str">
-        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
+        <v>文章以哪吒三头六臂的神话形象为切入点，探讨若其中一个头患脑血栓，其余两头是否受影响的有趣问题。结合现实中脑血栓知识与神话设定，深入分析并给出应对策略，还阐述了其中蕴含的健康管理和团队合作启示。</v>
       </c>
       <c r="D301" t="str">
-        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
+        <v>三头六臂, 健康启示, 哪吒, 神话医学, 脑血栓</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>斑马纹路是否影响捕食者视觉？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B302" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C302" t="str">
-        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D302" t="str">
-        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>如何用向下射击的机枪制作飞行背包？</v>
       </c>
       <c r="B303" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C303" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
       </c>
       <c r="D303" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>法律未禁御剑飞行却无人尝试的原因探究</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B304" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C304" t="str">
-        <v>深入探究法律虽未禁止御剑飞行，但现实中却几乎无人尝试的原因，从技术、安全、社会认知、法律伦理等多方面进行剖析。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D304" t="str">
-        <v>安全隐忧, 御剑飞行, 技术瓶颈, 法律伦理, 社会认知</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>玉皇大帝住的是平流层还是对流层？</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B305" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C305" t="str">
-        <v>探讨中国古代神话中玉皇大帝居住的天庭究竟处于平流层还是对流层这一问题，从神话传说、科学角度及文化意义多方面展开分析，开启神话与科学交融的奇妙探索之旅。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D305" t="str">
-        <v>天庭, 对流层, 平流层, 玉皇大帝, 神话科学融合</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B306" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C306" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D306" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B307" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C307" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D307" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>蓝牙耳机坏了，去医院挂牙科还是耳科？</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B308" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C308" t="str">
-        <v>以幽默的方式引出蓝牙耳机坏了该如何处理的话题，详细介绍蓝牙耳机故障的常见原因、自我诊断技巧、寻求专业维修的方法以及日常保养的要点，帮助读者了解如何应对蓝牙耳机故障并做好预防。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D308" t="str">
-        <v>故障原因, 维修方法, 耳机保养, 蓝牙耳机, 预防措施</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B309" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C309" t="str">
-        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D309" t="str">
-        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>妲己不是九尾狐而是藏狐，纣王还会爱上她吗？</v>
       </c>
       <c r="B310" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C310" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>探讨妲己形象从九尾狐转变为藏狐后，纣王是否仍会爱她这一新颖话题，分析妲己不同形象特点、纣王爱情观，以及此设定对理解爱情、权力和人性的意义。</v>
       </c>
       <c r="D310" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>九尾狐, 妲己, 爱情观, 纣王, 藏狐</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B311" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C311" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D311" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>我买了一斤藕，为啥半斤都是空的？</v>
       </c>
       <c r="B312" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C312" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>深入剖析藕出现空心现象的科学缘由、生物学意义，分享挑选实心藕的实用方法，同时介绍藕丰富多样的营养价值，带你全面了解这种常见水生植物的奥秘。</v>
       </c>
       <c r="D312" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>挑选技巧, 水生植物, 空心结构, 营养价值</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>鉴黄师下班看黄色视频：加班还是违法？</v>
+        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
       </c>
       <c r="B313" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C313" t="str">
-        <v>探讨鉴黄师下班观看黄色视频的行为是否属于加班或违法，分析其工作性质、法律责任及职场伦理，帮助理解这一特殊职业面临的挑战与抉择。</v>
+        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
       </c>
       <c r="D313" t="str">
-        <v>工作与生活平衡, 法律法规, 网络环境净化, 职场伦理, 鉴黄师</v>
+        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>斑马纹路是否影响捕食者视觉？</v>
       </c>
       <c r="B314" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C314" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
       </c>
       <c r="D314" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>香菇掉厕所了还能叫香菇吗？</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B315" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C315" t="str">
-        <v>探讨“香菇掉厕所了还能叫香菇吗”这一有趣话题，从科学分类、文化心理角度分析香菇命名问题，同时介绍香菇营养价值与烹饪方法，领略其在文化艺术中的魅力。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D315" t="str">
-        <v>文化心理, 物品命名, 食材营养, 香菇, 香菇烹饪</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>法律未禁御剑飞行却无人尝试的原因探究</v>
       </c>
       <c r="B316" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C316" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>深入探究法律虽未禁止御剑飞行，但现实中却几乎无人尝试的原因，从技术、安全、社会认知、法律伦理等多方面进行剖析。</v>
       </c>
       <c r="D316" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>安全隐忧, 御剑飞行, 技术瓶颈, 法律伦理, 社会认知</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>玉皇大帝住的是平流层还是对流层？</v>
       </c>
       <c r="B317" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C317" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>探讨中国古代神话中玉皇大帝居住的天庭究竟处于平流层还是对流层这一问题，从神话传说、科学角度及文化意义多方面展开分析，开启神话与科学交融的奇妙探索之旅。</v>
       </c>
       <c r="D317" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>天庭, 对流层, 平流层, 玉皇大帝, 神话科学融合</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B318" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C318" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D318" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B319" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C319" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D319" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>蓝牙耳机坏了，去医院挂牙科还是耳科？</v>
       </c>
       <c r="B320" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C320" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>以幽默的方式引出蓝牙耳机坏了该如何处理的话题，详细介绍蓝牙耳机故障的常见原因、自我诊断技巧、寻求专业维修的方法以及日常保养的要点，帮助读者了解如何应对蓝牙耳机故障并做好预防。</v>
       </c>
       <c r="D320" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>故障原因, 维修方法, 耳机保养, 蓝牙耳机, 预防措施</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
       </c>
       <c r="B321" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C321" t="str">
-        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
+        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
       </c>
       <c r="D321" t="str">
-        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
+        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B322" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C322" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D322" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B323" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C323" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D323" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B324" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C324" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D324" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>鉴黄师下班看黄色视频：加班还是违法？</v>
       </c>
       <c r="B325" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C325" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>探讨鉴黄师下班观看黄色视频的行为是否属于加班或违法，分析其工作性质、法律责任及职场伦理，帮助理解这一特殊职业面临的挑战与抉择。</v>
       </c>
       <c r="D325" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>工作与生活平衡, 法律法规, 网络环境净化, 职场伦理, 鉴黄师</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B326" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C326" t="str">
-        <v>深入剖析自我激励与目标设定在个人成长中的关键作用，阐述二者如何相互配合成为奏响成功乐章的双弦，为追求成功的人们提供实用的指导与启发。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D326" t="str">
-        <v>个人发展, 动力源泉, 成功之道, 目标设定, 自我激励</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>香菇掉厕所了还能叫香菇吗？</v>
       </c>
       <c r="B327" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C327" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>探讨“香菇掉厕所了还能叫香菇吗”这一有趣话题，从科学分类、文化心理角度分析香菇命名问题，同时介绍香菇营养价值与烹饪方法，领略其在文化艺术中的魅力。</v>
       </c>
       <c r="D327" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>文化心理, 物品命名, 食材营养, 香菇, 香菇烹饪</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B328" t="str">
         <v>自我提升</v>
       </c>
       <c r="C328" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D328" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B329" t="str">
         <v>自我提升</v>
       </c>
       <c r="C329" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D329" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B330" t="str">
         <v>自我提升</v>
       </c>
       <c r="C330" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D330" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B331" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C331" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D331" t="str">
-        <v>心理依赖, 感官交互, 感官障碍, 注意力分配</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B332" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C332" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D332" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B333" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C333" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
       </c>
       <c r="D333" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B334" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C334" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D334" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B335" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C335" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D335" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>字典数排序</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B336" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C336" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D336" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B337" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C337" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D337" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B338" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C338" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>深入剖析自我激励与目标设定在个人成长中的关键作用，阐述二者如何相互配合成为奏响成功乐章的双弦，为追求成功的人们提供实用的指导与启发。</v>
       </c>
       <c r="D338" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>个人发展, 动力源泉, 成功之道, 目标设定, 自我激励</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B339" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C339" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D339" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B340" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C340" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D340" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B341" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C341" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D341" t="str">
-        <v>人类探月, 天文探索, 宇宙科学, 月球表面</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B342" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C342" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D342" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B343" t="str">
         <v>自然科学</v>
       </c>
       <c r="C343" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D343" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>心理依赖, 感官交互, 感官障碍, 注意力分配</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B344" t="str">
         <v>自然科学</v>
       </c>
       <c r="C344" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D344" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学哲学, 资源限制</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B345" t="str">
         <v>自然科学</v>
       </c>
       <c r="C345" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D345" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B346" t="str">
         <v>自然科学</v>
       </c>
       <c r="C346" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D346" t="str">
-        <v>博弈论, 历史智慧, 叙事重构, 资源调度, 风险管理</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>雷公电母放的是直流电还是交流电？</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B347" t="str">
         <v>自然科学</v>
       </c>
       <c r="C347" t="str">
-        <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D347" t="str">
-        <v>交流电, 气象物理, 直流电, 雷电, 雷电防护</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>为何西方雕塑常展现裸露之姿</v>
+        <v>字典数排序</v>
       </c>
       <c r="B348" t="str">
-        <v>艺术赏析</v>
+        <v>自然科学</v>
       </c>
       <c r="C348" t="str">
-        <v>深入剖析西方雕塑常展现裸露之姿的背后原因，涵盖古希腊文化对人体美的崇拜、宗教与哲学的影响、社会文化背景的推动以及艺术表现手法的独特魅力等多方面因素。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D348" t="str">
-        <v>人体美, 古希腊文化, 宗教哲学, 社会文化, 西方雕塑</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B349" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C349" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D349" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>一万二月收入的生活日常</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B350" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C350" t="str">
-        <v>本文讲述了在武汉工作的28岁青年林小羽，以12000元月薪在生活中精打细算的故事。面对高昂的生活成本与职场压力，她通过细致的个人财务管理维持生活品质，并努力寻找工作与生活的平衡。文章展示了她在忙碌的工作之余，如何保持健康生活方式，同时为未来规划做准备，真实反映了大城市中职场人的日常挑战与奋斗状态。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D350" t="str">
-        <v>健康管理, 武汉生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>一万五月收入的生活日常</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B351" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C351" t="str">
-        <v>本文讲述了南京一位32岁设计师吴磊，以15000元月薪在高生活成本和职场压力下努力维持生活品质的故事。通过详细记录他在住房、通勤、饮食等方面的精打细算，展现了他如何在忙碌工作中寻找平衡，并关注健康管理。文章反映了大城市中青年职场人的日常生活挑战与应对策略，以及他们对未来规划的思考与行动。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D351" t="str">
-        <v>健康管理, 南京生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>一万元月收入的生活日常</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B352" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C352" t="str">
-        <v>本文描绘了成都一位月收入一万元的31岁互联网公司后端开发工程师陈墨的生活状态。面对生活成本与职场压力，陈墨通过细致规划和管理个人财务，在住房、通勤、饮食等方面精打细算，努力维持生活品质。文章展示了他在忙碌的工作之余，如何寻找工作与生活的平衡，并为未来做准备，反映了大城市中青年职场人的真实生活挑战与应对策略。无论是处理日常工作还是探索副业机会，陈墨都在为提升自己的生活质量而不懈努力。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D352" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>一万八元月收入的生活日常</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B353" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C353" t="str">
-        <v>本文描绘了成都一位月薪18000元的34岁职场人士周然的生活状态。面对高昂的生活成本与职场压力，周然精打细算，努力平衡工作与生活，通过细致的个人财务管理维持生活品质。尽管工作忙碌且通勤时间长，他仍设法保持健康生活方式，并对未来充满期待。文章反映了大城市中职场人的日常挑战与奋斗。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D353" t="str">
-        <v>健康管理, 成都生活成本, 生活品质, 职业发展, 高收入生活</v>
+        <v>人类探月, 天文探索, 宇宙科学, 月球表面</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>三万元月收入的生活日常</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B354" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C354" t="str">
-        <v>深入了解在上海月收入三万元的生活日常，包括如何管理现金流、进行消费降维以及在高压工作环境中寻找平衡。周明阳的故事展示了新中产阶级在大城市中的生存策略，从精心计算的通勤方式到对生活品质与经济实惠之间的权衡。探索他是如何在满足物质需求的同时，面对财务压力和个人健康维护的挑战。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D354" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费降维, 生存策略</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>三千元月收入的生活日常</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B355" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C355" t="str">
-        <v>这篇文章通过细腻的笔触展现了在中小城市中，以三千元月薪维持生活的实际情况。内容覆盖了从居住条件、交通出行、饮食消费到业余时间的利用和个人技能提升等多个方面，体现了现代都市年轻人在面对经济压力时展现出的坚韧和智慧，同时也反映了他们对美好生活的向往和努力。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D355" t="str">
-        <v>低收入群体, 城市生活, 时间管理, 生存策略, 自我提升</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>两万五月收入的生活日常</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B356" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C356" t="str">
-        <v>本文展示了在一个快速发展的大都市中，以两万五千元月薪维持生活的实际情况。它不仅涵盖了居住、交通、饮食等基本生活需求的管理，还涉及到业余时间的学习和个人兴趣的发展，反映了现代职场人在面对经济压力时的智慧与坚韧。同时，也揭示了他们对改善生活方式和实现个人价值的不断追求。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D356" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学哲学, 资源限制</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>两万元月收入的生活日常</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B357" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C357" t="str">
-        <v>本文详细描绘了一个在深圳工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D357" t="str">
-        <v>消费降级, 深圳生活, 生存策略, 职业压力, 高成本城市</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B358" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C358" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D358" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>博弈论, 历史智慧, 叙事重构, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>为什么有钱人喜欢安静？</v>
+        <v>雷公电母放的是直流电还是交流电？</v>
       </c>
       <c r="B359" t="str">
-        <v>财富管理</v>
+        <v>自然科学</v>
       </c>
       <c r="C359" t="str">
-        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
+        <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
       </c>
       <c r="D359" t="str">
-        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
+        <v>交流电, 气象物理, 直流电, 雷电, 雷电防护</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>为何西方雕塑常展现裸露之姿</v>
       </c>
       <c r="B360" t="str">
-        <v>财富管理</v>
+        <v>艺术赏析</v>
       </c>
       <c r="C360" t="str">
-        <v>本文详细描绘了一个高收入职场人士的生活状态，包括他在面对高额支出时如何进行预算分配，利用科技产品提升生活效率，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的专业人士提供了实用的参考建议。通过展示林叙白的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。</v>
+        <v>深入剖析西方雕塑常展现裸露之姿的背后原因，涵盖古希腊文化对人体美的崇拜、宗教与哲学的影响、社会文化背景的推动以及艺术表现手法的独特魅力等多方面因素。</v>
       </c>
       <c r="D360" t="str">
-        <v>健康管理, 生活品质, 职业压力, 财务管理, 高收入生活</v>
+        <v>人体美, 古希腊文化, 宗教哲学, 社会文化, 西方雕塑</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>五千元月收入的生活日常</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B361" t="str">
         <v>财富管理</v>
       </c>
       <c r="C361" t="str">
-        <v>这篇文章深入分析了在西安这样的城市，以五千元月薪维持生活的实际情况。内容涵盖了从居住条件的选择、交通出行、饮食消费到业余时间的学习和个人技能提升等多个方面，体现了现代年轻人在面对经济压力时展现出的智慧和坚韧，同时也反映了他们对美好生活的向往和努力。通过具体的例子和策略，为同样处于类似情况的人们提供了宝贵的参考和启示。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D361" t="str">
-        <v>个人成长, 城市生活, 生存策略, 精打细算, 职业发展</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>八千元月收入的生活日常</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B362" t="str">
         <v>财富管理</v>
       </c>
       <c r="C362" t="str">
-        <v>本文详细描述了一个在青岛工作的电路工程师的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D362" t="str">
-        <v>生活成本, 电路工程师, 职业发展, 职场生活, 青岛</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>为什么有钱人喜欢安静？</v>
       </c>
       <c r="B363" t="str">
         <v>财富管理</v>
       </c>
       <c r="C363" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
       </c>
       <c r="D363" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B364" t="str">
         <v>财富管理</v>
       </c>
       <c r="C364" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D364" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B365" t="str">
         <v>财富管理</v>
       </c>
       <c r="C365" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D365" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>四万元月收入的生活日常</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B366" t="str">
         <v>财富管理</v>
       </c>
       <c r="C366" t="str">
-        <v>本文详细描绘了一个在北京工作的年轻人的生活状态，包括他在面对高昂的生活成本时如何进行预算分配，利用业余时间进行自我提升，以及采取哪些措施来维护个人健康和心理平衡。文章不仅反映了个人在大城市中的奋斗历程，也体现了对于更优质生活的不懈追求，同时也为其他处于相似情况的年轻人提供了实用的参考建议。通过展示陈墨的具体做法，如智能设备的应用、健康管理的方法等，为读者提供了关于如何在繁忙的工作与生活中找到平衡点的启示。此外，还强调了灵活应对突发状况的重要性，确保生活质量不受影响。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D366" t="str">
-        <v>中产阶级, 城市生活, 时间管理, 消费策略, 生存策略</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="367">

--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D416"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5534,707 +5534,721 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>多少钱才可以潇洒退休？</v>
       </c>
       <c r="B367" t="str">
         <v>财富管理</v>
       </c>
       <c r="C367" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>深入探讨退休所需的资金数额及其影响因素，提供计算退休所需资金的方法和实现潇洒退休的策略，助力您规划理想的退休生活。</v>
       </c>
       <c r="D367" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>投资理财, 生活成本, 财务规划, 退休生活, 通货膨胀</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B368" t="str">
         <v>财富管理</v>
       </c>
       <c r="C368" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D368" t="str">
-        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>如何通过投资组合实现财务自由</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B369" t="str">
         <v>财富管理</v>
       </c>
       <c r="C369" t="str">
-        <v>详细介绍如何通过构建和管理投资组合来实现财务自由，涵盖投资组合的概念、重要性、构建方法、管理要点以及实现财务自由的具体步骤，为投资者提供实用的指导和建议。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D369" t="str">
-        <v>投资收益, 投资组合, 财务自由, 资产配置, 风险管理</v>
+        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>如何通过投资组合实现财务自由</v>
       </c>
       <c r="B370" t="str">
         <v>财富管理</v>
       </c>
       <c r="C370" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>详细介绍如何通过构建和管理投资组合来实现财务自由，涵盖投资组合的概念、重要性、构建方法、管理要点以及实现财务自由的具体步骤，为投资者提供实用的指导和建议。</v>
       </c>
       <c r="D370" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>投资收益, 投资组合, 财务自由, 资产配置, 风险管理</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B371" t="str">
         <v>财富管理</v>
       </c>
       <c r="C371" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D371" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B372" t="str">
         <v>财富管理</v>
       </c>
       <c r="C372" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D372" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B373" t="str">
         <v>财富管理</v>
       </c>
       <c r="C373" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D373" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B374" t="str">
         <v>财富管理</v>
       </c>
       <c r="C374" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D374" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B375" t="str">
         <v>财富管理</v>
       </c>
       <c r="C375" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D375" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>有效增加收入指南</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B376" t="str">
         <v>财富管理</v>
       </c>
       <c r="C376" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D376" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B377" t="str">
         <v>财富管理</v>
       </c>
       <c r="C377" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D377" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B378" t="str">
         <v>财富管理</v>
       </c>
       <c r="C378" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D378" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B379" t="str">
         <v>财富管理</v>
       </c>
       <c r="C379" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D379" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>穷人怎么翻身</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B380" t="str">
         <v>财富管理</v>
       </c>
       <c r="C380" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D380" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B381" t="str">
         <v>财富管理</v>
       </c>
       <c r="C381" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D381" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B382" t="str">
         <v>财富管理</v>
       </c>
       <c r="C382" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D382" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B383" t="str">
         <v>财富管理</v>
       </c>
       <c r="C383" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D383" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B384" t="str">
         <v>财富管理</v>
       </c>
       <c r="C384" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D384" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B385" t="str">
         <v>财富管理</v>
       </c>
       <c r="C385" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D385" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B386" t="str">
         <v>财富管理</v>
       </c>
       <c r="C386" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D386" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B387" t="str">
         <v>财富管理</v>
       </c>
       <c r="C387" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D387" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B388" t="str">
         <v>财富管理</v>
       </c>
       <c r="C388" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D388" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B389" t="str">
         <v>财富管理</v>
       </c>
       <c r="C389" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D389" t="str">
-        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B390" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C390" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D390" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B391" t="str">
         <v>身体健康</v>
       </c>
       <c r="C391" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D391" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>吃健胃消食片会撑死还是饿死？</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B392" t="str">
         <v>身体健康</v>
       </c>
       <c r="C392" t="str">
-        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D392" t="str">
-        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>吃健胃消食片会撑死还是饿死？</v>
       </c>
       <c r="B393" t="str">
         <v>身体健康</v>
       </c>
       <c r="C393" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
       </c>
       <c r="D393" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B394" t="str">
         <v>身体健康</v>
       </c>
       <c r="C394" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D394" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B395" t="str">
         <v>身体健康</v>
       </c>
       <c r="C395" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D395" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B396" t="str">
         <v>身体健康</v>
       </c>
       <c r="C396" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D396" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B397" t="str">
         <v>身体健康</v>
       </c>
       <c r="C397" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D397" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B398" t="str">
         <v>身体健康</v>
       </c>
       <c r="C398" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D398" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B399" t="str">
         <v>身体健康</v>
       </c>
       <c r="C399" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D399" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B400" t="str">
         <v>身体健康</v>
       </c>
       <c r="C400" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D400" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B401" t="str">
         <v>身体健康</v>
       </c>
       <c r="C401" t="str">
-        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D401" t="str">
-        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
       </c>
       <c r="B402" t="str">
         <v>身体健康</v>
       </c>
       <c r="C402" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
       </c>
       <c r="D402" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B403" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C403" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D403" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B404" t="str">
         <v>软件开发</v>
       </c>
       <c r="C404" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D404" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B405" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C405" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D405" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B406" t="str">
         <v>运营指南</v>
       </c>
       <c r="C406" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D406" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B407" t="str">
         <v>运营指南</v>
       </c>
       <c r="C407" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D407" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B408" t="str">
         <v>运营指南</v>
       </c>
       <c r="C408" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D408" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>打造百家号爆款内容的实用秘籍</v>
       </c>
       <c r="B409" t="str">
         <v>运营指南</v>
       </c>
       <c r="C409" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
       </c>
       <c r="D409" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>打造知乎爆款内容的实用秘籍</v>
       </c>
       <c r="B410" t="str">
         <v>运营指南</v>
       </c>
       <c r="C410" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
       </c>
       <c r="D410" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>抖音爆款内容打造全攻略</v>
       </c>
       <c r="B411" t="str">
         <v>运营指南</v>
       </c>
       <c r="C411" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
       </c>
       <c r="D411" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>畅销长篇小说创作秘籍全解析</v>
       </c>
       <c r="B412" t="str">
         <v>运营指南</v>
       </c>
       <c r="C412" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
       </c>
       <c r="D412" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>新兴金融科技对传统理财方式的影响</v>
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
       </c>
       <c r="B413" t="str">
-        <v>金融科技</v>
+        <v>运营指南</v>
       </c>
       <c r="C413" t="str">
-        <v>分析新兴金融科技如移动支付、智能投顾、区块链技术等对传统理财方式在理财渠道、投资决策、风险管理等方面的影响，探讨其带来的挑战与机遇以及传统理财方式的应对策略。</v>
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
       </c>
       <c r="D413" t="str">
-        <v>传统理财方式, 区块链技术, 新兴金融科技, 智能投顾, 移动支付</v>
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+        <v>新兴金融科技对传统理财方式的影响</v>
       </c>
       <c r="B414" t="str">
-        <v>食品安全</v>
+        <v>金融科技</v>
       </c>
       <c r="C414" t="str">
-        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+        <v>分析新兴金融科技如移动支付、智能投顾、区块链技术等对传统理财方式在理财渠道、投资决策、风险管理等方面的影响，探讨其带来的挑战与机遇以及传统理财方式的应对策略。</v>
       </c>
       <c r="D414" t="str">
-        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+        <v>传统理财方式, 区块链技术, 新兴金融科技, 智能投顾, 移动支付</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>如果猪肾虚，那它的腰子还补吗？</v>
+        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
       </c>
       <c r="B415" t="str">
-        <v>饮食健康</v>
+        <v>食品安全</v>
       </c>
       <c r="C415" t="str">
-        <v>探讨猪肾虚的情况下其腰子是否还具有补肾功效，分析猪腰子的营养价值、中医与西医对肾虚的不同定义及相关研究，为读者提供关于猪腰子食用的科学知识。</v>
+        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
       </c>
       <c r="D415" t="str">
-        <v>中医理论, 猪腰子, 肾虚, 营养价值, 补肾</v>
+        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>饮食与运动：预防慢性疾病的两大法宝</v>
+        <v>如果猪肾虚，那它的腰子还补吗？</v>
       </c>
       <c r="B416" t="str">
         <v>饮食健康</v>
       </c>
       <c r="C416" t="str">
+        <v>探讨猪肾虚的情况下其腰子是否还具有补肾功效，分析猪腰子的营养价值、中医与西医对肾虚的不同定义及相关研究，为读者提供关于猪腰子食用的科学知识。</v>
+      </c>
+      <c r="D416" t="str">
+        <v>中医理论, 猪腰子, 肾虚, 营养价值, 补肾</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>饮食与运动：预防慢性疾病的两大法宝</v>
+      </c>
+      <c r="B417" t="str">
+        <v>饮食健康</v>
+      </c>
+      <c r="C417" t="str">
         <v>介绍饮食与运动在预防心血管疾病、糖尿病、肥胖症等慢性疾病中的重要作用，包括合理饮食的要点、不同类型运动的功效，以及综合的健康计划制定等内容，为人们提供预防慢性疾病的实用方法。</v>
       </c>
-      <c r="D416" t="str">
+      <c r="D417" t="str">
         <v>健康生活方式, 慢性疾病, 营养均衡, 运动保健, 饮食预防</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D416"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D417"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D417"/>
+  <dimension ref="A1:D420"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4428,1827 +4428,1869 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>精益思维：挣脱无效忙碌的牢笼</v>
+        <v>程序员独立赚钱的实用指南</v>
       </c>
       <c r="B288" t="str">
         <v>职业发展</v>
       </c>
       <c r="C288" t="str">
-        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
+        <v>为程序员分享独立赚钱的关键要点，涵盖精准定位、塑造品牌、多元拓展及持续进阶等方面，助力程序员在竞争激烈的市场中实现财富梦想。</v>
       </c>
       <c r="D288" t="str">
-        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
+        <v>品牌塑造, 技术专长, 独立赚钱, 程序员, 赚钱渠道</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>职场中能力与人情世故的权衡之道</v>
+        <v>精益思维：挣脱无效忙碌的牢笼</v>
       </c>
       <c r="B289" t="str">
         <v>职业发展</v>
       </c>
       <c r="C289" t="str">
-        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
+        <v>阐述无效忙碌在现代生活中的常见表现，介绍精益思维的概念、核心原则，提供运用精益思维告别无效忙碌的实用攻略，帮助读者提高效率，摆脱无效忙碌的困扰。</v>
       </c>
       <c r="D289" t="str">
-        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
+        <v>持续改进, 无效忙碌, 时间管理, 目标设定, 精益思维</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
+        <v>职场中能力与人情世故的权衡之道</v>
       </c>
       <c r="B290" t="str">
         <v>职业发展</v>
       </c>
       <c r="C290" t="str">
-        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
+        <v>深入探讨职场中能力与人情世故的重要性及相互关系，分析二者如何平衡，为职场人士提供在不同职场环境中发展的策略指引。</v>
       </c>
       <c r="D290" t="str">
-        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
+        <v>人情世故, 职业发展, 职场人际关系, 职场晋升, 职场能力</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
+        <v>职场晋升攻略：能力与人际关系的双翼齐飞</v>
       </c>
       <c r="B291" t="str">
         <v>职业发展</v>
       </c>
       <c r="C291" t="str">
-        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
+        <v>本文深入剖析了职场晋升的两大关键因素——能力提升与人际关系处理，提供了实用的策略和建议，助你在职场中稳步前行，实现职业高峰。</v>
       </c>
       <c r="D291" t="str">
-        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
+        <v>人际关系, 团队协作, 职场晋升, 职场沟通, 能力提升</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
+        <v>职场沟通秘籍：点燃团队协作的高效引擎</v>
       </c>
       <c r="B292" t="str">
         <v>职业发展</v>
       </c>
       <c r="C292" t="str">
-        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
+        <v>本文深入剖析了提升团队协作效率的职场沟通技巧，涵盖清晰明确的表达、积极倾听与反馈、良好沟通氛围的建立、有效沟通方式的运用以及冲突解决等方面，助力打造高效协作的团队。</v>
       </c>
       <c r="D292" t="str">
-        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
+        <v>团队协作, 沟通技巧, 职场沟通, 职场秘籍, 高效团队</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>能力一般者在职场中“逆袭”的实用指南</v>
+        <v>职场生存法则：比学历和经验更重要的4项核心能力</v>
       </c>
       <c r="B293" t="str">
         <v>职业发展</v>
       </c>
       <c r="C293" t="str">
-        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
+        <v>探讨职场中比学历和经验更重要的四项核心能力：高效沟通、学习迁移、破局思维及自我管理。文中通过实例详细介绍了每项能力的具体应用技巧，如倾听时的空杯心态、利用金字塔结构表达、场景转化能力、建立问题GPS等，强调这些软实力是突破职场瓶颈、实现持续发展的关键。掌握这些能力能够帮助个人在职场竞争中脱颖而出，构建坚固的职业护城河。</v>
       </c>
       <c r="D293" t="str">
-        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
+        <v>学习迁移, 破局思维, 自我管理, 高效沟通</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
+        <v>能力一般者在职场中“逆袭”的实用指南</v>
       </c>
       <c r="B294" t="str">
-        <v>脑洞大开</v>
+        <v>职业发展</v>
       </c>
       <c r="C294" t="str">
-        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
+        <v>本文为能力一般者提供了在职场中实现“逆袭”的实用指南，涵盖精准定位职业方向、终身学习磨砺专业能力、构建人际关系网络、培养积极心态以及塑造个人品牌等多方面内容，助力职场人士实现自我价值。</v>
       </c>
       <c r="D294" t="str">
-        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
+        <v>人际关系, 终身学习, 职业规划, 职场心态, 职场逆袭</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>19世纪人类是否全部灭绝过？</v>
+        <v>《西游记》猪八戒形象：原著黑猪到影视白猪之变</v>
       </c>
       <c r="B295" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C295" t="str">
-        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
+        <v>深入剖析《西游记》中猪八戒形象从原著里的黑猪转变为影视剧中白猪的背后原因，以及这一改变对作品产生的多维度影响。</v>
       </c>
       <c r="D295" t="str">
-        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
+        <v>《西游记》, 原著黑猪, 形象转变原因, 影视白猪, 猪八戒形象</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>上帝能否创造一块自己搬不动的石头？</v>
+        <v>19世纪人类是否全部灭绝过？</v>
       </c>
       <c r="B296" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C296" t="str">
-        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
+        <v>深入探究“19世纪人类是否全部灭绝过”这一神秘谜团，全面剖析19世纪工业革命、社会变革、战争和平、瘟疫疾病、科学进步等多方面情况，揭示人类在诸多挑战下不仅未灭绝且推动社会发展的历程。</v>
       </c>
       <c r="D296" t="str">
-        <v>人类认知, 哲学思考, 宗教解读, 神学逻辑, 逻辑悖论</v>
+        <v>19世纪, 历史谜团, 工业革命, 社会变革, 科学进步</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>从月球到地球架设金属杆滑行的探索</v>
+        <v>上帝能否创造一块自己搬不动的石头？</v>
       </c>
       <c r="B297" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C297" t="str">
-        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
+        <v>深度探讨“上帝能否创造一块自己搬不动的石头”这一经典问题，剖析其在逻辑、宗教、哲学层面的内涵，揭示对人类认知边界的启示，带你领略信仰与哲学交织的深邃世界。</v>
       </c>
       <c r="D297" t="str">
-        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
+        <v>人类认知, 哲学思考, 宗教解读, 神学逻辑, 逻辑悖论</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>午餐肉，我可以晚上吃吗？</v>
+        <v>从月球到地球架设金属杆滑行的探索</v>
       </c>
       <c r="B298" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C298" t="str">
-        <v>探讨午餐肉作为晚餐的可行性，分析其营养价值、健康考量因素，以及提供多种晚餐搭配建议，助力读者在享受美食的同时保持健康饮食。</v>
+        <v>探讨从月球到地球架设金属杆并在上面滑行的奇妙设想，分析涉及的科学原理、面临的技术挑战以及相关的科幻创作，激发对宇宙探索的无限遐想。</v>
       </c>
       <c r="D298" t="str">
-        <v>健康饮食, 午餐肉, 晚餐搭配, 烹饪方式, 营养价值</v>
+        <v>地球, 月球, 滑行, 科学幻想, 金属杆</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>台风眼里引爆核弹能平息台风吗？</v>
+        <v>午餐肉，我可以晚上吃吗？</v>
       </c>
       <c r="B299" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C299" t="str">
-        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
+        <v>探讨午餐肉作为晚餐的可行性，分析其营养价值、健康考量因素，以及提供多种晚餐搭配建议，助力读者在享受美食的同时保持健康饮食。</v>
       </c>
       <c r="D299" t="str">
-        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
+        <v>健康饮食, 午餐肉, 晚餐搭配, 烹饪方式, 营养价值</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>吃下一朵云是什么体验？</v>
+        <v>台风眼里引爆核弹能平息台风吗？</v>
       </c>
       <c r="B300" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C300" t="str">
-        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
+        <v>探讨在台风眼里引爆核弹能否平息台风这一奇特说法，从台风的形成结构、核弹的威力影响等多方面进行科学分析，阐述为何此方法不可行及现代应对台风的科学手段。</v>
       </c>
       <c r="D300" t="str">
-        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
+        <v>台风, 台风应对, 台风结构, 台风能量, 核弹</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>哪吒有三头六臂，加入其中一个头得了脑血栓，另外两个头会不会得？</v>
+        <v>吃下一朵云是什么体验？</v>
       </c>
       <c r="B301" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C301" t="str">
-        <v>文章以哪吒三头六臂的神话形象为切入点，探讨若其中一个头患脑血栓，其余两头是否受影响的有趣问题。结合现实中脑血栓知识与神话设定，深入分析并给出应对策略，还阐述了其中蕴含的健康管理和团队合作启示。</v>
+        <v>深入探索“吃下一朵云”这一奇幻概念，从科学、文化、心理和艺术等多维度剖析其背后蕴含的奥秘与意义，带你领略充满想象力的奇妙世界。</v>
       </c>
       <c r="D301" t="str">
-        <v>三头六臂, 健康启示, 哪吒, 神话医学, 脑血栓</v>
+        <v>奇幻想象, 心理体验, 文化意象, 科学探索, 艺术呈现</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
+        <v>哪吒有三头六臂，加入其中一个头得了脑血栓，另外两个头会不会得？</v>
       </c>
       <c r="B302" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C302" t="str">
-        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
+        <v>文章以哪吒三头六臂的神话形象为切入点，探讨若其中一个头患脑血栓，其余两头是否受影响的有趣问题。结合现实中脑血栓知识与神话设定，深入分析并给出应对策略，还阐述了其中蕴含的健康管理和团队合作启示。</v>
       </c>
       <c r="D302" t="str">
-        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
+        <v>三头六臂, 健康启示, 哪吒, 神话医学, 脑血栓</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>如何用向下射击的机枪制作飞行背包？</v>
+        <v>如何将100枚硬币分成两堆使每堆正面数量相同</v>
       </c>
       <c r="B303" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C303" t="str">
-        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
+        <v>讲解如何将100枚硬币分成两堆并让每堆正面朝上的硬币数量相同，介绍随机分配和巧妙数学法两种思路，还有实际操作示例，助你轻松解决这一有趣问题。</v>
       </c>
       <c r="D303" t="str">
-        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
+        <v>数学方法, 正面数量, 硬币分堆, 逻辑思维, 随机分配</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
+        <v>如何用向下射击的机枪制作飞行背包？</v>
       </c>
       <c r="B304" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C304" t="str">
-        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
+        <v>探索用向下射击的机枪制作飞行背包的奇妙设想，从理论基础到创意设计，再到多元应用及面临的挑战与展望，全面解析这一充满科幻色彩的发明构想。</v>
       </c>
       <c r="D304" t="str">
-        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
+        <v>向下射击机枪, 应用领域, 牛顿定律, 飞行原理, 飞行背包</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
+        <v>如果地球上所有人同时跳起，地球轨道会偏移吗？</v>
       </c>
       <c r="B305" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C305" t="str">
-        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
+        <v>探讨如果地球上所有人同时跳起这一假设情景下，地球轨道是否会偏移的问题。从物理学、天文学和地球科学等多学科角度进行分析，并结合模拟实验和历史类似事件，得出地球轨道不会受此影响的结论。</v>
       </c>
       <c r="D305" t="str">
-        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
+        <v>地球科学, 地球轨道, 天文学, 模拟实验, 牛顿第三定律</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
+        <v>如果所有枪在地球一端同时开火，地球会移动吗？</v>
       </c>
       <c r="B306" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C306" t="str">
-        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
+        <v>探讨如果地球上所有枪支同时开火，从物理学、天文学和地球科学角度分析地球是否会移动，以及这一假设对环境的影响，带你领略科学假设背后的知识魅力。</v>
       </c>
       <c r="D306" t="str">
-        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
+        <v>动量守恒定律, 地球运动, 天文学, 环境影响, 科学假设</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
+        <v>如果把地球所有水搬到火星，火星会完全被淹没吗？</v>
       </c>
       <c r="B307" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C307" t="str">
-        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
+        <v>探讨若将地球所有水转移至火星后，火星是否会被完全淹没的情况。分析水对火星地貌、气候、地质活动的影响，以及火星移民的可能性等相关内容。</v>
       </c>
       <c r="D307" t="str">
-        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
+        <v>地球水, 地貌改变, 气候影响, 火星, 火星移民</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
+        <v>如果月亮坍缩成黑洞，地球会怎样？</v>
       </c>
       <c r="B308" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C308" t="str">
-        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
+        <v>假设月亮坍缩成黑洞，探讨其对地球产生的多方面影响，包括潮汐、气候、轨道自转以及人类社会等，揭示宇宙天体变化带来的未知挑战。</v>
       </c>
       <c r="D308" t="str">
-        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
+        <v>地球生态, 月亮坍缩, 气候影响, 潮汐变化, 黑洞</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
+        <v>如果贞子是秃头，她的恐怖感会减弱吗？</v>
       </c>
       <c r="B309" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C309" t="str">
-        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
+        <v>探讨日本恐怖电影《午夜凶铃》中贞子若变为秃头，其恐怖感是否会减弱。从形象变化、恐怖感来源、文化心理等多方面深入分析这一有趣设想。</v>
       </c>
       <c r="D309" t="str">
-        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
+        <v>恐怖感来源, 恐怖电影, 文化心理, 秃头形象, 贞子</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>妲己不是九尾狐而是藏狐，纣王还会爱上她吗？</v>
+        <v>如果霸王龙在纽约生存，每天需要吃多少人？</v>
       </c>
       <c r="B310" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C310" t="str">
-        <v>探讨妲己形象从九尾狐转变为藏狐后，纣王是否仍会爱她这一新颖话题，分析妲己不同形象特点、纣王爱情观，以及此设定对理解爱情、权力和人性的意义。</v>
+        <v>假设霸王龙穿越到现代纽约生存，通过剖析其生理特征、食量需求，结合纽约人口与食物供应情况，探讨它每天所需人肉量，并分析其在纽约面临的生存难题，引发对史前生物与现代生态关系的思考。</v>
       </c>
       <c r="D310" t="str">
-        <v>九尾狐, 妲己, 爱情观, 纣王, 藏狐</v>
+        <v>生态影响, 科幻设想, 纽约, 霸王龙, 食量计算</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
+        <v>妲己不是九尾狐而是藏狐，纣王还会爱上她吗？</v>
       </c>
       <c r="B311" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C311" t="str">
-        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
+        <v>探讨妲己形象从九尾狐转变为藏狐后，纣王是否仍会爱她这一新颖话题，分析妲己不同形象特点、纣王爱情观，以及此设定对理解爱情、权力和人性的意义。</v>
       </c>
       <c r="D311" t="str">
-        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
+        <v>九尾狐, 妲己, 爱情观, 纣王, 藏狐</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>我买了一斤藕，为啥半斤都是空的？</v>
+        <v>安眠药与泻药同服：会否在睡梦中“失守”？</v>
       </c>
       <c r="B312" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C312" t="str">
-        <v>深入剖析藕出现空心现象的科学缘由、生物学意义，分享挑选实心藕的实用方法，同时介绍藕丰富多样的营养价值，带你全面了解这种常见水生植物的奥秘。</v>
+        <v>探讨安眠药和泻药同时服用的安全性，分析是否会在睡梦中因泻药起效而出现尴尬状况，以及提供相关预防措施和医生建议等健康知识。</v>
       </c>
       <c r="D312" t="str">
-        <v>挑选技巧, 水生植物, 空心结构, 营养价值</v>
+        <v>副作用, 安眠药, 泻药, 睡眠健康, 药物相互作用</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
+        <v>我买了一斤藕，为啥半斤都是空的？</v>
       </c>
       <c r="B313" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C313" t="str">
-        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
+        <v>深入剖析藕出现空心现象的科学缘由、生物学意义，分享挑选实心藕的实用方法，同时介绍藕丰富多样的营养价值，带你全面了解这种常见水生植物的奥秘。</v>
       </c>
       <c r="D313" t="str">
-        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
+        <v>挑选技巧, 水生植物, 空心结构, 营养价值</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>斑马纹路是否影响捕食者视觉？</v>
+        <v>探秘变色龙在LED灯下是否会随灯光变色</v>
       </c>
       <c r="B314" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C314" t="str">
-        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
+        <v>深入探究变色龙在LED灯下的变色现象，解析其变色奥秘、实验过程及影响因素，揭示这一现象背后的生态和进化意义。</v>
       </c>
       <c r="D314" t="str">
-        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
+        <v>LED灯, 变色原理, 变色龙, 实验研究, 生态意义</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>李白写完诗后会记得自己写的每一首吗？</v>
+        <v>斑马纹路是否影响捕食者视觉？</v>
       </c>
       <c r="B315" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C315" t="str">
-        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
+        <v>深入探究斑马独特黑白纹路对捕食者视觉的影响，从多个角度剖析其原理，并阐述斑马纹路在生态互动中的多重作用。</v>
       </c>
       <c r="D315" t="str">
-        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
+        <v>捕食者视觉, 斑马纹路, 生态互动, 视觉对比效应, 视觉错觉</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>法律未禁御剑飞行却无人尝试的原因探究</v>
+        <v>李白写完诗后会记得自己写的每一首吗？</v>
       </c>
       <c r="B316" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C316" t="str">
-        <v>深入探究法律虽未禁止御剑飞行，但现实中却几乎无人尝试的原因，从技术、安全、社会认知、法律伦理等多方面进行剖析。</v>
+        <v>深入探讨李白写完诗后是否能记住每一首诗这一问题，从高产对记忆的挑战、自身才华与记忆底蕴、对创作的重视及整理、诗歌风格特点等多方面进行分析推测，带您领略李白诗歌背后的趣味文学话题。</v>
       </c>
       <c r="D316" t="str">
-        <v>安全隐忧, 御剑飞行, 技术瓶颈, 法律伦理, 社会认知</v>
+        <v>古代文学, 文学研究, 李白, 记忆力, 诗歌创作</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>玉皇大帝住的是平流层还是对流层？</v>
+        <v>法律未禁御剑飞行却无人尝试的原因探究</v>
       </c>
       <c r="B317" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C317" t="str">
-        <v>探讨中国古代神话中玉皇大帝居住的天庭究竟处于平流层还是对流层这一问题，从神话传说、科学角度及文化意义多方面展开分析，开启神话与科学交融的奇妙探索之旅。</v>
+        <v>深入探究法律虽未禁止御剑飞行，但现实中却几乎无人尝试的原因，从技术、安全、社会认知、法律伦理等多方面进行剖析。</v>
       </c>
       <c r="D317" t="str">
-        <v>天庭, 对流层, 平流层, 玉皇大帝, 神话科学融合</v>
+        <v>安全隐忧, 御剑飞行, 技术瓶颈, 法律伦理, 社会认知</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>用放大镜聚焦月光能点燃纸张吗？</v>
+        <v>玉皇大帝住的是平流层还是对流层？</v>
       </c>
       <c r="B318" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C318" t="str">
-        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
+        <v>探讨中国古代神话中玉皇大帝居住的天庭究竟处于平流层还是对流层这一问题，从神话传说、科学角度及文化意义多方面展开分析，开启神话与科学交融的奇妙探索之旅。</v>
       </c>
       <c r="D318" t="str">
-        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
+        <v>天庭, 对流层, 平流层, 玉皇大帝, 神话科学融合</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
+        <v>用放大镜聚焦月光能点燃纸张吗？</v>
       </c>
       <c r="B319" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C319" t="str">
-        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
+        <v>探究用放大镜聚焦月光能否点燃纸张这一有趣问题，深入解析光的传播、聚焦原理以及燃烧条件，通过实验揭示月光因能量密度低无法点燃纸张的奥秘，带你领略科学世界的奇妙。</v>
       </c>
       <c r="D319" t="str">
-        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
+        <v>光的传播, 放大镜聚焦, 月光特性, 燃烧条件, 科学实验</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>蓝牙耳机坏了，去医院挂牙科还是耳科？</v>
+        <v>若地球自转周期变为1秒赤道线速度达光速十分之一地球会被撕裂吗</v>
       </c>
       <c r="B320" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C320" t="str">
-        <v>以幽默的方式引出蓝牙耳机坏了该如何处理的话题，详细介绍蓝牙耳机故障的常见原因、自我诊断技巧、寻求专业维修的方法以及日常保养的要点，帮助读者了解如何应对蓝牙耳机故障并做好预防。</v>
+        <v>探讨假设地球自转周期变为1秒，赤道线速度达到光速1/10时地球是否会被撕裂的问题。分析离心力与引力、地球内部结构影响等，还介绍科学模拟预测及对生命的影响。</v>
       </c>
       <c r="D320" t="str">
-        <v>故障原因, 维修方法, 耳机保养, 蓝牙耳机, 预防措施</v>
+        <v>光速, 地球撕裂, 地球自转, 科学模拟, 赤道线速度</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
+        <v>蓝牙耳机坏了，去医院挂牙科还是耳科？</v>
       </c>
       <c r="B321" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C321" t="str">
-        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
+        <v>以幽默的方式引出蓝牙耳机坏了该如何处理的话题，详细介绍蓝牙耳机故障的常见原因、自我诊断技巧、寻求专业维修的方法以及日常保养的要点，帮助读者了解如何应对蓝牙耳机故障并做好预防。</v>
       </c>
       <c r="D321" t="str">
-        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
+        <v>故障原因, 维修方法, 耳机保养, 蓝牙耳机, 预防措施</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>被门夹过的核桃还能补脑吗？</v>
+        <v>被袋鼠暴打时躺成球状真能保命吗？</v>
       </c>
       <c r="B322" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C322" t="str">
-        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
+        <v>探讨被袋鼠攻击时躺成球状这一民间说法的真实性，分析袋鼠攻击方式及躺成球状防御策略的原理、实际案例，给出应对袋鼠攻击的有效方法。</v>
       </c>
       <c r="D322" t="str">
-        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
+        <v>动物行为学, 应对方法, 袋鼠攻击, 躺成球状, 防御策略</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>身高高的人看到的日落更久吗？</v>
+        <v>被门夹过的核桃还能补脑吗？</v>
       </c>
       <c r="B323" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C323" t="str">
-        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
+        <v>探讨被门夹过的核桃是否仍具有补脑功效，分析其营养价值是否受影响，以及如何辨别核桃是否变质，为读者提供科学的食用建议。</v>
       </c>
       <c r="D323" t="str">
-        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
+        <v>健康饮食, 核桃, 营养价值, 补脑, 食品安全</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>过期毒药是否还有毒性？</v>
+        <v>身高高的人看到的日落更久吗？</v>
       </c>
       <c r="B324" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C324" t="str">
-        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
+        <v>探讨身高不同的人在观看日落时是否存在时间差异，分析视线遮挡、地球曲率和大气折射等因素对日落观测的影响，揭示身高与日落观赏之间的真实关系。</v>
       </c>
       <c r="D324" t="str">
-        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
+        <v>地球曲率, 大气折射, 日落, 视线遮挡, 身高差异</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>鉴黄师下班看黄色视频：加班还是违法？</v>
+        <v>过期毒药是否还有毒性？</v>
       </c>
       <c r="B325" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C325" t="str">
-        <v>探讨鉴黄师下班观看黄色视频的行为是否属于加班或违法，分析其工作性质、法律责任及职场伦理，帮助理解这一特殊职业面临的挑战与抉择。</v>
+        <v>深入探讨过期毒药的毒性问题，分析化学毒药、生物毒药和天然毒药过期后的风险，提供安全处理方法和法律法规信息，帮助读者了解并应对潜在风险。</v>
       </c>
       <c r="D325" t="str">
-        <v>工作与生活平衡, 法律法规, 网络环境净化, 职场伦理, 鉴黄师</v>
+        <v>化学稳定性, 安全处理, 毒性, 毒药, 过期</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
+        <v>鉴黄师下班看黄色视频：加班还是违法？</v>
       </c>
       <c r="B326" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C326" t="str">
-        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
+        <v>探讨鉴黄师下班观看黄色视频的行为是否属于加班或违法，分析其工作性质、法律责任及职场伦理，帮助理解这一特殊职业面临的挑战与抉择。</v>
       </c>
       <c r="D326" t="str">
-        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
+        <v>工作与生活平衡, 法律法规, 网络环境净化, 职场伦理, 鉴黄师</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>香菇掉厕所了还能叫香菇吗？</v>
+        <v>风速多大能让雨滴击穿汽车挡风玻璃</v>
       </c>
       <c r="B327" t="str">
         <v>脑洞大开</v>
       </c>
       <c r="C327" t="str">
-        <v>探讨“香菇掉厕所了还能叫香菇吗”这一有趣话题，从科学分类、文化心理角度分析香菇命名问题，同时介绍香菇营养价值与烹饪方法，领略其在文化艺术中的魅力。</v>
+        <v>探讨风速达到何种程度时雨滴冲击力能够击穿汽车挡风玻璃，分析雨滴物理特性、风速对雨滴的影响、击穿条件以及实际应用中的应对措施等。</v>
       </c>
       <c r="D327" t="str">
-        <v>文化心理, 物品命名, 食材营养, 香菇, 香菇烹饪</v>
+        <v>冲击力, 气象影响, 汽车挡风玻璃, 雨滴, 风速</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>如何平衡工作与生活？</v>
+        <v>香菇掉厕所了还能叫香菇吗？</v>
       </c>
       <c r="B328" t="str">
-        <v>自我提升</v>
+        <v>脑洞大开</v>
       </c>
       <c r="C328" t="str">
-        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
+        <v>探讨“香菇掉厕所了还能叫香菇吗”这一有趣话题，从科学分类、文化心理角度分析香菇命名问题，同时介绍香菇营养价值与烹饪方法，领略其在文化艺术中的魅力。</v>
       </c>
       <c r="D328" t="str">
-        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
+        <v>文化心理, 物品命名, 食材营养, 香菇, 香菇烹饪</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>如何快速地从假期状态恢复到工作状态？</v>
+        <v>如何平衡工作与生活？</v>
       </c>
       <c r="B329" t="str">
         <v>自我提升</v>
       </c>
       <c r="C329" t="str">
-        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
+        <v>探索如何通过科学验证的4个核心策略与实操系统实现工作与生活的平衡。本文深入分析了多任务处理、即时回应和忙碌即价值等失衡原因，提出了包括时间块切割法、物理边界设计、能量补给清单和战略性偷懒法则在内的四维平衡系统。此外，还讨论了常见的认知误区，并提供了量化平衡指数的方法，帮助您从混沌走向精准管理，建立灵活弹性的生活与工作体系。适合追求高效工作同时渴望丰富个人生活的职场人士。</v>
       </c>
       <c r="D329" t="str">
-        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
+        <v>工作与生活平衡, 时间管理, 神经科学, 管理学, 能量管理</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>如何规划职业生涯以实现月薪5万</v>
+        <v>如何快速地从假期状态恢复到工作状态？</v>
       </c>
       <c r="B330" t="str">
         <v>自我提升</v>
       </c>
       <c r="C330" t="str">
-        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
+        <v>本文介绍了如何温和而有效地从假期状态恢复到工作状态，避免节后返岗的焦虑与挣扎。通过心理调适、生理恢复及有效的工作方法三个维度，提出了一系列实用建议，如设定小目标帮助过渡、逐步调整作息时间、运用番茄工作法提升工作效率等。此外，还强调了找到适合个人的适应方式的重要性，提倡以耐心和信心迎接工作的挑战，实现假期与工作的无缝衔接。适合于所有希望平稳过渡到工作状态的职场人士。</v>
       </c>
       <c r="D330" t="str">
-        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
+        <v>工作方法, 心理调适, 生理恢复, 职场适应, 节后收心</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>打败拖延症：重燃行动激情的实用攻略</v>
+        <v>如何规划职业生涯以实现月薪5万</v>
       </c>
       <c r="B331" t="str">
         <v>自我提升</v>
       </c>
       <c r="C331" t="str">
-        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
+        <v>探索实现月薪5万的职业生涯规划，本文提供了一个全面的行动指南，包括自我评估、技能提升、行业选择、教育与培训、实践经验积累及人脉网络构建等关键步骤。通过第一年的基础建设期、第二年的突破发展期到第三年及以后的稳定增长期的具体实施策略，帮助您系统地规划职业生涯，逐步接近高收入目标。记住，成功需要持续努力和适时调整策略，本指南将助您稳步迈向职业理想。</v>
       </c>
       <c r="D331" t="str">
-        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
+        <v>人脉构建, 技能提升, 职业发展, 自我评估, 行业选择</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>打造个人品牌的实用攻略</v>
+        <v>打败拖延症：重燃行动激情的实用攻略</v>
       </c>
       <c r="B332" t="str">
         <v>自我提升</v>
       </c>
       <c r="C332" t="str">
-        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
+        <v>本文提供了打败拖延症的实用攻略，包括深挖拖延症根源、实用的打败拖延症妙招以及维持行动力的诀窍，帮助读者摆脱拖延困扰，重燃行动激情，实现目标。</v>
       </c>
       <c r="D332" t="str">
-        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
+        <v>拖延症, 时间管理, 目标计划, 自律能力, 行动力</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>探寻自我认知：开启人生智慧之门</v>
+        <v>打造个人品牌的实用攻略</v>
       </c>
       <c r="B333" t="str">
         <v>自我提升</v>
       </c>
       <c r="C333" t="str">
-        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
+        <v>本文详细介绍了打造个人品牌的实用攻略，包括精准定位、提升专业素养、多渠道传播以及保持品牌的稳定性和一致性，助力你在竞争激烈的社会中脱颖而出。</v>
       </c>
       <c r="D333" t="str">
-        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
+        <v>专业素养, 个人品牌, 传播, 定位, 稳定性</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
+        <v>探寻自我认知：开启人生智慧之门</v>
       </c>
       <c r="B334" t="str">
         <v>自我提升</v>
       </c>
       <c r="C334" t="str">
-        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
+        <v>深入剖析自我认知在人生中的重要性，从成长基石、人际关系构建等多方面阐述，介绍影响自我认知的因素及提升途径，揭示其对做出明智决策、应对挑战和实现内心幸福的关键作用。</v>
       </c>
       <c r="D334" t="str">
-        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
+        <v>个人成长, 人际关系, 内心平静, 决策智慧, 自我认知</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>时间管理技巧：高效安排工作与生活</v>
+        <v>数字化时代的自我管理：掌控生活与工作的新策略</v>
       </c>
       <c r="B335" t="str">
         <v>自我提升</v>
       </c>
       <c r="C335" t="str">
-        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
+        <v>阐述数字化时代自我管理面临的挑战与重要性，介绍时间、信息、注意力管理策略并给出实践案例，强调其在掌控生活与工作中的关键作用。</v>
       </c>
       <c r="D335" t="str">
-        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
+        <v>信息管理, 数字化时代, 时间管理, 注意力管理, 自我管理</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>时间管理的艺术：提升效率的新策略</v>
+        <v>时间管理技巧：高效安排工作与生活</v>
       </c>
       <c r="B336" t="str">
         <v>自我提升</v>
       </c>
       <c r="C336" t="str">
-        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
+        <v>分享一系列实用的时间管理技巧，包括设定明确目标、制定合理计划、提高专注力、合理分配时间以及平衡工作与生活等方面，帮助读者高效安排工作与生活，提升工作效率并享受美好生活。</v>
       </c>
       <c r="D336" t="str">
-        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
+        <v>专注力提升, 工作生活平衡, 时间管理技巧, 目标设定, 计划制定</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
+        <v>时间管理的艺术：提升效率的新策略</v>
       </c>
       <c r="B337" t="str">
         <v>自我提升</v>
       </c>
       <c r="C337" t="str">
-        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
+        <v>掌握时间管理的艺术，探索提升效率的新策略。本文深入剖析时间管理的重要性，介绍基本原则，并提供实用的时间管理技巧，帮助你在忙碌的生活中找到平衡，实现工作与生活的和谐统一。</v>
       </c>
       <c r="D337" t="str">
-        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
+        <v>四象限法则, 工作与生活平衡, 提高效率, 时间管理技巧, 番茄工作法</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
+        <v>明明每天坚持“不自律”，算不算另一种自律？</v>
       </c>
       <c r="B338" t="str">
         <v>自我提升</v>
       </c>
       <c r="C338" t="str">
-        <v>深入剖析自我激励与目标设定在个人成长中的关键作用，阐述二者如何相互配合成为奏响成功乐章的双弦，为追求成功的人们提供实用的指导与启发。</v>
+        <v>探讨看似“不自律”的生活方式背后的真相与意义，分析其与自律的辩证关系，阐述“不自律”带来的积极影响，并说明如何在“不自律”中寻找自律的力量，助你重新审视生活节奏与自我成长。</v>
       </c>
       <c r="D338" t="str">
-        <v>个人发展, 动力源泉, 成功之道, 目标设定, 自我激励</v>
+        <v>心理健康, 生活平衡, 生活方式, 自律, 自我管理</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
+        <v>自我激励与目标设定：奏响成功乐章的双弦</v>
       </c>
       <c r="B339" t="str">
         <v>自我提升</v>
       </c>
       <c r="C339" t="str">
-        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
+        <v>深入剖析自我激励与目标设定在个人成长中的关键作用，阐述二者如何相互配合成为奏响成功乐章的双弦，为追求成功的人们提供实用的指导与启发。</v>
       </c>
       <c r="D339" t="str">
-        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
+        <v>个人发展, 动力源泉, 成功之道, 目标设定, 自我激励</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
+        <v>莫让舒适成为成长的羁绊：在舒适与挑战间寻求平衡</v>
       </c>
       <c r="B340" t="str">
         <v>自我提升</v>
       </c>
       <c r="C340" t="str">
-        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
+        <v>阐述过度沉醉于舒适状态在生理健康、心理健康和人际关系等方面的危害，强调突破舒适区对个人成长发展的重要性，并提供在舒适与挑战间找到平衡的方法。</v>
       </c>
       <c r="D340" t="str">
-        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
+        <v>个人成长, 平衡, 成长发展, 挑战, 舒适区</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>长期主义：开启成功之门的稳健钥匙</v>
+        <v>重新审视“一个好汉三个帮”：合作互助的新内涵与新意义</v>
       </c>
       <c r="B341" t="str">
         <v>自我提升</v>
       </c>
       <c r="C341" t="str">
-        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
+        <v>深入剖析“一个好汉三个帮”在个人成长与社会发展中的新内涵与新意义，探讨如何通过合作互助实现个人与团队的共同成长，推动社会进步。</v>
       </c>
       <c r="D341" t="str">
-        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
+        <v>个人成长, 合作互助, 团队协作, 技能互补, 社会进步</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
+        <v>长期主义：开启成功之门的稳健钥匙</v>
       </c>
       <c r="B342" t="str">
         <v>自我提升</v>
       </c>
       <c r="C342" t="str">
-        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
+        <v>深入剖析长期主义如何助力成功，涵盖目标坚定、持续学习成长、人际关系积累及心态调整等方面，探索在变化挑战的时代凭借长期主义迈向成功的稳健之道。</v>
       </c>
       <c r="D342" t="str">
-        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
+        <v>人际关系, 心态调整, 持续学习, 长期主义</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>为什么一摘眼镜就听不清</v>
+        <v>靠人不如靠自己：现代视角下的自我赋能之道</v>
       </c>
       <c r="B343" t="str">
-        <v>自然科学</v>
+        <v>自我提升</v>
       </c>
       <c r="C343" t="str">
-        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
+        <v>深入探讨在现代社会中，为何“靠人不如靠自己”是一种更为可取的生活态度。文章分析了依赖他人的潜在风险，并阐述了自我赋能的重要性，同时提供了在独立与求助之间找到平衡的方法。</v>
       </c>
       <c r="D343" t="str">
-        <v>心理依赖, 感官交互, 感官障碍, 注意力分配</v>
+        <v>个人成长, 人际关系, 成功心理学, 独立性, 自我赋能</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>为什么放桃树枝的水会变得浑浊</v>
+        <v>为什么一摘眼镜就听不清</v>
       </c>
       <c r="B344" t="str">
         <v>自然科学</v>
       </c>
       <c r="C344" t="str">
-        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
+        <v>文章探讨了摘下眼镜后感觉听力下降的现象，指出这主要是由于心理因素如习惯依赖和注意力转移造成的，并非真正的听力损失。文章还简要提到了一些物理因素和罕见的综合感官障碍的可能性。对于持续性感官问题，建议咨询专业医生。</v>
       </c>
       <c r="D344" t="str">
-        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
+        <v>心理依赖, 感官交互, 感官障碍, 注意力分配</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
+        <v>为什么放桃树枝的水会变得浑浊</v>
       </c>
       <c r="B345" t="str">
         <v>自然科学</v>
       </c>
       <c r="C345" t="str">
-        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
+        <v>将桃树枝放入水中后，水体逐渐变得浑浊的现象是由多种因素共同作用的结果。这包括桃树中含有的单宁和酚类物质、细胞壁成分的溶解，以及微生物在树枝上生长繁殖并分解有机物产生的影响。此外，物理因素如颗粒物的脱落和环境条件的变化也起到一定作用。了解这些原理有助于我们更好地认识自然现象及管理水质。</v>
       </c>
       <c r="D345" t="str">
-        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
+        <v>微生物活动, 植物化学, 水质变化, 物理因素</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>地球之外存在智慧生命吗？</v>
+        <v>在探索未知的过程中，我们会遇到哪些无法逾越的障碍？</v>
       </c>
       <c r="B346" t="str">
         <v>自然科学</v>
       </c>
       <c r="C346" t="str">
-        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
+        <v>探讨在探索未知过程中遇到的无法逾越的障碍，包括物理极限如光速限制、量子现象的理解与控制以及热力学定律揭示的熵增原理；生物进化中的自然选择压力和生态系统的复杂相互依赖性限制了生命形式的多样性发展；认知边界方面，人类使用的语言和逻辑工具本身的局限性，科学方法论的突破难度，以及哲学上的认识论问题都构成了对更深层次理解的挑战。这些障碍不仅考验人类智慧，也推动科学技术不断进步，并提醒我们在追求知识时应保持谦逊态度。</v>
       </c>
       <c r="D346" t="str">
-        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
+        <v>物理极限, 生物进化, 科学探索, 认知边界</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
+        <v>地球之外存在智慧生命吗？</v>
       </c>
       <c r="B347" t="str">
         <v>自然科学</v>
       </c>
       <c r="C347" t="str">
-        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
+        <v>文章探讨了地球之外是否存在智慧生命这一科学与哲学问题，介绍了通过射电望远镜、光谱分析等方法寻找地外文明的尝试，以及发现地外智慧生命对科学认知、哲学思考及技术发展的潜在影响，强调了持续探索的重要性。</v>
       </c>
       <c r="D347" t="str">
-        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
+        <v>地外智慧生命, 宇宙探索, 射电望远镜, 科学与哲学, 系外行星</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>字典数排序</v>
+        <v>夸父追日：一场上古神话中的星际探索与人类觉醒</v>
       </c>
       <c r="B348" t="str">
         <v>自然科学</v>
       </c>
       <c r="C348" t="str">
-        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
+        <v>本文重新解读了夸父追日这一古老神话，探讨其在星际探索与人类觉醒方面的现代意义。文章提出，夸父追逐的“太阳”可能是远古时期对地外文明或未知宇宙能量体的探索尝试，而桃木杖落地成林的传说则隐喻着能量转换和量子纠缠等科学概念。此外，文中还讨论了个体内在觉醒与集体认知惯性的冲突，并展示了夸父追日故事结构如何反映人类认知进化的逻辑。最后，文章展望了夸父神话在数字时代的重生，如通过AI和区块链技术实现的数字孪生及永生叙事，揭示了古代智慧与现代科技的惊人共鸣。</v>
       </c>
       <c r="D348" t="str">
-        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
+        <v>个体觉醒, 数字重生, 文明进化, 星际探索, 科技预言</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>宇宙到底有没有边界</v>
+        <v>字典数排序</v>
       </c>
       <c r="B349" t="str">
         <v>自然科学</v>
       </c>
       <c r="C349" t="str">
-        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
+        <v>字典序排序问题要求对从1到n的整数按字典顺序排序。文章介绍了一种基于二叉树前序遍历的方法来解决此问题，适用于n小于等于5,000,000的情况。通过构建特殊的二叉树结构，并对其进行前序遍历以生成所需的字典顺序列表。虽然不是最快速的解决方案，但提供了一种复习二叉树遍历知识的有效方式。</v>
       </c>
       <c r="D349" t="str">
-        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
+        <v>二叉树, 前序遍历, 字典序排序, 算法优化</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>恐龙为什么会突然灭绝？</v>
+        <v>宇宙到底有没有边界</v>
       </c>
       <c r="B350" t="str">
         <v>自然科学</v>
       </c>
       <c r="C350" t="str">
-        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
+        <v>宇宙是否有边界是一个涉及物理学、哲学和宗教的复杂问题。科学上，基于宇宙大爆炸理论和膨胀模型，宇宙可能是无限且没有明确边界的，但这也取决于对宇宙本质的理解和假设。哲学与宗教则从有限与无限的辩证关系及宇宙的神圣性等角度提出不同见解。尽管人类受限于观测技术和认知能力，对宇宙边界的探索依然无止境。</v>
       </c>
       <c r="D350" t="str">
-        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
+        <v>人类认知, 哲学思考, 宇宙边界, 宗教观点, 科学探索</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
+        <v>恐龙为什么会突然灭绝？</v>
       </c>
       <c r="B351" t="str">
         <v>自然科学</v>
       </c>
       <c r="C351" t="str">
-        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
+        <v>恐龙在约6600万年前的白垩纪末期突然灭绝，主要原因是环境剧变，尤其是Chicxulub小行星撞击地球引发的一系列灾难如地震、海啸、尘埃遮蔽天空等导致生态系统崩溃。此外，疾病爆发、食物链断裂及进化瓶颈也是重要因素。尽管小行星撞击是主要原因，火山活动和气候变化等“非撞击”假说也为恐龙灭绝提供了多元解释。恐龙灭绝提醒我们关注生态系统的脆弱性和环境保护的重要性。</v>
       </c>
       <c r="D351" t="str">
-        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
+        <v>小行星撞击, 恐龙灭绝, 环境剧变, 生态系统崩溃, 白垩纪末期, 进化瓶颈, 非撞击假说</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
+        <v>我们做出的每一个选择是否都是必然的，还是存在着真正的自由意志？</v>
       </c>
       <c r="B352" t="str">
         <v>自然科学</v>
       </c>
       <c r="C352" t="str">
-        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
+        <v>本文探讨了决定论与自由意志的概念及其在日常生活中的体现。决定论认为所有选择都由先前状态决定，而支持自由意志的观点则强调人类意识的独特性和自我反思的重要性。通过分析两者，文章提出了如何在生活中找到必然与自由间的平衡，以充分利用选择机会创造有意义人生的方法。适合对哲学思考、人类行为感兴趣的读者。关键词涵盖：决定论、自由意志、人类意识、日常选择。</v>
       </c>
       <c r="D352" t="str">
-        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
+        <v>人类意识, 决定论, 哲学思考, 日常选择, 自由意志</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
+        <v>我们如何在享受科技成果的同时，保持人性的温暖和尊严？</v>
       </c>
       <c r="B353" t="str">
         <v>自然科学</v>
       </c>
       <c r="C353" t="str">
-        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
+        <v>在享受科技带来的便利时，我们面临着人际关系疏远和人性温暖缺失的挑战。本文探讨了如何在科技进步的同时保持人性的温度与尊严，包括有意识地控制科技使用、重新定义科技的价值观以及通过教育培养下一代的人文关怀。实现科技与人性的和谐共生，需要我们在技术发展与人文价值间找到平衡，确保社会既高效又充满温情。</v>
       </c>
       <c r="D353" t="str">
-        <v>人类探月, 天文探索, 宇宙科学, 月球表面</v>
+        <v>人性温暖, 教育路径, 社交媒体, 科技与人文价值, 科技与人文价值</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>探索未知的宇宙奥秘</v>
+        <v>探索月亮的奥秘：从远看的圆缺到近看的坑洼</v>
       </c>
       <c r="B354" t="str">
         <v>自然科学</v>
       </c>
       <c r="C354" t="str">
-        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
+        <v>深入探索月亮的奥秘，包括月亮远看和近看呈现不同面貌的原因、月相变化的原理、月球表面坑洼的形成因素、人类对月亮的探索历程以及月亮在文化和科学研究方面对人类的影响。</v>
       </c>
       <c r="D354" t="str">
-        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
+        <v>人类探月, 天文探索, 宇宙科学, 月球表面</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>数学在生活中的一些作用</v>
+        <v>探索未知的宇宙奥秘</v>
       </c>
       <c r="B355" t="str">
         <v>自然科学</v>
       </c>
       <c r="C355" t="str">
-        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
+        <v>本文探讨了从古至今对死亡的不同理解。古代文明如埃及和中国通过葬礼仪式表达对死后世界的信仰；哲学家们则在灵魂不朽与虚无之间辩论。现代科学尝试解释濒死体验，探索生死界限；而现代社会中，数字纪念和虚拟存在正重新定义死亡的意义。无论是期待轮回还是相信意识上传，人类持续探索将死亡的终点转化为新起点的可能性。</v>
       </c>
       <c r="D355" t="str">
-        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
+        <v>天文技术, 宇宙探索, 未解之谜, 科学发现</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>科学是否有一个发展的极限？</v>
+        <v>数学在生活中的一些作用</v>
       </c>
       <c r="B356" t="str">
         <v>自然科学</v>
       </c>
       <c r="C356" t="str">
-        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
+        <v>探讨数学在日常生活中的多种作用，包括如何通过数学知识判断他人的教育背景、辅助投资决策、辨别事情真伪以及指导个人言行。特别是在理财、购物及就业分析等方面，数学提供了必要的逻辑分析和数据处理能力，帮助人们做出更加明智的决策。掌握基础的数学技能，不仅能够保护自己免受诈骗，还能更好地理解世界，实现理性生活。</v>
       </c>
       <c r="D356" t="str">
-        <v>伦理困境, 技术瓶颈, 物理极限, 科学哲学, 资源限制</v>
+        <v>投资决策, 数学应用, 数据分析, 日常生活, 逻辑判断</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
+        <v>科学是否有一个发展的极限？</v>
       </c>
       <c r="B357" t="str">
         <v>自然科学</v>
       </c>
       <c r="C357" t="str">
-        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
+        <v>探讨科学发展是否存在极限，分析科学发展面临的物理极限、资源限制、技术瓶颈和哲学伦理困境，同时展望科学发展的多元未来可能性。</v>
       </c>
       <c r="D357" t="str">
-        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
+        <v>伦理困境, 技术瓶颈, 物理极限, 科学哲学, 资源限制</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
+        <v>科技飞速发展：重塑人类情感与人性的双刃剑</v>
       </c>
       <c r="B358" t="str">
         <v>自然科学</v>
       </c>
       <c r="C358" t="str">
-        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
+        <v>探讨科技快速发展对人类情感和人性的影响，包括情感表达从面对面交流到数字化转变带来的真实性和深度的减弱、人际关系因社交媒体而变得表面化及可能引发的心理健康问题、自我认知方面量化自我的趋势以及人工智能对人类独特性的挑战。文章强调了在享受科技带来便利的同时，保持人性温暖的重要性，并提出了在未来发展中寻求科技与人性平衡的观点。</v>
       </c>
       <c r="D358" t="str">
-        <v>博弈论, 历史智慧, 叙事重构, 资源调度, 风险管理</v>
+        <v>人际关系, 情感表达, 科技与人文价值, 自我认知与内心幸福</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>雷公电母放的是直流电还是交流电？</v>
+        <v>草船借箭：一场跨越千年的资源博弈与人性实验</v>
       </c>
       <c r="B359" t="str">
         <v>自然科学</v>
       </c>
       <c r="C359" t="str">
-        <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
+        <v>本文以现代战略视角重新解读了经典历史故事《草船借箭》，揭示了其中蕴含的资源博弈与人性实验的深层含义。文章探讨了如何将环境变量转化为战略资产，分析了曹操在信息不对称情况下的决策困境，并阐述了诸葛亮所采用的风险对冲策略。此外，还讨论了叙事重构的力量以及这一古老故事对现代社会在资源调度、利用认知偏差构建策略优势、风险管理及通过故事影响现实等方面的启示。适合对战略思维、博弈论感兴趣的读者，以及希望从历史中汲取智慧应对现代挑战的人士。</v>
       </c>
       <c r="D359" t="str">
-        <v>交流电, 气象物理, 直流电, 雷电, 雷电防护</v>
+        <v>博弈论, 历史智慧, 叙事重构, 资源调度, 风险管理</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>为何西方雕塑常展现裸露之姿</v>
+        <v>雷公电母放的是直流电还是交流电？</v>
       </c>
       <c r="B360" t="str">
-        <v>艺术赏析</v>
+        <v>自然科学</v>
       </c>
       <c r="C360" t="str">
-        <v>深入剖析西方雕塑常展现裸露之姿的背后原因，涵盖古希腊文化对人体美的崇拜、宗教与哲学的影响、社会文化背景的推动以及艺术表现手法的独特魅力等多方面因素。</v>
+        <v>探讨神话中雷公电母所放雷电在现代科学认知下究竟是直流电还是交流电，解析雷电形成原理、电流类型，并介绍雷电防护与利用价值等内容。</v>
       </c>
       <c r="D360" t="str">
-        <v>人体美, 古希腊文化, 宗教哲学, 社会文化, 西方雕塑</v>
+        <v>交流电, 气象物理, 直流电, 雷电, 雷电防护</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>2025年赚钱的主要方向</v>
+        <v>为何西方雕塑常展现裸露之姿</v>
       </c>
       <c r="B361" t="str">
-        <v>财富管理</v>
+        <v>艺术赏析</v>
       </c>
       <c r="C361" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>深入剖析西方雕塑常展现裸露之姿的背后原因，涵盖古希腊文化对人体美的崇拜、宗教与哲学的影响、社会文化背景的推动以及艺术表现手法的独特魅力等多方面因素。</v>
       </c>
       <c r="D361" t="str">
-        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
+        <v>人体美, 古希腊文化, 宗教哲学, 社会文化, 西方雕塑</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
+        <v>2025年赚钱的主要方向</v>
       </c>
       <c r="B362" t="str">
         <v>财富管理</v>
       </c>
       <c r="C362" t="str">
-        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D362" t="str">
-        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
+        <v>健康幸福产业, 情感科技, 情绪产业, 自媒体与内容创作, 陪伴产业</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>为什么有钱人喜欢安静？</v>
+        <v>个人理财的心理学探秘：解锁财富管理的深层密码</v>
       </c>
       <c r="B363" t="str">
         <v>财富管理</v>
       </c>
       <c r="C363" t="str">
-        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
+        <v>深入剖析个人理财中的心理学因素，包括认知偏差、情绪因素、自我控制和社会比较等，探讨如何运用心理学知识管理情绪和行为，以实现更明智的理财决策和财务目标。</v>
       </c>
       <c r="D363" t="str">
-        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
+        <v>个人理财, 心理学, 情绪因素, 自我控制, 认知偏差</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>创业需要做好那些准备</v>
+        <v>为什么有钱人喜欢安静？</v>
       </c>
       <c r="B364" t="str">
         <v>财富管理</v>
       </c>
       <c r="C364" t="str">
-        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
+        <v>深入探究有钱人喜欢安静这一现象背后的原因，从财富积累、决策、健康生活、社交和心灵追求等多方面剖析安静环境对有钱人的重要意义。</v>
       </c>
       <c r="D364" t="str">
-        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
+        <v>决策, 安静偏好, 有钱人, 生活品质, 财富积累</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>初创企业的成功密码：创业指导全解析</v>
+        <v>创业需要做好那些准备</v>
       </c>
       <c r="B365" t="str">
         <v>财富管理</v>
       </c>
       <c r="C365" t="str">
-        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
+        <v>本文深入介绍了创业初期需要重点关注的六大领域，旨在为有志于创业的人士提供全面指导。内容覆盖了从个人心态调整到具体实施步骤的各个方面，如合理规划启动资金的重要性、寻找合适的合作伙伴的方法、预防潜在法律风险的措施、有效进行市场调研的技巧，以及设定企业发展目标和保持灵活性的战略。这些信息不仅有助于新手创业者更好地理解创业旅程中的复杂性，也为他们提供了实用工具来提高成功的几率。</v>
       </c>
       <c r="D365" t="str">
-        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
+        <v>创业准备, 团队组建, 市场验证, 心理建设, 成长计划, 法律保护, 资金筹备</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>利他思维与利己思维：谁更赚钱？</v>
+        <v>初创企业的成功密码：创业指导全解析</v>
       </c>
       <c r="B366" t="str">
         <v>财富管理</v>
       </c>
       <c r="C366" t="str">
-        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
+        <v>本文深入剖析了初创企业迈向成功的关键要素，涵盖清晰明确的商业理念与目标、卓越的创业团队构建、科学的资金规划与管理、高效的市场营销策略以及持续创新与学习能力的重要性，为创业者提供全面的指导与启发。</v>
       </c>
       <c r="D366" t="str">
-        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
+        <v>创业团队, 初创企业, 商业理念, 市场营销, 持续创新, 资金管理</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>多少钱才可以潇洒退休？</v>
+        <v>利他思维与利己思维：谁更赚钱？</v>
       </c>
       <c r="B367" t="str">
         <v>财富管理</v>
       </c>
       <c r="C367" t="str">
-        <v>深入探讨退休所需的资金数额及其影响因素，提供计算退休所需资金的方法和实现潇洒退休的策略，助力您规划理想的退休生活。</v>
+        <v>利他思维通过创造社会价值赢得信任和提升品牌，如特斯拉；利己思维追求最大利润但可能导致短期行为和信任危机。成功在于平衡两者，既赚钱也负责任。未来，消费者偏好和社会责任（ESG）投资将使利他思维成为主流，促进企业长远发展。</v>
       </c>
       <c r="D367" t="str">
-        <v>投资理财, 生活成本, 财务规划, 退休生活, 通货膨胀</v>
+        <v>利他思维, 利己思维, 商业成功, 社会责任, 长期发展</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>女性在财富规划中的特殊考量与应对策略</v>
+        <v>多少钱才可以潇洒退休？</v>
       </c>
       <c r="B368" t="str">
         <v>财富管理</v>
       </c>
       <c r="C368" t="str">
-        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
+        <v>深入探讨退休所需的资金数额及其影响因素，提供计算退休所需资金的方法和实现潇洒退休的策略，助力您规划理想的退休生活。</v>
       </c>
       <c r="D368" t="str">
-        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
+        <v>投资理财, 生活成本, 财务规划, 退休生活, 通货膨胀</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>如何正确看待“视钱财如粪土”</v>
+        <v>女性在财富规划中的特殊考量与应对策略</v>
       </c>
       <c r="B369" t="str">
         <v>财富管理</v>
       </c>
       <c r="C369" t="str">
-        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
+        <v>深入探讨女性在财富规划中的独特需求和面临的性别差异，提供加强财务知识学习、制定合理理财计划、关注职业发展和培养良好理财习惯等应对策略，助力女性实现财务自由和人生目标。</v>
       </c>
       <c r="D369" t="str">
-        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
+        <v>女性财富规划, 投资决策, 职业发展, 财务知识, 风险偏好</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>如何通过投资组合实现财务自由</v>
+        <v>如何正确看待“视钱财如粪土”</v>
       </c>
       <c r="B370" t="str">
         <v>财富管理</v>
       </c>
       <c r="C370" t="str">
-        <v>详细介绍如何通过构建和管理投资组合来实现财务自由，涵盖投资组合的概念、重要性、构建方法、管理要点以及实现财务自由的具体步骤，为投资者提供实用的指导和建议。</v>
+        <v>深入探讨“视钱财如粪土”这一观点的内涵与现实意义，分析如何在物质与精神之间找到平衡，实现人生的真正价值。</v>
       </c>
       <c r="D370" t="str">
-        <v>投资收益, 投资组合, 财务自由, 资产配置, 风险管理</v>
+        <v>宗教文化, 物质与精神平衡, 精神追求, 财富观念, 金钱观</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
+        <v>如何通过投资组合实现财务自由</v>
       </c>
       <c r="B371" t="str">
         <v>财富管理</v>
       </c>
       <c r="C371" t="str">
-        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
+        <v>详细介绍如何通过构建和管理投资组合来实现财务自由，涵盖投资组合的概念、重要性、构建方法、管理要点以及实现财务自由的具体步骤，为投资者提供实用的指导和建议。</v>
       </c>
       <c r="D371" t="str">
-        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
+        <v>投资收益, 投资组合, 财务自由, 资产配置, 风险管理</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
+        <v>家庭理财规划中的保险配置：不同类型保险在家庭理财中的作用</v>
       </c>
       <c r="B372" t="str">
         <v>财富管理</v>
       </c>
       <c r="C372" t="str">
-        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
+        <v>本文深入探讨了家庭理财规划中不同类型保险的重要作用，包括人寿保险稳固家庭经济、健康保险抵御医疗风险、财产保险守护家庭财产、教育金保险为子女教育储备资金等，并阐述了如何依据家庭经济状况和生命周期进行综合配置，助力家庭财务安全。</v>
       </c>
       <c r="D372" t="str">
-        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
+        <v>人寿保险, 保险配置, 健康保险, 家庭理财规划, 教育金保险, 财产保险</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
+        <v>抓住女性消费市场的黄金法则：从洞察需求到精准变现</v>
       </c>
       <c r="B373" t="str">
         <v>财富管理</v>
       </c>
       <c r="C373" t="str">
-        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
+        <v>本文探讨了女性消费的四大核心：情绪经济、社群认同、价值判断及高潜力赛道。提供了具体策略，如设计仪式感体验、利用圈层推荐等，并分析了颜值产业链、健康管理、社交型消费等高潜力领域。介绍了提升转化率的三种方法：视觉攻心术、话术设计和会员体系构建。强调尊重和理解女性消费者需求的重要性。</v>
       </c>
       <c r="D373" t="str">
-        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
+        <v>价值判断, 女性消费, 情绪经济, 社群认同, 高潜力赛道</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
+        <v>掘金男性消费市场：从策略到落地的深度拆解</v>
       </c>
       <c r="B374" t="str">
         <v>财富管理</v>
       </c>
       <c r="C374" t="str">
-        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
+        <v>2024男性消费市场增长15%实战指南：拆解男士护肤品30%增速背后的技术参数营销策略，解析8000元高端定制西装转化模型，揭秘钓鱼装备28%直播转化率的场景化运营方法论。</v>
       </c>
       <c r="D374" t="str">
-        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
+        <v>产品设计, 政策合规, 消费心理学, 渠道运营, 用户粘性</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>日复一日做好五件事轻松搞钱攻略</v>
+        <v>新兴投资领域探索：虚拟货币投资的风险与机遇</v>
       </c>
       <c r="B375" t="str">
         <v>财富管理</v>
       </c>
       <c r="C375" t="str">
-        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
+        <v>深入剖析虚拟货币投资领域的风险与机遇，探讨其潜在高回报、去中心化创新、全球化便捷性等特点，以及价格波动、监管、技术等方面的风险，并提供应对策略，助力投资者全面认识这一新兴投资领域。</v>
       </c>
       <c r="D375" t="str">
-        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
+        <v>区块链技术, 去中心化, 投资机遇, 投资风险, 虚拟货币</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>普通人赚钱的途径</v>
+        <v>日复一日做好五件事轻松搞钱攻略</v>
       </c>
       <c r="B376" t="str">
         <v>财富管理</v>
       </c>
       <c r="C376" t="str">
-        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
+        <v>介绍在快节奏社会中有效的搞钱方法，强调通过日复一日做好提升自我价值、多元化收入、财务管理、利用互联网资源和持续学习这五件事来实现财富目标。</v>
       </c>
       <c r="D376" t="str">
-        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
+        <v>互联网资源, 多元化收入, 搞钱攻略, 自我提升, 财务管理</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>有效增加收入指南</v>
+        <v>普通人赚钱的途径</v>
       </c>
       <c r="B377" t="str">
         <v>财富管理</v>
       </c>
       <c r="C377" t="str">
-        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
+        <v>本文概述了五种适合普通人的赚钱方式：1) 兼职工作，如零售、家教等；2) 在线平台，包括电商、自媒体、远程工作及网络课程；3) 小规模创业，依据市场需求和个人兴趣选择项目；4) 投资，推荐基金定投、股票和房地产；5) 持续技能提升，增强个人竞争力。选择适合自己的方法，并坚持努力。</v>
       </c>
       <c r="D377" t="str">
-        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
+        <v>兼职工作, 创业, 在线平台, 技能提升, 投资, 赚钱途径</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>没钱也要理财：开启财务独立之旅</v>
+        <v>有效增加收入指南</v>
       </c>
       <c r="B378" t="str">
         <v>财富管理</v>
       </c>
       <c r="C378" t="str">
-        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
+        <v>本指南详细介绍了如何通过提升自我价值、探索多元化的收入来源、财务管理与投资、利用互联网资源以及持续学习来有效增加个人收入。涵盖从技能培训、网络构建到兴趣爱好变现、自由职业与兼职的多种方法，同时也强调了合理规划预算和智慧投资的重要性。此外，还提供了利用平台经济和社交媒体营销等现代手段的具体建议。适合希望提高个人收入并寻求财务增长的人士阅读与实践。</v>
       </c>
       <c r="D378" t="str">
-        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
+        <v>互联网资源, 多元化收入, 持续学习, 提升自我价值, 财务管理</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
+        <v>没钱也要理财：开启财务独立之旅</v>
       </c>
       <c r="B379" t="str">
         <v>财富管理</v>
       </c>
       <c r="C379" t="str">
-        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
+        <v>本文阐述没钱时如何通过预算、储蓄、学习知识和低成本投资等方式理财，强调理财是迈向财务独立的基石，需保持正确心态并持续学习积累。</v>
       </c>
       <c r="D379" t="str">
-        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
+        <v>投资心态, 没钱理财, 理财入门, 财务独立, 预算储蓄</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
+        <v>程序员创业的七大误区：避开这些“技术陷阱”才能走得更远</v>
       </c>
       <c r="B380" t="str">
         <v>财富管理</v>
       </c>
       <c r="C380" t="str">
-        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
+        <v>本文深度解析程序员转型创业的七大致命误区，从技术思维陷阱到股权分配雷区，系统拆解技术创业者特有的商业盲点。通过7个真实失败案例，揭示产品开发、资金管理、法律合规等关键环节的避坑策略，为技术人才提供从代码到商业的转型指南。</v>
       </c>
       <c r="D380" t="str">
-        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
+        <v>初创企业, 市场验证, 技术管理, 法律风险, 融资策略</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>穷人怎么翻身</v>
+        <v>穷人与富人的为人处事差异：突破思维局限的深度解析</v>
       </c>
       <c r="B381" t="str">
         <v>财富管理</v>
       </c>
       <c r="C381" t="str">
-        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
+        <v>探讨穷人与富人在行为习惯、思维模式、社交与资源管理上的差异，分析如何通过优化时间管理、风险认知、机会识别及人脉网络构建等方面突破思维局限，实现财务增长和个人发展。文章提供了具体的实践策略如“未来贴现”思维、“5%突破法则”和“反脆弱系统”，为读者呈现了一条从思维方式到实际行动的清晰路径。</v>
       </c>
       <c r="D381" t="str">
-        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
+        <v>人脉网络, 价值交换, 时间管理, 机会识别, 风险认知</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
+        <v>穷人怎么翻身</v>
       </c>
       <c r="B382" t="str">
         <v>财富管理</v>
       </c>
       <c r="C382" t="str">
-        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
+        <v>本指南为处于经济困境中的人们提供了全面的翻身策略，包括理解贫困的原因、通过教育与技能提升自我、有效的财务管理、探索创业与投资机会、利用社会资源以及重要的心态调整。特别强调了利用互联网自学、参加职业培训项目、合理规划预算和债务管理等实用方法，同时也提到了寻求政府援助和社会资源的重要性。适合希望逐步改善自身经济状况并追求更好生活的读者阅读与实践。每一次小的进步都是走向成功的重要一步。</v>
       </c>
       <c r="D382" t="str">
-        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
+        <v>创业投资, 心态调整, 教育提升, 社会资源, 财务管理, 贫困理解</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
+        <v>穷人靠劳动赚钱，富人用钱赚钱——探寻钱生钱的生财之道</v>
       </c>
       <c r="B383" t="str">
         <v>财富管理</v>
       </c>
       <c r="C383" t="str">
-        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
+        <v>深入剖析穷人靠劳动赚钱与富人用钱赚钱的不同模式，探索实用的生财之道，包括多元化投资、长期投资理念等，助您掌握钱生钱的技巧，迈向财富自由。</v>
       </c>
       <c r="D383" t="str">
-        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
+        <v>投资策略, 理财观念, 穷人富人理财差异, 财富积累, 钱生钱方法</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>绿色金融：解锁可持续未来的财富密码</v>
+        <v>给你一个亿，然后禁止你结婚，逼你一辈子单身，你觉得你会快乐吗？</v>
       </c>
       <c r="B384" t="str">
         <v>财富管理</v>
       </c>
       <c r="C384" t="str">
-        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
+        <v>探讨如果获得一亿元但必须终身单身的情景下，个人是否能够感到快乐。分析涉及个人价值观、金钱对幸福的影响、婚姻的重要性以及如何通过建立替代性情感支持和合理财务规划来应对这种生活选择。结论指出，快乐与否取决于个人对经济自由与情感需求的权衡及相应的生活策略调整。</v>
       </c>
       <c r="D384" t="str">
-        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
+        <v>个人价值观, 婚姻选择, 自我满足, 金钱与幸福, 长期规划</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>财富创造原理：探寻财富自由的通途</v>
+        <v>绿色金融：解锁可持续未来的财富密码</v>
       </c>
       <c r="B385" t="str">
         <v>财富管理</v>
       </c>
       <c r="C385" t="str">
-        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
+        <v>深入剖析绿色金融在可持续发展中的关键作用，探索多元投资方向、收益与风险，以及把握投资机会的策略，助力投资者在环保与财富增长上取得双赢。</v>
       </c>
       <c r="D385" t="str">
-        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
+        <v>可持续发展, 投资方向, 投资策略, 收益风险, 绿色金融</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>赚钱新视角：为何要先努力停止打工</v>
+        <v>财富创造原理：探寻财富自由的通途</v>
       </c>
       <c r="B386" t="str">
         <v>财富管理</v>
       </c>
       <c r="C386" t="str">
-        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
+        <v>深入剖析财富创造的原理，涵盖价值创造、资源配置、资本运作以及外部环境等多方面因素，为个人和企业探寻财富自由之路提供全面的理论指导。</v>
       </c>
       <c r="D386" t="str">
-        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
+        <v>价值创造, 财富创造, 资本运作, 资源配置</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>退休规划：精心布局畅享无忧老年生活</v>
+        <v>赚钱新视角：为何要先努力停止打工</v>
       </c>
       <c r="B387" t="str">
         <v>财富管理</v>
       </c>
       <c r="C387" t="str">
-        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
+        <v>探讨为何要努力停止打工以实现财务自由，分析打工背后的隐形枷锁，阐述停止打工带来的全新可能，介绍巧妙停止打工的方法以及停止打工后的挑战与应对策略。</v>
       </c>
       <c r="D387" t="str">
-        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
+        <v>创业, 打工困境, 投资, 财务自由, 财富增长</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
+        <v>退休规划：精心布局畅享无忧老年生活</v>
       </c>
       <c r="B388" t="str">
         <v>财富管理</v>
       </c>
       <c r="C388" t="str">
-        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
+        <v>本文阐述退休规划的重要性，介绍多元养老金储备策略，包括社会养老保险、企业年金和个人储蓄投资，同时从健康管理、社交活动、房产规划等方面进行全面考量，并强调退休规划的动态调整与优化，助力读者实现无忧老年生活。</v>
       </c>
       <c r="D388" t="str">
-        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
+        <v>健康管理, 养老金储备, 房产规划, 社交活动, 退休规划</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>重新审视“有钱能使鬼推磨”</v>
+        <v>逆向思维与商业成功：站在人性的反方向赚钱</v>
       </c>
       <c r="B389" t="str">
         <v>财富管理</v>
       </c>
       <c r="C389" t="str">
-        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
+        <v>本文探讨了逆向思维在商业中的独特魅力，阐述了站在人性反方向赚钱的具体策略，包括深挖人性弱点与需求、打造独特用户体验以及突破传统商业模式，并分析了逆向思维面临的挑战与应对方法，为追求商业成功的从业者提供了宝贵的思路和启示。</v>
       </c>
       <c r="D389" t="str">
-        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
+        <v>人性分析, 商业成功, 商业模式创新, 用户体验, 逆向思维</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>钱真的能买到快乐吗？</v>
+        <v>重新审视“有钱能使鬼推磨”</v>
       </c>
       <c r="B390" t="str">
         <v>财富管理</v>
       </c>
       <c r="C390" t="str">
-        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
+        <v>深入探讨“有钱能使鬼推磨”这一俗语背后的复杂内涵，分析金钱在生活中的多面影响，包括其带来的物质基础、梦想助力和社会地位彰显，同时也指出其在幸福、道德和价值观方面的局限，倡导正确对待金钱的态度。</v>
       </c>
       <c r="D390" t="str">
-        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
+        <v>价值观, 物质与精神, 社会现象, 财富追求, 金钱观</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>2025年行动目标计划：健康重塑与精准协同</v>
+        <v>钱真的能买到快乐吗？</v>
       </c>
       <c r="B391" t="str">
-        <v>身体健康</v>
+        <v>财富管理</v>
       </c>
       <c r="C391" t="str">
-        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
+        <v>本文深入探讨了长久以来人类对于金钱是否能够带来快乐的疑问，结合行为经济学与神经科学的研究成果，揭示了金钱与快乐之间复杂而微妙的关系。文章通过四个颠覆性的实验数据展示了金钱如何影响我们的快乐感，并提供了将金钱有效转化为快乐的策略。</v>
       </c>
       <c r="D391" t="str">
-        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
+        <v>消费心理, 神经科学, 科学消费, 行为经济学, 金钱与快乐</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>产后吃什么对身体恢复好</v>
+        <v>2025年行动目标计划：健康重塑与精准协同</v>
       </c>
       <c r="B392" t="str">
         <v>身体健康</v>
       </c>
       <c r="C392" t="str">
-        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
+        <v>本计划旨在依托宝安妇幼保健院的医疗资源与家庭医生支持，通过科学备孕与健康重建为核心目标，在妻子主导的家庭框架下，利用标准化协作与智能工具赋能，成为高效执行者与隐形支持者。</v>
       </c>
       <c r="D392" t="str">
-        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
+        <v>健康重启, 备孕全周期, 家庭协作, 精准管理, 职业发展</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>吃健胃消食片会撑死还是饿死？</v>
+        <v>产后吃什么对身体恢复好</v>
       </c>
       <c r="B393" t="str">
         <v>身体健康</v>
       </c>
       <c r="C393" t="str">
-        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
+        <v>本文介绍了产后恢复期间适宜食用的多种食物类型，包括清淡易消化的食物、高蛋白质食物、富含铁元素的食物、维生素和矿物质丰富的食品，以及药膳滋补品，旨在帮助新妈妈通过合理的饮食促进身体恢复，提高乳汁质量，同时提供了一些饮食上的注意事项。</v>
       </c>
       <c r="D393" t="str">
-        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
+        <v>产后恢复, 药膳滋补, 补铁食物, 饮食建议, 高蛋白质食物</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
+        <v>吃健胃消食片会撑死还是饿死？</v>
       </c>
       <c r="B394" t="str">
         <v>身体健康</v>
       </c>
       <c r="C394" t="str">
-        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
+        <v>深入探讨健胃消食片的作用机制、正确使用方法、安全性与风险，解答吃健胃消食片是否会撑死或饿死的疑问，并给出科学使用健胃消食片的建议，帮助大家理性看待该药物，守护健康。</v>
       </c>
       <c r="D394" t="str">
-        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
+        <v>健胃消食片, 消化不良, 特殊人群用药, 用药风险, 药物作用</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>失眠了该怎么办？</v>
+        <v>基因编辑技术在医学和农业等领域有着巨大的潜力，但同时也引发了诸多伦理和安全问题。我们应该如何界定基因编辑的边界？</v>
       </c>
       <c r="B395" t="str">
         <v>身体健康</v>
       </c>
       <c r="C395" t="str">
-        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
+        <v>探讨基因编辑技术在医学和农业等领域的巨大潜力及其引发的伦理与安全问题，强调需要在科学探索和社会责任之间找到平衡。文章分析了如何通过严格的规范、风险评估及国际合作确保基因编辑技术的安全可控性，并提出科学家应秉持“科技向善”的理念，共同制定合理规则以促进技术健康发展，确保其造福全人类而非成为灾难源头。</v>
       </c>
       <c r="D395" t="str">
-        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
+        <v>伦理争议, 基因编辑技术, 安全问题, 社会责任, 科技前沿</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>如何保持长寿与健康？</v>
+        <v>大量失血的B型血输血注意事项</v>
       </c>
       <c r="B396" t="str">
         <v>身体健康</v>
       </c>
       <c r="C396" t="str">
-        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
+        <v>详细阐述大量失血的B型血患者在输血过程中的各项关键注意事项，涵盖血型匹配、输血前检测、输血过程监测、输血速度与量的把控以及输血后观察与护理等内容，为保障输血安全有效提供全面指导。</v>
       </c>
       <c r="D396" t="str">
-        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
+        <v>B型血输血, 输血反应, 输血后护理, 输血安全, 输血注意事项</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>如果小孩不停止生长，20岁时会有多高？</v>
+        <v>失眠了该怎么办？</v>
       </c>
       <c r="B397" t="str">
         <v>身体健康</v>
       </c>
       <c r="C397" t="str">
-        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
+        <v>讨论失眠治疗方法，包括自然助眠法、睡眠生物钟调整等内容，针对有睡眠障碍的人群提供了实用指南。</v>
       </c>
       <c r="D397" t="str">
-        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
+        <v>失眠治疗, 应急方案, 心理策略, 睡眠生物钟, 自然助眠法</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>怎么锻炼下半身的力量</v>
+        <v>如何保持长寿与健康？</v>
       </c>
       <c r="B398" t="str">
         <v>身体健康</v>
       </c>
       <c r="C398" t="str">
-        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
+        <v>关于长寿秘诀、健康生活方式的建议，包括饮食、运动习惯、心理健康等方面的内容，适用于广泛年龄段的人群。</v>
       </c>
       <c r="D398" t="str">
-        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
+        <v>健康生活, 心理健康, 生活方式, 运动习惯, 长寿秘诀, 饮食建议</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
+        <v>如果小孩不停止生长，20岁时会有多高？</v>
       </c>
       <c r="B399" t="str">
         <v>身体健康</v>
       </c>
       <c r="C399" t="str">
-        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
+        <v>深入探讨影响儿童身高的多种因素，包括遗传、营养、运动和睡眠等。解析如果小孩不停生长，20 岁时身高的复杂情况，为家长提供助力孩子长高的科学指导。</v>
       </c>
       <c r="D399" t="str">
-        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
+        <v>儿童身高, 睡眠与身高, 营养与身高, 运动与身高, 遗传因素</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>甲流发烧为什么不建议洗澡</v>
+        <v>怎么锻炼下半身的力量</v>
       </c>
       <c r="B400" t="str">
         <v>身体健康</v>
       </c>
       <c r="C400" t="str">
-        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
+        <v>本文介绍了增强下半身力量的几种有效方法，包括深蹲、硬拉、弓步、腿举机练习和小腿抬升等。通过详细的步骤说明和要点提示，帮助读者了解如何正确执行这些锻炼动作，以达到强化腿部肌肉、提高运动表现的目的。坚持科学训练并配合适当的饮食计划，可以有效提升下肢力量，塑造理想体型。</v>
       </c>
       <c r="D400" t="str">
-        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
+        <v>小腿抬升, 弓步, 深蹲, 硬拉, 腿举机</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>癌症未来能被彻底治愈吗？</v>
+        <v>甩掉脂肪不交智商税：普通人的科学瘦身指南</v>
       </c>
       <c r="B401" t="str">
         <v>身体健康</v>
       </c>
       <c r="C401" t="str">
-        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
+        <v>提供关于如何通过热量缺口、营养搭配、高强度间歇训练等方式实现减肥目标的信息，是很多人感兴趣的领域。</v>
       </c>
       <c r="D401" t="str">
-        <v>免疫疗法, 医疗科技, 癌症治疗</v>
+        <v>热量缺口, 生活方式调整, 科学减肥, 营养搭配, 高强度间歇训练</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
+        <v>甲流发烧为什么不建议洗澡</v>
       </c>
       <c r="B402" t="str">
         <v>身体健康</v>
       </c>
       <c r="C402" t="str">
-        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
+        <v>本文解释了甲流发烧期间不建议洗澡的原因，包括热量调节与体温平衡的问题、能量消耗的增加、感染风险的提升以及安全性的考虑。洗澡可能导致体温调节困难、额外的能量消耗、因受凉而引发其他疾病的风险增加，以及在体力虚弱时可能出现的安全隐患如晕厥等。文章建议在甲流发烧时可以通过用温热湿毛巾擦拭身体的方式来保持清洁和帮助降温，同时强调了确保擦浴后立即干燥并注意保暖的重要性。适合希望了解如何在患病期间正确护理自己的读者阅读。</v>
       </c>
       <c r="D402" t="str">
-        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
+        <v>发烧, 安全性, 感染风险, 洗澡风险, 热量调节, 甲流, 能量消耗</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>自慰会导致早泄吗</v>
+        <v>癌症未来能被彻底治愈吗？</v>
       </c>
       <c r="B403" t="str">
         <v>身体健康</v>
       </c>
       <c r="C403" t="str">
-        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
+        <v>涉及到癌症治疗的新进展如免疫疗法和基因编辑，这类信息对癌症患者及其家属至关重要。</v>
       </c>
       <c r="D403" t="str">
-        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
+        <v>免疫疗法, 医疗科技, 癌症治疗</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>程序员技术好的评判标准</v>
+        <v>空腹能吃饭吗？——探究饮食与健康的奥秘</v>
       </c>
       <c r="B404" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C404" t="str">
-        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
+        <v>深入探究“空腹能吃饭吗”这一日常饮食话题背后的健康知识，涵盖空腹的定义与生理状态、不同情况下空腹吃饭的可行性及注意事项，以及空腹与健康的关系等内容，为养成良好饮食习惯提供科学指导。</v>
       </c>
       <c r="D404" t="str">
-        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
+        <v>消化系统, 特殊人群饮食, 空腹, 营养吸收, 饮食健康</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>解决Markdown文件中标题解析异常的问题</v>
+        <v>自慰会导致早泄吗</v>
       </c>
       <c r="B405" t="str">
-        <v>软件开发</v>
+        <v>身体健康</v>
       </c>
       <c r="C405" t="str">
-        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
+        <v>自慰不会直接导致早泄，早泄与中枢神经系统及多种因素相关。保持适度自慰、健康生活方式和良好心理状态对性功能重要。如有担忧，建议咨询专业医生或性治疗师。</v>
       </c>
       <c r="D405" t="str">
-        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
+        <v>中枢神经系统, 心理健康, 性经验, 早泄, 自慰</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>小红书爆款内容打造全攻略</v>
+        <v>程序员技术好的评判标准</v>
       </c>
       <c r="B406" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C406" t="str">
-        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
+        <v>阐述程序员技术好的评判标准，涵盖扎实的编程基础、卓越的问题解决能力、出色的代码质量以及持续学习和创新能力等方面，帮助读者理解优秀程序员应具备的特质。</v>
       </c>
       <c r="D406" t="str">
-        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
+        <v>代码质量, 技术能力, 程序员, 编程基础, 问题解决</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>微信公众号爆款文章打造全攻略</v>
+        <v>解决Markdown文件中标题解析异常的问题</v>
       </c>
       <c r="B407" t="str">
-        <v>运营指南</v>
+        <v>软件开发</v>
       </c>
       <c r="C407" t="str">
-        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
+        <v>解决Markdown文件中标题解析异常的问题，通常由文件编码中的字节顺序标记（BOM）或不同Markdown解析器间的差异引起。文章提供了移除BOM、检查Markdown语法正确性、尝试不同的Markdown解析器或编辑器以及使用在线验证工具等方法来解决这些问题，确保Markdown文档能够正确解析为HTML，保持文档的正确性和可读性。</v>
       </c>
       <c r="D407" t="str">
-        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
+        <v>markdown, 文件编码, 标题解析, 解析器差异</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>打造今日头条爆款内容的实用秘籍</v>
+        <v>小红书爆款内容打造全攻略</v>
       </c>
       <c r="B408" t="str">
         <v>运营指南</v>
       </c>
       <c r="C408" t="str">
-        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
+        <v>深入剖析小红书爆款内容打造的全攻略，涵盖平台规则、选题策略、内容创作、发布推广及持续优化等方面，助你在小红书平台上脱颖而出。</v>
       </c>
       <c r="D408" t="str">
-        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
+        <v>内容创作, 小红书, 爆款内容, 用户互动, 社交媒体推广</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>打造百家号爆款内容的实用秘籍</v>
+        <v>微信公众号爆款文章打造全攻略</v>
       </c>
       <c r="B409" t="str">
         <v>运营指南</v>
       </c>
       <c r="C409" t="str">
-        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
+        <v>本文详细介绍了打造微信公众号爆款文章的全攻略，涵盖选题、标题、内容、结构、互动、推广和排版等关键环节，助力提升文章阅读量和影响力。</v>
       </c>
       <c r="D409" t="str">
-        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
+        <v>内容创作, 微信公众号, 推广策略, 爆款文章, 选题技巧</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>打造知乎爆款内容的实用秘籍</v>
+        <v>打造今日头条爆款内容的实用秘籍</v>
       </c>
       <c r="B410" t="str">
         <v>运营指南</v>
       </c>
       <c r="C410" t="str">
-        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
+        <v>分享打造今日头条爆款内容的实用方法，涵盖选题、标题、内容创作、结构排版以及互动推广等方面，助力创作者产出有吸引力和影响力的爆款内容。</v>
       </c>
       <c r="D410" t="str">
-        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
+        <v>互动推广, 今日头条, 内容创作, 标题制作, 爆款内容, 选题技巧</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>抖音爆款内容打造全攻略</v>
+        <v>打造百家号爆款内容的实用秘籍</v>
       </c>
       <c r="B411" t="str">
         <v>运营指南</v>
       </c>
       <c r="C411" t="str">
-        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
+        <v>本文分享了在百家号上打造爆款内容的实用秘籍，涵盖深入了解平台规则与用户需求、选题策划、内容创作、优化标题和封面以及推广与互动等方面，助力创作者吸引流量与关注。</v>
       </c>
       <c r="D411" t="str">
-        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
+        <v>内容创作, 标题优化, 爆款内容, 用户互动, 百家号</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>畅销长篇小说创作秘籍全解析</v>
+        <v>打造知乎爆款内容的实用秘籍</v>
       </c>
       <c r="B412" t="str">
         <v>运营指南</v>
       </c>
       <c r="C412" t="str">
-        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
+        <v>本文分享了在知乎平台上打造爆款内容的实用秘籍，涵盖精准选题、有价值的内容创作、吸睛的写作风格以及有效的互动推广策略，助你在知乎收获广泛关注与互动。</v>
       </c>
       <c r="D412" t="str">
-        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
+        <v>互动推广, 内容创作, 写作风格, 知乎爆款, 选题技巧</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>短篇小说畅销秘籍：全方位创作指南</v>
+        <v>抖音爆款内容打造全攻略</v>
       </c>
       <c r="B413" t="str">
         <v>运营指南</v>
       </c>
       <c r="C413" t="str">
-        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
+        <v>本文详细介绍了在抖音平台上打造爆款内容的全面攻略，涵盖深挖平台规则与算法、精准锁定目标受众、选题策划、内容创作、标题和封面优化以及发布和推广等方面，助力创作者创作出吸引用户的爆款内容。</v>
       </c>
       <c r="D413" t="str">
-        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
+        <v>内容创作, 抖音爆款, 标题封面, 目标受众, 算法机制</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>新兴金融科技对传统理财方式的影响</v>
+        <v>畅销长篇小说创作秘籍全解析</v>
       </c>
       <c r="B414" t="str">
-        <v>金融科技</v>
+        <v>运营指南</v>
       </c>
       <c r="C414" t="str">
-        <v>分析新兴金融科技如移动支付、智能投顾、区块链技术等对传统理财方式在理财渠道、投资决策、风险管理等方面的影响，探讨其带来的挑战与机遇以及传统理财方式的应对策略。</v>
+        <v>本文深入剖析畅销长篇小说创作的关键要素，涵盖选题、人物塑造、情节设计、写作风格以及市场定位等方面，为怀揣文学梦想的作家提供实用的创作指导，助力创作出深受读者喜爱的优秀作品。</v>
       </c>
       <c r="D414" t="str">
-        <v>传统理财方式, 区块链技术, 新兴金融科技, 智能投顾, 移动支付</v>
+        <v>人物塑造, 写作风格, 市场定位, 情节设计, 畅销小说, 选题技巧</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+        <v>短篇小说畅销秘籍：全方位创作指南</v>
       </c>
       <c r="B415" t="str">
-        <v>食品安全</v>
+        <v>运营指南</v>
       </c>
       <c r="C415" t="str">
-        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+        <v>本文详细介绍了短篇小说畅销的秘籍，涵盖从挖掘主题、塑造人物、构建情节、运用语言技巧到注重细节与结尾等多方面的全方位创作指南，助力创作者打造出能在市场上畅销的短篇小说。</v>
       </c>
       <c r="D415" t="str">
-        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+        <v>主题挖掘, 人物塑造, 创作技巧, 情节构建, 短篇小说</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>如果猪肾虚，那它的腰子还补吗？</v>
+        <v>运营自媒体和搭建个人网站的优劣势分析</v>
       </c>
       <c r="B416" t="str">
-        <v>饮食健康</v>
+        <v>运营指南</v>
       </c>
       <c r="C416" t="str">
-        <v>探讨猪肾虚的情况下其腰子是否还具有补肾功效，分析猪腰子的营养价值、中医与西医对肾虚的不同定义及相关研究，为读者提供关于猪腰子食用的科学知识。</v>
+        <v>深入剖析运营自媒体和搭建个人网站的优劣势，助力你精准抉择契合自身的发展路径，在数字化时代实现个人品牌与商业目标的双丰收。</v>
       </c>
       <c r="D416" t="str">
-        <v>中医理论, 猪腰子, 肾虚, 营养价值, 补肾</v>
+        <v>个人网站, 优劣势, 数字化发展, 盈利模式, 自媒体</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
+        <v>新兴金融科技对传统理财方式的影响</v>
+      </c>
+      <c r="B417" t="str">
+        <v>金融科技</v>
+      </c>
+      <c r="C417" t="str">
+        <v>分析新兴金融科技如移动支付、智能投顾、区块链技术等对传统理财方式在理财渠道、投资决策、风险管理等方面的影响，探讨其带来的挑战与机遇以及传统理财方式的应对策略。</v>
+      </c>
+      <c r="D417" t="str">
+        <v>传统理财方式, 区块链技术, 新兴金融科技, 智能投顾, 移动支付</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>苹果洗洗能吃，自来水和没洗苹果为啥不行？</v>
+      </c>
+      <c r="B418" t="str">
+        <v>食品安全</v>
+      </c>
+      <c r="C418" t="str">
+        <v>解析苹果经自来水清洗后能食用的原因，以及自来水和未清洗苹果不能直接食用的缘由，涵盖自来水潜在风险、苹果表面微生物与农药残留等内容，为保障食品安全提供知识科普。</v>
+      </c>
+      <c r="D418" t="str">
+        <v>自来水饮用风险, 苹果清洗, 苹果表面污染物, 食品安全小知识</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>如果猪肾虚，那它的腰子还补吗？</v>
+      </c>
+      <c r="B419" t="str">
+        <v>饮食健康</v>
+      </c>
+      <c r="C419" t="str">
+        <v>探讨猪肾虚的情况下其腰子是否还具有补肾功效，分析猪腰子的营养价值、中医与西医对肾虚的不同定义及相关研究，为读者提供关于猪腰子食用的科学知识。</v>
+      </c>
+      <c r="D419" t="str">
+        <v>中医理论, 猪腰子, 肾虚, 营养价值, 补肾</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
         <v>饮食与运动：预防慢性疾病的两大法宝</v>
       </c>
-      <c r="B417" t="str">
+      <c r="B420" t="str">
         <v>饮食健康</v>
       </c>
-      <c r="C417" t="str">
+      <c r="C420" t="str">
         <v>介绍饮食与运动在预防心血管疾病、糖尿病、肥胖症等慢性疾病中的重要作用，包括合理饮食的要点、不同类型运动的功效，以及综合的健康计划制定等内容，为人们提供预防慢性疾病的实用方法。</v>
       </c>
-      <c r="D417" t="str">
+      <c r="D420" t="str">
         <v>健康生活方式, 慢性疾病, 营养均衡, 运动保健, 饮食预防</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D417"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D420"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/文章信息.xlsx
+++ b/文章信息.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D420"/>
+  <dimension ref="A1:D422"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2398,3899 +2398,3927 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>老年人常见的心理问题及应对策略</v>
+        <v>绘画：通往内心平静的奇妙通道</v>
       </c>
       <c r="B143" t="str">
         <v>心理调适</v>
       </c>
       <c r="C143" t="str">
-        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
+        <v>探索绘画如何作为一种艺术疗愈的方式，帮助人们在快节奏的生活中找到内心的平静，释放压力，调节情绪，并增强自我认知。</v>
       </c>
       <c r="D143" t="str">
-        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
+        <v>内心平静, 情绪调节, 绘画, 自我认知, 艺术疗愈</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
+        <v>老年人常见的心理问题及应对策略</v>
       </c>
       <c r="B144" t="str">
         <v>心理调适</v>
       </c>
       <c r="C144" t="str">
-        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
+        <v>本文深入探讨老年人常见的心理问题，包括孤独感、失落感、焦虑和抑郁以及认知障碍，并提供一系列实用的应对策略，旨在提升老年人的心理健康水平和生活质量。</v>
       </c>
       <c r="D144" t="str">
-        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
+        <v>失落感, 孤独感, 心理问题, 焦虑抑郁, 老年人, 认知障碍</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>自信心的培养与提升：开启成功人生的密钥</v>
+        <v>职场压力下的心理调适：于忙碌中守护心灵的宁静</v>
       </c>
       <c r="B145" t="str">
         <v>心理调适</v>
       </c>
       <c r="C145" t="str">
-        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
+        <v>阐述职场压力对心理的多维冲击，如情绪波动、注意力分散、自我认知扭曲等，并提供认知重构、情绪管理技巧、时间管理与工作生活平衡、寻求专业帮助等创新心理调适策略，助力职场人士在忙碌中守护心灵宁静。</v>
       </c>
       <c r="D145" t="str">
-        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
+        <v>心理调适, 情绪管理, 时间管理, 职场压力, 职场新人</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>自杀：世界多了一个自杀的人还是少了一个自杀的人？</v>
+        <v>自信心的培养与提升：开启成功人生的密钥</v>
       </c>
       <c r="B146" t="str">
         <v>心理调适</v>
       </c>
       <c r="C146" t="str">
-        <v>深入探讨自杀这一沉重话题，从不同角度分析自杀对世界的影响，包括社会现象、生命终结和哲学思考等方面，并阐述自杀预防与应对措施，旨在提高对自杀问题的重视，守护生命。</v>
+        <v>深入探讨自信心的关键作用、影响因素及培养方法，阐述其在职场、生活、社交等不同场景的重要性，助力读者开启成功人生。</v>
       </c>
       <c r="D146" t="str">
-        <v>心理健康, 生命意义, 社会影响, 自杀, 自杀预防</v>
+        <v>个人成长, 心理建设, 成功人生, 社交技巧, 自信心</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>踢猫效应：情绪传递背后的心理真相</v>
+        <v>自杀：世界多了一个自杀的人还是少了一个自杀的人？</v>
       </c>
       <c r="B147" t="str">
         <v>心理调适</v>
       </c>
       <c r="C147" t="str">
-        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
+        <v>深入探讨自杀这一沉重话题，从不同角度分析自杀对世界的影响，包括社会现象、生命终结和哲学思考等方面，并阐述自杀预防与应对措施，旨在提高对自杀问题的重视，守护生命。</v>
       </c>
       <c r="D147" t="str">
-        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
+        <v>心理健康, 生命意义, 社会影响, 自杀, 自杀预防</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>一直没性生活的婚姻会怎么样</v>
+        <v>踢猫效应：情绪传递背后的心理真相</v>
       </c>
       <c r="B148" t="str">
-        <v>性别健康</v>
+        <v>心理调适</v>
       </c>
       <c r="C148" t="str">
-        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
+        <v>深入剖析踢猫效应的表现、原因与危害，并提供实用的应对策略，帮助读者理解情绪传递背后的心理机制，提升情绪管理能力，改善人际关系，促进心理健康。</v>
       </c>
       <c r="D148" t="str">
-        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
+        <v>人际关系, 压力应对, 心理健康, 情绪管理, 踢猫效应</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>中国男性的阴茎的平均长度</v>
+        <v>一直没性生活的婚姻会怎么样</v>
       </c>
       <c r="B149" t="str">
         <v>性别健康</v>
       </c>
       <c r="C149" t="str">
-        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
+        <v>探讨长期缺乏性生活对婚姻关系的多方面影响，包括情感疏离、信任危机、满足感下降、身体健康问题以及最终可能导致的婚姻危机。虽然这些问题可能严重威胁婚姻的稳定性，但通过夫妻间的坦诚沟通、寻求专业帮助和尝试新的方式来增进情感联系与性生活质量，可以有效地改善现状。了解这些影响有助于夫妻共同面对挑战，重建幸福美满的婚姻。</v>
       </c>
       <c r="D149" t="str">
-        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
+        <v>信任危机, 婚姻关系, 婚姻危机, 婚姻满意度, 性生活, 情感疏离, 积极应对, 身体健康</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>同房被小孩撞见，怎么给小孩子解释</v>
+        <v>中国男性的阴茎的平均长度</v>
       </c>
       <c r="B150" t="str">
         <v>性别健康</v>
       </c>
       <c r="C150" t="str">
-        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
+        <v>中国男性阴茎在自然状态下的平均长度约为5~6厘米，勃起状态下约为11~13厘米，但存在个体差异。影响长度的因素包括年龄、发育情况、遗传和体内激素水平。重要的是认识到阴茎长度并非衡量性功能的唯一标准，如遇异常应咨询专业医生。</v>
       </c>
       <c r="D150" t="str">
-        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
+        <v>勃起状态, 影响因素, 注意事项, 自然状态</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>女人为什么对夫妻生活不感兴趣</v>
+        <v>同房被小孩撞见，怎么给小孩子解释</v>
       </c>
       <c r="B151" t="str">
         <v>性别健康</v>
       </c>
       <c r="C151" t="str">
-        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
+        <v>文章提供了在夫妻亲密时刻被孩子撞见时，如何以冷静、温和及易于理解的方式向孩子解释的建议，强调了隐私教育、尊重他人以及正面引导孩子理解爱与关系的重要性，旨在维护家庭和谐并促进孩子健康成长。</v>
       </c>
       <c r="D151" t="str">
-        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
+        <v>亲子沟通, 儿童心理, 家庭和谐, 情感表达, 隐私教育</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>女人喜欢夹枕头睡觉的原因</v>
+        <v>女人为什么对夫妻生活不感兴趣</v>
       </c>
       <c r="B152" t="str">
         <v>性别健康</v>
       </c>
       <c r="C152" t="str">
-        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
+        <v>文章探讨了女性对夫妻生活不感兴趣的原因，涵盖了生理、心理、社会文化及个人经历等多方面因素，强调通过综合分析和专业帮助来解决问题，并指出夫妻间的开放沟通和相互理解是关键。</v>
       </c>
       <c r="D152" t="str">
-        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
+        <v>夫妻生活, 心理健康, 性别健康, 生理因素, 社会文化</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>女孩应在何时意识到自己是女人？</v>
+        <v>女人喜欢夹枕头睡觉的原因</v>
       </c>
       <c r="B153" t="str">
         <v>性别健康</v>
       </c>
       <c r="C153" t="str">
-        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程。</v>
+        <v>女性喜欢夹枕头睡觉可能源于多种因素，包括提升舒适度与调整睡姿以缓解压力和保护脊椎，获得心理上的安全感及放松，潜意识中的生理性满足，以及个人习惯与偏好。这些原因共同作用，满足了女性在睡眠中的多样化需求。尊重这一行为选择对促进健康睡眠至关重要。</v>
       </c>
       <c r="D153" t="str">
-        <v>女孩成长, 女性身份认知, 成年角色, 职场与社会责任, 青春期</v>
+        <v>个人偏好, 心理健康, 性别健康, 生理需求, 睡眠习惯</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>如果不孕不育是遗传的，如何传递基因？</v>
+        <v>女孩应在何时意识到自己是女人？</v>
       </c>
       <c r="B154" t="str">
         <v>性别健康</v>
       </c>
       <c r="C154" t="str">
-        <v>深入剖析不孕不育的遗传传递机制，涵盖多种遗传模式及其具体传递方式，介绍遗传咨询、基因检测的作用，同时阐述应对遗传性不孕不育的多种策略，为受此困扰的家庭提供全面的科学认知和解决方案。</v>
+        <v>深度剖析女孩在不同成长阶段如何逐渐意识到自己成为女人，涵盖青春期身心觉醒、成年后责任情感交融、职场社会价值绽放及岁月沉淀下的内心成长，带你领略女孩向女人蜕变的奇妙旅程